--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>过程</t>
+  </si>
+  <si>
+    <t>code</t>
   </si>
   <si>
     <t>https://acm.hdu.edu.cn/showproblem.php?pid=7405</t>
@@ -57,6 +60,9 @@
 正解是线性的dp</t>
   </si>
   <si>
+    <t>link</t>
+  </si>
+  <si>
     <t>https://acm.hdu.edu.cn/showproblem.php?pid=7406</t>
   </si>
   <si>
@@ -80,6 +86,12 @@
   </si>
   <si>
     <t>交互题 二进制</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P7962</t>
+  </si>
+  <si>
+    <t>差分，dp，决策单调性</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -1046,19 +1058,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.8888888888889" style="1" customWidth="1"/>
     <col min="2" max="2" width="59" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
     <col min="4" max="4" width="57.8888888888889" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="8.88888888888889" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1066,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1082,64 +1096,88 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" ht="49" customHeight="1" spans="1:4">
+    <row r="4" ht="49" customHeight="1" spans="1:6">
       <c r="A4" s="2">
         <v>45290</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" ht="31" customHeight="1" spans="1:4">
+    <row r="5" ht="31" customHeight="1" spans="1:6">
       <c r="A5" s="2">
         <v>45290</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>45290</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F6" s="5"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:4">
+    <row r="7" ht="15" customHeight="1" spans="1:6">
       <c r="A7" s="2">
         <v>45290</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>44946</v>
+        <v>45311</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
+        <v>154886</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="F4:F7"/>
     <mergeCell ref="A1:C2"/>
   </mergeCells>
   <hyperlinks>
@@ -1148,6 +1186,9 @@
     <hyperlink ref="B6" r:id="rId3" display="https://acm.hdu.edu.cn/showproblem.php?pid=7408"/>
     <hyperlink ref="B7" r:id="rId4" display="https://acm.hdu.edu.cn/showproblem.php?pid=7409"/>
     <hyperlink ref="B8" r:id="rId5" display="https://atcoder.jp/contests/abc337/tasks/abc337_e"/>
+    <hyperlink ref="F4" r:id="rId6" display="link"/>
+    <hyperlink ref="F8" r:id="rId7" display="link"/>
+    <hyperlink ref="B9" r:id="rId8" display="https://www.luogu.com.cn/problem/P7962"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1200,11 +1241,10 @@
         <v>44946</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>20</v>
+      </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -1212,11 +1252,10 @@
         <v>44946</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>22</v>
+      </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -1224,11 +1263,10 @@
         <v>44946</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>23</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -1236,11 +1274,10 @@
         <v>44946</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>25</v>
+      </c>
       <c r="D7" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180"/>
+    <workbookView windowWidth="11064" windowHeight="8195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -92,6 +92,27 @@
   </si>
   <si>
     <t>差分，dp，决策单调性</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem/QOJ-7730</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem/QOJ-6676</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem/QOJ-7653</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem/Gym-104821A</t>
+  </si>
+  <si>
+    <t>搜索</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem/Gym-104901A</t>
+  </si>
+  <si>
+    <t>结论题</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -1058,10 +1079,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1166,13 +1187,50 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>154886</v>
+        <v>45314</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2">
+        <v>45315</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
+        <v>45316</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1189,6 +1247,11 @@
     <hyperlink ref="F4" r:id="rId6" display="link"/>
     <hyperlink ref="F8" r:id="rId7" display="link"/>
     <hyperlink ref="B9" r:id="rId8" display="https://www.luogu.com.cn/problem/P7962"/>
+    <hyperlink ref="B10" r:id="rId9" display="https://vjudge.net/problem/QOJ-7730"/>
+    <hyperlink ref="B11" r:id="rId10" display="https://vjudge.net/problem/QOJ-6676"/>
+    <hyperlink ref="B12" r:id="rId11" display="https://vjudge.net/problem/QOJ-7653"/>
+    <hyperlink ref="B13" r:id="rId12" display="https://vjudge.net/problem/Gym-104821A"/>
+    <hyperlink ref="B14" r:id="rId13" display="https://vjudge.net/problem/Gym-104901A"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1241,10 +1304,10 @@
         <v>44946</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -1252,10 +1315,10 @@
         <v>44946</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -1263,10 +1326,10 @@
         <v>44946</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -1274,10 +1337,10 @@
         <v>44946</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11064" windowHeight="8195"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -97,10 +97,19 @@
     <t>https://vjudge.net/problem/QOJ-7730</t>
   </si>
   <si>
+    <t>几何，凸包</t>
+  </si>
+  <si>
     <t>https://vjudge.net/problem/QOJ-6676</t>
   </si>
   <si>
+    <t>计算几何，叉积求面积</t>
+  </si>
+  <si>
     <t>https://vjudge.net/problem/QOJ-7653</t>
+  </si>
+  <si>
+    <t>叉积判断共线</t>
   </si>
   <si>
     <t>https://vjudge.net/problem/Gym-104821A</t>
@@ -1082,7 +1091,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1136,9 +1145,7 @@
       </c>
     </row>
     <row r="5" ht="31" customHeight="1" spans="1:6">
-      <c r="A5" s="2">
-        <v>45290</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1148,9 +1155,7 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>45290</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1160,9 +1165,7 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:6">
-      <c r="A7" s="2">
-        <v>45290</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
@@ -1185,7 +1188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>45314</v>
       </c>
@@ -1195,47 +1198,76 @@
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="F9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>45315</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="3" t="s">
+      <c r="F10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>45316</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
+        <v>27</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F14" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="F4:F7"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="A1:C2"/>
   </mergeCells>
   <hyperlinks>
@@ -1252,6 +1284,9 @@
     <hyperlink ref="B12" r:id="rId11" display="https://vjudge.net/problem/QOJ-7653"/>
     <hyperlink ref="B13" r:id="rId12" display="https://vjudge.net/problem/Gym-104821A"/>
     <hyperlink ref="B14" r:id="rId13" display="https://vjudge.net/problem/Gym-104901A"/>
+    <hyperlink ref="F10:F12" r:id="rId14" display="link"/>
+    <hyperlink ref="F9" r:id="rId15" display="link"/>
+    <hyperlink ref="F13:F14" r:id="rId16" display="link"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1304,10 +1339,10 @@
         <v>44946</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -1315,10 +1350,10 @@
         <v>44946</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -1326,10 +1361,10 @@
         <v>44946</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -1337,10 +1372,10 @@
         <v>44946</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>结论题</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/problem/Gym-104821M</t>
+  </si>
+  <si>
+    <t>区间操作，感觉类似珂朵莉树</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -1088,10 +1094,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1259,6 +1265,17 @@
         <v>29</v>
       </c>
       <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
+        <v>44952</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1287,6 +1304,7 @@
     <hyperlink ref="F10:F12" r:id="rId14" display="link"/>
     <hyperlink ref="F9" r:id="rId15" display="link"/>
     <hyperlink ref="F13:F14" r:id="rId16" display="link"/>
+    <hyperlink ref="B15" r:id="rId17" display="https://vjudge.net/problem/Gym-104821M"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1339,10 +1357,10 @@
         <v>44946</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -1350,10 +1368,10 @@
         <v>44946</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -1361,10 +1379,10 @@
         <v>44946</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -1372,10 +1390,10 @@
         <v>44946</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180"/>
+    <workbookView windowWidth="23040" windowHeight="9180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -130,6 +130,12 @@
     <t>区间操作，感觉类似珂朵莉树</t>
   </si>
   <si>
+    <t>https://www.luogu.com.cn/problem/P3919</t>
+  </si>
+  <si>
+    <t>可持久化线段树板子题/EI还提出另一种离线做法</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
   </si>
   <si>
@@ -149,6 +155,45 @@
   </si>
   <si>
     <t>前缀和</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc338/tasks/abc338_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc338/tasks/abc338_b</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc338/tasks/abc338_c</t>
+  </si>
+  <si>
+    <t>暴力</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc338/tasks/abc338_d</t>
+  </si>
+  <si>
+    <t>区间选点板子题（贪心板子题）</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc338/tasks/abc338_e</t>
+  </si>
+  <si>
+    <t>树状数组</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1925/problem/A</t>
+  </si>
+  <si>
+    <t>字符串</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1925/problem/B</t>
+  </si>
+  <si>
+    <t>因数</t>
   </si>
 </sst>
 </file>
@@ -1094,10 +1139,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1268,13 +1313,24 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>44952</v>
+        <v>45317</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
+        <v>45318</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1305,6 +1361,7 @@
     <hyperlink ref="F9" r:id="rId15" display="link"/>
     <hyperlink ref="F13:F14" r:id="rId16" display="link"/>
     <hyperlink ref="B15" r:id="rId17" display="https://vjudge.net/problem/Gym-104821M"/>
+    <hyperlink ref="B16" r:id="rId18" display="https://www.luogu.com.cn/problem/P3919"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1315,13 +1372,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11.8888888888889" style="1" customWidth="1"/>
     <col min="2" max="2" width="59" style="1" customWidth="1"/>
@@ -1357,10 +1414,10 @@
         <v>44946</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -1368,10 +1425,10 @@
         <v>44946</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -1379,10 +1436,10 @@
         <v>44946</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -1390,10 +1447,69 @@
         <v>44946</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
+        <v>44954</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1402,6 +1518,13 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" display="https://atcoder.jp/contests/abc337/tasks/abc337_a"/>
+    <hyperlink ref="B8" r:id="rId2" display="https://atcoder.jp/contests/abc338/tasks/abc338_a"/>
+    <hyperlink ref="B9" r:id="rId3" display="https://atcoder.jp/contests/abc338/tasks/abc338_b"/>
+    <hyperlink ref="B10" r:id="rId4" display="https://atcoder.jp/contests/abc338/tasks/abc338_c"/>
+    <hyperlink ref="B11" r:id="rId5" display="https://atcoder.jp/contests/abc338/tasks/abc338_d"/>
+    <hyperlink ref="B12" r:id="rId6" display="https://atcoder.jp/contests/abc338/tasks/abc338_e"/>
+    <hyperlink ref="B13" r:id="rId7" display="https://codeforces.com/contest/1925/problem/A"/>
+    <hyperlink ref="B14" r:id="rId8" display="https://codeforces.com/contest/1925/problem/B"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -134,6 +134,18 @@
   </si>
   <si>
     <t>可持久化线段树板子题/EI还提出另一种离线做法</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P3834</t>
+  </si>
+  <si>
+    <t>可持久化线段树求区间第k大模版</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1972</t>
+  </si>
+  <si>
+    <t>主席树</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -1139,10 +1151,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1333,11 +1345,31 @@
         <v>33</v>
       </c>
     </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
+        <v>45319</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="F13:F14"/>
@@ -1362,6 +1394,8 @@
     <hyperlink ref="F13:F14" r:id="rId16" display="link"/>
     <hyperlink ref="B15" r:id="rId17" display="https://vjudge.net/problem/Gym-104821M"/>
     <hyperlink ref="B16" r:id="rId18" display="https://www.luogu.com.cn/problem/P3919"/>
+    <hyperlink ref="B18" r:id="rId19" display="https://www.luogu.com.cn/problem/P1972"/>
+    <hyperlink ref="B17" r:id="rId20" display="https://www.luogu.com.cn/problem/P3834"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1374,8 +1408,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1414,10 +1448,10 @@
         <v>44946</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -1425,10 +1459,10 @@
         <v>44946</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -1436,10 +1470,10 @@
         <v>44946</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -1447,73 +1481,80 @@
         <v>44946</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44954</v>
+        <v>44953</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A8:A14"/>
     <mergeCell ref="A1:C2"/>
   </mergeCells>
   <hyperlinks>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -46,10 +46,10 @@
     <t>算法</t>
   </si>
   <si>
+    <t>code</t>
+  </si>
+  <si>
     <t>过程</t>
-  </si>
-  <si>
-    <t>code</t>
   </si>
   <si>
     <t>https://acm.hdu.edu.cn/showproblem.php?pid=7405</t>
@@ -145,7 +145,16 @@
     <t>https://www.luogu.com.cn/problem/P1972</t>
   </si>
   <si>
-    <t>主席树</t>
+    <t>主席树/树状数组离线/莫队</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/104076/problem/J</t>
+  </si>
+  <si>
+    <t>dp，卡常</t>
+  </si>
+  <si>
+    <t>1WA数组开太大，234WA vector初始化太大，常数出错</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -821,7 +830,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,6 +848,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1151,21 +1163,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:AU146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.8888888888889" style="1" customWidth="1"/>
     <col min="2" max="2" width="59" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
     <col min="4" max="4" width="57.8888888888889" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="8.88888888888889" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="8.88888888888889" style="1" customWidth="1"/>
+    <col min="6" max="47" width="9" style="6"/>
+    <col min="48" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1189,11 +1201,11 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="49" customHeight="1" spans="1:6">
+    <row r="4" ht="49" customHeight="1" spans="1:5">
       <c r="A4" s="2">
         <v>45290</v>
       </c>
@@ -1203,11 +1215,11 @@
       <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="31" customHeight="1" spans="1:6">
+    <row r="5" ht="31" customHeight="1" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -1215,9 +1227,9 @@
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -1225,9 +1237,9 @@
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:6">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="5" t="s">
         <v>14</v>
@@ -1235,9 +1247,9 @@
       <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>45311</v>
       </c>
@@ -1247,11 +1259,11 @@
       <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>45314</v>
       </c>
@@ -1261,11 +1273,11 @@
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>45315</v>
       </c>
@@ -1275,11 +1287,11 @@
       <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
         <v>22</v>
@@ -1287,9 +1299,9 @@
       <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
         <v>24</v>
@@ -1297,9 +1309,9 @@
       <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>45316</v>
       </c>
@@ -1309,11 +1321,11 @@
       <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
         <v>28</v>
@@ -1321,7 +1333,7 @@
       <c r="D14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
@@ -1364,15 +1376,173 @@
         <v>37</v>
       </c>
     </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>45321</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="152">
+    <mergeCell ref="F3:R3"/>
+    <mergeCell ref="F4:AU4"/>
+    <mergeCell ref="F5:AU5"/>
+    <mergeCell ref="F6:AU6"/>
+    <mergeCell ref="F7:AU7"/>
+    <mergeCell ref="F8:AU8"/>
+    <mergeCell ref="F9:AU9"/>
+    <mergeCell ref="F10:AU10"/>
+    <mergeCell ref="F11:AU11"/>
+    <mergeCell ref="F12:AU12"/>
+    <mergeCell ref="F13:AU13"/>
+    <mergeCell ref="F14:AU14"/>
+    <mergeCell ref="F15:AU15"/>
+    <mergeCell ref="F16:AU16"/>
+    <mergeCell ref="F17:AU17"/>
+    <mergeCell ref="F18:AU18"/>
+    <mergeCell ref="F19:AU19"/>
+    <mergeCell ref="F20:AU20"/>
+    <mergeCell ref="F21:AU21"/>
+    <mergeCell ref="F22:AU22"/>
+    <mergeCell ref="F23:AU23"/>
+    <mergeCell ref="F24:AU24"/>
+    <mergeCell ref="F25:AU25"/>
+    <mergeCell ref="F26:AU26"/>
+    <mergeCell ref="F27:AU27"/>
+    <mergeCell ref="F28:AU28"/>
+    <mergeCell ref="F29:AU29"/>
+    <mergeCell ref="F30:AU30"/>
+    <mergeCell ref="F31:AU31"/>
+    <mergeCell ref="F32:AU32"/>
+    <mergeCell ref="F33:AU33"/>
+    <mergeCell ref="F34:AU34"/>
+    <mergeCell ref="F35:AU35"/>
+    <mergeCell ref="F36:AU36"/>
+    <mergeCell ref="F37:AU37"/>
+    <mergeCell ref="F38:AU38"/>
+    <mergeCell ref="F39:AU39"/>
+    <mergeCell ref="F40:AU40"/>
+    <mergeCell ref="F41:AU41"/>
+    <mergeCell ref="F42:AU42"/>
+    <mergeCell ref="F43:AU43"/>
+    <mergeCell ref="F44:AU44"/>
+    <mergeCell ref="F45:AU45"/>
+    <mergeCell ref="F46:AU46"/>
+    <mergeCell ref="F47:AU47"/>
+    <mergeCell ref="F48:AU48"/>
+    <mergeCell ref="F49:AU49"/>
+    <mergeCell ref="F50:AU50"/>
+    <mergeCell ref="F51:AU51"/>
+    <mergeCell ref="F52:AU52"/>
+    <mergeCell ref="F53:AU53"/>
+    <mergeCell ref="F54:AU54"/>
+    <mergeCell ref="F55:AU55"/>
+    <mergeCell ref="F56:AU56"/>
+    <mergeCell ref="F57:AU57"/>
+    <mergeCell ref="F58:AU58"/>
+    <mergeCell ref="F59:AU59"/>
+    <mergeCell ref="F60:AU60"/>
+    <mergeCell ref="F61:AU61"/>
+    <mergeCell ref="F62:AU62"/>
+    <mergeCell ref="F63:AU63"/>
+    <mergeCell ref="F64:AU64"/>
+    <mergeCell ref="F65:AU65"/>
+    <mergeCell ref="F66:AU66"/>
+    <mergeCell ref="F67:AU67"/>
+    <mergeCell ref="F68:AU68"/>
+    <mergeCell ref="F69:AU69"/>
+    <mergeCell ref="F70:AU70"/>
+    <mergeCell ref="F71:AU71"/>
+    <mergeCell ref="F72:AU72"/>
+    <mergeCell ref="F73:AU73"/>
+    <mergeCell ref="F74:AU74"/>
+    <mergeCell ref="F75:AU75"/>
+    <mergeCell ref="F76:AU76"/>
+    <mergeCell ref="F77:AU77"/>
+    <mergeCell ref="F78:AU78"/>
+    <mergeCell ref="F79:AU79"/>
+    <mergeCell ref="F80:AU80"/>
+    <mergeCell ref="F81:AU81"/>
+    <mergeCell ref="F82:AU82"/>
+    <mergeCell ref="F83:AU83"/>
+    <mergeCell ref="F84:AU84"/>
+    <mergeCell ref="F85:AU85"/>
+    <mergeCell ref="F86:AU86"/>
+    <mergeCell ref="F87:AU87"/>
+    <mergeCell ref="F88:AU88"/>
+    <mergeCell ref="F89:AU89"/>
+    <mergeCell ref="F90:AU90"/>
+    <mergeCell ref="F91:AU91"/>
+    <mergeCell ref="F92:AU92"/>
+    <mergeCell ref="F93:AU93"/>
+    <mergeCell ref="F94:AU94"/>
+    <mergeCell ref="F95:AU95"/>
+    <mergeCell ref="F96:AU96"/>
+    <mergeCell ref="F97:AU97"/>
+    <mergeCell ref="F98:AU98"/>
+    <mergeCell ref="F99:AU99"/>
+    <mergeCell ref="F100:R100"/>
+    <mergeCell ref="F101:R101"/>
+    <mergeCell ref="F102:R102"/>
+    <mergeCell ref="F103:R103"/>
+    <mergeCell ref="F104:R104"/>
+    <mergeCell ref="F105:R105"/>
+    <mergeCell ref="F106:R106"/>
+    <mergeCell ref="F107:R107"/>
+    <mergeCell ref="F108:R108"/>
+    <mergeCell ref="F109:R109"/>
+    <mergeCell ref="F110:R110"/>
+    <mergeCell ref="F111:R111"/>
+    <mergeCell ref="F112:R112"/>
+    <mergeCell ref="F113:R113"/>
+    <mergeCell ref="F114:R114"/>
+    <mergeCell ref="F115:R115"/>
+    <mergeCell ref="F116:R116"/>
+    <mergeCell ref="F117:R117"/>
+    <mergeCell ref="F118:R118"/>
+    <mergeCell ref="F119:R119"/>
+    <mergeCell ref="F120:R120"/>
+    <mergeCell ref="F121:R121"/>
+    <mergeCell ref="F122:R122"/>
+    <mergeCell ref="F123:R123"/>
+    <mergeCell ref="F124:R124"/>
+    <mergeCell ref="F125:R125"/>
+    <mergeCell ref="F126:R126"/>
+    <mergeCell ref="F127:R127"/>
+    <mergeCell ref="F128:R128"/>
+    <mergeCell ref="F129:R129"/>
+    <mergeCell ref="F130:R130"/>
+    <mergeCell ref="F131:R131"/>
+    <mergeCell ref="F132:R132"/>
+    <mergeCell ref="F133:R133"/>
+    <mergeCell ref="F134:R134"/>
+    <mergeCell ref="F135:R135"/>
+    <mergeCell ref="F136:R136"/>
+    <mergeCell ref="F137:R137"/>
+    <mergeCell ref="F138:R138"/>
+    <mergeCell ref="F139:R139"/>
+    <mergeCell ref="F140:R140"/>
+    <mergeCell ref="F141:R141"/>
+    <mergeCell ref="F142:R142"/>
+    <mergeCell ref="F143:R143"/>
+    <mergeCell ref="F144:R144"/>
+    <mergeCell ref="F145:R145"/>
+    <mergeCell ref="F146:R146"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A17:A18"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="A1:C2"/>
   </mergeCells>
   <hyperlinks>
@@ -1381,21 +1551,22 @@
     <hyperlink ref="B6" r:id="rId3" display="https://acm.hdu.edu.cn/showproblem.php?pid=7408"/>
     <hyperlink ref="B7" r:id="rId4" display="https://acm.hdu.edu.cn/showproblem.php?pid=7409"/>
     <hyperlink ref="B8" r:id="rId5" display="https://atcoder.jp/contests/abc337/tasks/abc337_e"/>
-    <hyperlink ref="F4" r:id="rId6" display="link"/>
-    <hyperlink ref="F8" r:id="rId7" display="link"/>
+    <hyperlink ref="E4" r:id="rId6" display="link"/>
+    <hyperlink ref="E8" r:id="rId7" display="link"/>
     <hyperlink ref="B9" r:id="rId8" display="https://www.luogu.com.cn/problem/P7962"/>
     <hyperlink ref="B10" r:id="rId9" display="https://vjudge.net/problem/QOJ-7730"/>
     <hyperlink ref="B11" r:id="rId10" display="https://vjudge.net/problem/QOJ-6676"/>
     <hyperlink ref="B12" r:id="rId11" display="https://vjudge.net/problem/QOJ-7653"/>
     <hyperlink ref="B13" r:id="rId12" display="https://vjudge.net/problem/Gym-104821A"/>
     <hyperlink ref="B14" r:id="rId13" display="https://vjudge.net/problem/Gym-104901A"/>
-    <hyperlink ref="F10:F12" r:id="rId14" display="link"/>
-    <hyperlink ref="F9" r:id="rId15" display="link"/>
-    <hyperlink ref="F13:F14" r:id="rId16" display="link"/>
+    <hyperlink ref="E10:E12" r:id="rId14" display="link"/>
+    <hyperlink ref="E9" r:id="rId15" display="link"/>
+    <hyperlink ref="E13:E14" r:id="rId16" display="link"/>
     <hyperlink ref="B15" r:id="rId17" display="https://vjudge.net/problem/Gym-104821M"/>
     <hyperlink ref="B16" r:id="rId18" display="https://www.luogu.com.cn/problem/P3919"/>
     <hyperlink ref="B18" r:id="rId19" display="https://www.luogu.com.cn/problem/P1972"/>
     <hyperlink ref="B17" r:id="rId20" display="https://www.luogu.com.cn/problem/P3834"/>
+    <hyperlink ref="B19" r:id="rId21" display="https://codeforces.com/gym/104076/problem/J"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1440,7 +1611,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="21" customHeight="1" spans="1:4">
@@ -1448,10 +1619,10 @@
         <v>44946</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -1459,10 +1630,10 @@
         <v>44946</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -1470,10 +1641,10 @@
         <v>44946</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -1481,10 +1652,10 @@
         <v>44946</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1492,64 +1663,64 @@
         <v>44953</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -157,6 +157,12 @@
     <t>1WA数组开太大，234WA vector初始化太大，常数出错</t>
   </si>
   <si>
+    <t>https://codeforces.com/contest/1918/problem/C</t>
+  </si>
+  <si>
+    <t>位运算</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
   </si>
   <si>
@@ -215,6 +221,15 @@
   </si>
   <si>
     <t>因数</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1918/problem/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1918/problem/B</t>
+  </si>
+  <si>
+    <t>排序，逆序对</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1181,7 @@
   <dimension ref="A1:AU146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1388,6 +1403,17 @@
       </c>
       <c r="F19" s="6" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1567,6 +1593,7 @@
     <hyperlink ref="B18" r:id="rId19" display="https://www.luogu.com.cn/problem/P1972"/>
     <hyperlink ref="B17" r:id="rId20" display="https://www.luogu.com.cn/problem/P3834"/>
     <hyperlink ref="B19" r:id="rId21" display="https://codeforces.com/gym/104076/problem/J"/>
+    <hyperlink ref="B20" r:id="rId22" display="https://codeforces.com/contest/1918/problem/C"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1577,10 +1604,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A15" sqref="A15:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1619,10 +1646,10 @@
         <v>44946</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -1630,10 +1657,10 @@
         <v>44946</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -1641,10 +1668,10 @@
         <v>44946</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -1652,10 +1679,10 @@
         <v>44946</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1663,69 +1690,90 @@
         <v>44953</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
+        <v>44957</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A1:C2"/>
   </mergeCells>
   <hyperlinks>
@@ -1737,6 +1785,8 @@
     <hyperlink ref="B12" r:id="rId6" display="https://atcoder.jp/contests/abc338/tasks/abc338_e"/>
     <hyperlink ref="B13" r:id="rId7" display="https://codeforces.com/contest/1925/problem/A"/>
     <hyperlink ref="B14" r:id="rId8" display="https://codeforces.com/contest/1925/problem/B"/>
+    <hyperlink ref="B15" r:id="rId9" display="https://codeforces.com/contest/1918/problem/A"/>
+    <hyperlink ref="B16" r:id="rId10" display="https://codeforces.com/contest/1918/problem/B"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -161,6 +161,21 @@
   </si>
   <si>
     <t>位运算</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc338/tasks/abc338_f</t>
+  </si>
+  <si>
+    <t>floyd，状压dp</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1918/problem/D</t>
+  </si>
+  <si>
+    <t>二分答案单调队列优化dp</t>
+  </si>
+  <si>
+    <t>1WA单调队列++t写成t++</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -1180,8 +1195,8 @@
   <sheetPr/>
   <dimension ref="A1:AU146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1416,8 +1431,29 @@
         <v>42</v>
       </c>
     </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="153">
     <mergeCell ref="F3:R3"/>
     <mergeCell ref="F4:AU4"/>
     <mergeCell ref="F5:AU5"/>
@@ -1566,6 +1602,7 @@
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A22"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="E13:E14"/>
@@ -1594,6 +1631,8 @@
     <hyperlink ref="B17" r:id="rId20" display="https://www.luogu.com.cn/problem/P3834"/>
     <hyperlink ref="B19" r:id="rId21" display="https://codeforces.com/gym/104076/problem/J"/>
     <hyperlink ref="B20" r:id="rId22" display="https://codeforces.com/contest/1918/problem/C"/>
+    <hyperlink ref="B21" r:id="rId23" display="https://atcoder.jp/contests/abc338/tasks/abc338_f"/>
+    <hyperlink ref="B22" r:id="rId24" display="https://codeforces.com/contest/1918/problem/D"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1646,10 +1685,10 @@
         <v>44946</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -1657,10 +1696,10 @@
         <v>44946</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -1668,10 +1707,10 @@
         <v>44946</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -1679,10 +1718,10 @@
         <v>44946</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1690,64 +1729,64 @@
         <v>44953</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1755,19 +1794,19 @@
         <v>44957</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -176,6 +176,48 @@
   </si>
   <si>
     <t>1WA单调队列++t写成t++</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P5937</t>
+  </si>
+  <si>
+    <t>绿题</t>
+  </si>
+  <si>
+    <t>种类并查集/权值并查集</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P3017</t>
+  </si>
+  <si>
+    <t>蓝题</t>
+  </si>
+  <si>
+    <t>前缀和，二分答案</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P2882</t>
+  </si>
+  <si>
+    <t>简单的差分</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P4375</t>
+  </si>
+  <si>
+    <t>冒泡排序知识点</t>
+  </si>
+  <si>
+    <t>1WA离散化不用去重</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P3467</t>
+  </si>
+  <si>
+    <t>橙题</t>
+  </si>
+  <si>
+    <t>单调栈</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -1195,8 +1237,8 @@
   <sheetPr/>
   <dimension ref="A1:AU146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1261,7 +1303,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1452,8 +1494,69 @@
         <v>47</v>
       </c>
     </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="153">
+  <mergeCells count="154">
     <mergeCell ref="F3:R3"/>
     <mergeCell ref="F4:AU4"/>
     <mergeCell ref="F5:AU5"/>
@@ -1603,6 +1706,7 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A26"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="E13:E14"/>
@@ -1633,6 +1737,11 @@
     <hyperlink ref="B20" r:id="rId22" display="https://codeforces.com/contest/1918/problem/C"/>
     <hyperlink ref="B21" r:id="rId23" display="https://atcoder.jp/contests/abc338/tasks/abc338_f"/>
     <hyperlink ref="B22" r:id="rId24" display="https://codeforces.com/contest/1918/problem/D"/>
+    <hyperlink ref="B23" r:id="rId25" display="https://www.luogu.com.cn/problem/P5937"/>
+    <hyperlink ref="B24" r:id="rId26" display="https://www.luogu.com.cn/problem/P3017"/>
+    <hyperlink ref="B25" r:id="rId27" display="https://www.luogu.com.cn/problem/P2882"/>
+    <hyperlink ref="B26" r:id="rId28" display="https://www.luogu.com.cn/problem/P4375"/>
+    <hyperlink ref="B27" r:id="rId29" display="https://www.luogu.com.cn/problem/P3467"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1685,10 +1794,10 @@
         <v>44946</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -1696,10 +1805,10 @@
         <v>44946</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -1707,10 +1816,10 @@
         <v>44946</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -1718,10 +1827,10 @@
         <v>44946</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1729,64 +1838,64 @@
         <v>44953</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1794,19 +1903,19 @@
         <v>44957</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -220,6 +220,21 @@
     <t>单调栈</t>
   </si>
   <si>
+    <t>https://www.luogu.com.cn/problem/P4653</t>
+  </si>
+  <si>
+    <t>贪心</t>
+  </si>
+  <si>
+    <t>1WAi和j写错了</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1714</t>
+  </si>
+  <si>
+    <t>单调队列</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
   </si>
   <si>
@@ -287,6 +302,18 @@
   </si>
   <si>
     <t>排序，逆序对</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P2251</t>
+  </si>
+  <si>
+    <t>单调队列板子题</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1656</t>
+  </si>
+  <si>
+    <t>并查集板子题</t>
   </si>
 </sst>
 </file>
@@ -902,7 +929,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,6 +950,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1237,8 +1270,8 @@
   <sheetPr/>
   <dimension ref="A1:AU146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1407,7 +1440,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>45317</v>
       </c>
@@ -1417,8 +1450,11 @@
       <c r="D15" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>45318</v>
       </c>
@@ -1428,8 +1464,11 @@
       <c r="D16" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>45319</v>
       </c>
@@ -1439,13 +1478,19 @@
       <c r="D17" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="2:4">
+      <c r="E17" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1458,11 +1503,14 @@
       <c r="D19" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="E19" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F19" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>45322</v>
       </c>
@@ -1472,14 +1520,20 @@
       <c r="D20" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1490,12 +1544,15 @@
       <c r="D22" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F22" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2">
+    <row r="23" spans="1:5">
+      <c r="A23" s="7">
         <v>45323</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1507,8 +1564,12 @@
       <c r="D23" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="2:4">
+      <c r="E23" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="7"/>
       <c r="B24" s="3" t="s">
         <v>51</v>
       </c>
@@ -1518,8 +1579,10 @@
       <c r="D24" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="25" spans="2:4">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="7"/>
       <c r="B25" s="5" t="s">
         <v>54</v>
       </c>
@@ -1529,8 +1592,10 @@
       <c r="D25" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="2:6">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="7"/>
       <c r="B26" s="3" t="s">
         <v>56</v>
       </c>
@@ -1540,11 +1605,13 @@
       <c r="D26" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="1:5">
+      <c r="A27" s="8"/>
       <c r="B27" s="3" t="s">
         <v>59</v>
       </c>
@@ -1553,6 +1620,35 @@
       </c>
       <c r="D27" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8"/>
+      <c r="B28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="8"/>
+      <c r="B29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1706,10 +1802,10 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A26"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E23:E28"/>
     <mergeCell ref="A1:C2"/>
   </mergeCells>
   <hyperlinks>
@@ -1742,6 +1838,17 @@
     <hyperlink ref="B25" r:id="rId27" display="https://www.luogu.com.cn/problem/P2882"/>
     <hyperlink ref="B26" r:id="rId28" display="https://www.luogu.com.cn/problem/P4375"/>
     <hyperlink ref="B27" r:id="rId29" display="https://www.luogu.com.cn/problem/P3467"/>
+    <hyperlink ref="E15" r:id="rId30" display="link"/>
+    <hyperlink ref="E16" r:id="rId31" display="link"/>
+    <hyperlink ref="E17" r:id="rId32" display="link"/>
+    <hyperlink ref="E18" r:id="rId33" display="link"/>
+    <hyperlink ref="E19" r:id="rId34" display="link"/>
+    <hyperlink ref="E20" r:id="rId35" display="link"/>
+    <hyperlink ref="E21" r:id="rId36" display="link"/>
+    <hyperlink ref="E22" r:id="rId37" display="link"/>
+    <hyperlink ref="E23:E28" r:id="rId33" display="link"/>
+    <hyperlink ref="B28" r:id="rId38" display="https://www.luogu.com.cn/problem/P4653"/>
+    <hyperlink ref="B29" r:id="rId39" display="https://www.luogu.com.cn/problem/P1714"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1752,10 +1859,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1791,131 +1898,150 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="21" customHeight="1" spans="1:4">
       <c r="A4" s="2">
-        <v>44946</v>
+        <v>45311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
       <c r="A5" s="2">
-        <v>44946</v>
+        <v>45311</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
       <c r="A6" s="2">
-        <v>44946</v>
+        <v>45311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
       <c r="A7" s="2">
-        <v>44946</v>
+        <v>45311</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44953</v>
+        <v>45318</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>44957</v>
+        <v>45322</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1935,6 +2061,8 @@
     <hyperlink ref="B14" r:id="rId8" display="https://codeforces.com/contest/1925/problem/B"/>
     <hyperlink ref="B15" r:id="rId9" display="https://codeforces.com/contest/1918/problem/A"/>
     <hyperlink ref="B16" r:id="rId10" display="https://codeforces.com/contest/1918/problem/B"/>
+    <hyperlink ref="B17" r:id="rId11" display="https://www.luogu.com.cn/problem/P2251"/>
+    <hyperlink ref="B18" r:id="rId12" display="https://www.luogu.com.cn/problem/P1656"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="100">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -233,6 +233,24 @@
   </si>
   <si>
     <t>单调队列</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1725</t>
+  </si>
+  <si>
+    <t>单调队列，加点边界判断</t>
+  </si>
+  <si>
+    <t>1WA-号漏打，2WA头尾反了</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1950</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1191</t>
+  </si>
+  <si>
+    <t>暴力/单调栈</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -1271,7 +1289,7 @@
   <dimension ref="A1:AU146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1649,6 +1667,45 @@
       </c>
       <c r="D29" s="1" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1849,6 +1906,9 @@
     <hyperlink ref="E23:E28" r:id="rId33" display="link"/>
     <hyperlink ref="B28" r:id="rId38" display="https://www.luogu.com.cn/problem/P4653"/>
     <hyperlink ref="B29" r:id="rId39" display="https://www.luogu.com.cn/problem/P1714"/>
+    <hyperlink ref="B30" r:id="rId40" display="https://www.luogu.com.cn/problem/P1725"/>
+    <hyperlink ref="B31" r:id="rId41" display="https://www.luogu.com.cn/problem/P1950"/>
+    <hyperlink ref="B32" r:id="rId42" display="https://www.luogu.com.cn/problem/P1191"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1901,10 +1961,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -1912,10 +1972,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -1923,10 +1983,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -1934,10 +1994,10 @@
         <v>45311</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1945,64 +2005,64 @@
         <v>45318</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2010,19 +2070,19 @@
         <v>45322</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2030,18 +2090,18 @@
         <v>45323</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="135">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -46,10 +46,10 @@
     <t>算法</t>
   </si>
   <si>
+    <t>过程</t>
+  </si>
+  <si>
     <t>code</t>
-  </si>
-  <si>
-    <t>过程</t>
   </si>
   <si>
     <t>https://acm.hdu.edu.cn/showproblem.php?pid=7405</t>
@@ -60,6 +60,9 @@
 正解是线性的dp</t>
   </si>
   <si>
+    <t>1AC</t>
+  </si>
+  <si>
     <t>link</t>
   </si>
   <si>
@@ -82,12 +85,18 @@
     <t>我自己的做法是O(Nlog^2(N))的，标答是O(Nlog(N))</t>
   </si>
   <si>
+    <t>2AC</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_e</t>
   </si>
   <si>
     <t>交互题 二进制</t>
   </si>
   <si>
+    <t>刚开始思路想错，后AC</t>
+  </si>
+  <si>
     <t>https://www.luogu.com.cn/problem/P7962</t>
   </si>
   <si>
@@ -106,18 +115,27 @@
     <t>计算几何，叉积求面积</t>
   </si>
   <si>
+    <t>1WA精度没考虑，2AC</t>
+  </si>
+  <si>
     <t>https://vjudge.net/problem/QOJ-7653</t>
   </si>
   <si>
     <t>叉积判断共线</t>
   </si>
   <si>
+    <t>1234思路错误，5AC</t>
+  </si>
+  <si>
     <t>https://vjudge.net/problem/Gym-104821A</t>
   </si>
   <si>
     <t>搜索</t>
   </si>
   <si>
+    <t>1WA打暴力，2WA+=写成=</t>
+  </si>
+  <si>
     <t>https://vjudge.net/problem/Gym-104901A</t>
   </si>
   <si>
@@ -130,12 +148,18 @@
     <t>区间操作，感觉类似珂朵莉树</t>
   </si>
   <si>
+    <t>set先删后查导致数组地址出错，试了进有10发，debug时间很长，长记性了。</t>
+  </si>
+  <si>
     <t>https://www.luogu.com.cn/problem/P3919</t>
   </si>
   <si>
     <t>可持久化线段树板子题/EI还提出另一种离线做法</t>
   </si>
   <si>
+    <t>第一次学板子，1WA漏抄了一部分，2和3WA调整数组大小。</t>
+  </si>
+  <si>
     <t>https://www.luogu.com.cn/problem/P3834</t>
   </si>
   <si>
@@ -148,10 +172,13 @@
     <t>主席树/树状数组离线/莫队</t>
   </si>
   <si>
+    <t>复习板子，主席树时在测试数组大小。其他1AC</t>
+  </si>
+  <si>
     <t>https://codeforces.com/gym/104076/problem/J</t>
   </si>
   <si>
-    <t>dp，卡常</t>
+    <t>dp，卡常，试图寻找O(N^2)做法，没看懂</t>
   </si>
   <si>
     <t>1WA数组开太大，234WA vector初始化太大，常数出错</t>
@@ -208,7 +235,7 @@
     <t>冒泡排序知识点</t>
   </si>
   <si>
-    <t>1WA离散化不用去重</t>
+    <t>1WA，该题目离散化不用去重因为相同元素有不同价值。</t>
   </si>
   <si>
     <t>https://www.luogu.com.cn/problem/P3467</t>
@@ -220,6 +247,9 @@
     <t>单调栈</t>
   </si>
   <si>
+    <t>1WA栈没判空</t>
+  </si>
+  <si>
     <t>https://www.luogu.com.cn/problem/P4653</t>
   </si>
   <si>
@@ -241,7 +271,7 @@
     <t>单调队列，加点边界判断</t>
   </si>
   <si>
-    <t>1WA-号漏打，2WA头尾反了</t>
+    <t>1WA-号漏打，2WA头尾反了，下一次要先在纸上模拟一遍。</t>
   </si>
   <si>
     <t>https://www.luogu.com.cn/problem/P1950</t>
@@ -253,6 +283,75 @@
     <t>暴力/单调栈</t>
   </si>
   <si>
+    <t>https://codeforces.com/gym/103687/problem/A</t>
+  </si>
+  <si>
+    <t>水签</t>
+  </si>
+  <si>
+    <t>分类讨论</t>
+  </si>
+  <si>
+    <t>1WA想漏了偶数-奇数会变成奇数，2WA漏判断只有只有差%2为奇数时才可以奇数加奇数为偶数。
+下一次要先提前在草稿纸上打好草稿，不乱交。</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/103687/problem/L</t>
+  </si>
+  <si>
+    <t>1WA忘记开longlong，2WA刚开始想快了，排序反了。
+下一次要先提前把代码在纸上过一遍。</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/103687/problem/M</t>
+  </si>
+  <si>
+    <t>签到</t>
+  </si>
+  <si>
+    <t>模拟</t>
+  </si>
+  <si>
+    <t>刚开始以为是纯纯暴力，码了快2百行，后来队友发现题目保证所给图形必然合法
+因此队友转手写了三四十行的代码AC了，我赛后补的。以后带本字典。</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P2216</t>
+  </si>
+  <si>
+    <t>二维上的单调队列</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1966</t>
+  </si>
+  <si>
+    <t>逆序对</t>
+  </si>
+  <si>
+    <t>1WA定义了mod变量但是最后答案忘记取模。</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P3509</t>
+  </si>
+  <si>
+    <t>快速幂，倍增</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P4155</t>
+  </si>
+  <si>
+    <t>st表，倍增</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1550</t>
+  </si>
+  <si>
+    <t>黄题</t>
+  </si>
+  <si>
+    <t>虚拟源点，最小生成树</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
   </si>
   <si>
@@ -332,6 +431,15 @@
   </si>
   <si>
     <t>并查集板子题</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67741/A</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67741/M</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67741/G</t>
   </si>
 </sst>
 </file>
@@ -969,11 +1077,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1288,8 +1396,8 @@
   <sheetPr/>
   <dimension ref="A1:AU146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1297,18 +1405,34 @@
     <col min="1" max="1" width="11.8888888888889" style="1" customWidth="1"/>
     <col min="2" max="2" width="59" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="57.8888888888889" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88888888888889" style="1" customWidth="1"/>
-    <col min="6" max="47" width="9" style="6"/>
+    <col min="4" max="4" width="49.5555555555556" style="1" customWidth="1"/>
+    <col min="5" max="12" width="9" style="6"/>
+    <col min="13" max="13" width="5.33333333333333" style="6" customWidth="1"/>
+    <col min="14" max="15" width="9" style="6" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="2.44444444444444" style="6" hidden="1" customWidth="1"/>
+    <col min="17" max="22" width="9" style="6" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="2.44444444444444" style="6" hidden="1" customWidth="1"/>
+    <col min="24" max="33" width="9" style="6" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="5.33333333333333" style="6" hidden="1" customWidth="1"/>
+    <col min="35" max="44" width="9" style="6" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="3" style="6" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="3.11111111111111" style="6" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="8.88888888888889" style="1" customWidth="1"/>
     <col min="48" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:47">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1321,14 +1445,14 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="AU3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="49" customHeight="1" spans="1:5">
+    <row r="4" ht="49" customHeight="1" spans="1:47">
       <c r="A4" s="2">
         <v>45290</v>
       </c>
@@ -1338,577 +1462,821 @@
       <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" ht="31" customHeight="1" spans="1:5">
-      <c r="A5" s="2"/>
+      <c r="AU4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="31" customHeight="1" spans="1:47">
+      <c r="A5" s="2">
+        <v>45290</v>
+      </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU5" s="5"/>
+    </row>
+    <row r="6" spans="1:47">
+      <c r="A6" s="2">
+        <v>45290</v>
+      </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:5">
-      <c r="A7" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="AU6" s="5"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:47">
+      <c r="A7" s="2">
+        <v>45290</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU7" s="5"/>
+    </row>
+    <row r="8" spans="1:47">
       <c r="A8" s="2">
         <v>45311</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47">
       <c r="A9" s="2">
         <v>45314</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
+      <c r="B9" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="AU9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47">
       <c r="A10" s="2">
         <v>45315</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
+      <c r="AU10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47">
+      <c r="A11" s="2">
+        <v>45315</v>
+      </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AU11" s="3"/>
+    </row>
+    <row r="12" spans="1:47">
+      <c r="A12" s="2">
+        <v>45315</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5">
+        <v>29</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU12" s="3"/>
+    </row>
+    <row r="13" spans="1:47">
       <c r="A13" s="2">
         <v>45316</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>26</v>
+      <c r="B13" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47">
+      <c r="A14" s="2">
+        <v>45316</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="AU14" s="3"/>
+    </row>
+    <row r="15" spans="1:47">
       <c r="A15" s="2">
         <v>45317</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>30</v>
+      <c r="B15" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47">
       <c r="A16" s="2">
         <v>45318</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>32</v>
+      <c r="B16" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>40</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47">
       <c r="A17" s="2">
         <v>45319</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>34</v>
+      <c r="B17" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="3" t="s">
-        <v>36</v>
+      <c r="AU17" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47">
+      <c r="A18" s="2">
+        <v>45319</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:47">
       <c r="A19" s="2">
         <v>45321</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>48</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU19" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:47">
       <c r="A20" s="2">
         <v>45322</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>41</v>
+      <c r="B20" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
-        <v>43</v>
+      <c r="AU20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:47">
+      <c r="A21" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2"/>
+      <c r="AU21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47">
+      <c r="A22" s="2">
+        <v>45322</v>
+      </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:47">
+      <c r="A23" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="7">
+      <c r="AU23" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47">
+      <c r="A24" s="2">
         <v>45323</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="B24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="7"/>
-      <c r="B24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="7"/>
+      <c r="AU24" s="3"/>
+    </row>
+    <row r="25" spans="1:47">
+      <c r="A25" s="2">
+        <v>45323</v>
+      </c>
       <c r="B25" s="5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="7"/>
-      <c r="B26" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU25" s="3"/>
+    </row>
+    <row r="26" spans="1:47">
+      <c r="A26" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU26" s="3"/>
+    </row>
+    <row r="27" spans="1:47">
+      <c r="A27" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU27" s="3"/>
+    </row>
+    <row r="28" spans="1:47">
+      <c r="A28" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="8"/>
-      <c r="B27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="8"/>
-      <c r="B28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="8"/>
-      <c r="B29" s="3" t="s">
-        <v>65</v>
+        <v>73</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU28" s="3"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>76</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="2">
         <v>45324</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" ht="45" customHeight="1" spans="1:5">
+      <c r="A33" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" ht="28" customHeight="1" spans="1:5">
+      <c r="A34" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" ht="28" customHeight="1" spans="1:5">
+      <c r="A35" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>72</v>
+      <c r="D36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="154">
-    <mergeCell ref="F3:R3"/>
-    <mergeCell ref="F4:AU4"/>
-    <mergeCell ref="F5:AU5"/>
-    <mergeCell ref="F6:AU6"/>
-    <mergeCell ref="F7:AU7"/>
-    <mergeCell ref="F8:AU8"/>
-    <mergeCell ref="F9:AU9"/>
-    <mergeCell ref="F10:AU10"/>
-    <mergeCell ref="F11:AU11"/>
-    <mergeCell ref="F12:AU12"/>
-    <mergeCell ref="F13:AU13"/>
-    <mergeCell ref="F14:AU14"/>
-    <mergeCell ref="F15:AU15"/>
-    <mergeCell ref="F16:AU16"/>
-    <mergeCell ref="F17:AU17"/>
-    <mergeCell ref="F18:AU18"/>
-    <mergeCell ref="F19:AU19"/>
-    <mergeCell ref="F20:AU20"/>
-    <mergeCell ref="F21:AU21"/>
-    <mergeCell ref="F22:AU22"/>
-    <mergeCell ref="F23:AU23"/>
-    <mergeCell ref="F24:AU24"/>
-    <mergeCell ref="F25:AU25"/>
-    <mergeCell ref="F26:AU26"/>
-    <mergeCell ref="F27:AU27"/>
-    <mergeCell ref="F28:AU28"/>
-    <mergeCell ref="F29:AU29"/>
-    <mergeCell ref="F30:AU30"/>
-    <mergeCell ref="F31:AU31"/>
-    <mergeCell ref="F32:AU32"/>
-    <mergeCell ref="F33:AU33"/>
-    <mergeCell ref="F34:AU34"/>
-    <mergeCell ref="F35:AU35"/>
-    <mergeCell ref="F36:AU36"/>
-    <mergeCell ref="F37:AU37"/>
-    <mergeCell ref="F38:AU38"/>
-    <mergeCell ref="F39:AU39"/>
-    <mergeCell ref="F40:AU40"/>
-    <mergeCell ref="F41:AU41"/>
-    <mergeCell ref="F42:AU42"/>
-    <mergeCell ref="F43:AU43"/>
-    <mergeCell ref="F44:AU44"/>
-    <mergeCell ref="F45:AU45"/>
-    <mergeCell ref="F46:AU46"/>
-    <mergeCell ref="F47:AU47"/>
-    <mergeCell ref="F48:AU48"/>
-    <mergeCell ref="F49:AU49"/>
-    <mergeCell ref="F50:AU50"/>
-    <mergeCell ref="F51:AU51"/>
-    <mergeCell ref="F52:AU52"/>
-    <mergeCell ref="F53:AU53"/>
-    <mergeCell ref="F54:AU54"/>
-    <mergeCell ref="F55:AU55"/>
-    <mergeCell ref="F56:AU56"/>
-    <mergeCell ref="F57:AU57"/>
-    <mergeCell ref="F58:AU58"/>
-    <mergeCell ref="F59:AU59"/>
-    <mergeCell ref="F60:AU60"/>
-    <mergeCell ref="F61:AU61"/>
-    <mergeCell ref="F62:AU62"/>
-    <mergeCell ref="F63:AU63"/>
-    <mergeCell ref="F64:AU64"/>
-    <mergeCell ref="F65:AU65"/>
-    <mergeCell ref="F66:AU66"/>
-    <mergeCell ref="F67:AU67"/>
-    <mergeCell ref="F68:AU68"/>
-    <mergeCell ref="F69:AU69"/>
-    <mergeCell ref="F70:AU70"/>
-    <mergeCell ref="F71:AU71"/>
-    <mergeCell ref="F72:AU72"/>
-    <mergeCell ref="F73:AU73"/>
-    <mergeCell ref="F74:AU74"/>
-    <mergeCell ref="F75:AU75"/>
-    <mergeCell ref="F76:AU76"/>
-    <mergeCell ref="F77:AU77"/>
-    <mergeCell ref="F78:AU78"/>
-    <mergeCell ref="F79:AU79"/>
-    <mergeCell ref="F80:AU80"/>
-    <mergeCell ref="F81:AU81"/>
-    <mergeCell ref="F82:AU82"/>
-    <mergeCell ref="F83:AU83"/>
-    <mergeCell ref="F84:AU84"/>
-    <mergeCell ref="F85:AU85"/>
-    <mergeCell ref="F86:AU86"/>
-    <mergeCell ref="F87:AU87"/>
-    <mergeCell ref="F88:AU88"/>
-    <mergeCell ref="F89:AU89"/>
-    <mergeCell ref="F90:AU90"/>
-    <mergeCell ref="F91:AU91"/>
-    <mergeCell ref="F92:AU92"/>
-    <mergeCell ref="F93:AU93"/>
-    <mergeCell ref="F94:AU94"/>
-    <mergeCell ref="F95:AU95"/>
-    <mergeCell ref="F96:AU96"/>
-    <mergeCell ref="F97:AU97"/>
-    <mergeCell ref="F98:AU98"/>
-    <mergeCell ref="F99:AU99"/>
-    <mergeCell ref="F100:R100"/>
-    <mergeCell ref="F101:R101"/>
-    <mergeCell ref="F102:R102"/>
-    <mergeCell ref="F103:R103"/>
-    <mergeCell ref="F104:R104"/>
-    <mergeCell ref="F105:R105"/>
-    <mergeCell ref="F106:R106"/>
-    <mergeCell ref="F107:R107"/>
-    <mergeCell ref="F108:R108"/>
-    <mergeCell ref="F109:R109"/>
-    <mergeCell ref="F110:R110"/>
-    <mergeCell ref="F111:R111"/>
-    <mergeCell ref="F112:R112"/>
-    <mergeCell ref="F113:R113"/>
-    <mergeCell ref="F114:R114"/>
-    <mergeCell ref="F115:R115"/>
-    <mergeCell ref="F116:R116"/>
-    <mergeCell ref="F117:R117"/>
-    <mergeCell ref="F118:R118"/>
-    <mergeCell ref="F119:R119"/>
-    <mergeCell ref="F120:R120"/>
-    <mergeCell ref="F121:R121"/>
-    <mergeCell ref="F122:R122"/>
-    <mergeCell ref="F123:R123"/>
-    <mergeCell ref="F124:R124"/>
-    <mergeCell ref="F125:R125"/>
-    <mergeCell ref="F126:R126"/>
-    <mergeCell ref="F127:R127"/>
-    <mergeCell ref="F128:R128"/>
-    <mergeCell ref="F129:R129"/>
-    <mergeCell ref="F130:R130"/>
-    <mergeCell ref="F131:R131"/>
-    <mergeCell ref="F132:R132"/>
-    <mergeCell ref="F133:R133"/>
-    <mergeCell ref="F134:R134"/>
-    <mergeCell ref="F135:R135"/>
-    <mergeCell ref="F136:R136"/>
-    <mergeCell ref="F137:R137"/>
-    <mergeCell ref="F138:R138"/>
-    <mergeCell ref="F139:R139"/>
-    <mergeCell ref="F140:R140"/>
-    <mergeCell ref="F141:R141"/>
-    <mergeCell ref="F142:R142"/>
-    <mergeCell ref="F143:R143"/>
-    <mergeCell ref="F144:R144"/>
-    <mergeCell ref="F145:R145"/>
-    <mergeCell ref="F146:R146"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="A1:C2"/>
+  <mergeCells count="148">
+    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="E4:AT4"/>
+    <mergeCell ref="E5:AT5"/>
+    <mergeCell ref="E6:AT6"/>
+    <mergeCell ref="E7:AT7"/>
+    <mergeCell ref="E8:AT8"/>
+    <mergeCell ref="E9:AT9"/>
+    <mergeCell ref="E10:AT10"/>
+    <mergeCell ref="E11:AT11"/>
+    <mergeCell ref="E12:AT12"/>
+    <mergeCell ref="E13:AT13"/>
+    <mergeCell ref="E14:AT14"/>
+    <mergeCell ref="E15:AT15"/>
+    <mergeCell ref="E16:AT16"/>
+    <mergeCell ref="E17:AT17"/>
+    <mergeCell ref="E18:AT18"/>
+    <mergeCell ref="E19:AT19"/>
+    <mergeCell ref="E20:AT20"/>
+    <mergeCell ref="E21:AT21"/>
+    <mergeCell ref="E22:AT22"/>
+    <mergeCell ref="E23:AT23"/>
+    <mergeCell ref="E24:AT24"/>
+    <mergeCell ref="E25:AT25"/>
+    <mergeCell ref="E26:AT26"/>
+    <mergeCell ref="E27:AT27"/>
+    <mergeCell ref="E28:AT28"/>
+    <mergeCell ref="E29:AT29"/>
+    <mergeCell ref="E30:AT30"/>
+    <mergeCell ref="E31:AT31"/>
+    <mergeCell ref="E32:AT32"/>
+    <mergeCell ref="E33:AT33"/>
+    <mergeCell ref="E34:AT34"/>
+    <mergeCell ref="E35:AT35"/>
+    <mergeCell ref="E36:AT36"/>
+    <mergeCell ref="E37:AT37"/>
+    <mergeCell ref="E38:AT38"/>
+    <mergeCell ref="E39:AT39"/>
+    <mergeCell ref="E40:AT40"/>
+    <mergeCell ref="E41:AT41"/>
+    <mergeCell ref="E42:AT42"/>
+    <mergeCell ref="E43:AT43"/>
+    <mergeCell ref="E44:AT44"/>
+    <mergeCell ref="E45:AT45"/>
+    <mergeCell ref="E46:AT46"/>
+    <mergeCell ref="E47:AT47"/>
+    <mergeCell ref="E48:AT48"/>
+    <mergeCell ref="E49:AT49"/>
+    <mergeCell ref="E50:AT50"/>
+    <mergeCell ref="E51:AT51"/>
+    <mergeCell ref="E52:AT52"/>
+    <mergeCell ref="E53:AT53"/>
+    <mergeCell ref="E54:AT54"/>
+    <mergeCell ref="E55:AT55"/>
+    <mergeCell ref="E56:AT56"/>
+    <mergeCell ref="E57:AT57"/>
+    <mergeCell ref="E58:AT58"/>
+    <mergeCell ref="E59:AT59"/>
+    <mergeCell ref="E60:AT60"/>
+    <mergeCell ref="E61:AT61"/>
+    <mergeCell ref="E62:AT62"/>
+    <mergeCell ref="E63:AT63"/>
+    <mergeCell ref="E64:AT64"/>
+    <mergeCell ref="E65:AT65"/>
+    <mergeCell ref="E66:AT66"/>
+    <mergeCell ref="E67:AT67"/>
+    <mergeCell ref="E68:AT68"/>
+    <mergeCell ref="E69:AT69"/>
+    <mergeCell ref="E70:AT70"/>
+    <mergeCell ref="E71:AT71"/>
+    <mergeCell ref="E72:AT72"/>
+    <mergeCell ref="E73:AT73"/>
+    <mergeCell ref="E74:AT74"/>
+    <mergeCell ref="E75:AT75"/>
+    <mergeCell ref="E76:AT76"/>
+    <mergeCell ref="E77:AT77"/>
+    <mergeCell ref="E78:AT78"/>
+    <mergeCell ref="E79:AT79"/>
+    <mergeCell ref="E80:AT80"/>
+    <mergeCell ref="E81:AT81"/>
+    <mergeCell ref="E82:AT82"/>
+    <mergeCell ref="E83:AT83"/>
+    <mergeCell ref="E84:AT84"/>
+    <mergeCell ref="E85:AT85"/>
+    <mergeCell ref="E86:AT86"/>
+    <mergeCell ref="E87:AT87"/>
+    <mergeCell ref="E88:AT88"/>
+    <mergeCell ref="E89:AT89"/>
+    <mergeCell ref="E90:AT90"/>
+    <mergeCell ref="E91:AT91"/>
+    <mergeCell ref="E92:AT92"/>
+    <mergeCell ref="E93:AT93"/>
+    <mergeCell ref="E94:AT94"/>
+    <mergeCell ref="E95:AT95"/>
+    <mergeCell ref="E96:AT96"/>
+    <mergeCell ref="E97:AT97"/>
+    <mergeCell ref="E98:AT98"/>
+    <mergeCell ref="E99:AT99"/>
+    <mergeCell ref="E100:Q100"/>
+    <mergeCell ref="E101:Q101"/>
+    <mergeCell ref="E102:Q102"/>
+    <mergeCell ref="E103:Q103"/>
+    <mergeCell ref="E104:Q104"/>
+    <mergeCell ref="E105:Q105"/>
+    <mergeCell ref="E106:Q106"/>
+    <mergeCell ref="E107:Q107"/>
+    <mergeCell ref="E108:Q108"/>
+    <mergeCell ref="E109:Q109"/>
+    <mergeCell ref="E110:Q110"/>
+    <mergeCell ref="E111:Q111"/>
+    <mergeCell ref="E112:Q112"/>
+    <mergeCell ref="E113:Q113"/>
+    <mergeCell ref="E114:Q114"/>
+    <mergeCell ref="E115:Q115"/>
+    <mergeCell ref="E116:Q116"/>
+    <mergeCell ref="E117:Q117"/>
+    <mergeCell ref="E118:Q118"/>
+    <mergeCell ref="E119:Q119"/>
+    <mergeCell ref="E120:Q120"/>
+    <mergeCell ref="E121:Q121"/>
+    <mergeCell ref="E122:Q122"/>
+    <mergeCell ref="E123:Q123"/>
+    <mergeCell ref="E124:Q124"/>
+    <mergeCell ref="E125:Q125"/>
+    <mergeCell ref="E126:Q126"/>
+    <mergeCell ref="E127:Q127"/>
+    <mergeCell ref="E128:Q128"/>
+    <mergeCell ref="E129:Q129"/>
+    <mergeCell ref="E130:Q130"/>
+    <mergeCell ref="E131:Q131"/>
+    <mergeCell ref="E132:Q132"/>
+    <mergeCell ref="E133:Q133"/>
+    <mergeCell ref="E134:Q134"/>
+    <mergeCell ref="E135:Q135"/>
+    <mergeCell ref="E136:Q136"/>
+    <mergeCell ref="E137:Q137"/>
+    <mergeCell ref="E138:Q138"/>
+    <mergeCell ref="E139:Q139"/>
+    <mergeCell ref="E140:Q140"/>
+    <mergeCell ref="E141:Q141"/>
+    <mergeCell ref="E142:Q142"/>
+    <mergeCell ref="E143:Q143"/>
+    <mergeCell ref="E144:Q144"/>
+    <mergeCell ref="E145:Q145"/>
+    <mergeCell ref="E146:Q146"/>
+    <mergeCell ref="AU4:AU7"/>
+    <mergeCell ref="AU10:AU12"/>
+    <mergeCell ref="AU13:AU14"/>
+    <mergeCell ref="AU23:AU28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" display="https://acm.hdu.edu.cn/showproblem.php?pid=7405" tooltip="https://acm.hdu.edu.cn/showproblem.php?pid=7405"/>
-    <hyperlink ref="B5" r:id="rId2" display="https://acm.hdu.edu.cn/showproblem.php?pid=7406"/>
-    <hyperlink ref="B6" r:id="rId3" display="https://acm.hdu.edu.cn/showproblem.php?pid=7408"/>
-    <hyperlink ref="B7" r:id="rId4" display="https://acm.hdu.edu.cn/showproblem.php?pid=7409"/>
-    <hyperlink ref="B8" r:id="rId5" display="https://atcoder.jp/contests/abc337/tasks/abc337_e"/>
-    <hyperlink ref="E4" r:id="rId6" display="link"/>
-    <hyperlink ref="E8" r:id="rId7" display="link"/>
-    <hyperlink ref="B9" r:id="rId8" display="https://www.luogu.com.cn/problem/P7962"/>
-    <hyperlink ref="B10" r:id="rId9" display="https://vjudge.net/problem/QOJ-7730"/>
-    <hyperlink ref="B11" r:id="rId10" display="https://vjudge.net/problem/QOJ-6676"/>
-    <hyperlink ref="B12" r:id="rId11" display="https://vjudge.net/problem/QOJ-7653"/>
-    <hyperlink ref="B13" r:id="rId12" display="https://vjudge.net/problem/Gym-104821A"/>
-    <hyperlink ref="B14" r:id="rId13" display="https://vjudge.net/problem/Gym-104901A"/>
-    <hyperlink ref="E10:E12" r:id="rId14" display="link"/>
-    <hyperlink ref="E9" r:id="rId15" display="link"/>
-    <hyperlink ref="E13:E14" r:id="rId16" display="link"/>
-    <hyperlink ref="B15" r:id="rId17" display="https://vjudge.net/problem/Gym-104821M"/>
-    <hyperlink ref="B16" r:id="rId18" display="https://www.luogu.com.cn/problem/P3919"/>
-    <hyperlink ref="B18" r:id="rId19" display="https://www.luogu.com.cn/problem/P1972"/>
-    <hyperlink ref="B17" r:id="rId20" display="https://www.luogu.com.cn/problem/P3834"/>
-    <hyperlink ref="B19" r:id="rId21" display="https://codeforces.com/gym/104076/problem/J"/>
-    <hyperlink ref="B20" r:id="rId22" display="https://codeforces.com/contest/1918/problem/C"/>
-    <hyperlink ref="B21" r:id="rId23" display="https://atcoder.jp/contests/abc338/tasks/abc338_f"/>
-    <hyperlink ref="B22" r:id="rId24" display="https://codeforces.com/contest/1918/problem/D"/>
-    <hyperlink ref="B23" r:id="rId25" display="https://www.luogu.com.cn/problem/P5937"/>
-    <hyperlink ref="B24" r:id="rId26" display="https://www.luogu.com.cn/problem/P3017"/>
-    <hyperlink ref="B25" r:id="rId27" display="https://www.luogu.com.cn/problem/P2882"/>
-    <hyperlink ref="B26" r:id="rId28" display="https://www.luogu.com.cn/problem/P4375"/>
-    <hyperlink ref="B27" r:id="rId29" display="https://www.luogu.com.cn/problem/P3467"/>
-    <hyperlink ref="E15" r:id="rId30" display="link"/>
-    <hyperlink ref="E16" r:id="rId31" display="link"/>
-    <hyperlink ref="E17" r:id="rId32" display="link"/>
-    <hyperlink ref="E18" r:id="rId33" display="link"/>
-    <hyperlink ref="E19" r:id="rId34" display="link"/>
-    <hyperlink ref="E20" r:id="rId35" display="link"/>
-    <hyperlink ref="E21" r:id="rId36" display="link"/>
-    <hyperlink ref="E22" r:id="rId37" display="link"/>
-    <hyperlink ref="E23:E28" r:id="rId33" display="link"/>
-    <hyperlink ref="B28" r:id="rId38" display="https://www.luogu.com.cn/problem/P4653"/>
-    <hyperlink ref="B29" r:id="rId39" display="https://www.luogu.com.cn/problem/P1714"/>
-    <hyperlink ref="B30" r:id="rId40" display="https://www.luogu.com.cn/problem/P1725"/>
-    <hyperlink ref="B31" r:id="rId41" display="https://www.luogu.com.cn/problem/P1950"/>
-    <hyperlink ref="B32" r:id="rId42" display="https://www.luogu.com.cn/problem/P1191"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://acm.hdu.edu.cn/showproblem.php?pid=7408"/>
+    <hyperlink ref="B7" r:id="rId3" display="https://acm.hdu.edu.cn/showproblem.php?pid=7409"/>
+    <hyperlink ref="B8" r:id="rId4" display="https://atcoder.jp/contests/abc337/tasks/abc337_e"/>
+    <hyperlink ref="B9" r:id="rId5" display="https://www.luogu.com.cn/problem/P7962"/>
+    <hyperlink ref="B10" r:id="rId6" display="https://vjudge.net/problem/QOJ-7730"/>
+    <hyperlink ref="B11" r:id="rId7" display="https://vjudge.net/problem/QOJ-6676"/>
+    <hyperlink ref="B12" r:id="rId8" display="https://vjudge.net/problem/QOJ-7653"/>
+    <hyperlink ref="B13" r:id="rId9" display="https://vjudge.net/problem/Gym-104821A"/>
+    <hyperlink ref="B14" r:id="rId10" display="https://vjudge.net/problem/Gym-104901A"/>
+    <hyperlink ref="B15" r:id="rId11" display="https://vjudge.net/problem/Gym-104821M"/>
+    <hyperlink ref="B16" r:id="rId12" display="https://www.luogu.com.cn/problem/P3919"/>
+    <hyperlink ref="B18" r:id="rId13" display="https://www.luogu.com.cn/problem/P1972"/>
+    <hyperlink ref="B17" r:id="rId14" display="https://www.luogu.com.cn/problem/P3834"/>
+    <hyperlink ref="B19" r:id="rId15" display="https://codeforces.com/gym/104076/problem/J"/>
+    <hyperlink ref="B20" r:id="rId16" display="https://codeforces.com/contest/1918/problem/C"/>
+    <hyperlink ref="B21" r:id="rId17" display="https://atcoder.jp/contests/abc338/tasks/abc338_f"/>
+    <hyperlink ref="B22" r:id="rId18" display="https://codeforces.com/contest/1918/problem/D"/>
+    <hyperlink ref="B23" r:id="rId19" display="https://www.luogu.com.cn/problem/P5937"/>
+    <hyperlink ref="B24" r:id="rId20" display="https://www.luogu.com.cn/problem/P3017"/>
+    <hyperlink ref="B25" r:id="rId21" display="https://www.luogu.com.cn/problem/P2882"/>
+    <hyperlink ref="B26" r:id="rId22" display="https://www.luogu.com.cn/problem/P4375"/>
+    <hyperlink ref="B27" r:id="rId23" display="https://www.luogu.com.cn/problem/P3467"/>
+    <hyperlink ref="B28" r:id="rId24" display="https://www.luogu.com.cn/problem/P4653"/>
+    <hyperlink ref="B29" r:id="rId25" display="https://www.luogu.com.cn/problem/P1714"/>
+    <hyperlink ref="B30" r:id="rId26" display="https://www.luogu.com.cn/problem/P1725"/>
+    <hyperlink ref="B31" r:id="rId27" display="https://www.luogu.com.cn/problem/P1950"/>
+    <hyperlink ref="B32" r:id="rId28" display="https://www.luogu.com.cn/problem/P1191"/>
+    <hyperlink ref="AU4" r:id="rId29" display="link"/>
+    <hyperlink ref="AU8" r:id="rId30" display="link"/>
+    <hyperlink ref="AU10:AU12" r:id="rId31" display="link"/>
+    <hyperlink ref="AU9" r:id="rId32" display="link"/>
+    <hyperlink ref="AU13:AU14" r:id="rId33" display="link"/>
+    <hyperlink ref="AU15" r:id="rId34" display="link"/>
+    <hyperlink ref="AU16" r:id="rId35" display="link"/>
+    <hyperlink ref="AU17" r:id="rId36" display="link"/>
+    <hyperlink ref="AU18" r:id="rId37" display="link"/>
+    <hyperlink ref="AU19" r:id="rId38" display="link"/>
+    <hyperlink ref="AU20" r:id="rId39" display="link"/>
+    <hyperlink ref="AU21" r:id="rId40" display="link"/>
+    <hyperlink ref="AU22" r:id="rId41" display="link"/>
+    <hyperlink ref="AU23:AU28" r:id="rId37" display="link"/>
+    <hyperlink ref="B33" r:id="rId42" display="https://codeforces.com/gym/103687/problem/A"/>
+    <hyperlink ref="B34" r:id="rId43" display="https://codeforces.com/gym/103687/problem/L"/>
+    <hyperlink ref="B35" r:id="rId44" display="https://codeforces.com/gym/103687/problem/M"/>
+    <hyperlink ref="B5" r:id="rId45" display="https://acm.hdu.edu.cn/showproblem.php?pid=7406"/>
+    <hyperlink ref="B36" r:id="rId46" display="https://www.luogu.com.cn/problem/P2216"/>
+    <hyperlink ref="B37" r:id="rId47" display="https://www.luogu.com.cn/problem/P1966"/>
+    <hyperlink ref="B38" r:id="rId48" display="https://www.luogu.com.cn/problem/P3509"/>
+    <hyperlink ref="B39" r:id="rId49" display="https://www.luogu.com.cn/problem/P4155"/>
+    <hyperlink ref="B40" r:id="rId50" display="https://www.luogu.com.cn/problem/P1550"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1919,10 +2287,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1953,7 +2321,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="21" customHeight="1" spans="1:4">
@@ -1961,10 +2329,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -1972,10 +2340,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -1983,10 +2351,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -1994,10 +2362,10 @@
         <v>45311</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2005,64 +2373,76 @@
         <v>45318</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2">
+        <v>45318</v>
+      </c>
       <c r="B9" s="3" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2">
+        <v>45318</v>
+      </c>
       <c r="B10" s="3" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2">
+        <v>45318</v>
+      </c>
       <c r="B11" s="3" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2">
+        <v>45318</v>
+      </c>
       <c r="B12" s="3" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2">
+        <v>45318</v>
+      </c>
       <c r="B13" s="3" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2">
+        <v>45318</v>
+      </c>
       <c r="B14" s="3" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2070,19 +2450,21 @@
         <v>45322</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2">
+        <v>45322</v>
+      </c>
       <c r="B16" s="3" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2090,26 +2472,57 @@
         <v>45323</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="3" t="s">
-        <v>98</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>99</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A1:C2"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" display="https://atcoder.jp/contests/abc337/tasks/abc337_a"/>
     <hyperlink ref="B8" r:id="rId2" display="https://atcoder.jp/contests/abc338/tasks/abc338_a"/>
@@ -2123,6 +2536,9 @@
     <hyperlink ref="B16" r:id="rId10" display="https://codeforces.com/contest/1918/problem/B"/>
     <hyperlink ref="B17" r:id="rId11" display="https://www.luogu.com.cn/problem/P2251"/>
     <hyperlink ref="B18" r:id="rId12" display="https://www.luogu.com.cn/problem/P1656"/>
+    <hyperlink ref="B19" r:id="rId13" display="https://ac.nowcoder.com/acm/contest/67741/A"/>
+    <hyperlink ref="B20" r:id="rId14" display="https://ac.nowcoder.com/acm/contest/67741/M"/>
+    <hyperlink ref="B21" r:id="rId15" display="https://ac.nowcoder.com/acm/contest/67741/G"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="146">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -352,6 +352,42 @@
     <t>虚拟源点，最小生成树</t>
   </si>
   <si>
+    <t>https://codeforces.com/problemset/problem/1365/E</t>
+  </si>
+  <si>
+    <t>暴力</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1355/E</t>
+  </si>
+  <si>
+    <t>推公式/三分</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1922/E</t>
+  </si>
+  <si>
+    <t>构造</t>
+  </si>
+  <si>
+    <t>1WA没开longlong</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1925/problem/C</t>
+  </si>
+  <si>
+    <t>1WA之前赛时的时候没看到答案的长度限制</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1349</t>
+  </si>
+  <si>
+    <t>矩阵乘法</t>
+  </si>
+  <si>
+    <t>1WA求矩阵乘法的快速幂时，忘记对次数小于0时进行特判，导致TLE</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
   </si>
   <si>
@@ -383,9 +419,6 @@
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc338/tasks/abc338_c</t>
-  </si>
-  <si>
-    <t>暴力</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc338/tasks/abc338_d</t>
@@ -1055,7 +1088,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1075,10 +1108,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1394,10 +1430,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AU146"/>
+  <dimension ref="A1:AT45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1406,18 +1442,19 @@
     <col min="2" max="2" width="59" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
     <col min="4" max="4" width="49.5555555555556" style="1" customWidth="1"/>
-    <col min="5" max="12" width="9" style="6"/>
+    <col min="5" max="5" width="78.3333333333333" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8.88888888888889" style="1" customWidth="1"/>
+    <col min="7" max="12" width="9" style="6"/>
     <col min="13" max="13" width="5.33333333333333" style="6" customWidth="1"/>
-    <col min="14" max="15" width="9" style="6" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="2.44444444444444" style="6" hidden="1" customWidth="1"/>
-    <col min="17" max="22" width="9" style="6" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="2.44444444444444" style="6" hidden="1" customWidth="1"/>
-    <col min="24" max="33" width="9" style="6" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="5.33333333333333" style="6" hidden="1" customWidth="1"/>
-    <col min="35" max="44" width="9" style="6" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="3" style="6" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="3.11111111111111" style="6" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="8.88888888888889" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9" style="7" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="2.44444444444444" style="7" hidden="1" customWidth="1"/>
+    <col min="17" max="22" width="9" style="7" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="2.44444444444444" style="7" hidden="1" customWidth="1"/>
+    <col min="24" max="33" width="9" style="7" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="5.33333333333333" style="7" hidden="1" customWidth="1"/>
+    <col min="35" max="44" width="9" style="7" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="3" style="7" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="3.11111111111111" style="7" hidden="1" customWidth="1"/>
     <col min="48" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1425,14 +1462,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:47">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1448,11 +1485,11 @@
       <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="49" customHeight="1" spans="1:47">
+    <row r="4" ht="49" customHeight="1" spans="1:6">
       <c r="A4" s="2">
         <v>45290</v>
       </c>
@@ -1465,11 +1502,11 @@
       <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AU4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="31" customHeight="1" spans="1:47">
+    <row r="5" ht="31" customHeight="1" spans="1:6">
       <c r="A5" s="2">
         <v>45290</v>
       </c>
@@ -1482,9 +1519,11 @@
       <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AU5" s="5"/>
-    </row>
-    <row r="6" spans="1:47">
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>45290</v>
       </c>
@@ -1494,9 +1533,11 @@
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AU6" s="5"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="1:47">
+      <c r="F6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:6">
       <c r="A7" s="2">
         <v>45290</v>
       </c>
@@ -1509,9 +1550,11 @@
       <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AU7" s="5"/>
-    </row>
-    <row r="8" spans="1:47">
+      <c r="F7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>45311</v>
       </c>
@@ -1524,11 +1567,11 @@
       <c r="E8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AU8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:47">
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>45314</v>
       </c>
@@ -1541,11 +1584,11 @@
       <c r="E9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AU9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:47">
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>45315</v>
       </c>
@@ -1558,11 +1601,11 @@
       <c r="E10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AU10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:47">
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>45315</v>
       </c>
@@ -1575,9 +1618,11 @@
       <c r="E11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AU11" s="3"/>
-    </row>
-    <row r="12" spans="1:47">
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>45315</v>
       </c>
@@ -1590,9 +1635,11 @@
       <c r="E12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AU12" s="3"/>
-    </row>
-    <row r="13" spans="1:47">
+      <c r="F12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>45316</v>
       </c>
@@ -1605,11 +1652,11 @@
       <c r="E13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AU13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:47">
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>45316</v>
       </c>
@@ -1622,9 +1669,11 @@
       <c r="E14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AU14" s="3"/>
-    </row>
-    <row r="15" spans="1:47">
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>45317</v>
       </c>
@@ -1637,11 +1686,11 @@
       <c r="E15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AU15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:47">
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>45318</v>
       </c>
@@ -1654,11 +1703,11 @@
       <c r="E16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AU16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:47">
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>45319</v>
       </c>
@@ -1671,11 +1720,11 @@
       <c r="E17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AU17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:47">
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>45319</v>
       </c>
@@ -1688,11 +1737,11 @@
       <c r="E18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AU18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:47">
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>45321</v>
       </c>
@@ -1705,11 +1754,11 @@
       <c r="E19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AU19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:47">
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>45322</v>
       </c>
@@ -1722,11 +1771,11 @@
       <c r="E20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AU20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:47">
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>45322</v>
       </c>
@@ -1739,11 +1788,11 @@
       <c r="E21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AU21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:47">
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>45322</v>
       </c>
@@ -1756,11 +1805,11 @@
       <c r="E22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AU22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:47">
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>45323</v>
       </c>
@@ -1776,11 +1825,11 @@
       <c r="E23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AU23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:47">
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>45323</v>
       </c>
@@ -1796,9 +1845,9 @@
       <c r="E24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AU24" s="3"/>
-    </row>
-    <row r="25" spans="1:47">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>45323</v>
       </c>
@@ -1814,9 +1863,9 @@
       <c r="E25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AU25" s="3"/>
-    </row>
-    <row r="26" spans="1:47">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>45323</v>
       </c>
@@ -1832,9 +1881,9 @@
       <c r="E26" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AU26" s="3"/>
-    </row>
-    <row r="27" spans="1:47">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>45323</v>
       </c>
@@ -1850,9 +1899,9 @@
       <c r="E27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AU27" s="3"/>
-    </row>
-    <row r="28" spans="1:47">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>45323</v>
       </c>
@@ -1868,7 +1917,7 @@
       <c r="E28" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AU28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
@@ -1938,7 +1987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" ht="45" customHeight="1" spans="1:5">
+    <row r="33" ht="45" customHeight="1" spans="1:46">
       <c r="A33" s="2">
         <v>45324</v>
       </c>
@@ -1954,8 +2003,48 @@
       <c r="E33" s="8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="34" ht="28" customHeight="1" spans="1:5">
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="9"/>
+      <c r="AI33" s="9"/>
+      <c r="AJ33" s="9"/>
+      <c r="AK33" s="9"/>
+      <c r="AL33" s="9"/>
+      <c r="AM33" s="9"/>
+      <c r="AN33" s="9"/>
+      <c r="AO33" s="9"/>
+      <c r="AP33" s="9"/>
+      <c r="AQ33" s="9"/>
+      <c r="AR33" s="9"/>
+      <c r="AS33" s="9"/>
+      <c r="AT33" s="9"/>
+    </row>
+    <row r="34" ht="28" customHeight="1" spans="1:46">
       <c r="A34" s="2">
         <v>45324</v>
       </c>
@@ -1971,8 +2060,48 @@
       <c r="E34" s="8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="35" ht="28" customHeight="1" spans="1:5">
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9"/>
+      <c r="AH34" s="9"/>
+      <c r="AI34" s="9"/>
+      <c r="AJ34" s="9"/>
+      <c r="AK34" s="9"/>
+      <c r="AL34" s="9"/>
+      <c r="AM34" s="9"/>
+      <c r="AN34" s="9"/>
+      <c r="AO34" s="9"/>
+      <c r="AP34" s="9"/>
+      <c r="AQ34" s="9"/>
+      <c r="AR34" s="9"/>
+      <c r="AS34" s="9"/>
+      <c r="AT34" s="9"/>
+    </row>
+    <row r="35" ht="28" customHeight="1" spans="1:46">
       <c r="A35" s="2">
         <v>45324</v>
       </c>
@@ -1988,6 +2117,46 @@
       <c r="E35" s="8" t="s">
         <v>92</v>
       </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="9"/>
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9"/>
+      <c r="AH35" s="9"/>
+      <c r="AI35" s="9"/>
+      <c r="AJ35" s="9"/>
+      <c r="AK35" s="9"/>
+      <c r="AL35" s="9"/>
+      <c r="AM35" s="9"/>
+      <c r="AN35" s="9"/>
+      <c r="AO35" s="9"/>
+      <c r="AP35" s="9"/>
+      <c r="AQ35" s="9"/>
+      <c r="AR35" s="9"/>
+      <c r="AS35" s="9"/>
+      <c r="AT35" s="9"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
@@ -2074,157 +2243,92 @@
         <v>9</v>
       </c>
     </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>45326</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1900</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>45326</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2100</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>45326</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1800</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
+        <v>45326</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1500</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>45326</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="148">
-    <mergeCell ref="E3:Q3"/>
-    <mergeCell ref="E4:AT4"/>
-    <mergeCell ref="E5:AT5"/>
-    <mergeCell ref="E6:AT6"/>
-    <mergeCell ref="E7:AT7"/>
-    <mergeCell ref="E8:AT8"/>
-    <mergeCell ref="E9:AT9"/>
-    <mergeCell ref="E10:AT10"/>
-    <mergeCell ref="E11:AT11"/>
-    <mergeCell ref="E12:AT12"/>
-    <mergeCell ref="E13:AT13"/>
-    <mergeCell ref="E14:AT14"/>
-    <mergeCell ref="E15:AT15"/>
-    <mergeCell ref="E16:AT16"/>
-    <mergeCell ref="E17:AT17"/>
-    <mergeCell ref="E18:AT18"/>
-    <mergeCell ref="E19:AT19"/>
-    <mergeCell ref="E20:AT20"/>
-    <mergeCell ref="E21:AT21"/>
-    <mergeCell ref="E22:AT22"/>
-    <mergeCell ref="E23:AT23"/>
-    <mergeCell ref="E24:AT24"/>
-    <mergeCell ref="E25:AT25"/>
-    <mergeCell ref="E26:AT26"/>
-    <mergeCell ref="E27:AT27"/>
-    <mergeCell ref="E28:AT28"/>
-    <mergeCell ref="E29:AT29"/>
-    <mergeCell ref="E30:AT30"/>
-    <mergeCell ref="E31:AT31"/>
-    <mergeCell ref="E32:AT32"/>
-    <mergeCell ref="E33:AT33"/>
-    <mergeCell ref="E34:AT34"/>
-    <mergeCell ref="E35:AT35"/>
-    <mergeCell ref="E36:AT36"/>
-    <mergeCell ref="E37:AT37"/>
-    <mergeCell ref="E38:AT38"/>
-    <mergeCell ref="E39:AT39"/>
-    <mergeCell ref="E40:AT40"/>
-    <mergeCell ref="E41:AT41"/>
-    <mergeCell ref="E42:AT42"/>
-    <mergeCell ref="E43:AT43"/>
-    <mergeCell ref="E44:AT44"/>
-    <mergeCell ref="E45:AT45"/>
-    <mergeCell ref="E46:AT46"/>
-    <mergeCell ref="E47:AT47"/>
-    <mergeCell ref="E48:AT48"/>
-    <mergeCell ref="E49:AT49"/>
-    <mergeCell ref="E50:AT50"/>
-    <mergeCell ref="E51:AT51"/>
-    <mergeCell ref="E52:AT52"/>
-    <mergeCell ref="E53:AT53"/>
-    <mergeCell ref="E54:AT54"/>
-    <mergeCell ref="E55:AT55"/>
-    <mergeCell ref="E56:AT56"/>
-    <mergeCell ref="E57:AT57"/>
-    <mergeCell ref="E58:AT58"/>
-    <mergeCell ref="E59:AT59"/>
-    <mergeCell ref="E60:AT60"/>
-    <mergeCell ref="E61:AT61"/>
-    <mergeCell ref="E62:AT62"/>
-    <mergeCell ref="E63:AT63"/>
-    <mergeCell ref="E64:AT64"/>
-    <mergeCell ref="E65:AT65"/>
-    <mergeCell ref="E66:AT66"/>
-    <mergeCell ref="E67:AT67"/>
-    <mergeCell ref="E68:AT68"/>
-    <mergeCell ref="E69:AT69"/>
-    <mergeCell ref="E70:AT70"/>
-    <mergeCell ref="E71:AT71"/>
-    <mergeCell ref="E72:AT72"/>
-    <mergeCell ref="E73:AT73"/>
-    <mergeCell ref="E74:AT74"/>
-    <mergeCell ref="E75:AT75"/>
-    <mergeCell ref="E76:AT76"/>
-    <mergeCell ref="E77:AT77"/>
-    <mergeCell ref="E78:AT78"/>
-    <mergeCell ref="E79:AT79"/>
-    <mergeCell ref="E80:AT80"/>
-    <mergeCell ref="E81:AT81"/>
-    <mergeCell ref="E82:AT82"/>
-    <mergeCell ref="E83:AT83"/>
-    <mergeCell ref="E84:AT84"/>
-    <mergeCell ref="E85:AT85"/>
-    <mergeCell ref="E86:AT86"/>
-    <mergeCell ref="E87:AT87"/>
-    <mergeCell ref="E88:AT88"/>
-    <mergeCell ref="E89:AT89"/>
-    <mergeCell ref="E90:AT90"/>
-    <mergeCell ref="E91:AT91"/>
-    <mergeCell ref="E92:AT92"/>
-    <mergeCell ref="E93:AT93"/>
-    <mergeCell ref="E94:AT94"/>
-    <mergeCell ref="E95:AT95"/>
-    <mergeCell ref="E96:AT96"/>
-    <mergeCell ref="E97:AT97"/>
-    <mergeCell ref="E98:AT98"/>
-    <mergeCell ref="E99:AT99"/>
-    <mergeCell ref="E100:Q100"/>
-    <mergeCell ref="E101:Q101"/>
-    <mergeCell ref="E102:Q102"/>
-    <mergeCell ref="E103:Q103"/>
-    <mergeCell ref="E104:Q104"/>
-    <mergeCell ref="E105:Q105"/>
-    <mergeCell ref="E106:Q106"/>
-    <mergeCell ref="E107:Q107"/>
-    <mergeCell ref="E108:Q108"/>
-    <mergeCell ref="E109:Q109"/>
-    <mergeCell ref="E110:Q110"/>
-    <mergeCell ref="E111:Q111"/>
-    <mergeCell ref="E112:Q112"/>
-    <mergeCell ref="E113:Q113"/>
-    <mergeCell ref="E114:Q114"/>
-    <mergeCell ref="E115:Q115"/>
-    <mergeCell ref="E116:Q116"/>
-    <mergeCell ref="E117:Q117"/>
-    <mergeCell ref="E118:Q118"/>
-    <mergeCell ref="E119:Q119"/>
-    <mergeCell ref="E120:Q120"/>
-    <mergeCell ref="E121:Q121"/>
-    <mergeCell ref="E122:Q122"/>
-    <mergeCell ref="E123:Q123"/>
-    <mergeCell ref="E124:Q124"/>
-    <mergeCell ref="E125:Q125"/>
-    <mergeCell ref="E126:Q126"/>
-    <mergeCell ref="E127:Q127"/>
-    <mergeCell ref="E128:Q128"/>
-    <mergeCell ref="E129:Q129"/>
-    <mergeCell ref="E130:Q130"/>
-    <mergeCell ref="E131:Q131"/>
-    <mergeCell ref="E132:Q132"/>
-    <mergeCell ref="E133:Q133"/>
-    <mergeCell ref="E134:Q134"/>
-    <mergeCell ref="E135:Q135"/>
-    <mergeCell ref="E136:Q136"/>
-    <mergeCell ref="E137:Q137"/>
-    <mergeCell ref="E138:Q138"/>
-    <mergeCell ref="E139:Q139"/>
-    <mergeCell ref="E140:Q140"/>
-    <mergeCell ref="E141:Q141"/>
-    <mergeCell ref="E142:Q142"/>
-    <mergeCell ref="E143:Q143"/>
-    <mergeCell ref="E144:Q144"/>
-    <mergeCell ref="E145:Q145"/>
-    <mergeCell ref="E146:Q146"/>
-    <mergeCell ref="AU4:AU7"/>
-    <mergeCell ref="AU10:AU12"/>
-    <mergeCell ref="AU13:AU14"/>
-    <mergeCell ref="AU23:AU28"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" display="https://acm.hdu.edu.cn/showproblem.php?pid=7405" tooltip="https://acm.hdu.edu.cn/showproblem.php?pid=7405"/>
     <hyperlink ref="B6" r:id="rId2" display="https://acm.hdu.edu.cn/showproblem.php?pid=7408"/>
@@ -2254,20 +2358,20 @@
     <hyperlink ref="B30" r:id="rId26" display="https://www.luogu.com.cn/problem/P1725"/>
     <hyperlink ref="B31" r:id="rId27" display="https://www.luogu.com.cn/problem/P1950"/>
     <hyperlink ref="B32" r:id="rId28" display="https://www.luogu.com.cn/problem/P1191"/>
-    <hyperlink ref="AU4" r:id="rId29" display="link"/>
-    <hyperlink ref="AU8" r:id="rId30" display="link"/>
-    <hyperlink ref="AU10:AU12" r:id="rId31" display="link"/>
-    <hyperlink ref="AU9" r:id="rId32" display="link"/>
-    <hyperlink ref="AU13:AU14" r:id="rId33" display="link"/>
-    <hyperlink ref="AU15" r:id="rId34" display="link"/>
-    <hyperlink ref="AU16" r:id="rId35" display="link"/>
-    <hyperlink ref="AU17" r:id="rId36" display="link"/>
-    <hyperlink ref="AU18" r:id="rId37" display="link"/>
-    <hyperlink ref="AU19" r:id="rId38" display="link"/>
-    <hyperlink ref="AU20" r:id="rId39" display="link"/>
-    <hyperlink ref="AU21" r:id="rId40" display="link"/>
-    <hyperlink ref="AU22" r:id="rId41" display="link"/>
-    <hyperlink ref="AU23:AU28" r:id="rId37" display="link"/>
+    <hyperlink ref="F4" r:id="rId29" display="link"/>
+    <hyperlink ref="F8" r:id="rId30" display="link"/>
+    <hyperlink ref="F10:F12" r:id="rId31" display="link"/>
+    <hyperlink ref="F9" r:id="rId32" display="link"/>
+    <hyperlink ref="F13:F14" r:id="rId33" display="link"/>
+    <hyperlink ref="F15" r:id="rId34" display="link"/>
+    <hyperlink ref="F16" r:id="rId35" display="link"/>
+    <hyperlink ref="F17" r:id="rId36" display="link"/>
+    <hyperlink ref="F18" r:id="rId37" display="link"/>
+    <hyperlink ref="F19" r:id="rId38" display="link"/>
+    <hyperlink ref="F20" r:id="rId39" display="link"/>
+    <hyperlink ref="F21" r:id="rId40" display="link"/>
+    <hyperlink ref="F22" r:id="rId41" display="link"/>
+    <hyperlink ref="F23:F28" r:id="rId37" display="link"/>
     <hyperlink ref="B33" r:id="rId42" display="https://codeforces.com/gym/103687/problem/A"/>
     <hyperlink ref="B34" r:id="rId43" display="https://codeforces.com/gym/103687/problem/L"/>
     <hyperlink ref="B35" r:id="rId44" display="https://codeforces.com/gym/103687/problem/M"/>
@@ -2277,6 +2381,19 @@
     <hyperlink ref="B38" r:id="rId48" display="https://www.luogu.com.cn/problem/P3509"/>
     <hyperlink ref="B39" r:id="rId49" display="https://www.luogu.com.cn/problem/P4155"/>
     <hyperlink ref="B40" r:id="rId50" display="https://www.luogu.com.cn/problem/P1550"/>
+    <hyperlink ref="F5" r:id="rId29" display="link"/>
+    <hyperlink ref="F6" r:id="rId29" display="link"/>
+    <hyperlink ref="F7" r:id="rId29" display="link"/>
+    <hyperlink ref="F10" r:id="rId31" display="link"/>
+    <hyperlink ref="F11" r:id="rId31" display="link"/>
+    <hyperlink ref="F12" r:id="rId31" display="link"/>
+    <hyperlink ref="F13" r:id="rId33" display="link"/>
+    <hyperlink ref="F14" r:id="rId33" display="link"/>
+    <hyperlink ref="B41" r:id="rId51" display="https://codeforces.com/problemset/problem/1365/E"/>
+    <hyperlink ref="B42" r:id="rId52" display="https://codeforces.com/problemset/problem/1355/E"/>
+    <hyperlink ref="B43" r:id="rId53" display="https://codeforces.com/problemset/problem/1922/E"/>
+    <hyperlink ref="B44" r:id="rId54" display="https://codeforces.com/contest/1925/problem/C"/>
+    <hyperlink ref="B45" r:id="rId55" display="https://www.luogu.com.cn/problem/P1349"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2329,10 +2446,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -2340,10 +2457,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -2351,10 +2468,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -2362,10 +2479,10 @@
         <v>45311</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2373,10 +2490,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2384,10 +2501,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2395,10 +2512,10 @@
         <v>45318</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2406,10 +2523,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2417,10 +2534,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2428,10 +2545,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2439,10 +2556,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2450,10 +2567,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2461,10 +2578,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2472,10 +2589,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2483,10 +2600,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2494,10 +2611,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2505,10 +2622,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2516,10 +2633,10 @@
         <v>45325</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="147">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>1WA求矩阵乘法的快速幂时，忘记对次数小于0时进行特判，导致TLE</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1939</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -1430,10 +1433,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT45"/>
+  <dimension ref="A1:AT46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2315,7 +2318,7 @@
       <c r="A45" s="2">
         <v>45326</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2326,6 +2329,23 @@
       </c>
       <c r="E45" s="6" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2394,6 +2414,7 @@
     <hyperlink ref="B43" r:id="rId53" display="https://codeforces.com/problemset/problem/1922/E"/>
     <hyperlink ref="B44" r:id="rId54" display="https://codeforces.com/contest/1925/problem/C"/>
     <hyperlink ref="B45" r:id="rId55" display="https://www.luogu.com.cn/problem/P1349"/>
+    <hyperlink ref="B46" r:id="rId56" display="https://www.luogu.com.cn/problem/P1939"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2446,10 +2467,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -2457,10 +2478,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -2468,10 +2489,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -2479,10 +2500,10 @@
         <v>45311</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2490,10 +2511,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2501,10 +2522,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2512,7 +2533,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -2523,10 +2544,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2534,10 +2555,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2545,10 +2566,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2556,10 +2577,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2567,10 +2588,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2578,10 +2599,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2589,10 +2610,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2600,10 +2621,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2611,10 +2632,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2622,10 +2643,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2633,10 +2654,10 @@
         <v>45325</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="159">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -389,6 +389,44 @@
   </si>
   <si>
     <t>https://www.luogu.com.cn/problem/P1939</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67742/E</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67742/F</t>
+  </si>
+  <si>
+    <t>1WA没考虑当一个元素为最后一个是能取得下一个是i-1，导致程序跳到0导致死循环</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67742/G</t>
+  </si>
+  <si>
+    <t>线段树/树状数组</t>
+  </si>
+  <si>
+    <t>1WA，线段树update操作时有更新区间[x+1,n]，没考虑到当x等于n时区间范围不对，
+导致程序出现不可预知的错误</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67742/I</t>
+  </si>
+  <si>
+    <t>数学，分类讨论拆绝对值</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67742/J</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67742/D</t>
+  </si>
+  <si>
+    <t>同余最短路</t>
+  </si>
+  <si>
+    <t>1WA忘记处理当所求答案x为n时，由于取余后实际求的是0的位置，
+所以应当把0的位置初始化而并非n的位置</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -1433,10 +1471,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT46"/>
+  <dimension ref="A1:AT52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2346,6 +2384,90 @@
       </c>
       <c r="E46" s="6" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" ht="28.8" spans="1:5">
+      <c r="A49" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" ht="28.8" spans="1:5">
+      <c r="A52" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2415,6 +2537,12 @@
     <hyperlink ref="B44" r:id="rId54" display="https://codeforces.com/contest/1925/problem/C"/>
     <hyperlink ref="B45" r:id="rId55" display="https://www.luogu.com.cn/problem/P1349"/>
     <hyperlink ref="B46" r:id="rId56" display="https://www.luogu.com.cn/problem/P1939"/>
+    <hyperlink ref="B47" r:id="rId57" display="https://ac.nowcoder.com/acm/contest/67742/E"/>
+    <hyperlink ref="B48" r:id="rId58" display="https://ac.nowcoder.com/acm/contest/67742/F"/>
+    <hyperlink ref="B49" r:id="rId59" display="https://ac.nowcoder.com/acm/contest/67742/G"/>
+    <hyperlink ref="B50" r:id="rId60" display="https://ac.nowcoder.com/acm/contest/67742/I"/>
+    <hyperlink ref="B51" r:id="rId61" display="https://ac.nowcoder.com/acm/contest/67742/J"/>
+    <hyperlink ref="B52" r:id="rId62" display="https://ac.nowcoder.com/acm/contest/67742/D"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2467,10 +2595,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -2478,10 +2606,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -2489,10 +2617,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -2500,10 +2628,10 @@
         <v>45311</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2511,10 +2639,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2522,10 +2650,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2533,7 +2661,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -2544,10 +2672,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2555,10 +2683,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2566,10 +2694,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2577,10 +2705,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2588,10 +2716,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2599,10 +2727,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2610,10 +2738,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2621,10 +2749,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2632,10 +2760,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2643,10 +2771,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2654,10 +2782,10 @@
         <v>45325</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="163">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -397,10 +397,16 @@
     <t>https://ac.nowcoder.com/acm/contest/67742/F</t>
   </si>
   <si>
+    <t>铜</t>
+  </si>
+  <si>
     <t>1WA没考虑当一个元素为最后一个是能取得下一个是i-1，导致程序跳到0导致死循环</t>
   </si>
   <si>
     <t>https://ac.nowcoder.com/acm/contest/67742/G</t>
+  </si>
+  <si>
+    <t>铜银</t>
   </si>
   <si>
     <t>线段树/树状数组</t>
@@ -419,14 +425,19 @@
     <t>https://ac.nowcoder.com/acm/contest/67742/J</t>
   </si>
   <si>
-    <t>https://ac.nowcoder.com/acm/contest/67742/D</t>
-  </si>
-  <si>
-    <t>同余最短路</t>
-  </si>
-  <si>
-    <t>1WA忘记处理当所求答案x为n时，由于取余后实际求的是0的位置，
-所以应当把0的位置初始化而并非n的位置</t>
+    <t>https://ac.nowcoder.com/acm/contest/67742/K</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67742/C</t>
+  </si>
+  <si>
+    <t>01字典树，前缀和</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P4551</t>
+  </si>
+  <si>
+    <t>01字典树</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -1471,10 +1482,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT52"/>
+  <dimension ref="A1:AT54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2407,11 +2418,14 @@
       <c r="B48" s="3" t="s">
         <v>119</v>
       </c>
+      <c r="C48" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="D48" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" ht="28.8" spans="1:5">
@@ -2419,13 +2433,16 @@
         <v>45327</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2433,10 +2450,13 @@
         <v>45327</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>9</v>
@@ -2447,27 +2467,61 @@
         <v>45327</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" ht="28.8" spans="1:5">
+    <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45327</v>
+        <v>45328</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>129</v>
+        <v>32</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2542,7 +2596,9 @@
     <hyperlink ref="B49" r:id="rId59" display="https://ac.nowcoder.com/acm/contest/67742/G"/>
     <hyperlink ref="B50" r:id="rId60" display="https://ac.nowcoder.com/acm/contest/67742/I"/>
     <hyperlink ref="B51" r:id="rId61" display="https://ac.nowcoder.com/acm/contest/67742/J"/>
-    <hyperlink ref="B52" r:id="rId62" display="https://ac.nowcoder.com/acm/contest/67742/D"/>
+    <hyperlink ref="B53" r:id="rId62" display="https://ac.nowcoder.com/acm/contest/67742/C"/>
+    <hyperlink ref="B54" r:id="rId63" display="https://www.luogu.com.cn/problem/P4551"/>
+    <hyperlink ref="B52" r:id="rId64" display="https://ac.nowcoder.com/acm/contest/67742/K"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2595,10 +2651,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -2606,10 +2662,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -2617,10 +2673,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -2628,10 +2684,10 @@
         <v>45311</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2639,10 +2695,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2650,10 +2706,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2661,7 +2717,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -2672,10 +2728,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2683,10 +2739,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2694,10 +2750,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2705,10 +2761,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2716,10 +2772,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2727,10 +2783,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2738,10 +2794,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2749,10 +2805,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2760,10 +2816,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2771,10 +2827,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2782,10 +2838,10 @@
         <v>45325</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="165">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -438,6 +438,12 @@
   </si>
   <si>
     <t>01字典树</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P2894</t>
+  </si>
+  <si>
+    <t>线段树求最大字段和</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -1482,10 +1488,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT54"/>
+  <dimension ref="A1:AT55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2521,6 +2527,23 @@
         <v>133</v>
       </c>
       <c r="E54" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2599,6 +2622,7 @@
     <hyperlink ref="B53" r:id="rId62" display="https://ac.nowcoder.com/acm/contest/67742/C"/>
     <hyperlink ref="B54" r:id="rId63" display="https://www.luogu.com.cn/problem/P4551"/>
     <hyperlink ref="B52" r:id="rId64" display="https://ac.nowcoder.com/acm/contest/67742/K"/>
+    <hyperlink ref="B55" r:id="rId65" display="https://www.luogu.com.cn/problem/P2894"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2651,10 +2675,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -2662,10 +2686,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -2673,10 +2697,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -2684,10 +2708,10 @@
         <v>45311</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2695,10 +2719,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2706,10 +2730,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2717,7 +2741,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -2728,10 +2752,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2739,10 +2763,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2750,10 +2774,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2761,10 +2785,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2772,10 +2796,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2783,10 +2807,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2794,10 +2818,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2805,10 +2829,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2816,10 +2840,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2827,10 +2851,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2838,10 +2862,10 @@
         <v>45325</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="173">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -444,6 +444,32 @@
   </si>
   <si>
     <t>线段树求最大字段和</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1896</t>
+  </si>
+  <si>
+    <t>状压dp</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P2622</t>
+  </si>
+  <si>
+    <t>状态压缩，bfs</t>
+  </si>
+  <si>
+    <t>1WA，以为bfs时访问到的一定都是最短的，所以没有初始化而是把0当作未走过。
+之后想了想，发现由于起点到起点的路径一定是0，所以可能会导致起点被判为未走过，且由于某次操作对原状态没有改变而多走一遍，然后导致错误。
+之后把起点路径长度计为1，ans-1即可。</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1025</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1253</t>
+  </si>
+  <si>
+    <t>线段树</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -1488,10 +1514,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT55"/>
+  <dimension ref="A1:AT59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2544,6 +2570,74 @@
         <v>135</v>
       </c>
       <c r="E55" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" ht="57.6" spans="1:5">
+      <c r="A57" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2623,6 +2717,10 @@
     <hyperlink ref="B54" r:id="rId63" display="https://www.luogu.com.cn/problem/P4551"/>
     <hyperlink ref="B52" r:id="rId64" display="https://ac.nowcoder.com/acm/contest/67742/K"/>
     <hyperlink ref="B55" r:id="rId65" display="https://www.luogu.com.cn/problem/P2894"/>
+    <hyperlink ref="B56" r:id="rId66" display="https://www.luogu.com.cn/problem/P1896"/>
+    <hyperlink ref="B57" r:id="rId67" display="https://www.luogu.com.cn/problem/P2622"/>
+    <hyperlink ref="B58" r:id="rId68" display="https://www.luogu.com.cn/problem/P1025"/>
+    <hyperlink ref="B59" r:id="rId69" display="https://www.luogu.com.cn/problem/P1253"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2675,10 +2773,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -2686,10 +2784,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -2697,10 +2795,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -2708,10 +2806,10 @@
         <v>45311</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2719,10 +2817,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2730,10 +2828,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2741,7 +2839,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -2752,10 +2850,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2763,10 +2861,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2774,10 +2872,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2785,10 +2883,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2796,10 +2894,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2807,10 +2905,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2818,10 +2916,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2829,10 +2927,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2840,10 +2938,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2851,10 +2949,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2862,10 +2960,10 @@
         <v>45325</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="180">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -470,6 +470,27 @@
   </si>
   <si>
     <t>线段树</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/102500/problem/H</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/103102/problem/L</t>
+  </si>
+  <si>
+    <t>贪心，二分答案</t>
+  </si>
+  <si>
+    <t>1WA，两个区间分别为[]左闭右闭,(]左开右闭,结果全打成闭区间。</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/104945/problem/A</t>
+  </si>
+  <si>
+    <t>全排列，LIS</t>
+  </si>
+  <si>
+    <t>1WA，枚举全排列之前没有把要排列的按照最小字典序拜访，导致状况数量不对。</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -1514,10 +1535,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT59"/>
+  <dimension ref="A1:AT62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2639,6 +2660,57 @@
       </c>
       <c r="E59" s="6" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2">
+        <v>45340</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2">
+        <v>45340</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2">
+        <v>45340</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2721,6 +2793,9 @@
     <hyperlink ref="B57" r:id="rId67" display="https://www.luogu.com.cn/problem/P2622"/>
     <hyperlink ref="B58" r:id="rId68" display="https://www.luogu.com.cn/problem/P1025"/>
     <hyperlink ref="B59" r:id="rId69" display="https://www.luogu.com.cn/problem/P1253"/>
+    <hyperlink ref="B60" r:id="rId70" display="https://codeforces.com/gym/102500/problem/H"/>
+    <hyperlink ref="B61" r:id="rId71" display="https://codeforces.com/gym/103102/problem/L"/>
+    <hyperlink ref="B62" r:id="rId72" display="https://codeforces.com/gym/104945/problem/A"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2773,10 +2848,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -2784,10 +2859,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -2795,10 +2870,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -2806,10 +2881,10 @@
         <v>45311</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2817,10 +2892,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2828,10 +2903,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2839,7 +2914,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -2850,10 +2925,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2861,10 +2936,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2872,10 +2947,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2883,10 +2958,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2894,10 +2969,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2905,10 +2980,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2916,10 +2991,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2927,10 +3002,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2938,10 +3013,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2949,10 +3024,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2960,10 +3035,10 @@
         <v>45325</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="188">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -491,6 +491,31 @@
   </si>
   <si>
     <t>1WA，枚举全排列之前没有把要排列的按照最小字典序拜访，导致状况数量不对。</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P2572</t>
+  </si>
+  <si>
+    <t>1WA，处理翻转操作时，懒标记下放时未正确处理，即只有当自区间没有覆盖操作时才将反转懒标记下放，
+否则只需修改覆盖操作的懒标记。否则会导致出现一个区间被错误的多次翻转的场景</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67742/H</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P2085</t>
+  </si>
+  <si>
+    <t>堆</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1631</t>
+  </si>
+  <si>
+    <t>1WA，未处理重复数据，后用map去重即可。</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P4053</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -1535,10 +1560,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT62"/>
+  <dimension ref="A1:AT67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2711,6 +2736,79 @@
       </c>
       <c r="E62" s="6" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="63" ht="43.2" spans="1:5">
+      <c r="A63" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2796,6 +2894,11 @@
     <hyperlink ref="B60" r:id="rId70" display="https://codeforces.com/gym/102500/problem/H"/>
     <hyperlink ref="B61" r:id="rId71" display="https://codeforces.com/gym/103102/problem/L"/>
     <hyperlink ref="B62" r:id="rId72" display="https://codeforces.com/gym/104945/problem/A"/>
+    <hyperlink ref="B63" r:id="rId73" display="https://www.luogu.com.cn/problem/P2572"/>
+    <hyperlink ref="B64" r:id="rId74" display="https://ac.nowcoder.com/acm/contest/67742/H"/>
+    <hyperlink ref="B65" r:id="rId75" display="https://www.luogu.com.cn/problem/P2085"/>
+    <hyperlink ref="B66" r:id="rId76" display="https://www.luogu.com.cn/problem/P1631"/>
+    <hyperlink ref="B67" r:id="rId77" display="https://www.luogu.com.cn/problem/P4053"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2848,10 +2951,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -2859,10 +2962,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -2870,10 +2973,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -2881,10 +2984,10 @@
         <v>45311</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2892,10 +2995,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2903,10 +3006,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2914,7 +3017,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -2925,10 +3028,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2936,10 +3039,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2947,10 +3050,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2958,10 +3061,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2969,10 +3072,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2980,10 +3083,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2991,10 +3094,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3002,10 +3105,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3013,10 +3116,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3024,10 +3127,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3035,10 +3138,10 @@
         <v>45325</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="192">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -516,6 +516,18 @@
   </si>
   <si>
     <t>https://www.luogu.com.cn/problem/P4053</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67744/E</t>
+  </si>
+  <si>
+    <t>前缀和，贪心</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67744/F</t>
+  </si>
+  <si>
+    <t>dp</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -1560,10 +1572,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT67"/>
+  <dimension ref="A1:AT69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:E67"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2769,7 +2781,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="2:5">
+    <row r="65" spans="1:5">
+      <c r="A65" s="2">
+        <v>45341</v>
+      </c>
       <c r="B65" s="3" t="s">
         <v>154</v>
       </c>
@@ -2783,7 +2798,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="2:5">
+    <row r="66" spans="1:5">
+      <c r="A66" s="2">
+        <v>45341</v>
+      </c>
       <c r="B66" s="3" t="s">
         <v>156</v>
       </c>
@@ -2797,7 +2815,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="2:5">
+    <row r="67" spans="1:5">
+      <c r="A67" s="2">
+        <v>45341</v>
+      </c>
       <c r="B67" s="3" t="s">
         <v>158</v>
       </c>
@@ -2808,6 +2829,34 @@
         <v>155</v>
       </c>
       <c r="E67" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="2">
+        <v>45342</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2899,6 +2948,8 @@
     <hyperlink ref="B65" r:id="rId75" display="https://www.luogu.com.cn/problem/P2085"/>
     <hyperlink ref="B66" r:id="rId76" display="https://www.luogu.com.cn/problem/P1631"/>
     <hyperlink ref="B67" r:id="rId77" display="https://www.luogu.com.cn/problem/P4053"/>
+    <hyperlink ref="B68" r:id="rId78" display="https://ac.nowcoder.com/acm/contest/67744/E"/>
+    <hyperlink ref="B69" r:id="rId79" display="https://ac.nowcoder.com/acm/contest/67744/F"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2951,10 +3002,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -2962,10 +3013,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -2973,10 +3024,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -2984,10 +3035,10 @@
         <v>45311</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2995,10 +3046,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3006,10 +3057,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3017,7 +3068,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -3028,10 +3079,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3039,10 +3090,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3050,10 +3101,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3061,10 +3112,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3072,10 +3123,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3083,10 +3134,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3094,10 +3145,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3105,10 +3156,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3116,10 +3167,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3127,10 +3178,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3138,10 +3189,10 @@
         <v>45325</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="216">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -530,6 +530,60 @@
     <t>dp</t>
   </si>
   <si>
+    <t>https://codeforces.com/gym/102500/problem/C</t>
+  </si>
+  <si>
+    <t>1WA各种细节没处理好</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/103102/problem/D</t>
+  </si>
+  <si>
+    <t>大模拟</t>
+  </si>
+  <si>
+    <t>1WA一种情况写错</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/104945/problem/K</t>
+  </si>
+  <si>
+    <t>树状数组加二分/平衡树</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67744/G</t>
+  </si>
+  <si>
+    <t>前缀和优化</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67746/I</t>
+  </si>
+  <si>
+    <t>前缀和，dp</t>
+  </si>
+  <si>
+    <t>1WA,m打成n</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67746/J</t>
+  </si>
+  <si>
+    <t>dfs序，线段树/树状数组</t>
+  </si>
+  <si>
+    <t>1WA，在访问（原dfn序）的点时没还原回去</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67745/C</t>
+  </si>
+  <si>
+    <t>模拟(思路不难，但是想错了)</t>
+  </si>
+  <si>
+    <t>1WA思路想错了</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
   </si>
   <si>
@@ -615,6 +669,24 @@
   </si>
   <si>
     <t>https://ac.nowcoder.com/acm/contest/67741/G</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67746/A</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67746/B</t>
+  </si>
+  <si>
+    <t>排序，二分</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67746/C</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67746/D</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67746/E</t>
   </si>
 </sst>
 </file>
@@ -1572,10 +1644,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT69"/>
+  <dimension ref="A1:AT76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2858,6 +2930,104 @@
       </c>
       <c r="E69" s="6" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="2">
+        <v>45342</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="2">
+        <v>45344</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2">
+        <v>45344</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="2">
+        <v>45344</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2950,6 +3120,13 @@
     <hyperlink ref="B67" r:id="rId77" display="https://www.luogu.com.cn/problem/P4053"/>
     <hyperlink ref="B68" r:id="rId78" display="https://ac.nowcoder.com/acm/contest/67744/E"/>
     <hyperlink ref="B69" r:id="rId79" display="https://ac.nowcoder.com/acm/contest/67744/F"/>
+    <hyperlink ref="B70" r:id="rId80" display="https://codeforces.com/gym/102500/problem/C"/>
+    <hyperlink ref="B71" r:id="rId81" display="https://codeforces.com/gym/103102/problem/D"/>
+    <hyperlink ref="B72" r:id="rId82" display="https://codeforces.com/gym/104945/problem/K"/>
+    <hyperlink ref="B73" r:id="rId83" display="https://ac.nowcoder.com/acm/contest/67744/G"/>
+    <hyperlink ref="B74" r:id="rId84" display="https://ac.nowcoder.com/acm/contest/67746/I"/>
+    <hyperlink ref="B75" r:id="rId85" display="https://ac.nowcoder.com/acm/contest/67746/J"/>
+    <hyperlink ref="B76" r:id="rId86" display="https://ac.nowcoder.com/acm/contest/67745/C"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2960,10 +3137,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -3002,10 +3179,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -3013,10 +3190,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -3024,10 +3201,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -3035,10 +3212,10 @@
         <v>45311</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3046,10 +3223,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3057,10 +3234,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3068,7 +3245,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -3079,10 +3256,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3090,10 +3267,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3101,10 +3278,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3112,10 +3289,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3123,10 +3300,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3134,10 +3311,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3145,10 +3322,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3156,10 +3333,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3167,10 +3344,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3178,10 +3355,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3189,10 +3366,50 @@
         <v>45325</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>172</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3212,6 +3429,11 @@
     <hyperlink ref="B19" r:id="rId13" display="https://ac.nowcoder.com/acm/contest/67741/A"/>
     <hyperlink ref="B20" r:id="rId14" display="https://ac.nowcoder.com/acm/contest/67741/M"/>
     <hyperlink ref="B21" r:id="rId15" display="https://ac.nowcoder.com/acm/contest/67741/G"/>
+    <hyperlink ref="B22" r:id="rId16" display="https://ac.nowcoder.com/acm/contest/67746/A"/>
+    <hyperlink ref="B23" r:id="rId17" display="https://ac.nowcoder.com/acm/contest/67746/B"/>
+    <hyperlink ref="B24" r:id="rId18" display="https://ac.nowcoder.com/acm/contest/67746/C"/>
+    <hyperlink ref="B25" r:id="rId19" display="https://ac.nowcoder.com/acm/contest/67746/D"/>
+    <hyperlink ref="B26" r:id="rId20" display="https://ac.nowcoder.com/acm/contest/67746/E"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3225,7 +3447,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="231">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -584,6 +584,15 @@
     <t>1WA思路想错了</t>
   </si>
   <si>
+    <t>https://ac.nowcoder.com/acm/contest/67746/F</t>
+  </si>
+  <si>
+    <t>并查集</t>
+  </si>
+  <si>
+    <t>1WA，在与质因数连边时，错误的只处理到根号范围内的因数，有可能根号范围外的因数才是质因数</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
   </si>
   <si>
@@ -687,6 +696,42 @@
   </si>
   <si>
     <t>https://ac.nowcoder.com/acm/contest/67746/E</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/75766/B</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/75766/C</t>
+  </si>
+  <si>
+    <t>字符串拆分，排序</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/75766/D</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/75766/E</t>
+  </si>
+  <si>
+    <t>dfs</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>比赛</t>
+  </si>
+  <si>
+    <t>比赛地址</t>
+  </si>
+  <si>
+    <t>是否补完</t>
+  </si>
+  <si>
+    <t>牛客周赛 Round 34</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/75766#question</t>
   </si>
 </sst>
 </file>
@@ -1302,9 +1347,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1644,1390 +1698,1404 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT76"/>
+  <dimension ref="A1:AT77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="2" max="2" width="59" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.5555555555556" style="1" customWidth="1"/>
-    <col min="5" max="5" width="78.3333333333333" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8.88888888888889" style="1" customWidth="1"/>
-    <col min="7" max="12" width="9" style="6"/>
-    <col min="13" max="13" width="5.33333333333333" style="6" customWidth="1"/>
-    <col min="14" max="15" width="9" style="7" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="2.44444444444444" style="7" hidden="1" customWidth="1"/>
-    <col min="17" max="22" width="9" style="7" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="2.44444444444444" style="7" hidden="1" customWidth="1"/>
-    <col min="24" max="33" width="9" style="7" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="5.33333333333333" style="7" hidden="1" customWidth="1"/>
-    <col min="35" max="44" width="9" style="7" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="3" style="7" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="3.11111111111111" style="7" hidden="1" customWidth="1"/>
-    <col min="48" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="11.8916666666667" style="4" customWidth="1"/>
+    <col min="2" max="2" width="59" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15" style="4" customWidth="1"/>
+    <col min="4" max="4" width="49.5583333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="78.3333333333333" style="9" customWidth="1"/>
+    <col min="6" max="6" width="8.89166666666667" style="4" customWidth="1"/>
+    <col min="7" max="12" width="9" style="9"/>
+    <col min="13" max="13" width="5.33333333333333" style="9" customWidth="1"/>
+    <col min="14" max="15" width="9" style="10" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="2.44166666666667" style="10" hidden="1" customWidth="1"/>
+    <col min="17" max="22" width="9" style="10" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="2.44166666666667" style="10" hidden="1" customWidth="1"/>
+    <col min="24" max="33" width="9" style="10" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="5.33333333333333" style="10" hidden="1" customWidth="1"/>
+    <col min="35" max="44" width="9" style="10" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="3" style="10" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="3.10833333333333" style="10" hidden="1" customWidth="1"/>
+    <col min="48" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="49" customHeight="1" spans="1:6">
-      <c r="A4" s="2">
+      <c r="A4" s="5">
         <v>45290</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="31" customHeight="1" spans="1:6">
-      <c r="A5" s="2">
+      <c r="A5" s="5">
         <v>45290</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2">
+      <c r="A6" s="5">
         <v>45290</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:6">
-      <c r="A7" s="2">
+      <c r="A7" s="5">
         <v>45290</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2">
+      <c r="A8" s="5">
         <v>45311</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2">
+      <c r="A9" s="5">
         <v>45314</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2">
+      <c r="A10" s="5">
         <v>45315</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="2">
+      <c r="A11" s="5">
         <v>45315</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="2">
+      <c r="A12" s="5">
         <v>45315</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2">
+      <c r="A13" s="5">
         <v>45316</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2">
+      <c r="A14" s="5">
         <v>45316</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="2">
+      <c r="A15" s="5">
         <v>45317</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="2">
+      <c r="A16" s="5">
         <v>45318</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2">
+      <c r="A17" s="5">
         <v>45319</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="E17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="2">
+      <c r="A18" s="5">
         <v>45319</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="2">
+      <c r="A19" s="5">
         <v>45321</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="2">
+      <c r="A20" s="5">
         <v>45322</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="E20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2">
+      <c r="A21" s="5">
         <v>45322</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="E21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="2">
+      <c r="A22" s="5">
         <v>45322</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="2">
+      <c r="A23" s="5">
         <v>45323</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="E23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="2">
+      <c r="A24" s="5">
         <v>45323</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="3"/>
+      <c r="E24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="2">
+      <c r="A25" s="5">
         <v>45323</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="3"/>
+      <c r="E25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="2">
+      <c r="A26" s="5">
         <v>45323</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="2">
+      <c r="A27" s="5">
         <v>45323</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="2">
+      <c r="A28" s="5">
         <v>45323</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="3"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="2">
+      <c r="A29" s="5">
         <v>45323</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="2">
+      <c r="A30" s="5">
         <v>45324</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="2">
+      <c r="A31" s="5">
         <v>45324</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="2">
+      <c r="A32" s="5">
         <v>45324</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" ht="45" customHeight="1" spans="1:46">
-      <c r="A33" s="2">
+      <c r="A33" s="5">
         <v>45324</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="9"/>
-      <c r="AH33" s="9"/>
-      <c r="AI33" s="9"/>
-      <c r="AJ33" s="9"/>
-      <c r="AK33" s="9"/>
-      <c r="AL33" s="9"/>
-      <c r="AM33" s="9"/>
-      <c r="AN33" s="9"/>
-      <c r="AO33" s="9"/>
-      <c r="AP33" s="9"/>
-      <c r="AQ33" s="9"/>
-      <c r="AR33" s="9"/>
-      <c r="AS33" s="9"/>
-      <c r="AT33" s="9"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="12"/>
+      <c r="AI33" s="12"/>
+      <c r="AJ33" s="12"/>
+      <c r="AK33" s="12"/>
+      <c r="AL33" s="12"/>
+      <c r="AM33" s="12"/>
+      <c r="AN33" s="12"/>
+      <c r="AO33" s="12"/>
+      <c r="AP33" s="12"/>
+      <c r="AQ33" s="12"/>
+      <c r="AR33" s="12"/>
+      <c r="AS33" s="12"/>
+      <c r="AT33" s="12"/>
     </row>
     <row r="34" ht="28" customHeight="1" spans="1:46">
-      <c r="A34" s="2">
+      <c r="A34" s="5">
         <v>45324</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="9"/>
-      <c r="AD34" s="9"/>
-      <c r="AE34" s="9"/>
-      <c r="AF34" s="9"/>
-      <c r="AG34" s="9"/>
-      <c r="AH34" s="9"/>
-      <c r="AI34" s="9"/>
-      <c r="AJ34" s="9"/>
-      <c r="AK34" s="9"/>
-      <c r="AL34" s="9"/>
-      <c r="AM34" s="9"/>
-      <c r="AN34" s="9"/>
-      <c r="AO34" s="9"/>
-      <c r="AP34" s="9"/>
-      <c r="AQ34" s="9"/>
-      <c r="AR34" s="9"/>
-      <c r="AS34" s="9"/>
-      <c r="AT34" s="9"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="12"/>
+      <c r="AH34" s="12"/>
+      <c r="AI34" s="12"/>
+      <c r="AJ34" s="12"/>
+      <c r="AK34" s="12"/>
+      <c r="AL34" s="12"/>
+      <c r="AM34" s="12"/>
+      <c r="AN34" s="12"/>
+      <c r="AO34" s="12"/>
+      <c r="AP34" s="12"/>
+      <c r="AQ34" s="12"/>
+      <c r="AR34" s="12"/>
+      <c r="AS34" s="12"/>
+      <c r="AT34" s="12"/>
     </row>
     <row r="35" ht="28" customHeight="1" spans="1:46">
-      <c r="A35" s="2">
+      <c r="A35" s="5">
         <v>45324</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="9"/>
-      <c r="AE35" s="9"/>
-      <c r="AF35" s="9"/>
-      <c r="AG35" s="9"/>
-      <c r="AH35" s="9"/>
-      <c r="AI35" s="9"/>
-      <c r="AJ35" s="9"/>
-      <c r="AK35" s="9"/>
-      <c r="AL35" s="9"/>
-      <c r="AM35" s="9"/>
-      <c r="AN35" s="9"/>
-      <c r="AO35" s="9"/>
-      <c r="AP35" s="9"/>
-      <c r="AQ35" s="9"/>
-      <c r="AR35" s="9"/>
-      <c r="AS35" s="9"/>
-      <c r="AT35" s="9"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
+      <c r="AF35" s="12"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="12"/>
+      <c r="AI35" s="12"/>
+      <c r="AJ35" s="12"/>
+      <c r="AK35" s="12"/>
+      <c r="AL35" s="12"/>
+      <c r="AM35" s="12"/>
+      <c r="AN35" s="12"/>
+      <c r="AO35" s="12"/>
+      <c r="AP35" s="12"/>
+      <c r="AQ35" s="12"/>
+      <c r="AR35" s="12"/>
+      <c r="AS35" s="12"/>
+      <c r="AT35" s="12"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="2">
+      <c r="A36" s="5">
         <v>45325</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="2">
+      <c r="A37" s="5">
         <v>45325</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="2">
+      <c r="A38" s="5">
         <v>45325</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="2">
+      <c r="A39" s="5">
         <v>45325</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="2">
+      <c r="A40" s="5">
         <v>45325</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="2">
+      <c r="A41" s="5">
         <v>45326</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="4">
         <v>1900</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="2">
+      <c r="A42" s="5">
         <v>45326</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="4">
         <v>2100</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="2">
+      <c r="A43" s="5">
         <v>45326</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="4">
         <v>1800</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="9" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="2">
+      <c r="A44" s="5">
         <v>45326</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="4">
         <v>1500</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="2">
+      <c r="A45" s="5">
         <v>45326</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="9" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="2">
+      <c r="A46" s="5">
         <v>45327</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="2">
+      <c r="A47" s="5">
         <v>45327</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="2">
+      <c r="A48" s="5">
         <v>45327</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" ht="28.8" spans="1:5">
-      <c r="A49" s="2">
+    <row r="49" ht="27" spans="1:5">
+      <c r="A49" s="5">
         <v>45327</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="2">
+      <c r="A50" s="5">
         <v>45327</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="2">
+      <c r="A51" s="5">
         <v>45327</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="2">
+      <c r="A52" s="5">
         <v>45328</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="2">
+      <c r="A53" s="5">
         <v>45328</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="2">
+      <c r="A54" s="5">
         <v>45328</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="2">
+      <c r="A55" s="5">
         <v>45328</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="2">
+      <c r="A56" s="5">
         <v>45330</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" ht="57.6" spans="1:5">
-      <c r="A57" s="2">
+      <c r="E56" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" ht="54" spans="1:5">
+      <c r="A57" s="5">
         <v>45330</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="11" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="2">
+      <c r="A58" s="5">
         <v>45330</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="2">
+      <c r="A59" s="5">
         <v>45330</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="2">
+      <c r="A60" s="5">
         <v>45340</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="2">
+      <c r="A61" s="5">
         <v>45340</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="9" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="2">
+      <c r="A62" s="5">
         <v>45340</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="63" ht="43.2" spans="1:5">
-      <c r="A63" s="2">
+    <row r="63" ht="40.5" spans="1:5">
+      <c r="A63" s="5">
         <v>45341</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="11" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="2">
+      <c r="A64" s="5">
         <v>45341</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="2">
+      <c r="A65" s="5">
         <v>45341</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="2">
+      <c r="A66" s="5">
         <v>45341</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="9" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="2">
+      <c r="A67" s="5">
         <v>45341</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="2">
+      <c r="A68" s="5">
         <v>45341</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="2">
+      <c r="A69" s="5">
         <v>45342</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="2">
+      <c r="A70" s="5">
         <v>45342</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="2">
+      <c r="A71" s="5">
         <v>45344</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="9" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="2">
+      <c r="A72" s="5">
         <v>45344</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="2">
+      <c r="A73" s="5">
         <v>45344</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="2">
+      <c r="A74" s="5">
         <v>45345</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="9" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="2">
+      <c r="A75" s="5">
         <v>45345</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="9" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="2">
+      <c r="A76" s="5">
         <v>45345</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="9" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="5">
+        <v>45346</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3127,6 +3195,7 @@
     <hyperlink ref="B74" r:id="rId84" display="https://ac.nowcoder.com/acm/contest/67746/I"/>
     <hyperlink ref="B75" r:id="rId85" display="https://ac.nowcoder.com/acm/contest/67746/J"/>
     <hyperlink ref="B76" r:id="rId86" display="https://ac.nowcoder.com/acm/contest/67745/C"/>
+    <hyperlink ref="B77" r:id="rId87" display="https://ac.nowcoder.com/acm/contest/67746/F"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3137,279 +3206,311 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="11.8888888888889" style="1" customWidth="1"/>
-    <col min="2" max="2" width="59" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="57.8888888888889" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="11.8916666666667" style="4" customWidth="1"/>
+    <col min="2" max="2" width="59" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15" style="4" customWidth="1"/>
+    <col min="4" max="4" width="57.8916666666667" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="4" customFormat="1" spans="1:5">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="21" customHeight="1" spans="1:4">
-      <c r="A4" s="2">
+    <row r="4" s="4" customFormat="1" ht="21" customHeight="1" spans="1:4">
+      <c r="A4" s="5">
         <v>45311</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
-      <c r="A5" s="2">
+      <c r="B4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" ht="16" customHeight="1" spans="1:4">
+      <c r="A5" s="5">
         <v>45311</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:4">
-      <c r="A6" s="2">
+      <c r="B5" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" spans="1:4">
+      <c r="A6" s="5">
         <v>45311</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="B6" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="15" customHeight="1" spans="1:4">
+      <c r="A7" s="5">
+        <v>45311</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5">
+        <v>45318</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
-      <c r="A7" s="2">
-        <v>45311</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2">
+    <row r="9" spans="1:4">
+      <c r="A9" s="5">
         <v>45318</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2">
+      <c r="B9" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5">
         <v>45318</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2">
+      <c r="B10" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5">
         <v>45318</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B11" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5">
+        <v>45318</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5">
+        <v>45318</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5">
+        <v>45318</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5">
+        <v>45322</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5">
+        <v>45322</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5">
+        <v>45323</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5">
+        <v>45323</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5">
+        <v>45325</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5">
+        <v>45325</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5">
+        <v>45325</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
-        <v>45318</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
-        <v>45318</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
-        <v>45318</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>45318</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2">
-        <v>45322</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
-        <v>45322</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2">
-        <v>45323</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2">
-        <v>45323</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2">
-        <v>45325</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2">
-        <v>45325</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2">
-        <v>45325</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D22" s="1" t="s">
+    <row r="23" spans="2:4">
+      <c r="B23" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>182</v>
+      <c r="B25" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>182</v>
+      <c r="B26" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3434,6 +3535,10 @@
     <hyperlink ref="B24" r:id="rId18" display="https://ac.nowcoder.com/acm/contest/67746/C"/>
     <hyperlink ref="B25" r:id="rId19" display="https://ac.nowcoder.com/acm/contest/67746/D"/>
     <hyperlink ref="B26" r:id="rId20" display="https://ac.nowcoder.com/acm/contest/67746/E"/>
+    <hyperlink ref="B27" r:id="rId21" display="https://ac.nowcoder.com/acm/contest/75766/B"/>
+    <hyperlink ref="B28" r:id="rId22" display="https://ac.nowcoder.com/acm/contest/75766/C"/>
+    <hyperlink ref="B29" r:id="rId23" display="https://ac.nowcoder.com/acm/contest/75766/D"/>
+    <hyperlink ref="B30" r:id="rId24" display="https://ac.nowcoder.com/acm/contest/75766/E"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3444,14 +3549,50 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="18.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>45347</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://ac.nowcoder.com/acm/contest/75766#question"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$9</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="248">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -593,6 +596,12 @@
     <t>1WA，在与质因数连边时，错误的只处理到根号范围内的因数，有可能根号范围外的因数才是质因数</t>
   </si>
   <si>
+    <t>https://codeforces.com/contest/1923/problem/D</t>
+  </si>
+  <si>
+    <t>二分</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
   </si>
   <si>
@@ -726,6 +735,51 @@
   </si>
   <si>
     <t>是否补完</t>
+  </si>
+  <si>
+    <t>2024牛客寒假算法基础集训营1</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67741</t>
+  </si>
+  <si>
+    <t>2024牛客寒假算法基础集训营2</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67742</t>
+  </si>
+  <si>
+    <t>差不多</t>
+  </si>
+  <si>
+    <t>2024牛客寒假算法基础集训营3</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67743</t>
+  </si>
+  <si>
+    <t>2024牛客寒假算法基础集训营4</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67744</t>
+  </si>
+  <si>
+    <t>2024牛客寒假算法基础集训营5</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67745</t>
+  </si>
+  <si>
+    <t>2024牛客寒假算法基础集训营6</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67746</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 162 (Rated for Div. 2)</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1923</t>
   </si>
   <si>
     <t>牛客周赛 Round 34</t>
@@ -755,7 +809,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,7 +817,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1217,12 +1271,12 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1347,7 +1401,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1357,23 +1411,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1698,1404 +1743,1418 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT77"/>
+  <dimension ref="A1:AT78"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.8916666666667" style="4" customWidth="1"/>
-    <col min="2" max="2" width="59" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15" style="4" customWidth="1"/>
-    <col min="4" max="4" width="49.5583333333333" style="4" customWidth="1"/>
-    <col min="5" max="5" width="78.3333333333333" style="9" customWidth="1"/>
-    <col min="6" max="6" width="8.89166666666667" style="4" customWidth="1"/>
-    <col min="7" max="12" width="9" style="9"/>
-    <col min="13" max="13" width="5.33333333333333" style="9" customWidth="1"/>
-    <col min="14" max="15" width="9" style="10" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="2.44166666666667" style="10" hidden="1" customWidth="1"/>
-    <col min="17" max="22" width="9" style="10" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="2.44166666666667" style="10" hidden="1" customWidth="1"/>
-    <col min="24" max="33" width="9" style="10" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="5.33333333333333" style="10" hidden="1" customWidth="1"/>
-    <col min="35" max="44" width="9" style="10" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="3" style="10" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="3.10833333333333" style="10" hidden="1" customWidth="1"/>
-    <col min="48" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="11.8916666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5583333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="78.3333333333333" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8.89166666666667" style="1" customWidth="1"/>
+    <col min="7" max="12" width="9" style="6"/>
+    <col min="13" max="13" width="5.33333333333333" style="6" customWidth="1"/>
+    <col min="14" max="15" width="9" style="7" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="2.44166666666667" style="7" hidden="1" customWidth="1"/>
+    <col min="17" max="22" width="9" style="7" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="2.44166666666667" style="7" hidden="1" customWidth="1"/>
+    <col min="24" max="33" width="9" style="7" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="5.33333333333333" style="7" hidden="1" customWidth="1"/>
+    <col min="35" max="44" width="9" style="7" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="3" style="7" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="3.10833333333333" style="7" hidden="1" customWidth="1"/>
+    <col min="48" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="49" customHeight="1" spans="1:6">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <v>45290</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="31" customHeight="1" spans="1:6">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <v>45290</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5">
+      <c r="A6" s="2">
         <v>45290</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:6">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>45290</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5">
+      <c r="A8" s="2">
         <v>45311</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5">
+      <c r="A9" s="2">
         <v>45314</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5">
+      <c r="A10" s="2">
         <v>45315</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="E10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5">
+      <c r="A11" s="2">
         <v>45315</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5">
+      <c r="A12" s="2">
         <v>45315</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5">
+      <c r="A13" s="2">
         <v>45316</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5">
+      <c r="A14" s="2">
         <v>45316</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="E14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5">
+      <c r="A15" s="2">
         <v>45317</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5">
+      <c r="A16" s="2">
         <v>45318</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5">
+      <c r="A17" s="2">
         <v>45319</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="E17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="5">
+      <c r="A18" s="2">
         <v>45319</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="5">
+      <c r="A19" s="2">
         <v>45321</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="5">
+      <c r="A20" s="2">
         <v>45322</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="6" t="s">
+      <c r="E20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="5">
+      <c r="A21" s="2">
         <v>45322</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="6" t="s">
+      <c r="E21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="5">
+      <c r="A22" s="2">
         <v>45322</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="5">
+      <c r="A23" s="2">
         <v>45323</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="6" t="s">
+      <c r="E23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="5">
+      <c r="A24" s="2">
         <v>45323</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="5">
+      <c r="A25" s="2">
         <v>45323</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="5">
+      <c r="A26" s="2">
         <v>45323</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="6"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="5">
+      <c r="A27" s="2">
         <v>45323</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="6"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="5">
+      <c r="A28" s="2">
         <v>45323</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="6"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="5">
+      <c r="A29" s="2">
         <v>45323</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="5">
+      <c r="A30" s="2">
         <v>45324</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="5">
+      <c r="A31" s="2">
         <v>45324</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="5">
+      <c r="A32" s="2">
         <v>45324</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" ht="45" customHeight="1" spans="1:46">
-      <c r="A33" s="5">
+      <c r="A33" s="2">
         <v>45324</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="12"/>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="12"/>
-      <c r="AD33" s="12"/>
-      <c r="AE33" s="12"/>
-      <c r="AF33" s="12"/>
-      <c r="AG33" s="12"/>
-      <c r="AH33" s="12"/>
-      <c r="AI33" s="12"/>
-      <c r="AJ33" s="12"/>
-      <c r="AK33" s="12"/>
-      <c r="AL33" s="12"/>
-      <c r="AM33" s="12"/>
-      <c r="AN33" s="12"/>
-      <c r="AO33" s="12"/>
-      <c r="AP33" s="12"/>
-      <c r="AQ33" s="12"/>
-      <c r="AR33" s="12"/>
-      <c r="AS33" s="12"/>
-      <c r="AT33" s="12"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="9"/>
+      <c r="AI33" s="9"/>
+      <c r="AJ33" s="9"/>
+      <c r="AK33" s="9"/>
+      <c r="AL33" s="9"/>
+      <c r="AM33" s="9"/>
+      <c r="AN33" s="9"/>
+      <c r="AO33" s="9"/>
+      <c r="AP33" s="9"/>
+      <c r="AQ33" s="9"/>
+      <c r="AR33" s="9"/>
+      <c r="AS33" s="9"/>
+      <c r="AT33" s="9"/>
     </row>
     <row r="34" ht="28" customHeight="1" spans="1:46">
-      <c r="A34" s="5">
+      <c r="A34" s="2">
         <v>45324</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="12"/>
-      <c r="AB34" s="12"/>
-      <c r="AC34" s="12"/>
-      <c r="AD34" s="12"/>
-      <c r="AE34" s="12"/>
-      <c r="AF34" s="12"/>
-      <c r="AG34" s="12"/>
-      <c r="AH34" s="12"/>
-      <c r="AI34" s="12"/>
-      <c r="AJ34" s="12"/>
-      <c r="AK34" s="12"/>
-      <c r="AL34" s="12"/>
-      <c r="AM34" s="12"/>
-      <c r="AN34" s="12"/>
-      <c r="AO34" s="12"/>
-      <c r="AP34" s="12"/>
-      <c r="AQ34" s="12"/>
-      <c r="AR34" s="12"/>
-      <c r="AS34" s="12"/>
-      <c r="AT34" s="12"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9"/>
+      <c r="AH34" s="9"/>
+      <c r="AI34" s="9"/>
+      <c r="AJ34" s="9"/>
+      <c r="AK34" s="9"/>
+      <c r="AL34" s="9"/>
+      <c r="AM34" s="9"/>
+      <c r="AN34" s="9"/>
+      <c r="AO34" s="9"/>
+      <c r="AP34" s="9"/>
+      <c r="AQ34" s="9"/>
+      <c r="AR34" s="9"/>
+      <c r="AS34" s="9"/>
+      <c r="AT34" s="9"/>
     </row>
     <row r="35" ht="28" customHeight="1" spans="1:46">
-      <c r="A35" s="5">
+      <c r="A35" s="2">
         <v>45324</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="12"/>
-      <c r="AB35" s="12"/>
-      <c r="AC35" s="12"/>
-      <c r="AD35" s="12"/>
-      <c r="AE35" s="12"/>
-      <c r="AF35" s="12"/>
-      <c r="AG35" s="12"/>
-      <c r="AH35" s="12"/>
-      <c r="AI35" s="12"/>
-      <c r="AJ35" s="12"/>
-      <c r="AK35" s="12"/>
-      <c r="AL35" s="12"/>
-      <c r="AM35" s="12"/>
-      <c r="AN35" s="12"/>
-      <c r="AO35" s="12"/>
-      <c r="AP35" s="12"/>
-      <c r="AQ35" s="12"/>
-      <c r="AR35" s="12"/>
-      <c r="AS35" s="12"/>
-      <c r="AT35" s="12"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="9"/>
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9"/>
+      <c r="AH35" s="9"/>
+      <c r="AI35" s="9"/>
+      <c r="AJ35" s="9"/>
+      <c r="AK35" s="9"/>
+      <c r="AL35" s="9"/>
+      <c r="AM35" s="9"/>
+      <c r="AN35" s="9"/>
+      <c r="AO35" s="9"/>
+      <c r="AP35" s="9"/>
+      <c r="AQ35" s="9"/>
+      <c r="AR35" s="9"/>
+      <c r="AS35" s="9"/>
+      <c r="AT35" s="9"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="5">
+      <c r="A36" s="2">
         <v>45325</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="5">
+      <c r="A37" s="2">
         <v>45325</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="6" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="5">
+      <c r="A38" s="2">
         <v>45325</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="5">
+      <c r="A39" s="2">
         <v>45325</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="5">
+      <c r="A40" s="2">
         <v>45325</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="5">
+      <c r="A41" s="2">
         <v>45326</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="1">
         <v>1900</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="5">
+      <c r="A42" s="2">
         <v>45326</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="1">
         <v>2100</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="5">
+      <c r="A43" s="2">
         <v>45326</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="1">
         <v>1800</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="5">
+      <c r="A44" s="2">
         <v>45326</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="1">
         <v>1500</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="6" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="5">
+      <c r="A45" s="2">
         <v>45326</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="5">
+      <c r="A46" s="2">
         <v>45327</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="5">
+      <c r="A47" s="2">
         <v>45327</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="5">
+      <c r="A48" s="2">
         <v>45327</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="49" ht="27" spans="1:5">
-      <c r="A49" s="5">
+      <c r="A49" s="2">
         <v>45327</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="5">
+      <c r="A50" s="2">
         <v>45327</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="5">
+      <c r="A51" s="2">
         <v>45327</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="5">
+      <c r="A52" s="2">
         <v>45328</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="5">
+      <c r="A53" s="2">
         <v>45328</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="5">
+      <c r="A54" s="2">
         <v>45328</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="5">
+      <c r="A55" s="2">
         <v>45328</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="5">
+      <c r="A56" s="2">
         <v>45330</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" ht="54" spans="1:5">
-      <c r="A57" s="5">
+      <c r="A57" s="2">
         <v>45330</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="5">
+      <c r="A58" s="2">
         <v>45330</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="5">
+      <c r="A59" s="2">
         <v>45330</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="5">
+      <c r="A60" s="2">
         <v>45340</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="5">
+      <c r="A61" s="2">
         <v>45340</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="6" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="5">
+      <c r="A62" s="2">
         <v>45340</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="63" ht="40.5" spans="1:5">
-      <c r="A63" s="5">
+      <c r="A63" s="2">
         <v>45341</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="8" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="5">
+      <c r="A64" s="2">
         <v>45341</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="5">
+      <c r="A65" s="2">
         <v>45341</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="5">
+      <c r="A66" s="2">
         <v>45341</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="6" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="5">
+      <c r="A67" s="2">
         <v>45341</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E67" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="5">
+      <c r="A68" s="2">
         <v>45341</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="5">
+      <c r="A69" s="2">
         <v>45342</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="5">
+      <c r="A70" s="2">
         <v>45342</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="6" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="5">
+      <c r="A71" s="2">
         <v>45344</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="5">
+      <c r="A72" s="2">
         <v>45344</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="5">
+      <c r="A73" s="2">
         <v>45344</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="E73" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="5">
+      <c r="A74" s="2">
         <v>45345</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E74" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="5">
+      <c r="A75" s="2">
         <v>45345</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="5">
+      <c r="A76" s="2">
         <v>45345</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E76" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="5">
+      <c r="A77" s="2">
         <v>45346</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="6" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="2">
+        <v>45347</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3196,6 +3255,7 @@
     <hyperlink ref="B75" r:id="rId85" display="https://ac.nowcoder.com/acm/contest/67746/J"/>
     <hyperlink ref="B76" r:id="rId86" display="https://ac.nowcoder.com/acm/contest/67745/C"/>
     <hyperlink ref="B77" r:id="rId87" display="https://ac.nowcoder.com/acm/contest/67746/F"/>
+    <hyperlink ref="B78" r:id="rId88" display="https://codeforces.com/contest/1923/problem/D"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3208,309 +3268,309 @@
   <sheetPr/>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="11.8916666666667" style="4" customWidth="1"/>
-    <col min="2" max="2" width="59" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15" style="4" customWidth="1"/>
-    <col min="4" max="4" width="57.8916666666667" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="11.8916666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="59" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="57.8916666666667" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" spans="1:5">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="21" customHeight="1" spans="1:4">
-      <c r="A4" s="5">
+    <row r="4" s="1" customFormat="1" ht="21" customHeight="1" spans="1:4">
+      <c r="A4" s="2">
         <v>45311</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" s="4" customFormat="1" ht="16" customHeight="1" spans="1:4">
-      <c r="A5" s="5">
+      <c r="B4" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
+      <c r="A5" s="2">
         <v>45311</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" s="4" customFormat="1" spans="1:4">
-      <c r="A6" s="5">
+      <c r="B5" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:4">
+      <c r="A6" s="2">
         <v>45311</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
+      <c r="A7" s="2">
+        <v>45311</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
+        <v>45318</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" s="4" customFormat="1" ht="15" customHeight="1" spans="1:4">
-      <c r="A7" s="5">
-        <v>45311</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>45318</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="5">
+      <c r="B9" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>45318</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5">
+      <c r="B10" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>45318</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="B11" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
+        <v>45318</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
+        <v>45318</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>45318</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="5">
-        <v>45318</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="5">
-        <v>45318</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="5">
-        <v>45318</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="5">
-        <v>45318</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="5">
-        <v>45322</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="5">
-        <v>45322</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="5">
-        <v>45323</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="5">
-        <v>45323</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="5">
-        <v>45325</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="5">
-        <v>45325</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="5">
-        <v>45325</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D22" s="4" t="s">
+    <row r="23" spans="2:4">
+      <c r="B23" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>185</v>
+      <c r="B25" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>185</v>
+      <c r="B26" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>185</v>
+      <c r="B27" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>221</v>
+      <c r="B28" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="B29" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>224</v>
+      <c r="B30" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3549,16 +3609,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="18.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="64.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.75" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
@@ -3566,32 +3626,122 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>45329</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>45343</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
         <v>45347</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>230</v>
+      <c r="B9" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A9">
+    <extLst/>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://ac.nowcoder.com/acm/contest/75766#question"/>
+    <hyperlink ref="C9" r:id="rId1" display="https://ac.nowcoder.com/acm/contest/75766#question"/>
+    <hyperlink ref="C7" r:id="rId2" display="https://ac.nowcoder.com/acm/contest/67746"/>
+    <hyperlink ref="C6" r:id="rId3" display="https://ac.nowcoder.com/acm/contest/67745"/>
+    <hyperlink ref="C2" r:id="rId4" display="https://ac.nowcoder.com/acm/contest/67741" tooltip="https://ac.nowcoder.com/acm/contest/67741"/>
+    <hyperlink ref="C5" r:id="rId5" display="https://ac.nowcoder.com/acm/contest/67744"/>
+    <hyperlink ref="C3" r:id="rId6" display="https://ac.nowcoder.com/acm/contest/67742"/>
+    <hyperlink ref="C4" r:id="rId7" display="https://ac.nowcoder.com/acm/contest/67743"/>
+    <hyperlink ref="C8" r:id="rId8" display="https://codeforces.com/contest/1923"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="250">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -600,6 +600,12 @@
   </si>
   <si>
     <t>二分</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/75766/F</t>
+  </si>
+  <si>
+    <t>异或，思维</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -1743,10 +1749,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT78"/>
+  <dimension ref="A1:AT79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3154,6 +3160,20 @@
         <v>185</v>
       </c>
       <c r="E78" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3256,6 +3276,7 @@
     <hyperlink ref="B76" r:id="rId86" display="https://ac.nowcoder.com/acm/contest/67745/C"/>
     <hyperlink ref="B77" r:id="rId87" display="https://ac.nowcoder.com/acm/contest/67746/F"/>
     <hyperlink ref="B78" r:id="rId88" display="https://codeforces.com/contest/1923/problem/D"/>
+    <hyperlink ref="B79" r:id="rId89" display="https://ac.nowcoder.com/acm/contest/75766/F"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3308,10 +3329,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -3319,10 +3340,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -3330,10 +3351,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -3341,10 +3362,10 @@
         <v>45311</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3352,10 +3373,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3363,10 +3384,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3374,7 +3395,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -3385,10 +3406,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3396,10 +3417,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3407,10 +3428,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3418,10 +3439,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3429,10 +3450,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3440,10 +3461,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3451,10 +3472,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3462,10 +3483,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3473,10 +3494,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3484,10 +3505,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3495,15 +3516,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -3511,15 +3532,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -3527,39 +3548,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -3567,10 +3588,10 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3626,16 +3647,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3643,10 +3664,10 @@
         <v>45324</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3654,13 +3675,13 @@
         <v>45327</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3668,10 +3689,10 @@
         <v>45329</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3679,10 +3700,10 @@
         <v>45341</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3690,10 +3711,10 @@
         <v>45343</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3701,10 +3722,10 @@
         <v>45345</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3712,10 +3733,10 @@
         <v>45345</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3723,10 +3744,10 @@
         <v>45347</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="9345" windowHeight="3840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="252">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -606,6 +606,12 @@
   </si>
   <si>
     <t>异或，思维</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1923/problem/E</t>
+  </si>
+  <si>
+    <t>dsu/虚树</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -1749,10 +1755,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT79"/>
+  <dimension ref="A1:AT80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="E74" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3174,6 +3180,20 @@
         <v>187</v>
       </c>
       <c r="E79" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="2">
+        <v>45349</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E80" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3277,6 +3297,7 @@
     <hyperlink ref="B77" r:id="rId87" display="https://ac.nowcoder.com/acm/contest/67746/F"/>
     <hyperlink ref="B78" r:id="rId88" display="https://codeforces.com/contest/1923/problem/D"/>
     <hyperlink ref="B79" r:id="rId89" display="https://ac.nowcoder.com/acm/contest/75766/F"/>
+    <hyperlink ref="B80" r:id="rId90" display="https://codeforces.com/contest/1923/problem/E"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3329,10 +3350,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -3340,10 +3361,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -3351,10 +3372,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -3362,10 +3383,10 @@
         <v>45311</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3373,10 +3394,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3384,10 +3405,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3395,7 +3416,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -3406,10 +3427,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3417,10 +3438,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3428,10 +3449,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3439,10 +3460,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3450,10 +3471,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3461,10 +3482,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3472,10 +3493,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3483,10 +3504,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3494,10 +3515,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3505,10 +3526,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3516,15 +3537,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -3532,15 +3553,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -3548,39 +3569,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -3588,10 +3609,10 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3647,16 +3668,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3664,10 +3685,10 @@
         <v>45324</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3675,13 +3696,13 @@
         <v>45327</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3689,10 +3710,10 @@
         <v>45329</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3700,10 +3721,10 @@
         <v>45341</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3711,10 +3732,10 @@
         <v>45343</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3722,10 +3743,10 @@
         <v>45345</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3733,10 +3754,10 @@
         <v>45345</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3744,10 +3765,10 @@
         <v>45347</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9345" windowHeight="3840"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="261">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -614,6 +614,15 @@
     <t>dsu/虚树</t>
   </si>
   <si>
+    <t>https://codeforces.com/contest/1933/problem/F</t>
+  </si>
+  <si>
+    <t>bfs/分层图</t>
+  </si>
+  <si>
+    <t>1WA，我用分层图的思想，但是没注意到题目条件提供的向上移动条件实际上用不到，导致状态数过多，导致超时。</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
   </si>
   <si>
@@ -735,6 +744,24 @@
   </si>
   <si>
     <t>dfs</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1933/problem/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1933/problem/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1933/problem/C</t>
+  </si>
+  <si>
+    <t>枚举</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1933/problem/D</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1933/problem/E</t>
   </si>
   <si>
     <t>时间</t>
@@ -1755,10 +1782,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT80"/>
+  <dimension ref="A1:AT81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E74" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3195,6 +3222,20 @@
       </c>
       <c r="E80" s="6" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="2">
+        <v>45350</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3298,6 +3339,7 @@
     <hyperlink ref="B78" r:id="rId88" display="https://codeforces.com/contest/1923/problem/D"/>
     <hyperlink ref="B79" r:id="rId89" display="https://ac.nowcoder.com/acm/contest/75766/F"/>
     <hyperlink ref="B80" r:id="rId90" display="https://codeforces.com/contest/1923/problem/E"/>
+    <hyperlink ref="B81" r:id="rId91" display="https://codeforces.com/contest/1933/problem/F"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3308,10 +3350,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3350,10 +3392,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -3361,10 +3403,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -3372,10 +3414,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -3383,10 +3425,10 @@
         <v>45311</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3394,10 +3436,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3405,10 +3447,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3416,7 +3458,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -3427,10 +3469,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3438,10 +3480,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3449,10 +3491,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3460,10 +3502,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3471,10 +3513,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3482,10 +3524,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3493,10 +3535,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3504,10 +3546,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3515,10 +3557,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3526,10 +3568,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3537,15 +3579,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -3553,15 +3595,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -3569,39 +3611,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -3609,10 +3651,41 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3641,6 +3714,11 @@
     <hyperlink ref="B28" r:id="rId22" display="https://ac.nowcoder.com/acm/contest/75766/C"/>
     <hyperlink ref="B29" r:id="rId23" display="https://ac.nowcoder.com/acm/contest/75766/D"/>
     <hyperlink ref="B30" r:id="rId24" display="https://ac.nowcoder.com/acm/contest/75766/E"/>
+    <hyperlink ref="B31" r:id="rId25" display="https://codeforces.com/contest/1933/problem/A"/>
+    <hyperlink ref="B32" r:id="rId26" display="https://codeforces.com/contest/1933/problem/B"/>
+    <hyperlink ref="B33" r:id="rId27" display="https://codeforces.com/contest/1933/problem/C"/>
+    <hyperlink ref="B34" r:id="rId28" display="https://codeforces.com/contest/1933/problem/D"/>
+    <hyperlink ref="B35" r:id="rId29" display="https://codeforces.com/contest/1933/problem/E"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3668,16 +3746,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3685,10 +3763,10 @@
         <v>45324</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3696,13 +3774,13 @@
         <v>45327</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3710,10 +3788,10 @@
         <v>45329</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3721,10 +3799,10 @@
         <v>45341</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3732,10 +3810,10 @@
         <v>45343</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3743,10 +3821,10 @@
         <v>45345</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3754,10 +3832,10 @@
         <v>45345</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3765,10 +3843,10 @@
         <v>45347</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="20445" windowHeight="10215" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="278">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -764,6 +764,9 @@
     <t>https://codeforces.com/contest/1933/problem/E</t>
   </si>
   <si>
+    <t>https://ac.nowcoder.com/acm/contest/67745/M</t>
+  </si>
+  <si>
     <t>时间</t>
   </si>
   <si>
@@ -825,6 +828,54 @@
   </si>
   <si>
     <t>https://ac.nowcoder.com/acm/contest/75766#question</t>
+  </si>
+  <si>
+    <t>Codeforces Round 929 (Div. 3)</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1933</t>
+  </si>
+  <si>
+    <t>2024 ZJUT11 Selection 1</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/contest/610493</t>
+  </si>
+  <si>
+    <t>2024 ZJUT11 Selection 2</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/contest/611008</t>
+  </si>
+  <si>
+    <t>2024 ZJUT11 Selection 3</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/contest/611325</t>
+  </si>
+  <si>
+    <t>ZJUT 2022 Reteam 5 &amp; 2023 ZJUT11 Selection 8</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/contest/601145</t>
+  </si>
+  <si>
+    <t>ZJUT2023秋季 12.21周四个人赛/14 计算几何</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/contest/600873</t>
+  </si>
+  <si>
+    <t>ZJUT2023秋季 12.14周四个人赛/ 13 数据结构(二)</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/contest/599941</t>
+  </si>
+  <si>
+    <t>ZJUT 2022 Reteam 4 &amp; 2023 ZJUT11 Selection 5</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/contest/600271</t>
   </si>
 </sst>
 </file>
@@ -1782,10 +1833,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT81"/>
+  <dimension ref="A1:AT82"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3237,6 +3288,12 @@
       <c r="E81" s="6" t="s">
         <v>192</v>
       </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2">
+        <v>45350</v>
+      </c>
+      <c r="B82" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3350,10 +3407,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3686,6 +3743,14 @@
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3719,6 +3784,7 @@
     <hyperlink ref="B33" r:id="rId27" display="https://codeforces.com/contest/1933/problem/C"/>
     <hyperlink ref="B34" r:id="rId28" display="https://codeforces.com/contest/1933/problem/D"/>
     <hyperlink ref="B35" r:id="rId29" display="https://codeforces.com/contest/1933/problem/E"/>
+    <hyperlink ref="B36" r:id="rId30" display="https://ac.nowcoder.com/acm/contest/67745/M"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3729,10 +3795,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3746,16 +3812,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3763,10 +3829,10 @@
         <v>45324</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3774,13 +3840,13 @@
         <v>45327</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3788,10 +3854,10 @@
         <v>45329</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C4" s="4" t="s">
         <v>250</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3799,10 +3865,10 @@
         <v>45341</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3810,10 +3876,10 @@
         <v>45343</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6" s="4" t="s">
         <v>254</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3821,10 +3887,10 @@
         <v>45345</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3832,10 +3898,10 @@
         <v>45345</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3843,14 +3909,108 @@
         <v>45347</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>45349</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
+        <v>45340</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>45342</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>45344</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>45284</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>45281</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>45274</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
+        <v>45277</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A9">
+  <autoFilter ref="A1:A10">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -3862,6 +4022,14 @@
     <hyperlink ref="C3" r:id="rId6" display="https://ac.nowcoder.com/acm/contest/67742"/>
     <hyperlink ref="C4" r:id="rId7" display="https://ac.nowcoder.com/acm/contest/67743"/>
     <hyperlink ref="C8" r:id="rId8" display="https://codeforces.com/contest/1923"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://codeforces.com/contest/1933"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://vjudge.net/contest/610493"/>
+    <hyperlink ref="C12" r:id="rId11" display="https://vjudge.net/contest/611008"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://vjudge.net/contest/611325"/>
+    <hyperlink ref="C14" r:id="rId13" display="https://vjudge.net/contest/601145"/>
+    <hyperlink ref="C15" r:id="rId14" display="https://vjudge.net/contest/600873"/>
+    <hyperlink ref="C16" r:id="rId15" display="https://vjudge.net/contest/599941"/>
+    <hyperlink ref="C17" r:id="rId16" display="https://vjudge.net/contest/600271"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20445" windowHeight="10215" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="281">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -623,6 +623,15 @@
     <t>1WA，我用分层图的思想，但是没注意到题目条件提供的向上移动条件实际上用不到，导致状态数过多，导致超时。</t>
   </si>
   <si>
+    <t>https://ac.nowcoder.com/acm/contest/75766/G</t>
+  </si>
+  <si>
+    <t>置换环</t>
+  </si>
+  <si>
+    <t>1WA，没考虑清楚不存在的情况，即使只有一种颜色但是如果原数组是有序的，那么操作次数即为0</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
   </si>
   <si>
@@ -827,7 +836,7 @@
     <t>牛客周赛 Round 34</t>
   </si>
   <si>
-    <t>https://ac.nowcoder.com/acm/contest/75766#question</t>
+    <t>https://ac.nowcoder.com/acm/contest/75766</t>
   </si>
   <si>
     <t>Codeforces Round 929 (Div. 3)</t>
@@ -1835,8 +1844,8 @@
   <sheetPr/>
   <dimension ref="A1:AT82"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3289,11 +3298,19 @@
         <v>192</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>45350</v>
-      </c>
-      <c r="B82" s="4"/>
+        <v>45351</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3397,6 +3414,7 @@
     <hyperlink ref="B79" r:id="rId89" display="https://ac.nowcoder.com/acm/contest/75766/F"/>
     <hyperlink ref="B80" r:id="rId90" display="https://codeforces.com/contest/1923/problem/E"/>
     <hyperlink ref="B81" r:id="rId91" display="https://codeforces.com/contest/1933/problem/F"/>
+    <hyperlink ref="B82" r:id="rId92" display="https://ac.nowcoder.com/acm/contest/75766/G"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3409,7 +3427,7 @@
   <sheetPr/>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -3449,10 +3467,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -3460,10 +3478,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -3471,10 +3489,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -3482,10 +3500,10 @@
         <v>45311</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3493,10 +3511,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3504,10 +3522,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3515,7 +3533,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -3526,10 +3544,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3537,10 +3555,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3548,10 +3566,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3559,10 +3577,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3570,10 +3588,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3581,10 +3599,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3592,10 +3610,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3603,10 +3621,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3614,10 +3632,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3625,10 +3643,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3636,15 +3654,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -3652,15 +3670,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -3668,39 +3686,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -3708,38 +3726,38 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -3747,7 +3765,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -3798,7 +3816,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3812,16 +3830,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3829,10 +3847,10 @@
         <v>45324</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3840,13 +3858,13 @@
         <v>45327</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3854,10 +3872,10 @@
         <v>45329</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3865,10 +3883,10 @@
         <v>45341</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3876,10 +3894,10 @@
         <v>45343</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3887,10 +3905,10 @@
         <v>45345</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3898,21 +3916,24 @@
         <v>45345</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>45347</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>261</v>
+        <v>263</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3920,10 +3941,10 @@
         <v>45349</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3931,10 +3952,10 @@
         <v>45340</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -3945,10 +3966,10 @@
         <v>45342</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3956,10 +3977,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3967,10 +3988,10 @@
         <v>45284</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3978,10 +3999,10 @@
         <v>45281</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3989,10 +4010,10 @@
         <v>45274</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4000,21 +4021,21 @@
         <v>45277</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A10">
+  <autoFilter ref="A1:A17">
     <extLst/>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" display="https://ac.nowcoder.com/acm/contest/75766#question"/>
+    <hyperlink ref="C9" r:id="rId1" display="https://ac.nowcoder.com/acm/contest/75766" tooltip="https://ac.nowcoder.com/acm/contest/75766"/>
     <hyperlink ref="C7" r:id="rId2" display="https://ac.nowcoder.com/acm/contest/67746"/>
     <hyperlink ref="C6" r:id="rId3" display="https://ac.nowcoder.com/acm/contest/67745"/>
     <hyperlink ref="C2" r:id="rId4" display="https://ac.nowcoder.com/acm/contest/67741" tooltip="https://ac.nowcoder.com/acm/contest/67741"/>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="294">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -632,6 +632,21 @@
     <t>1WA，没考虑清楚不存在的情况，即使只有一种颜色但是如果原数组是有序的，那么操作次数即为0</t>
   </si>
   <si>
+    <t>https://codeforces.com/contest/1937/problem/D</t>
+  </si>
+  <si>
+    <t>前缀和，二分</t>
+  </si>
+  <si>
+    <t>1WA，在坐a-(b-c)时未加括号，并且左右没注意</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1937/problem/C</t>
+  </si>
+  <si>
+    <t>交互题，位运算</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
   </si>
   <si>
@@ -776,6 +791,18 @@
     <t>https://ac.nowcoder.com/acm/contest/67745/M</t>
   </si>
   <si>
+    <t>https://codeforces.com/contest/1937/problem/A</t>
+  </si>
+  <si>
+    <t>幂</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1937/problem/B</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/75768/C</t>
+  </si>
+  <si>
     <t>时间</t>
   </si>
   <si>
@@ -885,6 +912,18 @@
   </si>
   <si>
     <t>https://vjudge.net/contest/600271</t>
+  </si>
+  <si>
+    <t>牛客练习赛122</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/75768</t>
+  </si>
+  <si>
+    <t>Codeforces Round 930 (Div. 2)</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1937</t>
   </si>
 </sst>
 </file>
@@ -1842,10 +1881,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT82"/>
+  <dimension ref="A1:AT84"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3288,7 +3327,7 @@
       <c r="A81" s="2">
         <v>45350</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>190</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -3310,6 +3349,34 @@
       </c>
       <c r="E82" s="6" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3415,6 +3482,8 @@
     <hyperlink ref="B80" r:id="rId90" display="https://codeforces.com/contest/1923/problem/E"/>
     <hyperlink ref="B81" r:id="rId91" display="https://codeforces.com/contest/1933/problem/F"/>
     <hyperlink ref="B82" r:id="rId92" display="https://ac.nowcoder.com/acm/contest/75766/G"/>
+    <hyperlink ref="B83" r:id="rId93" display="https://codeforces.com/contest/1937/problem/D"/>
+    <hyperlink ref="B84" r:id="rId94" display="https://codeforces.com/contest/1937/problem/C"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3425,10 +3494,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3467,10 +3536,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -3478,10 +3547,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -3489,10 +3558,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -3500,10 +3569,10 @@
         <v>45311</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3511,10 +3580,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3522,10 +3591,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3533,7 +3602,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -3544,10 +3613,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3555,10 +3624,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3566,10 +3635,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3577,10 +3646,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3588,10 +3657,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3599,10 +3668,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3610,10 +3679,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3621,10 +3690,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3632,10 +3701,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3643,10 +3712,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3654,15 +3723,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="4" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -3670,15 +3739,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="4" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="4" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -3686,39 +3755,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="4" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="4" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="4" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="4" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="4" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -3726,38 +3795,38 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="4" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="4" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="4" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="4" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="4" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="4" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -3765,10 +3834,34 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="4" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3803,6 +3896,9 @@
     <hyperlink ref="B34" r:id="rId28" display="https://codeforces.com/contest/1933/problem/D"/>
     <hyperlink ref="B35" r:id="rId29" display="https://codeforces.com/contest/1933/problem/E"/>
     <hyperlink ref="B36" r:id="rId30" display="https://ac.nowcoder.com/acm/contest/67745/M"/>
+    <hyperlink ref="B37" r:id="rId31" display="https://codeforces.com/contest/1937/problem/A"/>
+    <hyperlink ref="B38" r:id="rId32" display="https://codeforces.com/contest/1937/problem/B"/>
+    <hyperlink ref="B39" r:id="rId33" display="https://ac.nowcoder.com/acm/contest/75768/C"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3813,10 +3909,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3830,16 +3926,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3847,10 +3943,10 @@
         <v>45324</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3858,13 +3954,13 @@
         <v>45327</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3872,10 +3968,10 @@
         <v>45329</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3883,10 +3979,10 @@
         <v>45341</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3894,10 +3990,10 @@
         <v>45343</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3905,10 +4001,10 @@
         <v>45345</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3916,10 +4012,10 @@
         <v>45345</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3927,10 +4023,10 @@
         <v>45347</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -3941,10 +4037,10 @@
         <v>45349</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3952,10 +4048,10 @@
         <v>45340</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -3966,10 +4062,10 @@
         <v>45342</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3977,10 +4073,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3988,10 +4084,10 @@
         <v>45284</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3999,10 +4095,10 @@
         <v>45281</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4010,10 +4106,10 @@
         <v>45274</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4021,13 +4117,35 @@
         <v>45277</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -4051,6 +4169,8 @@
     <hyperlink ref="C15" r:id="rId14" display="https://vjudge.net/contest/600873"/>
     <hyperlink ref="C16" r:id="rId15" display="https://vjudge.net/contest/599941"/>
     <hyperlink ref="C17" r:id="rId16" display="https://vjudge.net/contest/600271"/>
+    <hyperlink ref="C18" r:id="rId17" display="https://ac.nowcoder.com/acm/contest/75768"/>
+    <hyperlink ref="C19" r:id="rId18" display="https://codeforces.com/contest/1937"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="299">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -645,6 +645,21 @@
   </si>
   <si>
     <t>交互题，位运算</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P7864</t>
+  </si>
+  <si>
+    <t>博弈</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/103049/problem/F</t>
+  </si>
+  <si>
+    <t>优先队列</t>
+  </si>
+  <si>
+    <t>1WA，卡精度，将除法的结果改成乘法比较后AC。</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -1881,10 +1896,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT84"/>
+  <dimension ref="A1:AT86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3377,6 +3392,34 @@
       </c>
       <c r="E84" s="6" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="2">
+        <v>45353</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="2">
+        <v>45354</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3484,6 +3527,8 @@
     <hyperlink ref="B82" r:id="rId92" display="https://ac.nowcoder.com/acm/contest/75766/G"/>
     <hyperlink ref="B83" r:id="rId93" display="https://codeforces.com/contest/1937/problem/D"/>
     <hyperlink ref="B84" r:id="rId94" display="https://codeforces.com/contest/1937/problem/C"/>
+    <hyperlink ref="B85" r:id="rId95" display="https://www.luogu.com.cn/problem/P7864"/>
+    <hyperlink ref="B86" r:id="rId96" display="https://codeforces.com/gym/103049/problem/F"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3536,10 +3581,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -3547,10 +3592,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -3558,10 +3603,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -3569,10 +3614,10 @@
         <v>45311</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3580,10 +3625,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3591,10 +3636,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3602,7 +3647,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -3613,10 +3658,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3624,10 +3669,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3635,10 +3680,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3646,10 +3691,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3657,10 +3702,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3668,10 +3713,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3679,10 +3724,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3690,10 +3735,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3701,10 +3746,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3712,10 +3757,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3723,15 +3768,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="4" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -3739,15 +3784,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="4" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="4" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -3755,39 +3800,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="4" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="4" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="4" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="4" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="4" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -3795,38 +3840,38 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="4" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="4" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="4" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="4" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="4" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="4" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -3834,7 +3879,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -3842,15 +3887,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="4" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="4" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -3858,10 +3903,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="4" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3926,16 +3971,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3943,10 +3988,10 @@
         <v>45324</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3954,13 +3999,13 @@
         <v>45327</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3968,10 +4013,10 @@
         <v>45329</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3979,10 +4024,10 @@
         <v>45341</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3990,10 +4035,10 @@
         <v>45343</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4001,10 +4046,10 @@
         <v>45345</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4012,10 +4057,10 @@
         <v>45345</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4023,10 +4068,10 @@
         <v>45347</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -4037,10 +4082,10 @@
         <v>45349</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4048,10 +4093,10 @@
         <v>45340</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -4062,10 +4107,10 @@
         <v>45342</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4073,10 +4118,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4084,10 +4129,10 @@
         <v>45284</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4095,10 +4140,10 @@
         <v>45281</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4106,10 +4151,10 @@
         <v>45274</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4117,10 +4162,10 @@
         <v>45277</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -4131,10 +4176,10 @@
         <v>45352</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4142,14 +4187,14 @@
         <v>45352</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A17">
+  <autoFilter ref="A1:A19">
     <extLst/>
   </autoFilter>
   <hyperlinks>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="316">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -662,6 +662,24 @@
     <t>1WA，卡精度，将除法的结果改成乘法比较后AC。</t>
   </si>
   <si>
+    <t>https://ac.nowcoder.com/acm/contest/67742/D</t>
+  </si>
+  <si>
+    <t>同余最短路</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1935/problem/C</t>
+  </si>
+  <si>
+    <t>排序，堆</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1935/problem/D</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
   </si>
   <si>
@@ -818,6 +836,15 @@
     <t>https://ac.nowcoder.com/acm/contest/75768/C</t>
   </si>
   <si>
+    <t>https://codeforces.com/contest/1935/problem/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1935/problem/B</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
     <t>时间</t>
   </si>
   <si>
@@ -830,6 +857,30 @@
     <t>是否补完</t>
   </si>
   <si>
+    <t>ZJUT2023秋季 12.14周四个人赛/ 13 数据结构(二)</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/contest/599941</t>
+  </si>
+  <si>
+    <t>ZJUT 2022 Reteam 4 &amp; 2023 ZJUT11 Selection 5</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/contest/600271</t>
+  </si>
+  <si>
+    <t>ZJUT2023秋季 12.21周四个人赛/14 计算几何</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/contest/600873</t>
+  </si>
+  <si>
+    <t>ZJUT 2022 Reteam 5 &amp; 2023 ZJUT11 Selection 8</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/contest/601145</t>
+  </si>
+  <si>
     <t>2024牛客寒假算法基础集训营1</t>
   </si>
   <si>
@@ -851,18 +902,36 @@
     <t>https://ac.nowcoder.com/acm/contest/67743</t>
   </si>
   <si>
+    <t>2024 ZJUT11 Selection 1</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/contest/610493</t>
+  </si>
+  <si>
     <t>2024牛客寒假算法基础集训营4</t>
   </si>
   <si>
     <t>https://ac.nowcoder.com/acm/contest/67744</t>
   </si>
   <si>
+    <t>2024 ZJUT11 Selection 2</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/contest/611008</t>
+  </si>
+  <si>
     <t>2024牛客寒假算法基础集训营5</t>
   </si>
   <si>
     <t>https://ac.nowcoder.com/acm/contest/67745</t>
   </si>
   <si>
+    <t>2024 ZJUT11 Selection 3</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/contest/611325</t>
+  </si>
+  <si>
     <t>2024牛客寒假算法基础集训营6</t>
   </si>
   <si>
@@ -887,46 +956,16 @@
     <t>https://codeforces.com/contest/1933</t>
   </si>
   <si>
-    <t>2024 ZJUT11 Selection 1</t>
-  </si>
-  <si>
-    <t>https://vjudge.net/contest/610493</t>
-  </si>
-  <si>
-    <t>2024 ZJUT11 Selection 2</t>
-  </si>
-  <si>
-    <t>https://vjudge.net/contest/611008</t>
-  </si>
-  <si>
-    <t>2024 ZJUT11 Selection 3</t>
-  </si>
-  <si>
-    <t>https://vjudge.net/contest/611325</t>
-  </si>
-  <si>
-    <t>ZJUT 2022 Reteam 5 &amp; 2023 ZJUT11 Selection 8</t>
-  </si>
-  <si>
-    <t>https://vjudge.net/contest/601145</t>
-  </si>
-  <si>
-    <t>ZJUT2023秋季 12.21周四个人赛/14 计算几何</t>
-  </si>
-  <si>
-    <t>https://vjudge.net/contest/600873</t>
-  </si>
-  <si>
-    <t>ZJUT2023秋季 12.14周四个人赛/ 13 数据结构(二)</t>
-  </si>
-  <si>
-    <t>https://vjudge.net/contest/599941</t>
-  </si>
-  <si>
-    <t>ZJUT 2022 Reteam 4 &amp; 2023 ZJUT11 Selection 5</t>
-  </si>
-  <si>
-    <t>https://vjudge.net/contest/600271</t>
+    <t>Codeforces Round 930 (Div. 2)</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1937</t>
+  </si>
+  <si>
+    <t>2024春季个人训练赛Week1</t>
+  </si>
+  <si>
+    <t>https://vjudge.net.cn/contest/612940</t>
   </si>
   <si>
     <t>牛客练习赛122</t>
@@ -935,10 +974,22 @@
     <t>https://ac.nowcoder.com/acm/contest/75768</t>
   </si>
   <si>
-    <t>Codeforces Round 930 (Div. 2)</t>
-  </si>
-  <si>
-    <t>https://codeforces.com/contest/1937</t>
+    <t>Codeforces Round 931 (Div. 2)</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1934</t>
+  </si>
+  <si>
+    <t>2020-2021 ICPC Northwestern European Regional Programming Contest (NWERC 2020)</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/103049</t>
+  </si>
+  <si>
+    <t>Codeforces Round 932 (Div. 2)</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1935</t>
   </si>
 </sst>
 </file>
@@ -962,7 +1013,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -970,7 +1021,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1424,10 +1475,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1564,10 +1615,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1896,10 +1947,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT86"/>
+  <dimension ref="A1:AT89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1959,7 +2010,7 @@
       <c r="A4" s="2">
         <v>45290</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1968,7 +2019,7 @@
       <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1976,7 +2027,7 @@
       <c r="A5" s="2">
         <v>45290</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1985,7 +2036,7 @@
       <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1993,13 +2044,13 @@
       <c r="A6" s="2">
         <v>45290</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2007,7 +2058,7 @@
       <c r="A7" s="2">
         <v>45290</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -2016,7 +2067,7 @@
       <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2024,7 +2075,7 @@
       <c r="A8" s="2">
         <v>45311</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2033,7 +2084,7 @@
       <c r="E8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2041,7 +2092,7 @@
       <c r="A9" s="2">
         <v>45314</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2050,7 +2101,7 @@
       <c r="E9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2058,7 +2109,7 @@
       <c r="A10" s="2">
         <v>45315</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2067,7 +2118,7 @@
       <c r="E10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2075,7 +2126,7 @@
       <c r="A11" s="2">
         <v>45315</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2084,7 +2135,7 @@
       <c r="E11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2092,7 +2143,7 @@
       <c r="A12" s="2">
         <v>45315</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2101,7 +2152,7 @@
       <c r="E12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2109,7 +2160,7 @@
       <c r="A13" s="2">
         <v>45316</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2118,7 +2169,7 @@
       <c r="E13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2126,7 +2177,7 @@
       <c r="A14" s="2">
         <v>45316</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2135,7 +2186,7 @@
       <c r="E14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2143,7 +2194,7 @@
       <c r="A15" s="2">
         <v>45317</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2152,7 +2203,7 @@
       <c r="E15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2160,7 +2211,7 @@
       <c r="A16" s="2">
         <v>45318</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2169,7 +2220,7 @@
       <c r="E16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2177,7 +2228,7 @@
       <c r="A17" s="2">
         <v>45319</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -2186,7 +2237,7 @@
       <c r="E17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2194,7 +2245,7 @@
       <c r="A18" s="2">
         <v>45319</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2203,7 +2254,7 @@
       <c r="E18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2211,7 +2262,7 @@
       <c r="A19" s="2">
         <v>45321</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2220,7 +2271,7 @@
       <c r="E19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2228,7 +2279,7 @@
       <c r="A20" s="2">
         <v>45322</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2237,7 +2288,7 @@
       <c r="E20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2245,7 +2296,7 @@
       <c r="A21" s="2">
         <v>45322</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -2254,7 +2305,7 @@
       <c r="E21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2262,7 +2313,7 @@
       <c r="A22" s="2">
         <v>45322</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -2271,7 +2322,7 @@
       <c r="E22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2279,7 +2330,7 @@
       <c r="A23" s="2">
         <v>45323</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2291,7 +2342,7 @@
       <c r="E23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2299,7 +2350,7 @@
       <c r="A24" s="2">
         <v>45323</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2311,13 +2362,13 @@
       <c r="E24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>45323</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2329,13 +2380,13 @@
       <c r="E25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>45323</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2347,13 +2398,13 @@
       <c r="E26" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>45323</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2365,13 +2416,13 @@
       <c r="E27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>45323</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2383,13 +2434,13 @@
       <c r="E28" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>45323</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2406,7 +2457,7 @@
       <c r="A30" s="2">
         <v>45324</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2423,7 +2474,7 @@
       <c r="A31" s="2">
         <v>45324</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -2440,7 +2491,7 @@
       <c r="A32" s="2">
         <v>45324</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2457,7 +2508,7 @@
       <c r="A33" s="2">
         <v>45324</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -2514,7 +2565,7 @@
       <c r="A34" s="2">
         <v>45324</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -2571,7 +2622,7 @@
       <c r="A35" s="2">
         <v>45324</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2628,7 +2679,7 @@
       <c r="A36" s="2">
         <v>45325</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -2645,7 +2696,7 @@
       <c r="A37" s="2">
         <v>45325</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2662,7 +2713,7 @@
       <c r="A38" s="2">
         <v>45325</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -2679,7 +2730,7 @@
       <c r="A39" s="2">
         <v>45325</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -2696,7 +2747,7 @@
       <c r="A40" s="2">
         <v>45325</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -2713,7 +2764,7 @@
       <c r="A41" s="2">
         <v>45326</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C41" s="1">
@@ -2730,7 +2781,7 @@
       <c r="A42" s="2">
         <v>45326</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C42" s="1">
@@ -2747,7 +2798,7 @@
       <c r="A43" s="2">
         <v>45326</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C43" s="1">
@@ -2764,7 +2815,7 @@
       <c r="A44" s="2">
         <v>45326</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C44" s="1">
@@ -2781,7 +2832,7 @@
       <c r="A45" s="2">
         <v>45326</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2798,7 +2849,7 @@
       <c r="A46" s="2">
         <v>45327</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -2815,7 +2866,7 @@
       <c r="A47" s="2">
         <v>45327</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -2829,7 +2880,7 @@
       <c r="A48" s="2">
         <v>45327</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -2846,7 +2897,7 @@
       <c r="A49" s="2">
         <v>45327</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -2863,7 +2914,7 @@
       <c r="A50" s="2">
         <v>45327</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -2880,7 +2931,7 @@
       <c r="A51" s="2">
         <v>45327</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -2897,7 +2948,7 @@
       <c r="A52" s="2">
         <v>45328</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>129</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -2911,7 +2962,7 @@
       <c r="A53" s="2">
         <v>45328</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -2925,7 +2976,7 @@
       <c r="A54" s="2">
         <v>45328</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -2942,7 +2993,7 @@
       <c r="A55" s="2">
         <v>45328</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -2959,7 +3010,7 @@
       <c r="A56" s="2">
         <v>45330</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -2976,7 +3027,7 @@
       <c r="A57" s="2">
         <v>45330</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -2993,7 +3044,7 @@
       <c r="A58" s="2">
         <v>45330</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -3010,7 +3061,7 @@
       <c r="A59" s="2">
         <v>45330</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>142</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -3027,7 +3078,7 @@
       <c r="A60" s="2">
         <v>45340</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -3044,7 +3095,7 @@
       <c r="A61" s="2">
         <v>45340</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>145</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -3061,7 +3112,7 @@
       <c r="A62" s="2">
         <v>45340</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -3078,7 +3129,7 @@
       <c r="A63" s="2">
         <v>45341</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -3095,7 +3146,7 @@
       <c r="A64" s="2">
         <v>45341</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>153</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -3109,7 +3160,7 @@
       <c r="A65" s="2">
         <v>45341</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -3126,7 +3177,7 @@
       <c r="A66" s="2">
         <v>45341</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -3143,7 +3194,7 @@
       <c r="A67" s="2">
         <v>45341</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>158</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -3160,7 +3211,7 @@
       <c r="A68" s="2">
         <v>45341</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>159</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -3174,7 +3225,7 @@
       <c r="A69" s="2">
         <v>45342</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>161</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -3188,7 +3239,7 @@
       <c r="A70" s="2">
         <v>45342</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>163</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -3202,7 +3253,7 @@
       <c r="A71" s="2">
         <v>45344</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>165</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -3216,7 +3267,7 @@
       <c r="A72" s="2">
         <v>45344</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>168</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -3230,7 +3281,7 @@
       <c r="A73" s="2">
         <v>45344</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>170</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -3244,7 +3295,7 @@
       <c r="A74" s="2">
         <v>45345</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -3258,7 +3309,7 @@
       <c r="A75" s="2">
         <v>45345</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>175</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -3272,7 +3323,7 @@
       <c r="A76" s="2">
         <v>45345</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>178</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -3286,7 +3337,7 @@
       <c r="A77" s="2">
         <v>45346</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -3300,7 +3351,7 @@
       <c r="A78" s="2">
         <v>45347</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>184</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -3314,7 +3365,7 @@
       <c r="A79" s="2">
         <v>45348</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>186</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -3328,7 +3379,7 @@
       <c r="A80" s="2">
         <v>45349</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>188</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -3342,7 +3393,7 @@
       <c r="A81" s="2">
         <v>45350</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="4" t="s">
         <v>190</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -3356,7 +3407,7 @@
       <c r="A82" s="2">
         <v>45351</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>193</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -3370,7 +3421,7 @@
       <c r="A83" s="2">
         <v>45352</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>196</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -3384,7 +3435,7 @@
       <c r="A84" s="2">
         <v>45352</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -3398,7 +3449,7 @@
       <c r="A85" s="2">
         <v>45353</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>201</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -3412,7 +3463,7 @@
       <c r="A86" s="2">
         <v>45354</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="3" t="s">
         <v>203</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -3420,6 +3471,48 @@
       </c>
       <c r="E86" s="6" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="2">
+        <v>45356</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="2">
+        <v>45356</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3529,6 +3622,9 @@
     <hyperlink ref="B84" r:id="rId94" display="https://codeforces.com/contest/1937/problem/C"/>
     <hyperlink ref="B85" r:id="rId95" display="https://www.luogu.com.cn/problem/P7864"/>
     <hyperlink ref="B86" r:id="rId96" display="https://codeforces.com/gym/103049/problem/F"/>
+    <hyperlink ref="B87" r:id="rId97" display="https://ac.nowcoder.com/acm/contest/67742/D"/>
+    <hyperlink ref="B88" r:id="rId98" display="https://codeforces.com/contest/1935/problem/C"/>
+    <hyperlink ref="B89" r:id="rId99" display="https://codeforces.com/contest/1935/problem/D"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3539,10 +3635,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3580,74 +3676,74 @@
       <c r="A4" s="2">
         <v>45311</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>206</v>
+      <c r="B4" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
       <c r="A5" s="2">
         <v>45311</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>208</v>
+      <c r="B5" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
       <c r="A6" s="2">
         <v>45311</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>209</v>
+      <c r="B6" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
       <c r="A7" s="2">
         <v>45311</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>211</v>
+      <c r="B7" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>45318</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>45318</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>214</v>
+      <c r="B9" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>45318</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>216</v>
+      <c r="B10" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -3657,256 +3753,275 @@
       <c r="A11" s="2">
         <v>45318</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>217</v>
+      <c r="B11" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>45318</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>219</v>
+      <c r="B12" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>45318</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>221</v>
+      <c r="B13" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
         <v>45318</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>223</v>
+      <c r="B14" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
         <v>45322</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>225</v>
+      <c r="B15" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
         <v>45322</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>226</v>
+      <c r="B16" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>45323</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>228</v>
+      <c r="B17" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
         <v>45323</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>230</v>
+      <c r="B18" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
         <v>45325</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>232</v>
+      <c r="B19" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
         <v>45325</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>233</v>
+      <c r="B20" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
         <v>45325</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>234</v>
+      <c r="B21" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="4" t="s">
-        <v>235</v>
+      <c r="B22" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="4" t="s">
-        <v>236</v>
+      <c r="B23" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="4" t="s">
-        <v>238</v>
+      <c r="B24" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="4" t="s">
-        <v>239</v>
+      <c r="B25" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="4" t="s">
-        <v>240</v>
+      <c r="B26" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="4" t="s">
-        <v>241</v>
+      <c r="B27" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="4" t="s">
-        <v>242</v>
+      <c r="B28" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="4" t="s">
-        <v>244</v>
+      <c r="B29" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="4" t="s">
-        <v>245</v>
+      <c r="B30" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="4" t="s">
-        <v>247</v>
+      <c r="B31" s="3" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="4" t="s">
-        <v>248</v>
+      <c r="B32" s="3" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="4" t="s">
-        <v>249</v>
+      <c r="B33" s="3" t="s">
+        <v>255</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="4" t="s">
-        <v>251</v>
+      <c r="B34" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="4" t="s">
-        <v>252</v>
+      <c r="B35" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="4" t="s">
-        <v>253</v>
+      <c r="B36" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="4" t="s">
-        <v>254</v>
+      <c r="B37" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="4" t="s">
-        <v>256</v>
+      <c r="B38" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="4" t="s">
-        <v>257</v>
+      <c r="B39" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2">
+        <v>45357</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2">
+        <v>45357</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3944,6 +4059,8 @@
     <hyperlink ref="B37" r:id="rId31" display="https://codeforces.com/contest/1937/problem/A"/>
     <hyperlink ref="B38" r:id="rId32" display="https://codeforces.com/contest/1937/problem/B"/>
     <hyperlink ref="B39" r:id="rId33" display="https://ac.nowcoder.com/acm/contest/75768/C"/>
+    <hyperlink ref="B40" r:id="rId34" display="https://codeforces.com/contest/1935/problem/A"/>
+    <hyperlink ref="B41" r:id="rId35" display="https://codeforces.com/contest/1935/problem/B"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3954,10 +4071,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3971,107 +4088,110 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45324</v>
+        <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45327</v>
+        <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>266</v>
+        <v>274</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45329</v>
+        <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45341</v>
+        <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45343</v>
+        <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>279</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45345</v>
+        <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>274</v>
+        <v>282</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45345</v>
+        <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>276</v>
+        <v>284</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45347</v>
+        <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -4079,38 +4199,35 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45349</v>
+        <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>288</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45340</v>
+        <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
+        <v>290</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45342</v>
+        <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4118,104 +4235,155 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>286</v>
+        <v>294</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45284</v>
+        <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>288</v>
+        <v>296</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45281</v>
+        <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45274</v>
+        <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>301</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45277</v>
+        <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45352</v>
+        <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>296</v>
+        <v>304</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
+        <v>45351</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
         <v>45352</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>298</v>
+      <c r="B20" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>45354</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>45357</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A19">
+  <autoFilter ref="A1:A23">
     <extLst/>
   </autoFilter>
+  <sortState ref="A2:D23">
+    <sortCondition ref="A2"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" display="https://ac.nowcoder.com/acm/contest/75766" tooltip="https://ac.nowcoder.com/acm/contest/75766"/>
-    <hyperlink ref="C7" r:id="rId2" display="https://ac.nowcoder.com/acm/contest/67746"/>
-    <hyperlink ref="C6" r:id="rId3" display="https://ac.nowcoder.com/acm/contest/67745"/>
-    <hyperlink ref="C2" r:id="rId4" display="https://ac.nowcoder.com/acm/contest/67741" tooltip="https://ac.nowcoder.com/acm/contest/67741"/>
-    <hyperlink ref="C5" r:id="rId5" display="https://ac.nowcoder.com/acm/contest/67744"/>
-    <hyperlink ref="C3" r:id="rId6" display="https://ac.nowcoder.com/acm/contest/67742"/>
-    <hyperlink ref="C4" r:id="rId7" display="https://ac.nowcoder.com/acm/contest/67743"/>
-    <hyperlink ref="C8" r:id="rId8" display="https://codeforces.com/contest/1923"/>
-    <hyperlink ref="C10" r:id="rId9" display="https://codeforces.com/contest/1933"/>
-    <hyperlink ref="C11" r:id="rId10" display="https://vjudge.net/contest/610493"/>
-    <hyperlink ref="C12" r:id="rId11" display="https://vjudge.net/contest/611008"/>
+    <hyperlink ref="C16" r:id="rId1" display="https://ac.nowcoder.com/acm/contest/75766" tooltip="https://ac.nowcoder.com/acm/contest/75766"/>
+    <hyperlink ref="C14" r:id="rId2" display="https://ac.nowcoder.com/acm/contest/67746"/>
+    <hyperlink ref="C12" r:id="rId3" display="https://ac.nowcoder.com/acm/contest/67745"/>
+    <hyperlink ref="C6" r:id="rId4" display="https://ac.nowcoder.com/acm/contest/67741" tooltip="https://ac.nowcoder.com/acm/contest/67741"/>
+    <hyperlink ref="C10" r:id="rId5" display="https://ac.nowcoder.com/acm/contest/67744"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://ac.nowcoder.com/acm/contest/67742"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://ac.nowcoder.com/acm/contest/67743"/>
+    <hyperlink ref="C15" r:id="rId8" display="https://codeforces.com/contest/1923"/>
+    <hyperlink ref="C17" r:id="rId9" display="https://codeforces.com/contest/1933"/>
+    <hyperlink ref="C9" r:id="rId10" display="https://vjudge.net/contest/610493"/>
+    <hyperlink ref="C11" r:id="rId11" display="https://vjudge.net/contest/611008"/>
     <hyperlink ref="C13" r:id="rId12" display="https://vjudge.net/contest/611325"/>
-    <hyperlink ref="C14" r:id="rId13" display="https://vjudge.net/contest/601145"/>
-    <hyperlink ref="C15" r:id="rId14" display="https://vjudge.net/contest/600873"/>
-    <hyperlink ref="C16" r:id="rId15" display="https://vjudge.net/contest/599941"/>
-    <hyperlink ref="C17" r:id="rId16" display="https://vjudge.net/contest/600271"/>
-    <hyperlink ref="C18" r:id="rId17" display="https://ac.nowcoder.com/acm/contest/75768"/>
-    <hyperlink ref="C19" r:id="rId18" display="https://codeforces.com/contest/1937"/>
+    <hyperlink ref="C5" r:id="rId13" display="https://vjudge.net/contest/601145"/>
+    <hyperlink ref="C4" r:id="rId14" display="https://vjudge.net/contest/600873"/>
+    <hyperlink ref="C2" r:id="rId15" display="https://vjudge.net/contest/599941"/>
+    <hyperlink ref="C3" r:id="rId16" display="https://vjudge.net/contest/600271"/>
+    <hyperlink ref="C20" r:id="rId17" display="https://ac.nowcoder.com/acm/contest/75768"/>
+    <hyperlink ref="C18" r:id="rId18" display="https://codeforces.com/contest/1937"/>
+    <hyperlink ref="C23" r:id="rId19" display="https://codeforces.com/contest/1935"/>
+    <hyperlink ref="C21" r:id="rId20" display="https://codeforces.com/contest/1934" tooltip="https://codeforces.com/contest/1934"/>
+    <hyperlink ref="C22" r:id="rId21" display="https://codeforces.com/gym/103049"/>
+    <hyperlink ref="C19" r:id="rId22" display="https://vjudge.net.cn/contest/612940"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="328">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -680,6 +681,27 @@
     <t>数学</t>
   </si>
   <si>
+    <t>https://codeforces.com/contest/1934/problem/C</t>
+  </si>
+  <si>
+    <t>交互</t>
+  </si>
+  <si>
+    <t>1WA赛时没注意到要求的是唯一解，题目不存在多解，想当然的只找了有可能的解。</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/problem/50454</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/75771/E</t>
+  </si>
+  <si>
+    <t>启发式合并</t>
+  </si>
+  <si>
+    <t>1WA，当x等于y时不应当进行启发式合并，而我的代码没想到这种特殊情况。一直到比赛结束也没有看出来</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
   </si>
   <si>
@@ -843,6 +865,21 @@
   </si>
   <si>
     <t>MEX</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/75771/A</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/75771/B</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/75771/C</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/75771/D</t>
+  </si>
+  <si>
+    <t>动态规划</t>
   </si>
   <si>
     <t>时间</t>
@@ -1947,10 +1984,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT89"/>
+  <dimension ref="A1:AT92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3513,6 +3550,48 @@
       </c>
       <c r="E89" s="6" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="2">
+        <v>45357</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="2">
+        <v>45358</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="2">
+        <v>45359</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3625,6 +3704,9 @@
     <hyperlink ref="B87" r:id="rId97" display="https://ac.nowcoder.com/acm/contest/67742/D"/>
     <hyperlink ref="B88" r:id="rId98" display="https://codeforces.com/contest/1935/problem/C"/>
     <hyperlink ref="B89" r:id="rId99" display="https://codeforces.com/contest/1935/problem/D"/>
+    <hyperlink ref="B90" r:id="rId100" display="https://codeforces.com/contest/1934/problem/C"/>
+    <hyperlink ref="B92" r:id="rId101" display="https://ac.nowcoder.com/acm/contest/75771/E"/>
+    <hyperlink ref="B91" r:id="rId102" display="https://ac.nowcoder.com/acm/problem/50454"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3635,10 +3717,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3677,10 +3759,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -3688,10 +3770,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -3699,10 +3781,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -3710,10 +3792,10 @@
         <v>45311</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3721,10 +3803,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3732,10 +3814,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3743,7 +3825,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -3754,10 +3836,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3765,10 +3847,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3776,10 +3858,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3787,10 +3869,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3798,10 +3880,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3809,10 +3891,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3820,10 +3902,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3831,10 +3913,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3842,10 +3924,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3853,10 +3935,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3864,15 +3946,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="3" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -3880,15 +3962,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="3" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -3896,39 +3978,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="3" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="3" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="3" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="3" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -3936,38 +4018,38 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="3" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="3" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="3" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="3" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="3" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="3" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -3975,7 +4057,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="3" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -3983,15 +4065,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="3" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="3" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -3999,10 +4081,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="3" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4010,7 +4092,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4018,13 +4100,39 @@
         <v>45357</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>266</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:E45">
+    <extLst/>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" display="https://atcoder.jp/contests/abc337/tasks/abc337_a"/>
     <hyperlink ref="B8" r:id="rId2" display="https://atcoder.jp/contests/abc338/tasks/abc338_a"/>
@@ -4061,6 +4169,10 @@
     <hyperlink ref="B39" r:id="rId33" display="https://ac.nowcoder.com/acm/contest/75768/C"/>
     <hyperlink ref="B40" r:id="rId34" display="https://codeforces.com/contest/1935/problem/A"/>
     <hyperlink ref="B41" r:id="rId35" display="https://codeforces.com/contest/1935/problem/B"/>
+    <hyperlink ref="B42" r:id="rId36" display="https://ac.nowcoder.com/acm/contest/75771/A"/>
+    <hyperlink ref="B43" r:id="rId37" display="https://ac.nowcoder.com/acm/contest/75771/B" tooltip="https://ac.nowcoder.com/acm/contest/75771/B"/>
+    <hyperlink ref="B44" r:id="rId38" display="https://ac.nowcoder.com/acm/contest/75771/C" tooltip="https://ac.nowcoder.com/acm/contest/75771/C"/>
+    <hyperlink ref="B45" r:id="rId39" display="https://ac.nowcoder.com/acm/contest/75771/D" tooltip="https://ac.nowcoder.com/acm/contest/75771/D"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4088,16 +4200,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4105,10 +4217,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4116,10 +4228,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -4130,10 +4242,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4141,10 +4253,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4152,10 +4264,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4163,13 +4275,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4177,10 +4289,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4188,10 +4300,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -4202,10 +4314,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4213,10 +4325,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4224,10 +4336,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4235,10 +4347,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4246,10 +4358,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4257,10 +4369,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4268,10 +4380,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -4282,10 +4394,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4293,10 +4405,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4304,10 +4416,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4315,10 +4427,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4326,10 +4438,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4337,10 +4449,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4348,10 +4460,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$45</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="362">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -702,6 +702,45 @@
     <t>1WA，当x等于y时不应当进行启发式合并，而我的代码没想到这种特殊情况。一直到比赛结束也没有看出来</t>
   </si>
   <si>
+    <t>https://acm.hdu.edu.cn/contest/problem?cid=1118&amp;pid=1002</t>
+  </si>
+  <si>
+    <t>5WA,杭电机子问题，或者说我的常数比标程稍微大了一点，时间复杂度合理，一模一样的代码要交5次靠着评测机波动过去了。</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc344/tasks/abc344_f</t>
+  </si>
+  <si>
+    <t>1WA，比赛快结束了，直接套了个dij上去,时间复杂度到了O(N^4,log(N^4))爆了。后改成O(N^4)的dp</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/104064/problem/F</t>
+  </si>
+  <si>
+    <t>计算几何，逆序对</t>
+  </si>
+  <si>
+    <t>赛时20WA，用的方法不合适，卡了精度。</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1941/problem/E</t>
+  </si>
+  <si>
+    <t>单调队列优化dp</t>
+  </si>
+  <si>
+    <t>1WA没开longlong，2WA题目没看到连续的条件</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1941/problem/F</t>
+  </si>
+  <si>
+    <t>贪心/三分</t>
+  </si>
+  <si>
+    <t>1WA没排序</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
   </si>
   <si>
@@ -882,6 +921,39 @@
     <t>动态规划</t>
   </si>
   <si>
+    <t>https://atcoder.jp/contests/abc344/tasks/abc344_a</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc344/tasks/abc344_b</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc344/tasks/abc344_c</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc344/tasks/abc344_d</t>
+  </si>
+  <si>
+    <t>背包</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc344/tasks/abc344_e</t>
+  </si>
+  <si>
+    <t>离散化，链表</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1941/problem/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1941/problem/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1941/problem/C</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1941/problem/D</t>
+  </si>
+  <si>
     <t>时间</t>
   </si>
   <si>
@@ -1027,6 +1099,36 @@
   </si>
   <si>
     <t>https://codeforces.com/contest/1935</t>
+  </si>
+  <si>
+    <t>2024杭电ACM-个人PK赛（1）</t>
+  </si>
+  <si>
+    <t>https://acm.hdu.edu.cn/contest/problems?cid=1118</t>
+  </si>
+  <si>
+    <t>牛客小白月赛88</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/75771</t>
+  </si>
+  <si>
+    <t>（AtCoder Beginner Contest 344）</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc344/tasks</t>
+  </si>
+  <si>
+    <t>(NWERC 2021)</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/104064</t>
+  </si>
+  <si>
+    <t>Codeforces Round 933 (Div. 3)</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1941</t>
   </si>
 </sst>
 </file>
@@ -1984,10 +2086,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT92"/>
+  <dimension ref="A1:AT97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3592,6 +3694,76 @@
       </c>
       <c r="E92" s="6" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="2">
+        <v>45360</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="2">
+        <v>45360</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="2">
+        <v>45361</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="2">
+        <v>45362</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="2">
+        <v>45362</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3707,6 +3879,11 @@
     <hyperlink ref="B90" r:id="rId100" display="https://codeforces.com/contest/1934/problem/C"/>
     <hyperlink ref="B92" r:id="rId101" display="https://ac.nowcoder.com/acm/contest/75771/E"/>
     <hyperlink ref="B91" r:id="rId102" display="https://ac.nowcoder.com/acm/problem/50454"/>
+    <hyperlink ref="B93" r:id="rId103" display="https://acm.hdu.edu.cn/contest/problem?cid=1118&amp;pid=1002"/>
+    <hyperlink ref="B94" r:id="rId104" display="https://atcoder.jp/contests/abc344/tasks/abc344_f"/>
+    <hyperlink ref="B95" r:id="rId105" display="https://codeforces.com/gym/104064/problem/F" tooltip="https://codeforces.com/gym/104064/problem/F"/>
+    <hyperlink ref="B96" r:id="rId106" display="https://codeforces.com/contest/1941/problem/E"/>
+    <hyperlink ref="B97" r:id="rId107" display="https://codeforces.com/contest/1941/problem/F"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3717,10 +3894,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3759,10 +3936,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -3770,10 +3947,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -3781,10 +3958,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -3792,10 +3969,10 @@
         <v>45311</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3803,10 +3980,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3814,10 +3991,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3825,7 +4002,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -3836,10 +4013,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3847,10 +4024,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3858,10 +4035,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3869,10 +4046,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3880,10 +4057,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3891,10 +4068,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3902,10 +4079,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3913,10 +4090,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3924,10 +4101,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3935,10 +4112,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3946,15 +4123,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="3" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -3962,15 +4139,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -3978,39 +4155,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="3" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="3" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="3" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="3" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -4018,38 +4195,38 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="3" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="3" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="3" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="3" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="3" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -4057,7 +4234,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -4065,15 +4242,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="3" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -4081,10 +4258,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="3" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4092,7 +4269,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4100,37 +4277,105 @@
         <v>45357</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="3" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="3" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="3" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>278</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
+        <v>45360</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2">
+        <v>45362</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E45">
+  <autoFilter ref="A3:E50">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -4173,6 +4418,16 @@
     <hyperlink ref="B43" r:id="rId37" display="https://ac.nowcoder.com/acm/contest/75771/B" tooltip="https://ac.nowcoder.com/acm/contest/75771/B"/>
     <hyperlink ref="B44" r:id="rId38" display="https://ac.nowcoder.com/acm/contest/75771/C" tooltip="https://ac.nowcoder.com/acm/contest/75771/C"/>
     <hyperlink ref="B45" r:id="rId39" display="https://ac.nowcoder.com/acm/contest/75771/D" tooltip="https://ac.nowcoder.com/acm/contest/75771/D"/>
+    <hyperlink ref="B46" r:id="rId40" display="https://atcoder.jp/contests/abc344/tasks/abc344_a"/>
+    <hyperlink ref="B47" r:id="rId41" display="https://atcoder.jp/contests/abc344/tasks/abc344_b"/>
+    <hyperlink ref="B48" r:id="rId42" display="https://atcoder.jp/contests/abc344/tasks/abc344_c"/>
+    <hyperlink ref="B49" r:id="rId43" display="https://atcoder.jp/contests/abc344/tasks/abc344_d"/>
+    <hyperlink ref="B50" r:id="rId44" display="https://atcoder.jp/contests/abc344/tasks/abc344_e"/>
+    <hyperlink ref="B51" r:id="rId45" display="https://codeforces.com/contest/1941/problem/A"/>
+    <hyperlink ref="B52" r:id="rId46" display="https://codeforces.com/contest/1941/problem/B"/>
+    <hyperlink ref="B53" r:id="rId47" display="https://codeforces.com/contest/1941/problem/C"/>
+    <hyperlink ref="B54" r:id="rId48" display="https://codeforces.com/contest/1941/problem/D"/>
+    <hyperlink ref="B55" r:id="rId49" display="https://codeforces.com/contest/1941/problem/E"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4183,10 +4438,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4200,16 +4455,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4217,10 +4472,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4228,10 +4483,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -4242,10 +4497,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4253,10 +4508,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4264,10 +4519,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4275,13 +4530,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4289,10 +4544,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4300,10 +4555,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -4314,10 +4569,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4325,10 +4580,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4336,10 +4591,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4347,10 +4602,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4358,10 +4613,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4369,10 +4624,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4380,10 +4635,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -4394,10 +4649,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4405,10 +4660,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4416,10 +4671,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4427,10 +4682,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4438,10 +4693,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>323</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4449,10 +4704,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4460,14 +4715,69 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>327</v>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>45360</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>45359</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>45360</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>45361</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>45362</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A23">
+  <autoFilter ref="A1:A28">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:D23">
@@ -4496,6 +4806,11 @@
     <hyperlink ref="C21" r:id="rId20" display="https://codeforces.com/contest/1934" tooltip="https://codeforces.com/contest/1934"/>
     <hyperlink ref="C22" r:id="rId21" display="https://codeforces.com/gym/103049"/>
     <hyperlink ref="C19" r:id="rId22" display="https://vjudge.net.cn/contest/612940"/>
+    <hyperlink ref="C24" r:id="rId23" display="https://acm.hdu.edu.cn/contest/problems?cid=1118"/>
+    <hyperlink ref="C25" r:id="rId24" display="https://ac.nowcoder.com/acm/contest/75771"/>
+    <hyperlink ref="C26" r:id="rId25" display="https://atcoder.jp/contests/abc344/tasks"/>
+    <hyperlink ref="C27" r:id="rId26" display="https://codeforces.com/gym/104064"/>
+    <hyperlink ref="C28" r:id="rId27" display="https://codeforces.com/contest/1941"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="14490" windowHeight="8130" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="364">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -739,6 +739,12 @@
   </si>
   <si>
     <t>1WA没排序</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1941/problem/G</t>
+  </si>
+  <si>
+    <t>双端队列bfs</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -2086,10 +2092,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT97"/>
+  <dimension ref="A1:AT98"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3764,6 +3770,20 @@
       </c>
       <c r="E97" s="6" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="2">
+        <v>45363</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3884,6 +3904,7 @@
     <hyperlink ref="B95" r:id="rId105" display="https://codeforces.com/gym/104064/problem/F" tooltip="https://codeforces.com/gym/104064/problem/F"/>
     <hyperlink ref="B96" r:id="rId106" display="https://codeforces.com/contest/1941/problem/E"/>
     <hyperlink ref="B97" r:id="rId107" display="https://codeforces.com/contest/1941/problem/F"/>
+    <hyperlink ref="B98" r:id="rId108" display="https://codeforces.com/contest/1941/problem/G"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3896,7 +3917,7 @@
   <sheetPr/>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
@@ -3936,10 +3957,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -3947,10 +3968,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -3958,10 +3979,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -3969,10 +3990,10 @@
         <v>45311</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3980,10 +4001,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3991,10 +4012,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4002,7 +4023,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -4013,10 +4034,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4024,10 +4045,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4035,10 +4056,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4046,10 +4067,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4057,10 +4078,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4068,10 +4089,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4079,10 +4100,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4090,10 +4111,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4101,10 +4122,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4112,10 +4133,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4123,15 +4144,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -4139,15 +4160,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -4155,39 +4176,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -4195,38 +4216,38 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -4234,7 +4255,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -4242,15 +4263,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -4258,10 +4279,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4269,7 +4290,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4277,33 +4298,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4311,33 +4332,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4345,22 +4366,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -4375,7 +4396,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E50">
+  <autoFilter ref="A3:E55">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -4440,8 +4461,8 @@
   <sheetPr/>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4455,16 +4476,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4472,10 +4493,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4483,10 +4504,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -4497,10 +4518,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4508,10 +4529,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4519,10 +4540,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4530,13 +4551,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4544,10 +4565,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4555,10 +4576,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -4569,10 +4590,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4580,10 +4601,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4591,10 +4612,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4602,10 +4623,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4613,10 +4634,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4624,10 +4645,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4635,10 +4656,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -4649,10 +4670,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4660,10 +4681,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4671,10 +4692,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4682,10 +4703,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4693,10 +4714,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4704,10 +4725,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4715,10 +4736,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4726,10 +4747,10 @@
         <v>45360</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4737,10 +4758,10 @@
         <v>45359</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4748,10 +4769,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4759,21 +4780,24 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="2">
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14490" windowHeight="8130" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="378">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -747,6 +747,45 @@
     <t>双端队列bfs</t>
   </si>
   <si>
+    <t>https://acm.hdu.edu.cn/showproblem.php?pid=7412</t>
+  </si>
+  <si>
+    <t>基环树森林</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1363</t>
+  </si>
+  <si>
+    <t>bfs</t>
+  </si>
+  <si>
+    <t>1TLE,后将记录是否访问到改为在推入队列前，减少层数。</t>
+  </si>
+  <si>
+    <t>https://acm.hdu.edu.cn/showproblem.php?pid=7414</t>
+  </si>
+  <si>
+    <t>二分答案,01字典树</t>
+  </si>
+  <si>
+    <t>1TLE，用memset()初始化，常数过大。后改为手动清零。</t>
+  </si>
+  <si>
+    <t>https://acm.hdu.edu.cn/showproblem.php?pid=7415</t>
+  </si>
+  <si>
+    <t>数位dp,递推</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1948/problem/D</t>
+  </si>
+  <si>
+    <t>枚举</t>
+  </si>
+  <si>
+    <t>1TLE，在调用函数的时候没使用&amp;来引用string类型，导致产生过多次的重复复制string类型。</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
   </si>
   <si>
@@ -879,9 +918,6 @@
     <t>https://codeforces.com/contest/1933/problem/C</t>
   </si>
   <si>
-    <t>枚举</t>
-  </si>
-  <si>
     <t>https://codeforces.com/contest/1933/problem/D</t>
   </si>
   <si>
@@ -1135,6 +1171,12 @@
   </si>
   <si>
     <t>https://codeforces.com/contest/1941</t>
+  </si>
+  <si>
+    <t>Educational Codeforces Round 163 (Rated for Div. 2)</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1948</t>
   </si>
 </sst>
 </file>
@@ -1147,7 +1189,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1170,6 +1212,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1629,128 +1677,128 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1765,6 +1813,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2092,10 +2143,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT98"/>
+  <dimension ref="A1:AT103"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2104,19 +2155,19 @@
     <col min="2" max="2" width="59" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
     <col min="4" max="4" width="49.5583333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="78.3333333333333" style="6" customWidth="1"/>
+    <col min="5" max="5" width="78.3333333333333" style="7" customWidth="1"/>
     <col min="6" max="6" width="8.89166666666667" style="1" customWidth="1"/>
-    <col min="7" max="12" width="9" style="6"/>
-    <col min="13" max="13" width="5.33333333333333" style="6" customWidth="1"/>
-    <col min="14" max="15" width="9" style="7" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="2.44166666666667" style="7" hidden="1" customWidth="1"/>
-    <col min="17" max="22" width="9" style="7" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="2.44166666666667" style="7" hidden="1" customWidth="1"/>
-    <col min="24" max="33" width="9" style="7" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="5.33333333333333" style="7" hidden="1" customWidth="1"/>
-    <col min="35" max="44" width="9" style="7" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="3" style="7" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="3.10833333333333" style="7" hidden="1" customWidth="1"/>
+    <col min="7" max="12" width="9" style="7"/>
+    <col min="13" max="13" width="5.33333333333333" style="7" customWidth="1"/>
+    <col min="14" max="15" width="9" style="8" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="2.44166666666667" style="8" hidden="1" customWidth="1"/>
+    <col min="17" max="22" width="9" style="8" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="2.44166666666667" style="8" hidden="1" customWidth="1"/>
+    <col min="24" max="33" width="9" style="8" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="5.33333333333333" style="8" hidden="1" customWidth="1"/>
+    <col min="35" max="44" width="9" style="8" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="3" style="8" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="3.10833333333333" style="8" hidden="1" customWidth="1"/>
     <col min="48" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2124,12 +2175,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -2144,7 +2195,7 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -2158,10 +2209,10 @@
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -2175,10 +2226,10 @@
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -2206,10 +2257,10 @@
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -2226,7 +2277,7 @@
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -2243,7 +2294,7 @@
       <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -2260,7 +2311,7 @@
       <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -2277,7 +2328,7 @@
       <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -2294,7 +2345,7 @@
       <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -2311,7 +2362,7 @@
       <c r="D13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -2328,7 +2379,7 @@
       <c r="D14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -2345,7 +2396,7 @@
       <c r="D15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -2362,7 +2413,7 @@
       <c r="D16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>41</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -2379,7 +2430,7 @@
       <c r="D17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -2396,7 +2447,7 @@
       <c r="D18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -2413,7 +2464,7 @@
       <c r="D19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -2430,7 +2481,7 @@
       <c r="D20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -2447,7 +2498,7 @@
       <c r="D21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -2464,7 +2515,7 @@
       <c r="D22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>56</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -2484,7 +2535,7 @@
       <c r="D23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -2504,7 +2555,7 @@
       <c r="D24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="3"/>
@@ -2522,7 +2573,7 @@
       <c r="D25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="3"/>
@@ -2540,7 +2591,7 @@
       <c r="D26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>67</v>
       </c>
       <c r="F26" s="3"/>
@@ -2558,7 +2609,7 @@
       <c r="D27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F27" s="3"/>
@@ -2576,7 +2627,7 @@
       <c r="D28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F28" s="3"/>
@@ -2594,7 +2645,7 @@
       <c r="D29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2611,7 +2662,7 @@
       <c r="D30" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="7" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2628,7 +2679,7 @@
       <c r="D31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2645,7 +2696,7 @@
       <c r="D32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2662,49 +2713,49 @@
       <c r="D33" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="9"/>
-      <c r="AH33" s="9"/>
-      <c r="AI33" s="9"/>
-      <c r="AJ33" s="9"/>
-      <c r="AK33" s="9"/>
-      <c r="AL33" s="9"/>
-      <c r="AM33" s="9"/>
-      <c r="AN33" s="9"/>
-      <c r="AO33" s="9"/>
-      <c r="AP33" s="9"/>
-      <c r="AQ33" s="9"/>
-      <c r="AR33" s="9"/>
-      <c r="AS33" s="9"/>
-      <c r="AT33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="10"/>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="10"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="10"/>
+      <c r="AO33" s="10"/>
+      <c r="AP33" s="10"/>
+      <c r="AQ33" s="10"/>
+      <c r="AR33" s="10"/>
+      <c r="AS33" s="10"/>
+      <c r="AT33" s="10"/>
     </row>
     <row r="34" ht="28" customHeight="1" spans="1:46">
       <c r="A34" s="2">
@@ -2719,49 +2770,49 @@
       <c r="D34" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="9"/>
-      <c r="AD34" s="9"/>
-      <c r="AE34" s="9"/>
-      <c r="AF34" s="9"/>
-      <c r="AG34" s="9"/>
-      <c r="AH34" s="9"/>
-      <c r="AI34" s="9"/>
-      <c r="AJ34" s="9"/>
-      <c r="AK34" s="9"/>
-      <c r="AL34" s="9"/>
-      <c r="AM34" s="9"/>
-      <c r="AN34" s="9"/>
-      <c r="AO34" s="9"/>
-      <c r="AP34" s="9"/>
-      <c r="AQ34" s="9"/>
-      <c r="AR34" s="9"/>
-      <c r="AS34" s="9"/>
-      <c r="AT34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="10"/>
+      <c r="AO34" s="10"/>
+      <c r="AP34" s="10"/>
+      <c r="AQ34" s="10"/>
+      <c r="AR34" s="10"/>
+      <c r="AS34" s="10"/>
+      <c r="AT34" s="10"/>
     </row>
     <row r="35" ht="28" customHeight="1" spans="1:46">
       <c r="A35" s="2">
@@ -2776,49 +2827,49 @@
       <c r="D35" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="9"/>
-      <c r="AE35" s="9"/>
-      <c r="AF35" s="9"/>
-      <c r="AG35" s="9"/>
-      <c r="AH35" s="9"/>
-      <c r="AI35" s="9"/>
-      <c r="AJ35" s="9"/>
-      <c r="AK35" s="9"/>
-      <c r="AL35" s="9"/>
-      <c r="AM35" s="9"/>
-      <c r="AN35" s="9"/>
-      <c r="AO35" s="9"/>
-      <c r="AP35" s="9"/>
-      <c r="AQ35" s="9"/>
-      <c r="AR35" s="9"/>
-      <c r="AS35" s="9"/>
-      <c r="AT35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10"/>
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="10"/>
+      <c r="AO35" s="10"/>
+      <c r="AP35" s="10"/>
+      <c r="AQ35" s="10"/>
+      <c r="AR35" s="10"/>
+      <c r="AS35" s="10"/>
+      <c r="AT35" s="10"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
@@ -2833,7 +2884,7 @@
       <c r="D36" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2850,7 +2901,7 @@
       <c r="D37" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="7" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2867,7 +2918,7 @@
       <c r="D38" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2884,7 +2935,7 @@
       <c r="D39" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2901,7 +2952,7 @@
       <c r="D40" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2918,7 +2969,7 @@
       <c r="D41" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2935,7 +2986,7 @@
       <c r="D42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2952,7 +3003,7 @@
       <c r="D43" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="7" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2969,7 +3020,7 @@
       <c r="D44" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="7" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2986,7 +3037,7 @@
       <c r="D45" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="7" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3003,7 +3054,7 @@
       <c r="D46" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3017,7 +3068,7 @@
       <c r="D47" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3034,7 +3085,7 @@
       <c r="D48" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="7" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3051,7 +3102,7 @@
       <c r="D49" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="9" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3068,7 +3119,7 @@
       <c r="D50" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3085,7 +3136,7 @@
       <c r="D51" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3099,7 +3150,7 @@
       <c r="D52" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3113,7 +3164,7 @@
       <c r="D53" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3130,7 +3181,7 @@
       <c r="D54" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3147,7 +3198,7 @@
       <c r="D55" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3164,7 +3215,7 @@
       <c r="D56" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3181,7 +3232,7 @@
       <c r="D57" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="9" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3198,7 +3249,7 @@
       <c r="D58" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3215,7 +3266,7 @@
       <c r="D59" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3232,7 +3283,7 @@
       <c r="D60" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3249,7 +3300,7 @@
       <c r="D61" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="7" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3266,7 +3317,7 @@
       <c r="D62" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="7" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3283,7 +3334,7 @@
       <c r="D63" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="9" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3297,7 +3348,7 @@
       <c r="D64" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3314,7 +3365,7 @@
       <c r="D65" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3331,7 +3382,7 @@
       <c r="D66" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="7" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3348,7 +3399,7 @@
       <c r="D67" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3362,7 +3413,7 @@
       <c r="D68" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3376,7 +3427,7 @@
       <c r="D69" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3390,7 +3441,7 @@
       <c r="D70" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="7" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3404,7 +3455,7 @@
       <c r="D71" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="7" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3418,7 +3469,7 @@
       <c r="D72" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3432,7 +3483,7 @@
       <c r="D73" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3446,7 +3497,7 @@
       <c r="D74" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="7" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3460,7 +3511,7 @@
       <c r="D75" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="7" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3474,7 +3525,7 @@
       <c r="D76" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="7" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3488,7 +3539,7 @@
       <c r="D77" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E77" s="7" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3502,7 +3553,7 @@
       <c r="D78" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E78" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3516,7 +3567,7 @@
       <c r="D79" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E79" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3530,7 +3581,7 @@
       <c r="D80" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="E80" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3544,7 +3595,7 @@
       <c r="D81" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E81" s="7" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3558,7 +3609,7 @@
       <c r="D82" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E82" s="7" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3572,7 +3623,7 @@
       <c r="D83" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="7" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3586,7 +3637,7 @@
       <c r="D84" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3600,7 +3651,7 @@
       <c r="D85" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E85" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3614,7 +3665,7 @@
       <c r="D86" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E86" s="7" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3628,7 +3679,7 @@
       <c r="D87" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="E87" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3642,7 +3693,7 @@
       <c r="D88" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E88" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3656,7 +3707,7 @@
       <c r="D89" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="E89" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3670,7 +3721,7 @@
       <c r="D90" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E90" s="7" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3684,7 +3735,7 @@
       <c r="D91" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E91" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3698,7 +3749,7 @@
       <c r="D92" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="7" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3712,7 +3763,7 @@
       <c r="D93" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="7" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3726,7 +3777,7 @@
       <c r="D94" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="E94" s="7" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3740,7 +3791,7 @@
       <c r="D95" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E95" s="7" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3754,7 +3805,7 @@
       <c r="D96" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E96" s="7" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3768,7 +3819,7 @@
       <c r="D97" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="E97" s="7" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3782,8 +3833,78 @@
       <c r="D98" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E98" s="6" t="s">
-        <v>9</v>
+      <c r="E98" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="2">
+        <v>45364</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="2">
+        <v>45365</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="2">
+        <v>45366</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="2">
+        <v>45367</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="2">
+        <v>45369</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3905,6 +4026,11 @@
     <hyperlink ref="B96" r:id="rId106" display="https://codeforces.com/contest/1941/problem/E"/>
     <hyperlink ref="B97" r:id="rId107" display="https://codeforces.com/contest/1941/problem/F"/>
     <hyperlink ref="B98" r:id="rId108" display="https://codeforces.com/contest/1941/problem/G"/>
+    <hyperlink ref="B99" r:id="rId109" display="https://acm.hdu.edu.cn/showproblem.php?pid=7412"/>
+    <hyperlink ref="B100" r:id="rId110" display="https://www.luogu.com.cn/problem/P1363"/>
+    <hyperlink ref="B101" r:id="rId111" display="https://acm.hdu.edu.cn/showproblem.php?pid=7414"/>
+    <hyperlink ref="B102" r:id="rId112" display="https://acm.hdu.edu.cn/showproblem.php?pid=7415"/>
+    <hyperlink ref="B103" r:id="rId113" display="https://codeforces.com/contest/1948/problem/D"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3957,10 +4083,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>235</v>
+        <v>247</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -3968,10 +4094,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>235</v>
+        <v>249</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -3979,10 +4105,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -3990,10 +4116,10 @@
         <v>45311</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>240</v>
+        <v>252</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4001,10 +4127,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4012,10 +4138,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4023,7 +4149,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -4034,10 +4160,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4045,10 +4171,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4056,10 +4182,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4067,10 +4193,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4078,10 +4204,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4089,10 +4215,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4100,10 +4226,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4111,10 +4237,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4122,10 +4248,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4133,10 +4259,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4144,15 +4270,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="3" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -4160,15 +4286,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="3" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -4176,39 +4302,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="3" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="3" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="3" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -4216,38 +4342,38 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="3" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="3" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="3" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="3" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="3" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -4255,7 +4381,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="3" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -4263,15 +4389,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="3" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="3" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -4279,10 +4405,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="3" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4290,7 +4416,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4298,33 +4424,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="3" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="3" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="3" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="3" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4332,33 +4458,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="3" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="3" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="3" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="3" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4366,22 +4492,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="3" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="3" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="3" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -4459,10 +4585,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4476,16 +4602,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4493,10 +4619,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4504,10 +4630,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -4518,10 +4644,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4529,10 +4655,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4540,10 +4666,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4551,13 +4677,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4565,10 +4691,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4576,10 +4702,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -4590,10 +4716,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4601,10 +4727,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4612,10 +4738,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4623,10 +4749,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4634,10 +4760,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4645,10 +4771,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4656,10 +4782,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -4670,10 +4796,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4681,10 +4807,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4692,10 +4818,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4703,10 +4829,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4714,10 +4840,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4725,10 +4851,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4736,10 +4862,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4747,10 +4873,10 @@
         <v>45360</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4758,10 +4884,10 @@
         <v>45359</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4769,10 +4895,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4780,10 +4906,10 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4791,13 +4917,24 @@
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>45367</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -4835,6 +4972,7 @@
     <hyperlink ref="C26" r:id="rId25" display="https://atcoder.jp/contests/abc344/tasks"/>
     <hyperlink ref="C27" r:id="rId26" display="https://codeforces.com/gym/104064"/>
     <hyperlink ref="C28" r:id="rId27" display="https://codeforces.com/contest/1941"/>
+    <hyperlink ref="C29" r:id="rId28" display="https://codeforces.com/contest/1948" tooltip="https://codeforces.com/contest/1948"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$55</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="381">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -784,6 +784,15 @@
   </si>
   <si>
     <t>1TLE，在调用函数的时候没使用&amp;来引用string类型，导致产生过多次的重复复制string类型。</t>
+  </si>
+  <si>
+    <t>https://acm.hdu.edu.cn/showproblem.php?pid=7416</t>
+  </si>
+  <si>
+    <t>数学，杨辉三角，lucas定理</t>
+  </si>
+  <si>
+    <t>1WA，在对二进制的子集枚举完后忘记将它本身计入答案。</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -2143,10 +2152,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT103"/>
+  <dimension ref="A1:AT104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3905,6 +3914,20 @@
       </c>
       <c r="E103" s="7" t="s">
         <v>246</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="2">
+        <v>45370</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4031,6 +4054,7 @@
     <hyperlink ref="B101" r:id="rId111" display="https://acm.hdu.edu.cn/showproblem.php?pid=7414"/>
     <hyperlink ref="B102" r:id="rId112" display="https://acm.hdu.edu.cn/showproblem.php?pid=7415"/>
     <hyperlink ref="B103" r:id="rId113" display="https://codeforces.com/contest/1948/problem/D"/>
+    <hyperlink ref="B104" r:id="rId114" display="https://acm.hdu.edu.cn/showproblem.php?pid=7416"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4083,10 +4107,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -4094,10 +4118,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -4105,10 +4129,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -4116,10 +4140,10 @@
         <v>45311</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4127,10 +4151,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4138,10 +4162,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4149,7 +4173,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -4160,10 +4184,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4171,10 +4195,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4182,10 +4206,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4193,10 +4217,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4204,10 +4228,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4215,10 +4239,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4226,10 +4250,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4237,10 +4261,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4248,10 +4272,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4259,10 +4283,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4270,15 +4294,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -4286,15 +4310,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -4302,39 +4326,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -4342,25 +4366,25 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
@@ -4368,12 +4392,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -4381,7 +4405,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -4389,15 +4413,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -4405,10 +4429,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4416,7 +4440,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4424,33 +4448,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4458,33 +4482,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4492,22 +4516,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="3" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -4602,16 +4626,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4619,10 +4643,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4630,10 +4654,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -4644,10 +4668,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4655,10 +4679,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4666,10 +4690,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4677,13 +4701,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4691,10 +4715,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4702,10 +4726,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -4716,10 +4740,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4727,10 +4751,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4738,10 +4762,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4749,10 +4773,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4760,10 +4784,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4771,10 +4795,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4782,10 +4806,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -4796,10 +4820,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4807,10 +4831,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4818,10 +4842,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4829,10 +4853,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4840,10 +4864,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4851,10 +4875,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4862,10 +4886,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4873,10 +4897,10 @@
         <v>45360</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4884,10 +4908,10 @@
         <v>45359</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4895,10 +4919,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4906,10 +4930,10 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4917,10 +4941,10 @@
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -4931,14 +4955,14 @@
         <v>45367</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A28">
+  <autoFilter ref="A1:A29">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:D23">

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="386">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -793,6 +793,21 @@
   </si>
   <si>
     <t>1WA，在对二进制的子集枚举完后忘记将它本身计入答案。</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1948/problem/E</t>
+  </si>
+  <si>
+    <t>1WA，分组构造的思路没错，但是组内手造错误。应当在小数据范围内用暴力将规律找出，即可。</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1802/F</t>
+  </si>
+  <si>
+    <t>最短路，动态规划</t>
+  </si>
+  <si>
+    <t>1WA,忘记开优先队列，2WA小根堆开成大根堆。</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -2152,10 +2167,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT104"/>
+  <dimension ref="A1:AT106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3928,6 +3943,34 @@
       </c>
       <c r="E104" s="7" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="2">
+        <v>45342</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="2">
+        <v>45372</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4055,6 +4098,8 @@
     <hyperlink ref="B102" r:id="rId112" display="https://acm.hdu.edu.cn/showproblem.php?pid=7415"/>
     <hyperlink ref="B103" r:id="rId113" display="https://codeforces.com/contest/1948/problem/D"/>
     <hyperlink ref="B104" r:id="rId114" display="https://acm.hdu.edu.cn/showproblem.php?pid=7416"/>
+    <hyperlink ref="B105" r:id="rId115" display="https://codeforces.com/contest/1948/problem/E"/>
+    <hyperlink ref="B106" r:id="rId116" display="https://codeforces.com/problemset/problem/1802/F"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4107,10 +4152,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -4118,10 +4163,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -4129,10 +4174,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -4140,10 +4185,10 @@
         <v>45311</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4151,10 +4196,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4162,10 +4207,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4173,7 +4218,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -4184,10 +4229,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4195,10 +4240,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4206,10 +4251,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4217,10 +4262,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4228,10 +4273,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4239,10 +4284,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4250,10 +4295,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4261,10 +4306,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4272,10 +4317,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4283,10 +4328,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4294,15 +4339,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="3" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -4310,15 +4355,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -4326,39 +4371,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="3" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -4366,25 +4411,25 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="3" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="3" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="3" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
@@ -4392,12 +4437,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="3" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="3" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -4405,7 +4450,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="3" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -4413,15 +4458,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="3" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="3" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -4429,10 +4474,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="3" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4440,7 +4485,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4448,33 +4493,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="3" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="3" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="3" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="3" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4482,33 +4527,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="3" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="3" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4516,22 +4561,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="3" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="3" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -4626,16 +4671,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4643,10 +4688,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4654,10 +4699,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -4668,10 +4713,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4679,10 +4724,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4690,10 +4735,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4701,13 +4746,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4715,10 +4760,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4726,10 +4771,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -4740,10 +4785,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4751,10 +4796,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4762,10 +4807,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4773,10 +4818,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4784,10 +4829,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4795,10 +4840,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4806,10 +4851,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -4820,10 +4865,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4831,10 +4876,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4842,10 +4887,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4853,10 +4898,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4864,10 +4909,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4875,10 +4920,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4886,10 +4931,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4897,10 +4942,10 @@
         <v>45360</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4908,10 +4953,10 @@
         <v>45359</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4919,10 +4964,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4930,10 +4975,10 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4941,10 +4986,10 @@
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -4955,10 +5000,10 @@
         <v>45367</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="387">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -808,6 +808,9 @@
   </si>
   <si>
     <t>1WA,忘记开优先队列，2WA小根堆开成大根堆。</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P3800</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -2167,10 +2170,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT106"/>
+  <dimension ref="A1:AT107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3971,6 +3974,20 @@
       </c>
       <c r="E106" s="7" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="2">
+        <v>45373</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4100,6 +4117,7 @@
     <hyperlink ref="B104" r:id="rId114" display="https://acm.hdu.edu.cn/showproblem.php?pid=7416"/>
     <hyperlink ref="B105" r:id="rId115" display="https://codeforces.com/contest/1948/problem/E"/>
     <hyperlink ref="B106" r:id="rId116" display="https://codeforces.com/problemset/problem/1802/F"/>
+    <hyperlink ref="B107" r:id="rId117" display="https://www.luogu.com.cn/problem/P3800"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4152,10 +4170,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -4163,10 +4181,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -4174,10 +4192,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -4185,10 +4203,10 @@
         <v>45311</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4196,10 +4214,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4207,10 +4225,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4218,7 +4236,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -4229,10 +4247,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4240,10 +4258,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4251,10 +4269,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4262,10 +4280,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4273,10 +4291,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4284,10 +4302,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4295,10 +4313,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4306,10 +4324,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4317,10 +4335,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4328,10 +4346,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4339,15 +4357,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -4355,15 +4373,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -4371,39 +4389,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -4411,25 +4429,25 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
@@ -4437,12 +4455,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -4450,7 +4468,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -4458,15 +4476,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -4474,10 +4492,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4485,7 +4503,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4493,33 +4511,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4527,33 +4545,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4561,22 +4579,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -4671,16 +4689,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4688,10 +4706,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4699,10 +4717,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -4713,10 +4731,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4724,10 +4742,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4735,10 +4753,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4746,13 +4764,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4760,10 +4778,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4771,10 +4789,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -4785,10 +4803,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4796,10 +4814,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4807,10 +4825,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4818,10 +4836,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4829,10 +4847,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4840,10 +4858,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4851,10 +4869,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -4865,10 +4883,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4876,10 +4894,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4887,10 +4905,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4898,10 +4916,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4909,10 +4927,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4920,10 +4938,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4931,10 +4949,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4942,10 +4960,10 @@
         <v>45360</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4953,10 +4971,10 @@
         <v>45359</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4964,10 +4982,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4975,10 +4993,10 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4986,10 +5004,10 @@
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -5000,10 +5018,10 @@
         <v>45367</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="398">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -813,6 +813,21 @@
     <t>https://www.luogu.com.cn/problem/P3800</t>
   </si>
   <si>
+    <t>https://ac.nowcoder.com/acm/contest/77448/J</t>
+  </si>
+  <si>
+    <t>最短路，二进制</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/77448/E</t>
+  </si>
+  <si>
+    <t>dfs序，前缀最大值</t>
+  </si>
+  <si>
+    <t>1TLE，题目数据并不支持dsu on tree O(NlogN)，正解为用dfs序将查询子树改为区间查询。</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
   </si>
   <si>
@@ -1023,6 +1038,18 @@
     <t>https://codeforces.com/contest/1941/problem/D</t>
   </si>
   <si>
+    <t>https://ac.nowcoder.com/acm/contest/77448/A</t>
+  </si>
+  <si>
+    <t>与枚举顺序有关的暴力</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/77448/G</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/77448/M</t>
+  </si>
+  <si>
     <t>时间</t>
   </si>
   <si>
@@ -1204,6 +1231,12 @@
   </si>
   <si>
     <t>https://codeforces.com/contest/1948</t>
+  </si>
+  <si>
+    <t>广州大学第十八届ACM大学生程序设计竞赛（同步赛）</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/77448</t>
   </si>
 </sst>
 </file>
@@ -2170,10 +2203,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT107"/>
+  <dimension ref="A1:AT109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3988,6 +4021,34 @@
       </c>
       <c r="E107" s="7" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="2">
+        <v>45374</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="2">
+        <v>45374</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4118,6 +4179,8 @@
     <hyperlink ref="B105" r:id="rId115" display="https://codeforces.com/contest/1948/problem/E"/>
     <hyperlink ref="B106" r:id="rId116" display="https://codeforces.com/problemset/problem/1802/F"/>
     <hyperlink ref="B107" r:id="rId117" display="https://www.luogu.com.cn/problem/P3800"/>
+    <hyperlink ref="B108" r:id="rId118" display="https://ac.nowcoder.com/acm/contest/77448/J"/>
+    <hyperlink ref="B109" r:id="rId119" display="https://ac.nowcoder.com/acm/contest/77448/E"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4128,10 +4191,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4170,10 +4233,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -4181,10 +4244,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -4192,10 +4255,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -4203,10 +4266,10 @@
         <v>45311</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4214,10 +4277,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4225,10 +4288,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4236,7 +4299,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -4247,10 +4310,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4258,10 +4321,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4269,10 +4332,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4280,10 +4343,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4291,10 +4354,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4302,10 +4365,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4313,10 +4376,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4324,10 +4387,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4335,10 +4398,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4346,10 +4409,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4357,15 +4420,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -4373,15 +4436,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -4389,39 +4452,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="3" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="3" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="3" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -4429,25 +4492,25 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="3" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="3" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="3" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="3" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
@@ -4455,12 +4518,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="3" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -4468,7 +4531,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="3" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -4476,15 +4539,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="3" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="3" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -4492,10 +4555,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="3" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4503,7 +4566,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4511,33 +4574,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="3" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="3" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4545,33 +4608,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="3" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="3" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="3" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4579,22 +4642,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="3" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -4606,6 +4669,33 @@
       </c>
       <c r="D55" s="1" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
+        <v>45374</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4662,6 +4752,9 @@
     <hyperlink ref="B53" r:id="rId47" display="https://codeforces.com/contest/1941/problem/C"/>
     <hyperlink ref="B54" r:id="rId48" display="https://codeforces.com/contest/1941/problem/D"/>
     <hyperlink ref="B55" r:id="rId49" display="https://codeforces.com/contest/1941/problem/E"/>
+    <hyperlink ref="B56" r:id="rId50" display="https://ac.nowcoder.com/acm/contest/77448/A"/>
+    <hyperlink ref="B57" r:id="rId51" display="https://ac.nowcoder.com/acm/contest/77448/G"/>
+    <hyperlink ref="B58" r:id="rId52" display="https://ac.nowcoder.com/acm/contest/77448/M"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4672,10 +4765,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4689,16 +4782,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4706,10 +4799,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4717,10 +4810,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -4731,10 +4824,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4742,10 +4835,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4753,10 +4846,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4764,13 +4857,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4778,10 +4871,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4789,10 +4882,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -4803,10 +4896,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4814,10 +4907,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4825,10 +4918,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4836,10 +4929,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4847,10 +4940,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4858,10 +4951,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4869,10 +4962,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -4883,10 +4976,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4894,10 +4987,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4905,10 +4998,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4916,10 +5009,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4927,10 +5020,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4938,10 +5031,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4949,10 +5042,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4960,10 +5053,10 @@
         <v>45360</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4971,10 +5064,10 @@
         <v>45359</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4982,10 +5075,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4993,10 +5086,10 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5004,10 +5097,10 @@
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -5018,10 +5111,21 @@
         <v>45367</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>386</v>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>45374</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -5060,6 +5164,7 @@
     <hyperlink ref="C27" r:id="rId26" display="https://codeforces.com/gym/104064"/>
     <hyperlink ref="C28" r:id="rId27" display="https://codeforces.com/contest/1941"/>
     <hyperlink ref="C29" r:id="rId28" display="https://codeforces.com/contest/1948" tooltip="https://codeforces.com/contest/1948"/>
+    <hyperlink ref="C30" r:id="rId29" display="https://ac.nowcoder.com/acm/contest/77448"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="12465" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$55</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="407">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -828,6 +828,15 @@
     <t>1TLE，题目数据并不支持dsu on tree O(NlogN)，正解为用dfs序将查询子树改为区间查询。</t>
   </si>
   <si>
+    <t>https://codeforces.com/gym/104872/problem/G</t>
+  </si>
+  <si>
+    <t>交互，二分</t>
+  </si>
+  <si>
+    <t>1WA，没看清题目限制询问数不超过100，改变枚举的对象后AC</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
   </si>
   <si>
@@ -1050,6 +1059,18 @@
     <t>https://ac.nowcoder.com/acm/contest/77448/M</t>
   </si>
   <si>
+    <t>https://codeforces.com/gym/104872/problem/M</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/104872/problem/F</t>
+  </si>
+  <si>
+    <t>分类讨论，暴力</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/104872/problem/E</t>
+  </si>
+  <si>
     <t>时间</t>
   </si>
   <si>
@@ -1237,6 +1258,12 @@
   </si>
   <si>
     <t>https://ac.nowcoder.com/acm/contest/77448</t>
+  </si>
+  <si>
+    <t>2023-2024 Russia Team Open, High School Programming Contest (VKOSHP XXIV)</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/104872</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1276,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1274,6 +1301,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
@@ -1737,128 +1771,128 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1875,6 +1909,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2203,10 +2240,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT109"/>
+  <dimension ref="A1:AT110"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2215,19 +2252,19 @@
     <col min="2" max="2" width="59" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
     <col min="4" max="4" width="49.5583333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="78.3333333333333" style="7" customWidth="1"/>
+    <col min="5" max="5" width="78.3333333333333" style="8" customWidth="1"/>
     <col min="6" max="6" width="8.89166666666667" style="1" customWidth="1"/>
-    <col min="7" max="12" width="9" style="7"/>
-    <col min="13" max="13" width="5.33333333333333" style="7" customWidth="1"/>
-    <col min="14" max="15" width="9" style="8" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="2.44166666666667" style="8" hidden="1" customWidth="1"/>
-    <col min="17" max="22" width="9" style="8" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="2.44166666666667" style="8" hidden="1" customWidth="1"/>
-    <col min="24" max="33" width="9" style="8" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="5.33333333333333" style="8" hidden="1" customWidth="1"/>
-    <col min="35" max="44" width="9" style="8" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="3" style="8" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="3.10833333333333" style="8" hidden="1" customWidth="1"/>
+    <col min="7" max="12" width="9" style="8"/>
+    <col min="13" max="13" width="5.33333333333333" style="8" customWidth="1"/>
+    <col min="14" max="15" width="9" style="9" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="2.44166666666667" style="9" hidden="1" customWidth="1"/>
+    <col min="17" max="22" width="9" style="9" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="2.44166666666667" style="9" hidden="1" customWidth="1"/>
+    <col min="24" max="33" width="9" style="9" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="5.33333333333333" style="9" hidden="1" customWidth="1"/>
+    <col min="35" max="44" width="9" style="9" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="3" style="9" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="3.10833333333333" style="9" hidden="1" customWidth="1"/>
     <col min="48" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2235,12 +2272,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -2255,7 +2292,7 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -2269,10 +2306,10 @@
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -2286,10 +2323,10 @@
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -2317,10 +2354,10 @@
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -2337,7 +2374,7 @@
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -2354,7 +2391,7 @@
       <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -2371,7 +2408,7 @@
       <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -2388,7 +2425,7 @@
       <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -2405,7 +2442,7 @@
       <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -2422,7 +2459,7 @@
       <c r="D13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -2439,7 +2476,7 @@
       <c r="D14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -2456,7 +2493,7 @@
       <c r="D15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="8" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -2473,7 +2510,7 @@
       <c r="D16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -2490,7 +2527,7 @@
       <c r="D17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -2507,7 +2544,7 @@
       <c r="D18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="8" t="s">
         <v>46</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -2524,7 +2561,7 @@
       <c r="D19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="8" t="s">
         <v>49</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -2541,7 +2578,7 @@
       <c r="D20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -2558,7 +2595,7 @@
       <c r="D21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -2575,7 +2612,7 @@
       <c r="D22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="8" t="s">
         <v>56</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -2595,7 +2632,7 @@
       <c r="D23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -2615,7 +2652,7 @@
       <c r="D24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="3"/>
@@ -2633,7 +2670,7 @@
       <c r="D25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="3"/>
@@ -2651,7 +2688,7 @@
       <c r="D26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="8" t="s">
         <v>67</v>
       </c>
       <c r="F26" s="3"/>
@@ -2669,7 +2706,7 @@
       <c r="D27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F27" s="3"/>
@@ -2687,7 +2724,7 @@
       <c r="D28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F28" s="3"/>
@@ -2705,7 +2742,7 @@
       <c r="D29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2722,7 +2759,7 @@
       <c r="D30" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="8" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2739,7 +2776,7 @@
       <c r="D31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2756,7 +2793,7 @@
       <c r="D32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2773,49 +2810,49 @@
       <c r="D33" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="10"/>
-      <c r="AD33" s="10"/>
-      <c r="AE33" s="10"/>
-      <c r="AF33" s="10"/>
-      <c r="AG33" s="10"/>
-      <c r="AH33" s="10"/>
-      <c r="AI33" s="10"/>
-      <c r="AJ33" s="10"/>
-      <c r="AK33" s="10"/>
-      <c r="AL33" s="10"/>
-      <c r="AM33" s="10"/>
-      <c r="AN33" s="10"/>
-      <c r="AO33" s="10"/>
-      <c r="AP33" s="10"/>
-      <c r="AQ33" s="10"/>
-      <c r="AR33" s="10"/>
-      <c r="AS33" s="10"/>
-      <c r="AT33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="11"/>
+      <c r="AL33" s="11"/>
+      <c r="AM33" s="11"/>
+      <c r="AN33" s="11"/>
+      <c r="AO33" s="11"/>
+      <c r="AP33" s="11"/>
+      <c r="AQ33" s="11"/>
+      <c r="AR33" s="11"/>
+      <c r="AS33" s="11"/>
+      <c r="AT33" s="11"/>
     </row>
     <row r="34" ht="28" customHeight="1" spans="1:46">
       <c r="A34" s="2">
@@ -2830,49 +2867,49 @@
       <c r="D34" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="10"/>
-      <c r="AB34" s="10"/>
-      <c r="AC34" s="10"/>
-      <c r="AD34" s="10"/>
-      <c r="AE34" s="10"/>
-      <c r="AF34" s="10"/>
-      <c r="AG34" s="10"/>
-      <c r="AH34" s="10"/>
-      <c r="AI34" s="10"/>
-      <c r="AJ34" s="10"/>
-      <c r="AK34" s="10"/>
-      <c r="AL34" s="10"/>
-      <c r="AM34" s="10"/>
-      <c r="AN34" s="10"/>
-      <c r="AO34" s="10"/>
-      <c r="AP34" s="10"/>
-      <c r="AQ34" s="10"/>
-      <c r="AR34" s="10"/>
-      <c r="AS34" s="10"/>
-      <c r="AT34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="11"/>
+      <c r="AK34" s="11"/>
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="11"/>
+      <c r="AN34" s="11"/>
+      <c r="AO34" s="11"/>
+      <c r="AP34" s="11"/>
+      <c r="AQ34" s="11"/>
+      <c r="AR34" s="11"/>
+      <c r="AS34" s="11"/>
+      <c r="AT34" s="11"/>
     </row>
     <row r="35" ht="28" customHeight="1" spans="1:46">
       <c r="A35" s="2">
@@ -2887,49 +2924,49 @@
       <c r="D35" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="10"/>
-      <c r="AB35" s="10"/>
-      <c r="AC35" s="10"/>
-      <c r="AD35" s="10"/>
-      <c r="AE35" s="10"/>
-      <c r="AF35" s="10"/>
-      <c r="AG35" s="10"/>
-      <c r="AH35" s="10"/>
-      <c r="AI35" s="10"/>
-      <c r="AJ35" s="10"/>
-      <c r="AK35" s="10"/>
-      <c r="AL35" s="10"/>
-      <c r="AM35" s="10"/>
-      <c r="AN35" s="10"/>
-      <c r="AO35" s="10"/>
-      <c r="AP35" s="10"/>
-      <c r="AQ35" s="10"/>
-      <c r="AR35" s="10"/>
-      <c r="AS35" s="10"/>
-      <c r="AT35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="11"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="11"/>
+      <c r="AK35" s="11"/>
+      <c r="AL35" s="11"/>
+      <c r="AM35" s="11"/>
+      <c r="AN35" s="11"/>
+      <c r="AO35" s="11"/>
+      <c r="AP35" s="11"/>
+      <c r="AQ35" s="11"/>
+      <c r="AR35" s="11"/>
+      <c r="AS35" s="11"/>
+      <c r="AT35" s="11"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
@@ -2944,7 +2981,7 @@
       <c r="D36" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2961,7 +2998,7 @@
       <c r="D37" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="8" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2978,7 +3015,7 @@
       <c r="D38" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2995,7 +3032,7 @@
       <c r="D39" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3012,7 +3049,7 @@
       <c r="D40" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3029,7 +3066,7 @@
       <c r="D41" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3046,7 +3083,7 @@
       <c r="D42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3063,7 +3100,7 @@
       <c r="D43" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="8" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3080,7 +3117,7 @@
       <c r="D44" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="8" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3097,7 +3134,7 @@
       <c r="D45" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="8" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3114,7 +3151,7 @@
       <c r="D46" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3128,7 +3165,7 @@
       <c r="D47" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3145,7 +3182,7 @@
       <c r="D48" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="8" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3162,7 +3199,7 @@
       <c r="D49" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="10" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3179,7 +3216,7 @@
       <c r="D50" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3196,7 +3233,7 @@
       <c r="D51" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3210,7 +3247,7 @@
       <c r="D52" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3224,7 +3261,7 @@
       <c r="D53" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3241,7 +3278,7 @@
       <c r="D54" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3258,7 +3295,7 @@
       <c r="D55" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3275,7 +3312,7 @@
       <c r="D56" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3292,7 +3329,7 @@
       <c r="D57" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="10" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3309,7 +3346,7 @@
       <c r="D58" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3326,7 +3363,7 @@
       <c r="D59" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3343,7 +3380,7 @@
       <c r="D60" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3360,7 +3397,7 @@
       <c r="D61" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="8" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3377,7 +3414,7 @@
       <c r="D62" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="8" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3394,7 +3431,7 @@
       <c r="D63" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="10" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3408,7 +3445,7 @@
       <c r="D64" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3425,7 +3462,7 @@
       <c r="D65" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3442,7 +3479,7 @@
       <c r="D66" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3459,7 +3496,7 @@
       <c r="D67" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3473,7 +3510,7 @@
       <c r="D68" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3487,7 +3524,7 @@
       <c r="D69" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3501,7 +3538,7 @@
       <c r="D70" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="8" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3515,7 +3552,7 @@
       <c r="D71" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="8" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3529,7 +3566,7 @@
       <c r="D72" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3543,7 +3580,7 @@
       <c r="D73" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3557,7 +3594,7 @@
       <c r="D74" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="8" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3571,7 +3608,7 @@
       <c r="D75" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="8" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3585,7 +3622,7 @@
       <c r="D76" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="8" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3599,7 +3636,7 @@
       <c r="D77" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="8" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3613,7 +3650,7 @@
       <c r="D78" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3627,7 +3664,7 @@
       <c r="D79" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3641,7 +3678,7 @@
       <c r="D80" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3655,7 +3692,7 @@
       <c r="D81" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="8" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3669,7 +3706,7 @@
       <c r="D82" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="8" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3683,7 +3720,7 @@
       <c r="D83" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E83" s="8" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3697,7 +3734,7 @@
       <c r="D84" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3711,7 +3748,7 @@
       <c r="D85" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E85" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3725,7 +3762,7 @@
       <c r="D86" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E86" s="8" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3739,7 +3776,7 @@
       <c r="D87" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E87" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3753,7 +3790,7 @@
       <c r="D88" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3767,7 +3804,7 @@
       <c r="D89" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E89" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3781,7 +3818,7 @@
       <c r="D90" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E90" s="8" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3795,7 +3832,7 @@
       <c r="D91" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3809,7 +3846,7 @@
       <c r="D92" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E92" s="8" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3823,7 +3860,7 @@
       <c r="D93" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="8" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3837,7 +3874,7 @@
       <c r="D94" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E94" s="8" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3851,7 +3888,7 @@
       <c r="D95" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="8" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3865,7 +3902,7 @@
       <c r="D96" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E96" s="8" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3879,7 +3916,7 @@
       <c r="D97" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E97" s="8" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3893,7 +3930,7 @@
       <c r="D98" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E98" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3907,7 +3944,7 @@
       <c r="D99" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E99" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3921,7 +3958,7 @@
       <c r="D100" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E100" s="8" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3935,7 +3972,7 @@
       <c r="D101" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E101" s="8" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3949,7 +3986,7 @@
       <c r="D102" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E102" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3963,7 +4000,7 @@
       <c r="D103" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E103" s="8" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3977,7 +4014,7 @@
       <c r="D104" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E104" s="8" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3991,7 +4028,7 @@
       <c r="D105" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E105" s="8" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4005,7 +4042,7 @@
       <c r="D106" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="E106" s="8" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4019,7 +4056,7 @@
       <c r="D107" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="E107" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4033,7 +4070,7 @@
       <c r="D108" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="E108" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4047,8 +4084,22 @@
       <c r="D109" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="E109" s="8" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="2">
+        <v>45375</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4181,6 +4232,7 @@
     <hyperlink ref="B107" r:id="rId117" display="https://www.luogu.com.cn/problem/P3800"/>
     <hyperlink ref="B108" r:id="rId118" display="https://ac.nowcoder.com/acm/contest/77448/J"/>
     <hyperlink ref="B109" r:id="rId119" display="https://ac.nowcoder.com/acm/contest/77448/E"/>
+    <hyperlink ref="B110" r:id="rId120" display="https://codeforces.com/gym/104872/problem/G"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4191,10 +4243,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4233,10 +4285,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>262</v>
+        <v>264</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -4244,10 +4296,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>262</v>
+        <v>266</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -4255,10 +4307,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -4266,10 +4318,10 @@
         <v>45311</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4277,10 +4329,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4288,10 +4340,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4299,7 +4351,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -4310,10 +4362,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4321,10 +4373,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4332,10 +4384,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4343,10 +4395,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4354,10 +4406,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4365,10 +4417,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4376,10 +4428,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4387,10 +4439,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4398,10 +4450,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4409,10 +4461,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4420,15 +4472,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -4436,15 +4488,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -4452,39 +4504,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -4492,25 +4544,25 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
@@ -4518,12 +4570,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -4531,7 +4583,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -4539,15 +4591,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -4555,10 +4607,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4566,7 +4618,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4574,33 +4626,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="3" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="3" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4608,33 +4660,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="3" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4642,22 +4694,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -4676,15 +4728,15 @@
         <v>45374</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="3" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>185</v>
@@ -4692,14 +4744,41 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2">
+        <v>45375</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E55">
+  <autoFilter ref="A3:E60">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -4755,6 +4834,9 @@
     <hyperlink ref="B56" r:id="rId50" display="https://ac.nowcoder.com/acm/contest/77448/A"/>
     <hyperlink ref="B57" r:id="rId51" display="https://ac.nowcoder.com/acm/contest/77448/G"/>
     <hyperlink ref="B58" r:id="rId52" display="https://ac.nowcoder.com/acm/contest/77448/M"/>
+    <hyperlink ref="B59" r:id="rId53" display="https://codeforces.com/gym/104872/problem/M"/>
+    <hyperlink ref="B60" r:id="rId54" display="https://codeforces.com/gym/104872/problem/F"/>
+    <hyperlink ref="B61" r:id="rId55" display="https://codeforces.com/gym/104872/problem/E"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4765,9 +4847,9 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -4782,16 +4864,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4799,10 +4881,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4810,10 +4892,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -4824,10 +4906,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4835,10 +4917,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4846,10 +4928,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4857,13 +4939,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4871,10 +4953,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4882,10 +4964,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -4896,10 +4978,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4907,10 +4989,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4918,10 +5000,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4929,10 +5011,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4940,10 +5022,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4951,10 +5033,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4962,10 +5044,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -4976,10 +5058,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4987,10 +5069,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4998,10 +5080,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5009,10 +5091,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5020,10 +5102,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5031,10 +5113,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5042,10 +5124,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5053,10 +5135,10 @@
         <v>45360</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5064,10 +5146,10 @@
         <v>45359</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5075,10 +5157,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5086,10 +5168,10 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5097,10 +5179,10 @@
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -5111,10 +5193,10 @@
         <v>45367</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5122,14 +5204,25 @@
         <v>45374</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>397</v>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>45375</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A29">
+  <autoFilter ref="A1:A30">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:D23">
@@ -5165,6 +5258,8 @@
     <hyperlink ref="C28" r:id="rId27" display="https://codeforces.com/contest/1941"/>
     <hyperlink ref="C29" r:id="rId28" display="https://codeforces.com/contest/1948" tooltip="https://codeforces.com/contest/1948"/>
     <hyperlink ref="C30" r:id="rId29" display="https://ac.nowcoder.com/acm/contest/77448"/>
+    <hyperlink ref="C31" r:id="rId30" display="https://codeforces.com/gym/104872"/>
+    <hyperlink ref="B31" r:id="rId30" display="2023-2024 Russia Team Open, High School Programming Contest (VKOSHP XXIV)" tooltip="https://codeforces.com/gym/104872"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12465" windowHeight="9975"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$60</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="427">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -837,6 +837,48 @@
     <t>1WA，没看清题目限制询问数不超过100，改变枚举的对象后AC</t>
   </si>
   <si>
+    <t>https://vjudge.net/problem/CodeChef-SMPLSUM</t>
+  </si>
+  <si>
+    <t>欧拉函数，积性函数，线性筛</t>
+  </si>
+  <si>
+    <t>1TLE，使用埃氏筛，但是题目数据很大，必须使用线性筛</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/77448/D</t>
+  </si>
+  <si>
+    <t>双指针</t>
+  </si>
+  <si>
+    <t>1WA，以为题目数据小不需要开long long，结果最后累加起来答案正好能爆int一个数量级</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P5490</t>
+  </si>
+  <si>
+    <t>扫描线</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1775/E</t>
+  </si>
+  <si>
+    <t>差分转前缀和</t>
+  </si>
+  <si>
+    <t>1AC 赛时思路没想到，后来看了看应该是把+1 -1 理解为差分的+1-1，可转化为区间加。</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/19483/F</t>
+  </si>
+  <si>
+    <t>前缀和</t>
+  </si>
+  <si>
+    <t>1AC 广义下的前缀和运算是指连续的进行若干次操作，产生一个叠加影响，如果这种影响可以通过某种反向操作撤销</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
   </si>
   <si>
@@ -855,9 +897,6 @@
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_d</t>
   </si>
   <si>
-    <t>前缀和</t>
-  </si>
-  <si>
     <t>https://atcoder.jp/contests/abc338/tasks/abc338_a</t>
   </si>
   <si>
@@ -1069,6 +1108,27 @@
   </si>
   <si>
     <t>https://codeforces.com/gym/104872/problem/E</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P7835</t>
+  </si>
+  <si>
+    <t>gcd,lcm,暴力枚举</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/19483/A</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/19483/I</t>
+  </si>
+  <si>
+    <t>差分，基础</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/19483/G</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/19483/J</t>
   </si>
   <si>
     <t>时间</t>
@@ -2240,10 +2300,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT110"/>
+  <dimension ref="A1:AT115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3728,7 +3788,7 @@
       <c r="A84" s="2">
         <v>45352</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -3966,7 +4026,7 @@
       <c r="A101" s="2">
         <v>45366</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="4" t="s">
         <v>239</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -4092,7 +4152,7 @@
       <c r="A110" s="2">
         <v>45375</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D110" s="1" t="s">
@@ -4100,6 +4160,76 @@
       </c>
       <c r="E110" s="8" t="s">
         <v>263</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="2">
+        <v>45376</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="2">
+        <v>45377</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="2">
+        <v>45378</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="2">
+        <v>45379</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="2">
+        <v>45380</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -4223,16 +4353,21 @@
     <hyperlink ref="B98" r:id="rId108" display="https://codeforces.com/contest/1941/problem/G"/>
     <hyperlink ref="B99" r:id="rId109" display="https://acm.hdu.edu.cn/showproblem.php?pid=7412"/>
     <hyperlink ref="B100" r:id="rId110" display="https://www.luogu.com.cn/problem/P1363"/>
-    <hyperlink ref="B101" r:id="rId111" display="https://acm.hdu.edu.cn/showproblem.php?pid=7414"/>
+    <hyperlink ref="B101" r:id="rId111" display="https://acm.hdu.edu.cn/showproblem.php?pid=7414" tooltip="https://acm.hdu.edu.cn/showproblem.php?pid=7414"/>
     <hyperlink ref="B102" r:id="rId112" display="https://acm.hdu.edu.cn/showproblem.php?pid=7415"/>
     <hyperlink ref="B103" r:id="rId113" display="https://codeforces.com/contest/1948/problem/D"/>
-    <hyperlink ref="B104" r:id="rId114" display="https://acm.hdu.edu.cn/showproblem.php?pid=7416"/>
+    <hyperlink ref="B104" r:id="rId114" display="https://acm.hdu.edu.cn/showproblem.php?pid=7416" tooltip="https://acm.hdu.edu.cn/showproblem.php?pid=7416"/>
     <hyperlink ref="B105" r:id="rId115" display="https://codeforces.com/contest/1948/problem/E"/>
     <hyperlink ref="B106" r:id="rId116" display="https://codeforces.com/problemset/problem/1802/F"/>
     <hyperlink ref="B107" r:id="rId117" display="https://www.luogu.com.cn/problem/P3800"/>
-    <hyperlink ref="B108" r:id="rId118" display="https://ac.nowcoder.com/acm/contest/77448/J"/>
+    <hyperlink ref="B108" r:id="rId118" display="https://ac.nowcoder.com/acm/contest/77448/J" tooltip="https://ac.nowcoder.com/acm/contest/77448/J"/>
     <hyperlink ref="B109" r:id="rId119" display="https://ac.nowcoder.com/acm/contest/77448/E"/>
     <hyperlink ref="B110" r:id="rId120" display="https://codeforces.com/gym/104872/problem/G"/>
+    <hyperlink ref="B111" r:id="rId121" display="https://vjudge.net/problem/CodeChef-SMPLSUM"/>
+    <hyperlink ref="B112" r:id="rId122" display="https://ac.nowcoder.com/acm/contest/77448/D"/>
+    <hyperlink ref="B113" r:id="rId123" display="https://www.luogu.com.cn/problem/P5490"/>
+    <hyperlink ref="B114" r:id="rId124" display="https://codeforces.com/problemset/problem/1775/E"/>
+    <hyperlink ref="B115" r:id="rId125" display="https://ac.nowcoder.com/acm/contest/19483/F"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4243,10 +4378,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4285,10 +4420,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -4296,10 +4431,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -4307,10 +4442,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -4318,10 +4453,10 @@
         <v>45311</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4329,10 +4464,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4340,10 +4475,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4351,7 +4486,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -4362,10 +4497,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4373,10 +4508,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4384,10 +4519,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4395,10 +4530,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4406,10 +4541,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4417,10 +4552,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4428,10 +4563,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4439,10 +4574,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4450,10 +4585,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4461,10 +4596,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4472,15 +4607,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="3" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -4488,15 +4623,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="3" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -4504,39 +4639,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="3" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="3" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="3" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="3" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -4544,25 +4679,25 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="3" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="3" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="3" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="3" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
@@ -4570,12 +4705,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="3" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="3" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -4583,7 +4718,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="3" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -4591,15 +4726,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="3" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="3" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -4607,10 +4742,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="3" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4618,7 +4753,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4626,33 +4761,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="3" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="3" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="3" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="3" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4660,33 +4795,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="3" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="3" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="3" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="3" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4694,22 +4829,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="3" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="3" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="3" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -4728,15 +4863,15 @@
         <v>45374</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="3" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>185</v>
@@ -4744,10 +4879,10 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="3" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -4755,7 +4890,7 @@
         <v>45375</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>106</v>
@@ -4763,22 +4898,68 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="3" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="3" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>110</v>
       </c>
     </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2">
+        <v>45377</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2">
+        <v>45380</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:E60">
+  <autoFilter ref="A3:E66">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -4837,6 +5018,11 @@
     <hyperlink ref="B59" r:id="rId53" display="https://codeforces.com/gym/104872/problem/M"/>
     <hyperlink ref="B60" r:id="rId54" display="https://codeforces.com/gym/104872/problem/F"/>
     <hyperlink ref="B61" r:id="rId55" display="https://codeforces.com/gym/104872/problem/E"/>
+    <hyperlink ref="B62" r:id="rId56" display="https://www.luogu.com.cn/problem/P7835"/>
+    <hyperlink ref="B63" r:id="rId57" display="https://ac.nowcoder.com/acm/contest/19483/A"/>
+    <hyperlink ref="B64" r:id="rId58" display="https://ac.nowcoder.com/acm/contest/19483/I"/>
+    <hyperlink ref="B65" r:id="rId59" display="https://ac.nowcoder.com/acm/contest/19483/G"/>
+    <hyperlink ref="B66" r:id="rId60" display="https://ac.nowcoder.com/acm/contest/19483/J"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4864,16 +5050,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4881,10 +5067,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4892,10 +5078,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -4906,10 +5092,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4917,10 +5103,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4928,10 +5114,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4939,13 +5125,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4953,10 +5139,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4964,10 +5150,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -4978,10 +5164,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4989,10 +5175,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5000,10 +5186,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5011,10 +5197,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5022,10 +5208,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5033,10 +5219,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5044,10 +5230,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -5058,10 +5244,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5069,10 +5255,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5080,10 +5266,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5091,10 +5277,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5102,10 +5288,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5113,10 +5299,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5124,10 +5310,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5135,10 +5321,10 @@
         <v>45360</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5146,10 +5332,10 @@
         <v>45359</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5157,10 +5343,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5168,10 +5354,10 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5179,10 +5365,10 @@
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -5193,10 +5379,10 @@
         <v>45367</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5204,10 +5390,10 @@
         <v>45374</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5215,14 +5401,14 @@
         <v>45375</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A30">
+  <autoFilter ref="A1:A31">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:D23">

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$66</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="442">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -879,6 +879,15 @@
     <t>1AC 广义下的前缀和运算是指连续的进行若干次操作，产生一个叠加影响，如果这种影响可以通过某种反向操作撤销</t>
   </si>
   <si>
+    <t>https://ac.nowcoder.com/acm/contest/79000/L</t>
+  </si>
+  <si>
+    <t>暴力/启发式合并</t>
+  </si>
+  <si>
+    <t>1TLE，建立无向边时建成有向边，导致TLE时以为是哪里时间复杂度不够优，遂进行优化。改为无向边后AC。</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
   </si>
   <si>
@@ -1131,6 +1140,36 @@
     <t>https://ac.nowcoder.com/acm/contest/19483/J</t>
   </si>
   <si>
+    <t>https://ac.nowcoder.com/acm/contest/79000/E</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/79000/F</t>
+  </si>
+  <si>
+    <t>拓扑排序</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/79000/H</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/79000/J</t>
+  </si>
+  <si>
+    <t>中位数</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/79000/K</t>
+  </si>
+  <si>
+    <t>数论，基础</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/79000/M</t>
+  </si>
+  <si>
+    <t>并查集，构造</t>
+  </si>
+  <si>
     <t>时间</t>
   </si>
   <si>
@@ -1324,6 +1363,20 @@
   </si>
   <si>
     <t>https://codeforces.com/gym/104872</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14.05"/>
+        <color rgb="FF373A3C"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZJUT2024春季个人训练赛Week5</t>
+    </r>
+  </si>
+  <si>
+    <t>https://vjudge.net/contest/619193</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1389,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1371,6 +1424,12 @@
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14.05"/>
+      <color rgb="FF373A3C"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1831,128 +1890,128 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1973,6 +2032,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2300,10 +2362,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT115"/>
+  <dimension ref="A1:AT116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2312,19 +2374,19 @@
     <col min="2" max="2" width="59" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
     <col min="4" max="4" width="49.5583333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="78.3333333333333" style="8" customWidth="1"/>
+    <col min="5" max="5" width="78.3333333333333" style="9" customWidth="1"/>
     <col min="6" max="6" width="8.89166666666667" style="1" customWidth="1"/>
-    <col min="7" max="12" width="9" style="8"/>
-    <col min="13" max="13" width="5.33333333333333" style="8" customWidth="1"/>
-    <col min="14" max="15" width="9" style="9" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="2.44166666666667" style="9" hidden="1" customWidth="1"/>
-    <col min="17" max="22" width="9" style="9" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="2.44166666666667" style="9" hidden="1" customWidth="1"/>
-    <col min="24" max="33" width="9" style="9" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="5.33333333333333" style="9" hidden="1" customWidth="1"/>
-    <col min="35" max="44" width="9" style="9" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="3" style="9" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="3.10833333333333" style="9" hidden="1" customWidth="1"/>
+    <col min="7" max="12" width="9" style="9"/>
+    <col min="13" max="13" width="5.33333333333333" style="9" customWidth="1"/>
+    <col min="14" max="15" width="9" style="10" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="2.44166666666667" style="10" hidden="1" customWidth="1"/>
+    <col min="17" max="22" width="9" style="10" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="2.44166666666667" style="10" hidden="1" customWidth="1"/>
+    <col min="24" max="33" width="9" style="10" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="5.33333333333333" style="10" hidden="1" customWidth="1"/>
+    <col min="35" max="44" width="9" style="10" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="3" style="10" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="3.10833333333333" style="10" hidden="1" customWidth="1"/>
     <col min="48" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2332,12 +2394,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -2352,7 +2414,7 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -2366,10 +2428,10 @@
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -2383,10 +2445,10 @@
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -2414,10 +2476,10 @@
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -2434,7 +2496,7 @@
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -2451,7 +2513,7 @@
       <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -2468,7 +2530,7 @@
       <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -2485,7 +2547,7 @@
       <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -2502,7 +2564,7 @@
       <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -2519,7 +2581,7 @@
       <c r="D13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -2536,7 +2598,7 @@
       <c r="D14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -2553,7 +2615,7 @@
       <c r="D15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -2570,7 +2632,7 @@
       <c r="D16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -2587,7 +2649,7 @@
       <c r="D17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -2604,7 +2666,7 @@
       <c r="D18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="9" t="s">
         <v>46</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -2621,7 +2683,7 @@
       <c r="D19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="9" t="s">
         <v>49</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -2638,7 +2700,7 @@
       <c r="D20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -2655,7 +2717,7 @@
       <c r="D21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -2672,7 +2734,7 @@
       <c r="D22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -2692,7 +2754,7 @@
       <c r="D23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -2712,7 +2774,7 @@
       <c r="D24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="3"/>
@@ -2730,7 +2792,7 @@
       <c r="D25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="3"/>
@@ -2748,7 +2810,7 @@
       <c r="D26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="9" t="s">
         <v>67</v>
       </c>
       <c r="F26" s="3"/>
@@ -2766,7 +2828,7 @@
       <c r="D27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="9" t="s">
         <v>71</v>
       </c>
       <c r="F27" s="3"/>
@@ -2784,7 +2846,7 @@
       <c r="D28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="9" t="s">
         <v>74</v>
       </c>
       <c r="F28" s="3"/>
@@ -2802,7 +2864,7 @@
       <c r="D29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2819,7 +2881,7 @@
       <c r="D30" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="9" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2836,7 +2898,7 @@
       <c r="D31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2853,7 +2915,7 @@
       <c r="D32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2870,49 +2932,49 @@
       <c r="D33" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="11"/>
-      <c r="AD33" s="11"/>
-      <c r="AE33" s="11"/>
-      <c r="AF33" s="11"/>
-      <c r="AG33" s="11"/>
-      <c r="AH33" s="11"/>
-      <c r="AI33" s="11"/>
-      <c r="AJ33" s="11"/>
-      <c r="AK33" s="11"/>
-      <c r="AL33" s="11"/>
-      <c r="AM33" s="11"/>
-      <c r="AN33" s="11"/>
-      <c r="AO33" s="11"/>
-      <c r="AP33" s="11"/>
-      <c r="AQ33" s="11"/>
-      <c r="AR33" s="11"/>
-      <c r="AS33" s="11"/>
-      <c r="AT33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="12"/>
+      <c r="AI33" s="12"/>
+      <c r="AJ33" s="12"/>
+      <c r="AK33" s="12"/>
+      <c r="AL33" s="12"/>
+      <c r="AM33" s="12"/>
+      <c r="AN33" s="12"/>
+      <c r="AO33" s="12"/>
+      <c r="AP33" s="12"/>
+      <c r="AQ33" s="12"/>
+      <c r="AR33" s="12"/>
+      <c r="AS33" s="12"/>
+      <c r="AT33" s="12"/>
     </row>
     <row r="34" ht="28" customHeight="1" spans="1:46">
       <c r="A34" s="2">
@@ -2927,49 +2989,49 @@
       <c r="D34" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="11"/>
-      <c r="AE34" s="11"/>
-      <c r="AF34" s="11"/>
-      <c r="AG34" s="11"/>
-      <c r="AH34" s="11"/>
-      <c r="AI34" s="11"/>
-      <c r="AJ34" s="11"/>
-      <c r="AK34" s="11"/>
-      <c r="AL34" s="11"/>
-      <c r="AM34" s="11"/>
-      <c r="AN34" s="11"/>
-      <c r="AO34" s="11"/>
-      <c r="AP34" s="11"/>
-      <c r="AQ34" s="11"/>
-      <c r="AR34" s="11"/>
-      <c r="AS34" s="11"/>
-      <c r="AT34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="12"/>
+      <c r="AG34" s="12"/>
+      <c r="AH34" s="12"/>
+      <c r="AI34" s="12"/>
+      <c r="AJ34" s="12"/>
+      <c r="AK34" s="12"/>
+      <c r="AL34" s="12"/>
+      <c r="AM34" s="12"/>
+      <c r="AN34" s="12"/>
+      <c r="AO34" s="12"/>
+      <c r="AP34" s="12"/>
+      <c r="AQ34" s="12"/>
+      <c r="AR34" s="12"/>
+      <c r="AS34" s="12"/>
+      <c r="AT34" s="12"/>
     </row>
     <row r="35" ht="28" customHeight="1" spans="1:46">
       <c r="A35" s="2">
@@ -2984,49 +3046,49 @@
       <c r="D35" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="11"/>
-      <c r="AB35" s="11"/>
-      <c r="AC35" s="11"/>
-      <c r="AD35" s="11"/>
-      <c r="AE35" s="11"/>
-      <c r="AF35" s="11"/>
-      <c r="AG35" s="11"/>
-      <c r="AH35" s="11"/>
-      <c r="AI35" s="11"/>
-      <c r="AJ35" s="11"/>
-      <c r="AK35" s="11"/>
-      <c r="AL35" s="11"/>
-      <c r="AM35" s="11"/>
-      <c r="AN35" s="11"/>
-      <c r="AO35" s="11"/>
-      <c r="AP35" s="11"/>
-      <c r="AQ35" s="11"/>
-      <c r="AR35" s="11"/>
-      <c r="AS35" s="11"/>
-      <c r="AT35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
+      <c r="AF35" s="12"/>
+      <c r="AG35" s="12"/>
+      <c r="AH35" s="12"/>
+      <c r="AI35" s="12"/>
+      <c r="AJ35" s="12"/>
+      <c r="AK35" s="12"/>
+      <c r="AL35" s="12"/>
+      <c r="AM35" s="12"/>
+      <c r="AN35" s="12"/>
+      <c r="AO35" s="12"/>
+      <c r="AP35" s="12"/>
+      <c r="AQ35" s="12"/>
+      <c r="AR35" s="12"/>
+      <c r="AS35" s="12"/>
+      <c r="AT35" s="12"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
@@ -3041,7 +3103,7 @@
       <c r="D36" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3058,7 +3120,7 @@
       <c r="D37" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="9" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3075,7 +3137,7 @@
       <c r="D38" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3092,7 +3154,7 @@
       <c r="D39" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3109,7 +3171,7 @@
       <c r="D40" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3126,7 +3188,7 @@
       <c r="D41" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3143,7 +3205,7 @@
       <c r="D42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3160,7 +3222,7 @@
       <c r="D43" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="9" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3177,7 +3239,7 @@
       <c r="D44" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="9" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3194,7 +3256,7 @@
       <c r="D45" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="9" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3211,7 +3273,7 @@
       <c r="D46" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3225,7 +3287,7 @@
       <c r="D47" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3242,7 +3304,7 @@
       <c r="D48" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="9" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3259,7 +3321,7 @@
       <c r="D49" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="11" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3276,7 +3338,7 @@
       <c r="D50" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3293,7 +3355,7 @@
       <c r="D51" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3307,7 +3369,7 @@
       <c r="D52" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3321,7 +3383,7 @@
       <c r="D53" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3338,7 +3400,7 @@
       <c r="D54" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3355,7 +3417,7 @@
       <c r="D55" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3372,7 +3434,7 @@
       <c r="D56" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3389,7 +3451,7 @@
       <c r="D57" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="11" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3406,7 +3468,7 @@
       <c r="D58" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3423,7 +3485,7 @@
       <c r="D59" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3440,7 +3502,7 @@
       <c r="D60" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3457,7 +3519,7 @@
       <c r="D61" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="9" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3474,7 +3536,7 @@
       <c r="D62" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="9" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3491,7 +3553,7 @@
       <c r="D63" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E63" s="11" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3505,7 +3567,7 @@
       <c r="D64" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3522,7 +3584,7 @@
       <c r="D65" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3539,7 +3601,7 @@
       <c r="D66" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="9" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3556,7 +3618,7 @@
       <c r="D67" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3570,7 +3632,7 @@
       <c r="D68" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3584,7 +3646,7 @@
       <c r="D69" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3598,7 +3660,7 @@
       <c r="D70" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="9" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3612,7 +3674,7 @@
       <c r="D71" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="9" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3626,7 +3688,7 @@
       <c r="D72" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3640,7 +3702,7 @@
       <c r="D73" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3654,7 +3716,7 @@
       <c r="D74" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="9" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3668,7 +3730,7 @@
       <c r="D75" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="9" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3682,7 +3744,7 @@
       <c r="D76" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="9" t="s">
         <v>180</v>
       </c>
     </row>
@@ -3696,7 +3758,7 @@
       <c r="D77" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="9" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3710,7 +3772,7 @@
       <c r="D78" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E78" s="8" t="s">
+      <c r="E78" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3724,7 +3786,7 @@
       <c r="D79" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3738,7 +3800,7 @@
       <c r="D80" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3752,7 +3814,7 @@
       <c r="D81" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="E81" s="9" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3766,7 +3828,7 @@
       <c r="D82" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="9" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3780,7 +3842,7 @@
       <c r="D83" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="9" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3794,7 +3856,7 @@
       <c r="D84" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3808,7 +3870,7 @@
       <c r="D85" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3822,7 +3884,7 @@
       <c r="D86" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E86" s="9" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3836,7 +3898,7 @@
       <c r="D87" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3850,7 +3912,7 @@
       <c r="D88" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3864,7 +3926,7 @@
       <c r="D89" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E89" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3878,7 +3940,7 @@
       <c r="D90" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="9" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3892,7 +3954,7 @@
       <c r="D91" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3906,7 +3968,7 @@
       <c r="D92" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="9" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3920,7 +3982,7 @@
       <c r="D93" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="9" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3934,7 +3996,7 @@
       <c r="D94" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="E94" s="9" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3948,7 +4010,7 @@
       <c r="D95" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E95" s="8" t="s">
+      <c r="E95" s="9" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3962,7 +4024,7 @@
       <c r="D96" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="9" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3976,7 +4038,7 @@
       <c r="D97" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E97" s="9" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3990,7 +4052,7 @@
       <c r="D98" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4004,7 +4066,7 @@
       <c r="D99" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4018,7 +4080,7 @@
       <c r="D100" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="9" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4032,7 +4094,7 @@
       <c r="D101" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="9" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4046,7 +4108,7 @@
       <c r="D102" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E102" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4060,7 +4122,7 @@
       <c r="D103" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="E103" s="9" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4074,7 +4136,7 @@
       <c r="D104" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E104" s="9" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4088,7 +4150,7 @@
       <c r="D105" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="E105" s="9" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4102,7 +4164,7 @@
       <c r="D106" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="E106" s="9" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4116,7 +4178,7 @@
       <c r="D107" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E107" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4130,7 +4192,7 @@
       <c r="D108" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="E108" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4144,7 +4206,7 @@
       <c r="D109" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="E109" s="9" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4158,7 +4220,7 @@
       <c r="D110" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="E110" s="9" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4172,7 +4234,7 @@
       <c r="D111" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="E111" s="9" t="s">
         <v>266</v>
       </c>
     </row>
@@ -4186,7 +4248,7 @@
       <c r="D112" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="E112" s="9" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4200,7 +4262,7 @@
       <c r="D113" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="E113" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4214,7 +4276,7 @@
       <c r="D114" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E114" s="9" t="s">
         <v>274</v>
       </c>
     </row>
@@ -4228,8 +4290,22 @@
       <c r="D115" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="E115" s="9" t="s">
         <v>277</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="2">
+        <v>45381</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -4368,6 +4444,7 @@
     <hyperlink ref="B113" r:id="rId123" display="https://www.luogu.com.cn/problem/P5490"/>
     <hyperlink ref="B114" r:id="rId124" display="https://codeforces.com/problemset/problem/1775/E"/>
     <hyperlink ref="B115" r:id="rId125" display="https://ac.nowcoder.com/acm/contest/19483/F"/>
+    <hyperlink ref="B116" r:id="rId126" display="https://ac.nowcoder.com/acm/contest/79000/L"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4378,10 +4455,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4420,10 +4497,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -4431,10 +4508,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -4442,10 +4519,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -4453,9 +4530,9 @@
         <v>45311</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D7" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>276</v>
       </c>
     </row>
@@ -4464,10 +4541,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4475,10 +4552,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4486,7 +4563,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -4497,10 +4574,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4508,10 +4585,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4519,10 +4596,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4530,10 +4607,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4541,10 +4618,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4552,10 +4629,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4563,10 +4640,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4574,10 +4651,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4585,10 +4662,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4596,10 +4673,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4607,15 +4684,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -4623,15 +4700,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -4639,39 +4716,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -4679,25 +4756,25 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="3" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="3" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
@@ -4705,12 +4782,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="3" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -4718,7 +4795,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -4726,15 +4803,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -4742,10 +4819,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4753,7 +4830,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4761,33 +4838,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="3" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="3" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4795,33 +4872,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="3" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="3" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="3" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4829,22 +4906,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -4863,15 +4940,15 @@
         <v>45374</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>185</v>
@@ -4879,10 +4956,10 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -4890,7 +4967,7 @@
         <v>45375</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>106</v>
@@ -4898,15 +4975,15 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="3" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="3" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>110</v>
@@ -4917,10 +4994,10 @@
         <v>45377</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -4928,7 +5005,7 @@
         <v>45380</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>276</v>
@@ -4936,15 +5013,15 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="3" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>276</v>
@@ -4952,10 +5029,61 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2">
+        <v>45381</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -5023,6 +5151,12 @@
     <hyperlink ref="B64" r:id="rId58" display="https://ac.nowcoder.com/acm/contest/19483/I"/>
     <hyperlink ref="B65" r:id="rId59" display="https://ac.nowcoder.com/acm/contest/19483/G"/>
     <hyperlink ref="B66" r:id="rId60" display="https://ac.nowcoder.com/acm/contest/19483/J"/>
+    <hyperlink ref="B67" r:id="rId61" display="https://ac.nowcoder.com/acm/contest/79000/E"/>
+    <hyperlink ref="B68" r:id="rId62" display="https://ac.nowcoder.com/acm/contest/79000/F"/>
+    <hyperlink ref="B69" r:id="rId63" display="https://ac.nowcoder.com/acm/contest/79000/H"/>
+    <hyperlink ref="B70" r:id="rId64" display="https://ac.nowcoder.com/acm/contest/79000/J"/>
+    <hyperlink ref="B71" r:id="rId65" display="https://ac.nowcoder.com/acm/contest/79000/K"/>
+    <hyperlink ref="B72" r:id="rId66" display="https://ac.nowcoder.com/acm/contest/79000/M"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5033,10 +5167,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5050,16 +5184,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5067,10 +5201,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5078,10 +5212,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -5092,10 +5226,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5103,10 +5237,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5114,10 +5248,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5125,13 +5259,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5139,10 +5273,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5150,10 +5284,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -5164,10 +5298,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5175,10 +5309,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5186,10 +5320,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5197,10 +5331,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5208,10 +5342,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5219,10 +5353,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5230,10 +5364,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -5244,10 +5378,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5255,10 +5389,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5266,10 +5400,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5277,10 +5411,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5288,10 +5422,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5299,10 +5433,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5310,10 +5444,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5321,10 +5455,10 @@
         <v>45360</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5332,10 +5466,10 @@
         <v>45359</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5343,10 +5477,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5354,10 +5488,10 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5365,10 +5499,10 @@
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -5379,10 +5513,10 @@
         <v>45367</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5390,10 +5524,10 @@
         <v>45374</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5401,14 +5535,25 @@
         <v>45375</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>426</v>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="32" ht="20.25" spans="1:3">
+      <c r="A32" s="2">
+        <v>45379</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A31">
+  <autoFilter ref="A1:A32">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:D23">
@@ -5446,6 +5591,7 @@
     <hyperlink ref="C30" r:id="rId29" display="https://ac.nowcoder.com/acm/contest/77448"/>
     <hyperlink ref="C31" r:id="rId30" display="https://codeforces.com/gym/104872"/>
     <hyperlink ref="B31" r:id="rId30" display="2023-2024 Russia Team Open, High School Programming Contest (VKOSHP XXIV)" tooltip="https://codeforces.com/gym/104872"/>
+    <hyperlink ref="C32" r:id="rId31" display="https://vjudge.net/contest/619193"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$72</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="447">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -886,6 +886,15 @@
   </si>
   <si>
     <t>1TLE，建立无向边时建成有向边，导致TLE时以为是哪里时间复杂度不够优，遂进行优化。改为无向边后AC。</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/104757/problem/B</t>
+  </si>
+  <si>
+    <t>dp,二次函数求最值</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -1377,6 +1386,12 @@
   </si>
   <si>
     <t>https://vjudge.net/contest/619193</t>
+  </si>
+  <si>
+    <t>2023-2024 ICPC East North America Regional Contest (ECNA 2023)</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/104757</t>
   </si>
 </sst>
 </file>
@@ -2362,10 +2377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT116"/>
+  <dimension ref="A1:AT118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4306,6 +4321,25 @@
       </c>
       <c r="E116" s="9" t="s">
         <v>280</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -4445,6 +4479,7 @@
     <hyperlink ref="B114" r:id="rId124" display="https://codeforces.com/problemset/problem/1775/E"/>
     <hyperlink ref="B115" r:id="rId125" display="https://ac.nowcoder.com/acm/contest/19483/F"/>
     <hyperlink ref="B116" r:id="rId126" display="https://ac.nowcoder.com/acm/contest/79000/L"/>
+    <hyperlink ref="B117" r:id="rId127" display="https://codeforces.com/gym/104757/problem/B"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4497,10 +4532,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -4508,10 +4543,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -4519,10 +4554,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -4530,7 +4565,7 @@
         <v>45311</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>276</v>
@@ -4541,10 +4576,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4552,10 +4587,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4563,7 +4598,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -4574,10 +4609,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4585,10 +4620,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4596,10 +4631,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4607,10 +4642,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4618,10 +4653,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4629,10 +4664,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4640,10 +4675,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4651,10 +4686,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4662,10 +4697,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4673,10 +4708,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4684,15 +4719,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -4700,15 +4735,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -4716,39 +4751,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="3" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -4756,25 +4791,25 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="3" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
@@ -4782,12 +4817,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -4795,7 +4830,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -4803,15 +4838,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -4819,10 +4854,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4830,7 +4865,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4838,33 +4873,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="3" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4872,33 +4907,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="3" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4906,22 +4941,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -4940,15 +4975,15 @@
         <v>45374</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="3" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>185</v>
@@ -4956,10 +4991,10 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -4967,7 +5002,7 @@
         <v>45375</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>106</v>
@@ -4975,15 +5010,15 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="3" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>110</v>
@@ -4994,10 +5029,10 @@
         <v>45377</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5005,7 +5040,7 @@
         <v>45380</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>276</v>
@@ -5013,15 +5048,15 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="3" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>276</v>
@@ -5029,10 +5064,10 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="3" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5040,7 +5075,7 @@
         <v>45381</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>106</v>
@@ -5048,15 +5083,15 @@
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="3" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="3" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>106</v>
@@ -5064,30 +5099,30 @@
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="3" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="72" spans="2:4">
       <c r="B72" s="3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E66">
+  <autoFilter ref="A3:E72">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -5167,10 +5202,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5184,16 +5219,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5201,10 +5236,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5212,10 +5247,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -5226,10 +5261,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5237,10 +5272,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5248,10 +5283,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5259,13 +5294,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5273,10 +5308,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5284,10 +5319,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -5298,10 +5333,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5309,10 +5344,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5320,10 +5355,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5331,10 +5366,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5342,10 +5377,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5353,10 +5388,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5364,10 +5399,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -5378,10 +5413,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5389,10 +5424,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5400,10 +5435,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5411,10 +5446,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5422,10 +5457,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5433,10 +5468,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5444,10 +5479,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5455,10 +5490,10 @@
         <v>45360</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5466,10 +5501,10 @@
         <v>45359</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5477,10 +5512,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5488,10 +5523,10 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5499,10 +5534,10 @@
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -5513,10 +5548,10 @@
         <v>45367</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5524,10 +5559,10 @@
         <v>45374</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5535,10 +5570,10 @@
         <v>45375</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" ht="20.25" spans="1:3">
@@ -5546,10 +5581,21 @@
         <v>45379</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>441</v>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -5592,6 +5638,7 @@
     <hyperlink ref="C31" r:id="rId30" display="https://codeforces.com/gym/104872"/>
     <hyperlink ref="B31" r:id="rId30" display="2023-2024 Russia Team Open, High School Programming Contest (VKOSHP XXIV)" tooltip="https://codeforces.com/gym/104872"/>
     <hyperlink ref="C32" r:id="rId31" display="https://vjudge.net/contest/619193"/>
+    <hyperlink ref="C33" r:id="rId32" display="https://codeforces.com/gym/104757"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$72</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="449">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -894,7 +894,13 @@
     <t>dp,二次函数求最值</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>https://ac.nowcoder.com/acm/contest/19483/B</t>
+  </si>
+  <si>
+    <t>高维前缀和</t>
+  </si>
+  <si>
+    <t>1WA，数组大小开(1&lt;&lt;N)开成(N&lt;&lt;1)。</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -2379,8 +2385,8 @@
   <sheetPr/>
   <dimension ref="A1:AT118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4337,9 +4343,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="1" t="s">
+    <row r="118" spans="1:5">
+      <c r="A118" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>283</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4480,6 +4495,7 @@
     <hyperlink ref="B115" r:id="rId125" display="https://ac.nowcoder.com/acm/contest/19483/F"/>
     <hyperlink ref="B116" r:id="rId126" display="https://ac.nowcoder.com/acm/contest/79000/L"/>
     <hyperlink ref="B117" r:id="rId127" display="https://codeforces.com/gym/104757/problem/B"/>
+    <hyperlink ref="B118" r:id="rId128" display="https://ac.nowcoder.com/acm/contest/19483/B"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4492,8 +4508,8 @@
   <sheetPr/>
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4532,10 +4548,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -4543,10 +4559,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -4554,10 +4570,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -4565,7 +4581,7 @@
         <v>45311</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>276</v>
@@ -4576,10 +4592,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4587,10 +4603,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4598,7 +4614,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -4609,10 +4625,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4620,10 +4636,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4631,10 +4647,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4642,10 +4658,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4653,10 +4669,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4664,10 +4680,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4675,10 +4691,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4686,10 +4702,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4697,10 +4713,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4708,10 +4724,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4719,15 +4735,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -4735,15 +4751,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -4751,39 +4767,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -4791,25 +4807,25 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
@@ -4817,12 +4833,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -4830,7 +4846,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -4838,15 +4854,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -4854,10 +4870,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4865,7 +4881,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4873,33 +4889,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4907,33 +4923,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="3" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4941,22 +4957,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -4975,15 +4991,15 @@
         <v>45374</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>185</v>
@@ -4991,10 +5007,10 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5002,7 +5018,7 @@
         <v>45375</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>106</v>
@@ -5010,15 +5026,15 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>110</v>
@@ -5029,10 +5045,10 @@
         <v>45377</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5040,7 +5056,7 @@
         <v>45380</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>276</v>
@@ -5048,15 +5064,15 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>276</v>
@@ -5064,10 +5080,10 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5075,7 +5091,7 @@
         <v>45381</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>106</v>
@@ -5083,15 +5099,15 @@
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>106</v>
@@ -5099,26 +5115,26 @@
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="72" spans="2:4">
       <c r="B72" s="3" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -5219,16 +5235,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5236,10 +5252,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5247,10 +5263,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -5261,10 +5277,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5272,10 +5288,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5283,10 +5299,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5294,13 +5310,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5308,10 +5324,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5319,10 +5335,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -5333,10 +5349,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5344,10 +5360,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5355,10 +5371,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5366,10 +5382,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5377,10 +5393,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5388,10 +5404,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5399,10 +5415,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -5413,10 +5429,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5424,10 +5440,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5435,10 +5451,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5446,10 +5462,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5457,10 +5473,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5468,10 +5484,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5479,10 +5495,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5490,10 +5506,10 @@
         <v>45360</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5501,10 +5517,10 @@
         <v>45359</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5512,10 +5528,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5523,10 +5539,10 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5534,10 +5550,10 @@
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -5548,10 +5564,10 @@
         <v>45367</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5559,10 +5575,10 @@
         <v>45374</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5570,10 +5586,10 @@
         <v>45375</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" ht="20.25" spans="1:3">
@@ -5581,10 +5597,10 @@
         <v>45379</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5592,14 +5608,14 @@
         <v>45382</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A32">
+  <autoFilter ref="A1:A33">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:D23">

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="451">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -901,6 +901,12 @@
   </si>
   <si>
     <t>1WA，数组大小开(1&lt;&lt;N)开成(N&lt;&lt;1)。</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/19483/D</t>
+  </si>
+  <si>
+    <t>1WA，数组大小开习惯性N=1e5+10，但是题目中可能会有越界的操作，开成N=1e5+20即过。</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -2383,10 +2389,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT118"/>
+  <dimension ref="A1:AT119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4355,6 +4361,20 @@
       </c>
       <c r="E118" s="9" t="s">
         <v>285</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="2">
+        <v>45384</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -4496,6 +4516,7 @@
     <hyperlink ref="B116" r:id="rId126" display="https://ac.nowcoder.com/acm/contest/79000/L"/>
     <hyperlink ref="B117" r:id="rId127" display="https://codeforces.com/gym/104757/problem/B"/>
     <hyperlink ref="B118" r:id="rId128" display="https://ac.nowcoder.com/acm/contest/19483/B"/>
+    <hyperlink ref="B119" r:id="rId129" display="https://ac.nowcoder.com/acm/contest/19483/D" tooltip="https://ac.nowcoder.com/acm/contest/19483/D"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4508,7 +4529,7 @@
   <sheetPr/>
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
@@ -4548,10 +4569,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -4559,10 +4580,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -4570,10 +4591,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -4581,7 +4602,7 @@
         <v>45311</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>276</v>
@@ -4592,10 +4613,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4603,10 +4624,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4614,7 +4635,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -4625,10 +4646,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4636,10 +4657,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4647,10 +4668,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4658,10 +4679,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4669,10 +4690,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4680,10 +4701,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4691,10 +4712,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4702,10 +4723,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4713,10 +4734,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4724,10 +4745,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4735,15 +4756,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -4751,15 +4772,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -4767,39 +4788,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -4807,25 +4828,25 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
@@ -4833,12 +4854,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -4846,7 +4867,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -4854,15 +4875,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -4870,10 +4891,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4881,7 +4902,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4889,33 +4910,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4923,33 +4944,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="3" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4957,22 +4978,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -4991,15 +5012,15 @@
         <v>45374</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>185</v>
@@ -5007,10 +5028,10 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5018,7 +5039,7 @@
         <v>45375</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>106</v>
@@ -5026,15 +5047,15 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>110</v>
@@ -5045,10 +5066,10 @@
         <v>45377</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5056,7 +5077,7 @@
         <v>45380</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>276</v>
@@ -5064,15 +5085,15 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>276</v>
@@ -5080,10 +5101,10 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5091,7 +5112,7 @@
         <v>45381</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>106</v>
@@ -5099,15 +5120,15 @@
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>106</v>
@@ -5115,26 +5136,26 @@
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="3" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="72" spans="2:4">
       <c r="B72" s="3" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -5235,16 +5256,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5252,10 +5273,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5263,10 +5284,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -5277,10 +5298,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5288,10 +5309,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5299,10 +5320,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5310,13 +5331,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5324,10 +5345,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5335,10 +5356,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -5349,10 +5370,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5360,10 +5381,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5371,10 +5392,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5382,10 +5403,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5393,10 +5414,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5404,10 +5425,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5415,10 +5436,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -5429,10 +5450,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5440,10 +5461,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5451,10 +5472,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5462,10 +5483,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5473,10 +5494,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5484,10 +5505,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5495,10 +5516,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5506,10 +5527,10 @@
         <v>45360</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5517,10 +5538,10 @@
         <v>45359</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5528,10 +5549,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5539,10 +5560,10 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5550,10 +5571,10 @@
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -5564,10 +5585,10 @@
         <v>45367</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5575,10 +5596,10 @@
         <v>45374</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5586,10 +5607,10 @@
         <v>45375</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" ht="20.25" spans="1:3">
@@ -5597,10 +5618,10 @@
         <v>45379</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5608,10 +5629,10 @@
         <v>45382</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$80</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="472">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -909,6 +909,27 @@
     <t>1WA，数组大小开习惯性N=1e5+10，但是题目中可能会有越界的操作，开成N=1e5+20即过。</t>
   </si>
   <si>
+    <t>https://codeforces.com/contest/1942/problem/C2</t>
+  </si>
+  <si>
+    <t>贪心，数学</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/79000/M</t>
+  </si>
+  <si>
+    <t>贪心，并查集</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/contest/620584#problem/D</t>
+  </si>
+  <si>
+    <t>异或，记忆化搜索</t>
+  </si>
+  <si>
+    <t>1WA没正确取模，2TLE，cf会专门卡unordered_map，所以不能用，用map即可</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
   </si>
   <si>
@@ -1185,10 +1206,46 @@
     <t>数论，基础</t>
   </si>
   <si>
-    <t>https://ac.nowcoder.com/acm/contest/79000/M</t>
-  </si>
-  <si>
     <t>并查集，构造</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/78965/A</t>
+  </si>
+  <si>
+    <t>推式子</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/78965/C</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/78965/F</t>
+  </si>
+  <si>
+    <t>暴力，dp</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/78965/G</t>
+  </si>
+  <si>
+    <t>猜</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/78965/H</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/78965/I</t>
+  </si>
+  <si>
+    <t>暴力，八皇后</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/78965/J</t>
+  </si>
+  <si>
+    <t>计算几何</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/78965/L</t>
   </si>
   <si>
     <t>时间</t>
@@ -1404,6 +1461,12 @@
   </si>
   <si>
     <t>https://codeforces.com/gym/104757</t>
+  </si>
+  <si>
+    <t>浙江理工大学 2024 年程序设计竞赛（同步赛）</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/78965</t>
   </si>
 </sst>
 </file>
@@ -2389,10 +2452,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT119"/>
+  <dimension ref="A1:AT122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4375,6 +4438,48 @@
       </c>
       <c r="E119" s="9" t="s">
         <v>287</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="2">
+        <v>45385</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="2">
+        <v>45388</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -4517,6 +4622,9 @@
     <hyperlink ref="B117" r:id="rId127" display="https://codeforces.com/gym/104757/problem/B"/>
     <hyperlink ref="B118" r:id="rId128" display="https://ac.nowcoder.com/acm/contest/19483/B"/>
     <hyperlink ref="B119" r:id="rId129" display="https://ac.nowcoder.com/acm/contest/19483/D" tooltip="https://ac.nowcoder.com/acm/contest/19483/D"/>
+    <hyperlink ref="B120" r:id="rId130" display="https://codeforces.com/contest/1942/problem/C2"/>
+    <hyperlink ref="B121" r:id="rId131" display="https://ac.nowcoder.com/acm/contest/79000/M"/>
+    <hyperlink ref="B122" r:id="rId132" display="https://vjudge.net/contest/620584#problem/D"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4527,10 +4635,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4569,10 +4677,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -4580,10 +4688,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -4591,10 +4699,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -4602,7 +4710,7 @@
         <v>45311</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>276</v>
@@ -4613,10 +4721,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4624,10 +4732,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4635,7 +4743,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -4646,10 +4754,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4657,10 +4765,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4668,10 +4776,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4679,10 +4787,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4690,10 +4798,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4701,10 +4809,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4712,10 +4820,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4723,10 +4831,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4734,10 +4842,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4745,10 +4853,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4756,15 +4864,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="3" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -4772,15 +4880,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="3" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -4788,39 +4896,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="3" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="3" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="3" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="3" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -4828,25 +4936,25 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="3" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="3" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="3" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="3" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
@@ -4854,12 +4962,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="3" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="3" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -4867,7 +4975,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="3" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -4875,15 +4983,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="3" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="3" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -4891,10 +4999,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="3" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4902,7 +5010,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4910,33 +5018,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="3" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="3" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="3" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="3" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4944,33 +5052,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="3" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="3" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="3" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="3" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4978,22 +5086,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="3" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="3" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="3" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -5012,15 +5120,15 @@
         <v>45374</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="3" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>185</v>
@@ -5028,10 +5136,10 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="3" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5039,7 +5147,7 @@
         <v>45375</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>106</v>
@@ -5047,15 +5155,15 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="3" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="3" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>110</v>
@@ -5066,10 +5174,10 @@
         <v>45377</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5077,7 +5185,7 @@
         <v>45380</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>276</v>
@@ -5085,15 +5193,15 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="3" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="3" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>276</v>
@@ -5101,10 +5209,10 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="3" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5112,7 +5220,7 @@
         <v>45381</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>106</v>
@@ -5120,15 +5228,15 @@
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="3" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="3" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>106</v>
@@ -5136,30 +5244,97 @@
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="3" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="3" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="72" spans="2:4">
       <c r="B72" s="3" t="s">
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>381</v>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="2">
+        <v>45388</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E72">
+  <autoFilter ref="A3:E80">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -5229,6 +5404,14 @@
     <hyperlink ref="B70" r:id="rId64" display="https://ac.nowcoder.com/acm/contest/79000/J"/>
     <hyperlink ref="B71" r:id="rId65" display="https://ac.nowcoder.com/acm/contest/79000/K"/>
     <hyperlink ref="B72" r:id="rId66" display="https://ac.nowcoder.com/acm/contest/79000/M"/>
+    <hyperlink ref="B73" r:id="rId67" display="https://ac.nowcoder.com/acm/contest/78965/A"/>
+    <hyperlink ref="B74" r:id="rId68" display="https://ac.nowcoder.com/acm/contest/78965/C"/>
+    <hyperlink ref="B75" r:id="rId69" display="https://ac.nowcoder.com/acm/contest/78965/F"/>
+    <hyperlink ref="B76" r:id="rId70" display="https://ac.nowcoder.com/acm/contest/78965/G"/>
+    <hyperlink ref="B77" r:id="rId71" display="https://ac.nowcoder.com/acm/contest/78965/H"/>
+    <hyperlink ref="B78" r:id="rId72" display="https://ac.nowcoder.com/acm/contest/78965/I"/>
+    <hyperlink ref="B79" r:id="rId73" display="https://ac.nowcoder.com/acm/contest/78965/J"/>
+    <hyperlink ref="B80" r:id="rId74" display="https://ac.nowcoder.com/acm/contest/78965/L"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5239,10 +5422,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5256,16 +5439,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5273,10 +5456,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5284,10 +5467,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -5298,10 +5481,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5309,10 +5492,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5320,10 +5503,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5331,13 +5514,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5345,10 +5528,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5356,10 +5539,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -5370,10 +5553,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5381,10 +5564,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5392,10 +5575,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5403,10 +5586,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5414,10 +5597,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5425,10 +5608,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5436,10 +5619,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -5450,10 +5633,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5461,10 +5644,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5472,10 +5655,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5483,10 +5666,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5494,10 +5677,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5505,10 +5688,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5516,10 +5699,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5527,10 +5710,10 @@
         <v>45360</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5538,10 +5721,10 @@
         <v>45359</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5549,10 +5732,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5560,10 +5743,10 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5571,10 +5754,10 @@
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -5585,10 +5768,10 @@
         <v>45367</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5596,10 +5779,10 @@
         <v>45374</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5607,10 +5790,10 @@
         <v>45375</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" ht="20.25" spans="1:3">
@@ -5618,10 +5801,10 @@
         <v>45379</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5629,10 +5812,21 @@
         <v>45382</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>450</v>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>45388</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -5676,6 +5870,7 @@
     <hyperlink ref="B31" r:id="rId30" display="2023-2024 Russia Team Open, High School Programming Contest (VKOSHP XXIV)" tooltip="https://codeforces.com/gym/104872"/>
     <hyperlink ref="C32" r:id="rId31" display="https://vjudge.net/contest/619193"/>
     <hyperlink ref="C33" r:id="rId32" display="https://codeforces.com/gym/104757"/>
+    <hyperlink ref="C34" r:id="rId33" display="https://ac.nowcoder.com/acm/contest/78965"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="17820" windowHeight="8955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$80</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="488">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -930,6 +930,12 @@
     <t>1WA没正确取模，2TLE，cf会专门卡unordered_map，所以不能用，用map即可</t>
   </si>
   <si>
+    <t>https://ac.nowcoder.com/acm/contest/67743/J</t>
+  </si>
+  <si>
+    <t>期望</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
   </si>
   <si>
@@ -1248,6 +1254,36 @@
     <t>https://ac.nowcoder.com/acm/contest/78965/L</t>
   </si>
   <si>
+    <t>https://ac.nowcoder.com/acm/contest/67743/A</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67743/B</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67743/D</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67743/G</t>
+  </si>
+  <si>
+    <t>逻辑</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67743/H</t>
+  </si>
+  <si>
+    <t>模拟，逻辑</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67743/L</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/67743/M</t>
+  </si>
+  <si>
+    <t>数学，模拟</t>
+  </si>
+  <si>
     <t>时间</t>
   </si>
   <si>
@@ -1395,16 +1431,16 @@
     <t>https://codeforces.com/contest/1935</t>
   </si>
   <si>
+    <t>牛客小白月赛88</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/75771</t>
+  </si>
+  <si>
     <t>2024杭电ACM-个人PK赛（1）</t>
   </si>
   <si>
     <t>https://acm.hdu.edu.cn/contest/problems?cid=1118</t>
-  </si>
-  <si>
-    <t>牛客小白月赛88</t>
-  </si>
-  <si>
-    <t>https://ac.nowcoder.com/acm/contest/75771</t>
   </si>
   <si>
     <t>（AtCoder Beginner Contest 344）</t>
@@ -1457,6 +1493,12 @@
     <t>https://vjudge.net/contest/619193</t>
   </si>
   <si>
+    <t>“崖山数据库杯”深圳大学程序设计竞赛（正式赛）</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/79000</t>
+  </si>
+  <si>
     <t>2023-2024 ICPC East North America Regional Contest (ECNA 2023)</t>
   </si>
   <si>
@@ -1467,6 +1509,12 @@
   </si>
   <si>
     <t>https://ac.nowcoder.com/acm/contest/78965</t>
+  </si>
+  <si>
+    <t>ZJUT2024春季个人训练赛Week6</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/contest/620584</t>
   </si>
 </sst>
 </file>
@@ -2452,10 +2500,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT122"/>
+  <dimension ref="A1:AT123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4480,6 +4528,20 @@
       </c>
       <c r="E122" s="9" t="s">
         <v>294</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4625,6 +4687,7 @@
     <hyperlink ref="B120" r:id="rId130" display="https://codeforces.com/contest/1942/problem/C2"/>
     <hyperlink ref="B121" r:id="rId131" display="https://ac.nowcoder.com/acm/contest/79000/M"/>
     <hyperlink ref="B122" r:id="rId132" display="https://vjudge.net/contest/620584#problem/D"/>
+    <hyperlink ref="B123" r:id="rId133" display="https://ac.nowcoder.com/acm/contest/67743/J"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4635,10 +4698,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4677,10 +4740,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -4688,10 +4751,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -4699,10 +4762,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -4710,7 +4773,7 @@
         <v>45311</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>276</v>
@@ -4721,10 +4784,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4732,10 +4795,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4743,7 +4806,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -4754,10 +4817,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4765,10 +4828,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4776,10 +4839,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4787,10 +4850,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4798,10 +4861,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4809,10 +4872,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4820,10 +4883,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4831,10 +4894,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4842,10 +4905,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4853,10 +4916,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4864,15 +4927,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -4880,15 +4943,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -4896,39 +4959,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -4936,25 +4999,25 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
@@ -4962,12 +5025,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -4975,7 +5038,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -4983,15 +5046,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -4999,10 +5062,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5010,7 +5073,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5018,33 +5081,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5052,33 +5115,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5086,22 +5149,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -5120,15 +5183,15 @@
         <v>45374</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>185</v>
@@ -5136,10 +5199,10 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5147,7 +5210,7 @@
         <v>45375</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>106</v>
@@ -5155,15 +5218,15 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>110</v>
@@ -5174,10 +5237,10 @@
         <v>45377</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5185,7 +5248,7 @@
         <v>45380</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>276</v>
@@ -5193,15 +5256,15 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>276</v>
@@ -5209,10 +5272,10 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5220,23 +5283,23 @@
         <v>45381</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="68" spans="2:4">
-      <c r="B68" s="3" t="s">
-        <v>380</v>
+      <c r="B68" s="4" t="s">
+        <v>382</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="3" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>106</v>
@@ -5244,18 +5307,18 @@
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="72" spans="2:4">
@@ -5263,7 +5326,7 @@
         <v>290</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -5271,15 +5334,15 @@
         <v>45388</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>162</v>
@@ -5287,23 +5350,23 @@
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="3" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>106</v>
@@ -5311,26 +5374,85 @@
     </row>
     <row r="78" spans="2:4">
       <c r="B78" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" s="3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -5412,6 +5534,13 @@
     <hyperlink ref="B78" r:id="rId72" display="https://ac.nowcoder.com/acm/contest/78965/I"/>
     <hyperlink ref="B79" r:id="rId73" display="https://ac.nowcoder.com/acm/contest/78965/J"/>
     <hyperlink ref="B80" r:id="rId74" display="https://ac.nowcoder.com/acm/contest/78965/L"/>
+    <hyperlink ref="B81" r:id="rId75" display="https://ac.nowcoder.com/acm/contest/67743/A"/>
+    <hyperlink ref="B82" r:id="rId76" display="https://ac.nowcoder.com/acm/contest/67743/B"/>
+    <hyperlink ref="B83" r:id="rId77" display="https://ac.nowcoder.com/acm/contest/67743/D"/>
+    <hyperlink ref="B84" r:id="rId78" display="https://ac.nowcoder.com/acm/contest/67743/G"/>
+    <hyperlink ref="B85" r:id="rId79" display="https://ac.nowcoder.com/acm/contest/67743/H"/>
+    <hyperlink ref="B86" r:id="rId80" display="https://ac.nowcoder.com/acm/contest/67743/L"/>
+    <hyperlink ref="B87" r:id="rId81" display="https://ac.nowcoder.com/acm/contest/67743/M"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5422,10 +5551,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5439,16 +5568,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5456,10 +5585,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5467,10 +5596,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -5481,10 +5610,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5492,10 +5621,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5503,10 +5632,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5514,13 +5643,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5528,10 +5657,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5539,10 +5668,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -5553,10 +5682,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5564,10 +5693,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5575,10 +5704,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5586,10 +5715,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5597,10 +5726,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5608,10 +5737,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5619,10 +5748,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -5633,10 +5762,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5644,10 +5773,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5655,10 +5784,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5666,10 +5795,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5677,10 +5806,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5688,10 +5817,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5699,32 +5828,32 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45360</v>
+        <v>45359</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5732,10 +5861,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5743,10 +5872,10 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5754,10 +5883,10 @@
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -5768,10 +5897,10 @@
         <v>45367</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5779,10 +5908,10 @@
         <v>45374</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>463</v>
+        <v>474</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5790,10 +5919,10 @@
         <v>45375</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="32" ht="20.25" spans="1:3">
@@ -5801,39 +5930,72 @@
         <v>45379</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>467</v>
+        <v>478</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>45382</v>
+        <v>45381</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
         <v>45388</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>471</v>
+      <c r="B35" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>45388</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A33">
+  <autoFilter ref="A1:A34">
     <extLst/>
   </autoFilter>
-  <sortState ref="A2:D23">
+  <sortState ref="A2:D37">
     <sortCondition ref="A2"/>
   </sortState>
   <hyperlinks>
@@ -5859,18 +6021,20 @@
     <hyperlink ref="C21" r:id="rId20" display="https://codeforces.com/contest/1934" tooltip="https://codeforces.com/contest/1934"/>
     <hyperlink ref="C22" r:id="rId21" display="https://codeforces.com/gym/103049"/>
     <hyperlink ref="C19" r:id="rId22" display="https://vjudge.net.cn/contest/612940"/>
-    <hyperlink ref="C24" r:id="rId23" display="https://acm.hdu.edu.cn/contest/problems?cid=1118"/>
-    <hyperlink ref="C25" r:id="rId24" display="https://ac.nowcoder.com/acm/contest/75771"/>
+    <hyperlink ref="C25" r:id="rId23" display="https://acm.hdu.edu.cn/contest/problems?cid=1118"/>
+    <hyperlink ref="C24" r:id="rId24" display="https://ac.nowcoder.com/acm/contest/75771"/>
     <hyperlink ref="C26" r:id="rId25" display="https://atcoder.jp/contests/abc344/tasks"/>
     <hyperlink ref="C27" r:id="rId26" display="https://codeforces.com/gym/104064"/>
     <hyperlink ref="C28" r:id="rId27" display="https://codeforces.com/contest/1941"/>
     <hyperlink ref="C29" r:id="rId28" display="https://codeforces.com/contest/1948" tooltip="https://codeforces.com/contest/1948"/>
     <hyperlink ref="C30" r:id="rId29" display="https://ac.nowcoder.com/acm/contest/77448"/>
     <hyperlink ref="C31" r:id="rId30" display="https://codeforces.com/gym/104872"/>
-    <hyperlink ref="B31" r:id="rId30" display="2023-2024 Russia Team Open, High School Programming Contest (VKOSHP XXIV)" tooltip="https://codeforces.com/gym/104872"/>
     <hyperlink ref="C32" r:id="rId31" display="https://vjudge.net/contest/619193"/>
-    <hyperlink ref="C33" r:id="rId32" display="https://codeforces.com/gym/104757"/>
-    <hyperlink ref="C34" r:id="rId33" display="https://ac.nowcoder.com/acm/contest/78965"/>
+    <hyperlink ref="C34" r:id="rId32" display="https://codeforces.com/gym/104757"/>
+    <hyperlink ref="C35" r:id="rId33" display="https://ac.nowcoder.com/acm/contest/78965"/>
+    <hyperlink ref="C36" r:id="rId34" display="https://vjudge.net/contest/620584"/>
+    <hyperlink ref="C33" r:id="rId35" display="https://ac.nowcoder.com/acm/contest/79000"/>
+    <hyperlink ref="C37" r:id="rId7" display="https://ac.nowcoder.com/acm/contest/67743"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17820" windowHeight="8955"/>
+    <workbookView windowWidth="18300" windowHeight="10125"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$80</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="499">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -936,6 +936,12 @@
     <t>期望</t>
   </si>
   <si>
+    <t>https://ac.nowcoder.com/acm/contest/78904/F</t>
+  </si>
+  <si>
+    <t>set，线段树</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
   </si>
   <si>
@@ -1282,6 +1288,27 @@
   </si>
   <si>
     <t>数学，模拟</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/78904/A</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/78904/B</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/78904/C</t>
+  </si>
+  <si>
+    <t>3的倍数</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/78904/D</t>
+  </si>
+  <si>
+    <t>完全背包</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/78904/E</t>
   </si>
   <si>
     <t>时间</t>
@@ -1515,6 +1542,12 @@
   </si>
   <si>
     <t>https://vjudge.net/contest/620584</t>
+  </si>
+  <si>
+    <t>牛客周赛 Round 39</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/78904</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1571,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1546,7 +1579,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2019,10 +2052,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -2159,10 +2192,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2500,10 +2533,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT123"/>
+  <dimension ref="A1:AT124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2563,7 +2596,7 @@
       <c r="A4" s="2">
         <v>45290</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -2572,7 +2605,7 @@
       <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2580,7 +2613,7 @@
       <c r="A5" s="2">
         <v>45290</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -2589,7 +2622,7 @@
       <c r="E5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2597,13 +2630,13 @@
       <c r="A6" s="2">
         <v>45290</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2611,7 +2644,7 @@
       <c r="A7" s="2">
         <v>45290</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2620,7 +2653,7 @@
       <c r="E7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2628,7 +2661,7 @@
       <c r="A8" s="2">
         <v>45311</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2637,7 +2670,7 @@
       <c r="E8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2645,7 +2678,7 @@
       <c r="A9" s="2">
         <v>45314</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2654,7 +2687,7 @@
       <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2662,7 +2695,7 @@
       <c r="A10" s="2">
         <v>45315</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2671,7 +2704,7 @@
       <c r="E10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2679,7 +2712,7 @@
       <c r="A11" s="2">
         <v>45315</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2688,7 +2721,7 @@
       <c r="E11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2696,7 +2729,7 @@
       <c r="A12" s="2">
         <v>45315</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2705,7 +2738,7 @@
       <c r="E12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2713,7 +2746,7 @@
       <c r="A13" s="2">
         <v>45316</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2722,7 +2755,7 @@
       <c r="E13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2730,7 +2763,7 @@
       <c r="A14" s="2">
         <v>45316</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2739,7 +2772,7 @@
       <c r="E14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2747,7 +2780,7 @@
       <c r="A15" s="2">
         <v>45317</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2756,7 +2789,7 @@
       <c r="E15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2764,7 +2797,7 @@
       <c r="A16" s="2">
         <v>45318</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2773,7 +2806,7 @@
       <c r="E16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2781,7 +2814,7 @@
       <c r="A17" s="2">
         <v>45319</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -2790,7 +2823,7 @@
       <c r="E17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2798,7 +2831,7 @@
       <c r="A18" s="2">
         <v>45319</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2807,7 +2840,7 @@
       <c r="E18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2815,7 +2848,7 @@
       <c r="A19" s="2">
         <v>45321</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -2824,7 +2857,7 @@
       <c r="E19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2832,7 +2865,7 @@
       <c r="A20" s="2">
         <v>45322</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2841,7 +2874,7 @@
       <c r="E20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2849,7 +2882,7 @@
       <c r="A21" s="2">
         <v>45322</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -2858,7 +2891,7 @@
       <c r="E21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2866,7 +2899,7 @@
       <c r="A22" s="2">
         <v>45322</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -2875,7 +2908,7 @@
       <c r="E22" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2883,7 +2916,7 @@
       <c r="A23" s="2">
         <v>45323</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2895,7 +2928,7 @@
       <c r="E23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2903,7 +2936,7 @@
       <c r="A24" s="2">
         <v>45323</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2915,13 +2948,13 @@
       <c r="E24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="3"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>45323</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2933,13 +2966,13 @@
       <c r="E25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="3"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>45323</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2951,13 +2984,13 @@
       <c r="E26" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>45323</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -2969,13 +3002,13 @@
       <c r="E27" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>45323</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -2987,13 +3020,13 @@
       <c r="E28" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="3"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>45323</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -3010,7 +3043,7 @@
       <c r="A30" s="2">
         <v>45324</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -3027,7 +3060,7 @@
       <c r="A31" s="2">
         <v>45324</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -3044,7 +3077,7 @@
       <c r="A32" s="2">
         <v>45324</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -3061,7 +3094,7 @@
       <c r="A33" s="2">
         <v>45324</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -3118,7 +3151,7 @@
       <c r="A34" s="2">
         <v>45324</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -3175,7 +3208,7 @@
       <c r="A35" s="2">
         <v>45324</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -3232,7 +3265,7 @@
       <c r="A36" s="2">
         <v>45325</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -3249,7 +3282,7 @@
       <c r="A37" s="2">
         <v>45325</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -3266,7 +3299,7 @@
       <c r="A38" s="2">
         <v>45325</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -3283,7 +3316,7 @@
       <c r="A39" s="2">
         <v>45325</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -3300,7 +3333,7 @@
       <c r="A40" s="2">
         <v>45325</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -3317,7 +3350,7 @@
       <c r="A41" s="2">
         <v>45326</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C41" s="1">
@@ -3334,7 +3367,7 @@
       <c r="A42" s="2">
         <v>45326</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C42" s="1">
@@ -3351,7 +3384,7 @@
       <c r="A43" s="2">
         <v>45326</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C43" s="1">
@@ -3368,7 +3401,7 @@
       <c r="A44" s="2">
         <v>45326</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C44" s="1">
@@ -3385,7 +3418,7 @@
       <c r="A45" s="2">
         <v>45326</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -3402,7 +3435,7 @@
       <c r="A46" s="2">
         <v>45327</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -3419,7 +3452,7 @@
       <c r="A47" s="2">
         <v>45327</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -3433,7 +3466,7 @@
       <c r="A48" s="2">
         <v>45327</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -3450,7 +3483,7 @@
       <c r="A49" s="2">
         <v>45327</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -3467,7 +3500,7 @@
       <c r="A50" s="2">
         <v>45327</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -3484,7 +3517,7 @@
       <c r="A51" s="2">
         <v>45327</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -3501,7 +3534,7 @@
       <c r="A52" s="2">
         <v>45328</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>129</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -3515,7 +3548,7 @@
       <c r="A53" s="2">
         <v>45328</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -3529,7 +3562,7 @@
       <c r="A54" s="2">
         <v>45328</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="4" t="s">
         <v>132</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -3546,7 +3579,7 @@
       <c r="A55" s="2">
         <v>45328</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -3563,7 +3596,7 @@
       <c r="A56" s="2">
         <v>45330</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -3580,7 +3613,7 @@
       <c r="A57" s="2">
         <v>45330</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -3597,7 +3630,7 @@
       <c r="A58" s="2">
         <v>45330</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="4" t="s">
         <v>141</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -3614,7 +3647,7 @@
       <c r="A59" s="2">
         <v>45330</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="4" t="s">
         <v>142</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -3631,7 +3664,7 @@
       <c r="A60" s="2">
         <v>45340</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -3648,7 +3681,7 @@
       <c r="A61" s="2">
         <v>45340</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -3665,7 +3698,7 @@
       <c r="A62" s="2">
         <v>45340</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -3682,7 +3715,7 @@
       <c r="A63" s="2">
         <v>45341</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -3699,7 +3732,7 @@
       <c r="A64" s="2">
         <v>45341</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="4" t="s">
         <v>153</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -3713,7 +3746,7 @@
       <c r="A65" s="2">
         <v>45341</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -3730,7 +3763,7 @@
       <c r="A66" s="2">
         <v>45341</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="4" t="s">
         <v>156</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -3747,7 +3780,7 @@
       <c r="A67" s="2">
         <v>45341</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="4" t="s">
         <v>158</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -3764,7 +3797,7 @@
       <c r="A68" s="2">
         <v>45341</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>159</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -3778,7 +3811,7 @@
       <c r="A69" s="2">
         <v>45342</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="4" t="s">
         <v>161</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -3792,7 +3825,7 @@
       <c r="A70" s="2">
         <v>45342</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="4" t="s">
         <v>163</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -3806,7 +3839,7 @@
       <c r="A71" s="2">
         <v>45344</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="4" t="s">
         <v>165</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -3820,7 +3853,7 @@
       <c r="A72" s="2">
         <v>45344</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="4" t="s">
         <v>168</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -3834,7 +3867,7 @@
       <c r="A73" s="2">
         <v>45344</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="4" t="s">
         <v>170</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -3848,7 +3881,7 @@
       <c r="A74" s="2">
         <v>45345</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="4" t="s">
         <v>172</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -3862,7 +3895,7 @@
       <c r="A75" s="2">
         <v>45345</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="4" t="s">
         <v>175</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -3876,7 +3909,7 @@
       <c r="A76" s="2">
         <v>45345</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="4" t="s">
         <v>178</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -3890,7 +3923,7 @@
       <c r="A77" s="2">
         <v>45346</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -3904,7 +3937,7 @@
       <c r="A78" s="2">
         <v>45347</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="4" t="s">
         <v>184</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -3918,7 +3951,7 @@
       <c r="A79" s="2">
         <v>45348</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="4" t="s">
         <v>186</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -3932,7 +3965,7 @@
       <c r="A80" s="2">
         <v>45349</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -3946,7 +3979,7 @@
       <c r="A81" s="2">
         <v>45350</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>190</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -3960,7 +3993,7 @@
       <c r="A82" s="2">
         <v>45351</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="4" t="s">
         <v>193</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -3974,7 +4007,7 @@
       <c r="A83" s="2">
         <v>45352</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="4" t="s">
         <v>196</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -3988,7 +4021,7 @@
       <c r="A84" s="2">
         <v>45352</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -4002,7 +4035,7 @@
       <c r="A85" s="2">
         <v>45353</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="4" t="s">
         <v>201</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -4016,7 +4049,7 @@
       <c r="A86" s="2">
         <v>45354</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="4" t="s">
         <v>203</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -4030,7 +4063,7 @@
       <c r="A87" s="2">
         <v>45355</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="4" t="s">
         <v>206</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -4044,7 +4077,7 @@
       <c r="A88" s="2">
         <v>45356</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="4" t="s">
         <v>208</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -4058,7 +4091,7 @@
       <c r="A89" s="2">
         <v>45356</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="4" t="s">
         <v>210</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -4072,7 +4105,7 @@
       <c r="A90" s="2">
         <v>45357</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="4" t="s">
         <v>212</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -4086,7 +4119,7 @@
       <c r="A91" s="2">
         <v>45358</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="4" t="s">
         <v>215</v>
       </c>
       <c r="D91" s="1" t="s">
@@ -4100,7 +4133,7 @@
       <c r="A92" s="2">
         <v>45359</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="4" t="s">
         <v>216</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -4114,7 +4147,7 @@
       <c r="A93" s="2">
         <v>45360</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="4" t="s">
         <v>219</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -4128,7 +4161,7 @@
       <c r="A94" s="2">
         <v>45360</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="4" t="s">
         <v>221</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -4142,7 +4175,7 @@
       <c r="A95" s="2">
         <v>45361</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="4" t="s">
         <v>223</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -4156,7 +4189,7 @@
       <c r="A96" s="2">
         <v>45362</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="4" t="s">
         <v>226</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -4170,7 +4203,7 @@
       <c r="A97" s="2">
         <v>45362</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="4" t="s">
         <v>229</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -4184,7 +4217,7 @@
       <c r="A98" s="2">
         <v>45363</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="4" t="s">
         <v>232</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -4198,7 +4231,7 @@
       <c r="A99" s="2">
         <v>45364</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="4" t="s">
         <v>234</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -4212,7 +4245,7 @@
       <c r="A100" s="2">
         <v>45365</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="4" t="s">
         <v>236</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -4226,7 +4259,7 @@
       <c r="A101" s="2">
         <v>45366</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="3" t="s">
         <v>239</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -4240,7 +4273,7 @@
       <c r="A102" s="2">
         <v>45367</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="4" t="s">
         <v>242</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -4254,7 +4287,7 @@
       <c r="A103" s="2">
         <v>45369</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="4" t="s">
         <v>244</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -4268,7 +4301,7 @@
       <c r="A104" s="2">
         <v>45370</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="4" t="s">
         <v>247</v>
       </c>
       <c r="D104" s="1" t="s">
@@ -4282,7 +4315,7 @@
       <c r="A105" s="2">
         <v>45342</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="4" t="s">
         <v>250</v>
       </c>
       <c r="D105" s="1" t="s">
@@ -4296,7 +4329,7 @@
       <c r="A106" s="2">
         <v>45372</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="4" t="s">
         <v>252</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -4310,7 +4343,7 @@
       <c r="A107" s="2">
         <v>45373</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="4" t="s">
         <v>255</v>
       </c>
       <c r="D107" s="1" t="s">
@@ -4324,7 +4357,7 @@
       <c r="A108" s="2">
         <v>45374</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="4" t="s">
         <v>256</v>
       </c>
       <c r="D108" s="1" t="s">
@@ -4338,7 +4371,7 @@
       <c r="A109" s="2">
         <v>45374</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="4" t="s">
         <v>258</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -4352,7 +4385,7 @@
       <c r="A110" s="2">
         <v>45375</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="3" t="s">
         <v>261</v>
       </c>
       <c r="D110" s="1" t="s">
@@ -4366,7 +4399,7 @@
       <c r="A111" s="2">
         <v>45376</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="3" t="s">
         <v>264</v>
       </c>
       <c r="D111" s="1" t="s">
@@ -4380,7 +4413,7 @@
       <c r="A112" s="2">
         <v>45377</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="4" t="s">
         <v>267</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -4394,7 +4427,7 @@
       <c r="A113" s="2">
         <v>45378</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="3" t="s">
         <v>270</v>
       </c>
       <c r="D113" s="1" t="s">
@@ -4408,7 +4441,7 @@
       <c r="A114" s="2">
         <v>45379</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="4" t="s">
         <v>272</v>
       </c>
       <c r="D114" s="1" t="s">
@@ -4422,7 +4455,7 @@
       <c r="A115" s="2">
         <v>45380</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="4" t="s">
         <v>275</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -4436,7 +4469,7 @@
       <c r="A116" s="2">
         <v>45381</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="4" t="s">
         <v>278</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -4450,7 +4483,7 @@
       <c r="A117" s="2">
         <v>45382</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="4" t="s">
         <v>281</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -4464,7 +4497,7 @@
       <c r="A118" s="2">
         <v>45383</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="4" t="s">
         <v>283</v>
       </c>
       <c r="D118" s="1" t="s">
@@ -4478,7 +4511,7 @@
       <c r="A119" s="2">
         <v>45384</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="4" t="s">
         <v>286</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -4492,7 +4525,7 @@
       <c r="A120" s="2">
         <v>45385</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="4" t="s">
         <v>288</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -4506,7 +4539,7 @@
       <c r="A121" s="2">
         <v>45386</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D121" s="1" t="s">
@@ -4520,7 +4553,7 @@
       <c r="A122" s="2">
         <v>45388</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="4" t="s">
         <v>292</v>
       </c>
       <c r="D122" s="1" t="s">
@@ -4534,13 +4567,27 @@
       <c r="A123" s="2">
         <v>45389</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="4" t="s">
         <v>295</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>296</v>
       </c>
       <c r="E123" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="2">
+        <v>45390</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E124" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4688,6 +4735,7 @@
     <hyperlink ref="B121" r:id="rId131" display="https://ac.nowcoder.com/acm/contest/79000/M"/>
     <hyperlink ref="B122" r:id="rId132" display="https://vjudge.net/contest/620584#problem/D"/>
     <hyperlink ref="B123" r:id="rId133" display="https://ac.nowcoder.com/acm/contest/67743/J"/>
+    <hyperlink ref="B124" r:id="rId134" display="https://ac.nowcoder.com/acm/contest/78904/F"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4698,10 +4746,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4739,41 +4787,41 @@
       <c r="A4" s="2">
         <v>45311</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>297</v>
+      <c r="B4" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
       <c r="A5" s="2">
         <v>45311</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>299</v>
+      <c r="B5" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
       <c r="A6" s="2">
         <v>45311</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>300</v>
+      <c r="B6" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
       <c r="A7" s="2">
         <v>45311</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>302</v>
+      <c r="B7" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>276</v>
@@ -4783,30 +4831,30 @@
       <c r="A8" s="2">
         <v>45318</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>303</v>
+      <c r="B8" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>45318</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>304</v>
+      <c r="B9" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>45318</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>306</v>
+      <c r="B10" s="4" t="s">
+        <v>308</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -4816,362 +4864,362 @@
       <c r="A11" s="2">
         <v>45318</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>307</v>
+      <c r="B11" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>45318</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>309</v>
+      <c r="B12" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>45318</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>311</v>
+      <c r="B13" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
         <v>45318</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>313</v>
+      <c r="B14" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
         <v>45322</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>315</v>
+      <c r="B15" s="4" t="s">
+        <v>317</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
         <v>45322</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>316</v>
+      <c r="B16" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>45323</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>318</v>
+      <c r="B17" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
         <v>45323</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>320</v>
+      <c r="B18" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
         <v>45325</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>322</v>
+      <c r="B19" s="4" t="s">
+        <v>324</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
         <v>45325</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>323</v>
+      <c r="B20" s="4" t="s">
+        <v>325</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
         <v>45325</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>324</v>
+      <c r="B21" s="4" t="s">
+        <v>326</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="3" t="s">
-        <v>325</v>
+      <c r="B22" s="4" t="s">
+        <v>327</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="3" t="s">
-        <v>326</v>
+      <c r="B23" s="4" t="s">
+        <v>328</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="3" t="s">
-        <v>328</v>
+      <c r="B24" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="3" t="s">
-        <v>329</v>
+      <c r="B25" s="4" t="s">
+        <v>331</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="3" t="s">
-        <v>330</v>
+      <c r="B26" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="3" t="s">
-        <v>331</v>
+      <c r="B27" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="3" t="s">
-        <v>332</v>
+      <c r="B28" s="4" t="s">
+        <v>334</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="3" t="s">
-        <v>334</v>
+      <c r="B29" s="4" t="s">
+        <v>336</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="3" t="s">
-        <v>335</v>
+      <c r="B30" s="4" t="s">
+        <v>337</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="3" t="s">
-        <v>337</v>
+      <c r="B31" s="4" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="3" t="s">
-        <v>338</v>
+      <c r="B32" s="4" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="3" t="s">
-        <v>339</v>
+      <c r="B33" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="3" t="s">
-        <v>340</v>
+      <c r="B34" s="4" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="3" t="s">
-        <v>341</v>
+      <c r="B35" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="3" t="s">
-        <v>342</v>
+      <c r="B36" s="4" t="s">
+        <v>344</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="3" t="s">
-        <v>343</v>
+      <c r="B37" s="4" t="s">
+        <v>345</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="3" t="s">
-        <v>345</v>
+      <c r="B38" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="3" t="s">
-        <v>346</v>
+      <c r="B39" s="4" t="s">
+        <v>348</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>45357</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>347</v>
+      <c r="B40" s="4" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
         <v>45357</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>348</v>
+      <c r="B41" s="4" t="s">
+        <v>350</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="3" t="s">
-        <v>350</v>
+      <c r="B42" s="4" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="3" t="s">
-        <v>351</v>
+      <c r="B43" s="4" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="3" t="s">
-        <v>352</v>
+      <c r="B44" s="4" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="3" t="s">
-        <v>353</v>
+      <c r="B45" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>45360</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>355</v>
+      <c r="B46" s="4" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="3" t="s">
-        <v>356</v>
+      <c r="B47" s="4" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="3" t="s">
-        <v>357</v>
+      <c r="B48" s="4" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="3" t="s">
-        <v>358</v>
+      <c r="B49" s="4" t="s">
+        <v>360</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="3" t="s">
-        <v>360</v>
+      <c r="B50" s="4" t="s">
+        <v>362</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>45362</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>362</v>
+      <c r="B51" s="4" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="3" t="s">
-        <v>363</v>
+      <c r="B52" s="4" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="3" t="s">
-        <v>364</v>
+      <c r="B53" s="4" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="3" t="s">
-        <v>365</v>
+      <c r="B54" s="4" t="s">
+        <v>367</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="4" t="s">
         <v>226</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -5182,51 +5230,51 @@
       <c r="A56" s="2">
         <v>45374</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>366</v>
+      <c r="B56" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="3" t="s">
-        <v>368</v>
+      <c r="B57" s="4" t="s">
+        <v>370</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="3" t="s">
-        <v>369</v>
+      <c r="B58" s="4" t="s">
+        <v>371</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
         <v>45375</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>370</v>
+      <c r="B59" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="3" t="s">
-        <v>371</v>
+      <c r="B60" s="4" t="s">
+        <v>373</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="3" t="s">
-        <v>373</v>
+      <c r="B61" s="4" t="s">
+        <v>375</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>110</v>
@@ -5236,161 +5284,161 @@
       <c r="A62" s="2">
         <v>45377</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>374</v>
+      <c r="B62" s="4" t="s">
+        <v>376</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
         <v>45380</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>376</v>
+      <c r="B63" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="64" spans="2:4">
-      <c r="B64" s="3" t="s">
-        <v>377</v>
+      <c r="B64" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="65" spans="2:4">
-      <c r="B65" s="3" t="s">
-        <v>379</v>
+      <c r="B65" s="4" t="s">
+        <v>381</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="66" spans="2:4">
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
         <v>45381</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>381</v>
+      <c r="B67" s="4" t="s">
+        <v>383</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="68" spans="2:4">
-      <c r="B68" s="4" t="s">
-        <v>382</v>
+      <c r="B68" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="69" spans="2:4">
-      <c r="B69" s="3" t="s">
-        <v>384</v>
+      <c r="B69" s="4" t="s">
+        <v>386</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="70" spans="2:4">
-      <c r="B70" s="3" t="s">
-        <v>385</v>
+      <c r="B70" s="4" t="s">
+        <v>387</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="71" spans="2:4">
-      <c r="B71" s="3" t="s">
-        <v>387</v>
+      <c r="B71" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="72" spans="2:4">
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
         <v>45388</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>390</v>
+      <c r="B73" s="4" t="s">
+        <v>392</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" s="3" t="s">
-        <v>392</v>
+      <c r="B74" s="4" t="s">
+        <v>394</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="3" t="s">
-        <v>393</v>
+      <c r="B75" s="4" t="s">
+        <v>395</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="76" spans="2:4">
-      <c r="B76" s="3" t="s">
-        <v>395</v>
+      <c r="B76" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="77" spans="2:4">
-      <c r="B77" s="3" t="s">
-        <v>397</v>
+      <c r="B77" s="4" t="s">
+        <v>399</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="78" spans="2:4">
-      <c r="B78" s="3" t="s">
-        <v>398</v>
+      <c r="B78" s="4" t="s">
+        <v>400</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="79" spans="2:4">
-      <c r="B79" s="3" t="s">
-        <v>400</v>
+      <c r="B79" s="4" t="s">
+        <v>402</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="80" spans="2:4">
-      <c r="B80" s="3" t="s">
-        <v>402</v>
+      <c r="B80" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>106</v>
@@ -5400,63 +5448,109 @@
       <c r="A81" s="2">
         <v>45389</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>403</v>
+      <c r="B81" s="4" t="s">
+        <v>405</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="82" spans="2:4">
-      <c r="B82" s="3" t="s">
-        <v>404</v>
+      <c r="B82" s="4" t="s">
+        <v>406</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="83" spans="2:4">
-      <c r="B83" s="3" t="s">
-        <v>405</v>
+      <c r="B83" s="4" t="s">
+        <v>407</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="84" spans="2:4">
-      <c r="B84" s="3" t="s">
-        <v>406</v>
+      <c r="B84" s="4" t="s">
+        <v>408</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="85" spans="2:4">
-      <c r="B85" s="3" t="s">
-        <v>408</v>
+      <c r="B85" s="4" t="s">
+        <v>410</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="86" spans="2:4">
-      <c r="B86" s="3" t="s">
-        <v>410</v>
+      <c r="B86" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="87" spans="2:4">
-      <c r="B87" s="3" t="s">
-        <v>411</v>
+      <c r="B87" s="4" t="s">
+        <v>413</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>412</v>
-      </c>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="2">
+        <v>45390</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="B90" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E80">
+  <autoFilter ref="A3:E92">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -5541,6 +5635,11 @@
     <hyperlink ref="B85" r:id="rId79" display="https://ac.nowcoder.com/acm/contest/67743/H"/>
     <hyperlink ref="B86" r:id="rId80" display="https://ac.nowcoder.com/acm/contest/67743/L"/>
     <hyperlink ref="B87" r:id="rId81" display="https://ac.nowcoder.com/acm/contest/67743/M"/>
+    <hyperlink ref="B88" r:id="rId82" display="https://ac.nowcoder.com/acm/contest/78904/A"/>
+    <hyperlink ref="B89" r:id="rId83" display="https://ac.nowcoder.com/acm/contest/78904/B"/>
+    <hyperlink ref="B90" r:id="rId84" display="https://ac.nowcoder.com/acm/contest/78904/C"/>
+    <hyperlink ref="B91" r:id="rId85" display="https://ac.nowcoder.com/acm/contest/78904/D"/>
+    <hyperlink ref="B92" r:id="rId86" display="https://ac.nowcoder.com/acm/contest/78904/E"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5551,10 +5650,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5568,16 +5667,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5585,10 +5684,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5596,10 +5695,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -5610,10 +5709,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5621,10 +5720,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5632,10 +5731,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>426</v>
+        <v>434</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5643,13 +5742,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>428</v>
+        <v>436</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5657,10 +5756,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>431</v>
+        <v>439</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5668,10 +5767,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -5682,10 +5781,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>435</v>
+        <v>443</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5693,10 +5792,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5704,10 +5803,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>439</v>
+        <v>447</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5715,10 +5814,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5726,10 +5825,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5737,10 +5836,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>445</v>
+        <v>453</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5748,10 +5847,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>447</v>
+        <v>455</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>456</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -5762,10 +5861,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>449</v>
+        <v>457</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5773,10 +5872,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5784,10 +5883,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>453</v>
+        <v>461</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5795,10 +5894,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>455</v>
+        <v>463</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5806,10 +5905,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>457</v>
+        <v>465</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5817,10 +5916,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>459</v>
+        <v>467</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5828,10 +5927,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>461</v>
+        <v>469</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5839,10 +5938,10 @@
         <v>45359</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>463</v>
+        <v>471</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5850,10 +5949,10 @@
         <v>45360</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>465</v>
+        <v>473</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5861,10 +5960,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>467</v>
+        <v>475</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5872,10 +5971,10 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>469</v>
+        <v>477</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5883,10 +5982,10 @@
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>471</v>
+        <v>479</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>480</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -5897,10 +5996,10 @@
         <v>45367</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>473</v>
+        <v>481</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5908,10 +6007,10 @@
         <v>45374</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>475</v>
+        <v>483</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5919,10 +6018,10 @@
         <v>45375</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>477</v>
+        <v>485</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="32" ht="20.25" spans="1:3">
@@ -5930,10 +6029,10 @@
         <v>45379</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>479</v>
+        <v>487</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5941,10 +6040,10 @@
         <v>45381</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>481</v>
+        <v>489</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -5952,10 +6051,10 @@
         <v>45382</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>483</v>
+        <v>491</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -5963,10 +6062,10 @@
         <v>45388</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>485</v>
+        <v>493</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -5974,10 +6073,10 @@
         <v>45388</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>487</v>
+        <v>495</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -5985,14 +6084,25 @@
         <v>45389</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>431</v>
+        <v>439</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>45390</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A34">
+  <autoFilter ref="A1:A38">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:D37">
@@ -6013,7 +6123,7 @@
     <hyperlink ref="C13" r:id="rId12" display="https://vjudge.net/contest/611325"/>
     <hyperlink ref="C5" r:id="rId13" display="https://vjudge.net/contest/601145"/>
     <hyperlink ref="C4" r:id="rId14" display="https://vjudge.net/contest/600873"/>
-    <hyperlink ref="C2" r:id="rId15" display="https://vjudge.net/contest/599941"/>
+    <hyperlink ref="C2" r:id="rId15" display="https://vjudge.net/contest/599941" tooltip="https://vjudge.net/contest/599941"/>
     <hyperlink ref="C3" r:id="rId16" display="https://vjudge.net/contest/600271"/>
     <hyperlink ref="C20" r:id="rId17" display="https://ac.nowcoder.com/acm/contest/75768"/>
     <hyperlink ref="C18" r:id="rId18" display="https://codeforces.com/contest/1937"/>
@@ -6035,6 +6145,7 @@
     <hyperlink ref="C36" r:id="rId34" display="https://vjudge.net/contest/620584"/>
     <hyperlink ref="C33" r:id="rId35" display="https://ac.nowcoder.com/acm/contest/79000"/>
     <hyperlink ref="C37" r:id="rId7" display="https://ac.nowcoder.com/acm/contest/67743"/>
+    <hyperlink ref="C38" r:id="rId36" display="https://ac.nowcoder.com/acm/contest/78904"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18300" windowHeight="10125"/>
+    <workbookView windowWidth="18540" windowHeight="10710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="515">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -942,6 +942,12 @@
     <t>set，线段树</t>
   </si>
   <si>
+    <t>https://codeforces.com/contest/1945/problem/E</t>
+  </si>
+  <si>
+    <t>贪心，二分</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
   </si>
   <si>
@@ -1309,6 +1315,36 @@
   </si>
   <si>
     <t>https://ac.nowcoder.com/acm/contest/78904/E</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/78306/A</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/78306/B</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/78306/C</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/78306/D</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/78306/E</t>
+  </si>
+  <si>
+    <t>大根堆</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1945/problem/A</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1945/problem/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1945/problem/C</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1945/problem/D</t>
   </si>
   <si>
     <t>时间</t>
@@ -1548,6 +1584,18 @@
   </si>
   <si>
     <t>https://ac.nowcoder.com/acm/contest/78904</t>
+  </si>
+  <si>
+    <t>Codeforces Round 935 (Div. 3)</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1945</t>
+  </si>
+  <si>
+    <t>牛客小白月赛90</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/78306</t>
   </si>
 </sst>
 </file>
@@ -2533,10 +2581,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT124"/>
+  <dimension ref="A1:AT125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4588,6 +4636,20 @@
         <v>298</v>
       </c>
       <c r="E124" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="2">
+        <v>45391</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E125" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4736,6 +4798,7 @@
     <hyperlink ref="B122" r:id="rId132" display="https://vjudge.net/contest/620584#problem/D"/>
     <hyperlink ref="B123" r:id="rId133" display="https://ac.nowcoder.com/acm/contest/67743/J"/>
     <hyperlink ref="B124" r:id="rId134" display="https://ac.nowcoder.com/acm/contest/78904/F"/>
+    <hyperlink ref="B125" r:id="rId135" display="https://codeforces.com/contest/1945/problem/E"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4746,10 +4809,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4788,10 +4851,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -4799,10 +4862,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -4810,10 +4873,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -4821,7 +4884,7 @@
         <v>45311</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>276</v>
@@ -4832,10 +4895,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4843,10 +4906,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4854,7 +4917,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -4865,10 +4928,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4876,10 +4939,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4887,10 +4950,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4898,10 +4961,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4909,10 +4972,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4920,10 +4983,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4931,10 +4994,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4942,10 +5005,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4953,10 +5016,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4964,10 +5027,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4975,15 +5038,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -4991,15 +5054,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -5007,39 +5070,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -5047,25 +5110,25 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
@@ -5073,12 +5136,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -5086,7 +5149,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -5094,15 +5157,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -5110,10 +5173,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5121,7 +5184,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5129,33 +5192,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5163,33 +5226,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5197,22 +5260,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -5231,15 +5294,15 @@
         <v>45374</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>185</v>
@@ -5247,10 +5310,10 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5258,7 +5321,7 @@
         <v>45375</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>106</v>
@@ -5266,15 +5329,15 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>110</v>
@@ -5285,10 +5348,10 @@
         <v>45377</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5296,7 +5359,7 @@
         <v>45380</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>276</v>
@@ -5304,15 +5367,15 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>276</v>
@@ -5320,10 +5383,10 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5331,7 +5394,7 @@
         <v>45381</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>106</v>
@@ -5339,15 +5402,15 @@
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>106</v>
@@ -5355,18 +5418,18 @@
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="4" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="72" spans="2:4">
@@ -5374,7 +5437,7 @@
         <v>290</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -5382,15 +5445,15 @@
         <v>45388</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>162</v>
@@ -5398,23 +5461,23 @@
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="4" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>106</v>
@@ -5422,23 +5485,23 @@
     </row>
     <row r="78" spans="2:4">
       <c r="B78" s="4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" s="4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" s="4" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>106</v>
@@ -5449,23 +5512,23 @@
         <v>45389</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="82" spans="2:4">
       <c r="B82" s="4" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="83" spans="2:4">
       <c r="B83" s="4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>276</v>
@@ -5473,23 +5536,23 @@
     </row>
     <row r="84" spans="2:4">
       <c r="B84" s="4" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="85" spans="2:4">
       <c r="B85" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>91</v>
@@ -5497,10 +5560,10 @@
     </row>
     <row r="87" spans="2:4">
       <c r="B87" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -5508,46 +5571,121 @@
         <v>45390</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="90" spans="2:4">
       <c r="B90" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="91" spans="2:4">
       <c r="B91" s="4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" s="4" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="4"/>
+    <row r="93" spans="1:4">
+      <c r="A93" s="2">
+        <v>45391</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4">
+      <c r="B96" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:E92">
@@ -5640,6 +5778,15 @@
     <hyperlink ref="B90" r:id="rId84" display="https://ac.nowcoder.com/acm/contest/78904/C"/>
     <hyperlink ref="B91" r:id="rId85" display="https://ac.nowcoder.com/acm/contest/78904/D"/>
     <hyperlink ref="B92" r:id="rId86" display="https://ac.nowcoder.com/acm/contest/78904/E"/>
+    <hyperlink ref="B93" r:id="rId87" display="https://ac.nowcoder.com/acm/contest/78306/A"/>
+    <hyperlink ref="B94" r:id="rId88" display="https://ac.nowcoder.com/acm/contest/78306/B"/>
+    <hyperlink ref="B95" r:id="rId89" display="https://ac.nowcoder.com/acm/contest/78306/C"/>
+    <hyperlink ref="B96" r:id="rId90" display="https://ac.nowcoder.com/acm/contest/78306/D"/>
+    <hyperlink ref="B97" r:id="rId91" display="https://ac.nowcoder.com/acm/contest/78306/E"/>
+    <hyperlink ref="B98" r:id="rId92" display="https://codeforces.com/contest/1945/problem/A"/>
+    <hyperlink ref="B99" r:id="rId93" display="https://codeforces.com/contest/1945/problem/B"/>
+    <hyperlink ref="B100" r:id="rId94" display="https://codeforces.com/contest/1945/problem/C"/>
+    <hyperlink ref="B101" r:id="rId95" display="https://codeforces.com/contest/1945/problem/D"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5650,10 +5797,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5667,16 +5814,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5684,10 +5831,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5695,10 +5842,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -5709,10 +5856,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5720,10 +5867,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5731,10 +5878,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5742,13 +5889,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5756,10 +5903,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5767,10 +5914,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -5781,10 +5928,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5792,10 +5939,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5803,10 +5950,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5814,10 +5961,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5825,10 +5972,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5836,10 +5983,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5847,10 +5994,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -5861,10 +6008,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5872,10 +6019,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5883,10 +6030,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5894,10 +6041,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5905,10 +6052,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5916,10 +6063,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5927,10 +6074,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5938,10 +6085,10 @@
         <v>45359</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5949,10 +6096,10 @@
         <v>45360</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5960,10 +6107,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5971,10 +6118,10 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5982,10 +6129,10 @@
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -5996,10 +6143,10 @@
         <v>45367</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6007,10 +6154,10 @@
         <v>45374</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6018,10 +6165,10 @@
         <v>45375</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="32" ht="20.25" spans="1:3">
@@ -6029,10 +6176,10 @@
         <v>45379</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6040,10 +6187,10 @@
         <v>45381</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6051,10 +6198,10 @@
         <v>45382</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6062,10 +6209,10 @@
         <v>45388</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -6073,10 +6220,10 @@
         <v>45388</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6084,10 +6231,10 @@
         <v>45389</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6095,10 +6242,32 @@
         <v>45390</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>498</v>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>45391</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>45391</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -6146,6 +6315,8 @@
     <hyperlink ref="C33" r:id="rId35" display="https://ac.nowcoder.com/acm/contest/79000"/>
     <hyperlink ref="C37" r:id="rId7" display="https://ac.nowcoder.com/acm/contest/67743"/>
     <hyperlink ref="C38" r:id="rId36" display="https://ac.nowcoder.com/acm/contest/78904"/>
+    <hyperlink ref="C39" r:id="rId37" display="https://codeforces.com/contest/1945"/>
+    <hyperlink ref="C40" r:id="rId38" display="https://ac.nowcoder.com/acm/contest/78306"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -12,8 +12,8 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$92</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="522">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -948,6 +948,9 @@
     <t>贪心，二分</t>
   </si>
   <si>
+    <t>https://ac.nowcoder.com/acm/contest/78306/F</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
   </si>
   <si>
@@ -1345,6 +1348,18 @@
   </si>
   <si>
     <t>https://codeforces.com/contest/1945/problem/D</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/80027/E</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/80027/G</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/80027/H</t>
+  </si>
+  <si>
+    <t>判断</t>
   </si>
   <si>
     <t>时间</t>
@@ -1596,6 +1611,12 @@
   </si>
   <si>
     <t>https://ac.nowcoder.com/acm/contest/78306</t>
+  </si>
+  <si>
+    <t>集美大学2024年团体程序设计天梯赛模拟赛</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/80027</t>
   </si>
 </sst>
 </file>
@@ -2581,10 +2602,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT125"/>
+  <dimension ref="A1:AT126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4650,6 +4671,20 @@
         <v>300</v>
       </c>
       <c r="E125" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E126" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4799,6 +4834,7 @@
     <hyperlink ref="B123" r:id="rId133" display="https://ac.nowcoder.com/acm/contest/67743/J"/>
     <hyperlink ref="B124" r:id="rId134" display="https://ac.nowcoder.com/acm/contest/78904/F"/>
     <hyperlink ref="B125" r:id="rId135" display="https://codeforces.com/contest/1945/problem/E"/>
+    <hyperlink ref="B126" r:id="rId136" display="https://ac.nowcoder.com/acm/contest/78306/F"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4809,10 +4845,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4851,10 +4887,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -4862,10 +4898,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -4873,10 +4909,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -4884,7 +4920,7 @@
         <v>45311</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>276</v>
@@ -4895,10 +4931,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4906,10 +4942,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4917,7 +4953,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -4928,10 +4964,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4939,10 +4975,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4950,10 +4986,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4961,10 +4997,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4972,10 +5008,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4983,10 +5019,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4994,10 +5030,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5005,10 +5041,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5016,10 +5052,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5027,10 +5063,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5038,15 +5074,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -5054,15 +5090,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -5070,39 +5106,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -5110,25 +5146,25 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
@@ -5136,12 +5172,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -5149,7 +5185,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -5157,15 +5193,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -5173,10 +5209,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5184,7 +5220,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5192,33 +5228,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5226,33 +5262,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5260,22 +5296,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -5294,15 +5330,15 @@
         <v>45374</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>185</v>
@@ -5310,10 +5346,10 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5321,7 +5357,7 @@
         <v>45375</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>106</v>
@@ -5329,15 +5365,15 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>110</v>
@@ -5348,10 +5384,10 @@
         <v>45377</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5359,7 +5395,7 @@
         <v>45380</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>276</v>
@@ -5367,15 +5403,15 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>276</v>
@@ -5383,10 +5419,10 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5394,7 +5430,7 @@
         <v>45381</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>106</v>
@@ -5402,15 +5438,15 @@
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>106</v>
@@ -5418,18 +5454,18 @@
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="72" spans="2:4">
@@ -5437,7 +5473,7 @@
         <v>290</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -5445,15 +5481,15 @@
         <v>45388</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>162</v>
@@ -5461,23 +5497,23 @@
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>106</v>
@@ -5485,23 +5521,23 @@
     </row>
     <row r="78" spans="2:4">
       <c r="B78" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>106</v>
@@ -5512,23 +5548,23 @@
         <v>45389</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="82" spans="2:4">
       <c r="B82" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="83" spans="2:4">
       <c r="B83" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>276</v>
@@ -5536,23 +5572,23 @@
     </row>
     <row r="84" spans="2:4">
       <c r="B84" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="85" spans="2:4">
       <c r="B85" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>91</v>
@@ -5560,10 +5596,10 @@
     </row>
     <row r="87" spans="2:4">
       <c r="B87" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -5571,39 +5607,39 @@
         <v>45390</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="90" spans="2:4">
       <c r="B90" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="91" spans="2:4">
       <c r="B91" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>245</v>
@@ -5614,81 +5650,105 @@
         <v>45391</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="94" spans="2:4">
       <c r="B94" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="95" spans="2:4">
       <c r="B95" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="96" spans="2:4">
       <c r="B96" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="101" spans="2:4">
-      <c r="B101" s="4" t="s">
-        <v>433</v>
+      <c r="B101" s="3" t="s">
+        <v>434</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102"/>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>438</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E92">
+  <autoFilter ref="A3:E104">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -5787,6 +5847,9 @@
     <hyperlink ref="B99" r:id="rId93" display="https://codeforces.com/contest/1945/problem/B"/>
     <hyperlink ref="B100" r:id="rId94" display="https://codeforces.com/contest/1945/problem/C"/>
     <hyperlink ref="B101" r:id="rId95" display="https://codeforces.com/contest/1945/problem/D"/>
+    <hyperlink ref="B102" r:id="rId96" display="https://ac.nowcoder.com/acm/contest/80027/E"/>
+    <hyperlink ref="B103" r:id="rId97" display="https://ac.nowcoder.com/acm/contest/80027/G"/>
+    <hyperlink ref="B104" r:id="rId98" display="https://ac.nowcoder.com/acm/contest/80027/H"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5797,10 +5860,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5814,16 +5877,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5831,10 +5894,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5842,10 +5905,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -5856,10 +5919,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5867,10 +5930,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5878,10 +5941,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5889,13 +5952,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5903,10 +5966,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5914,10 +5977,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -5928,10 +5991,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5939,10 +6002,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5950,10 +6013,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5961,10 +6024,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5972,10 +6035,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5983,10 +6046,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5994,10 +6057,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -6008,10 +6071,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6019,10 +6082,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6030,10 +6093,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6041,10 +6104,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6052,10 +6115,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6063,10 +6126,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6074,10 +6137,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6085,10 +6148,10 @@
         <v>45359</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6096,10 +6159,10 @@
         <v>45360</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6107,10 +6170,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6118,10 +6181,10 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6129,10 +6192,10 @@
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -6143,10 +6206,10 @@
         <v>45367</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6154,10 +6217,10 @@
         <v>45374</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6165,10 +6228,10 @@
         <v>45375</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
     </row>
     <row r="32" ht="20.25" spans="1:3">
@@ -6176,10 +6239,10 @@
         <v>45379</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6187,10 +6250,10 @@
         <v>45381</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6198,10 +6261,10 @@
         <v>45382</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6209,10 +6272,10 @@
         <v>45388</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -6220,10 +6283,10 @@
         <v>45388</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6231,10 +6294,10 @@
         <v>45389</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6242,10 +6305,10 @@
         <v>45390</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>510</v>
+        <v>514</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6253,25 +6316,39 @@
         <v>45391</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>516</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="2">
         <v>45391</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>514</v>
+        <v>518</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>521</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A38">
+  <autoFilter ref="A1:A41">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:D37">
@@ -6317,6 +6394,7 @@
     <hyperlink ref="C38" r:id="rId36" display="https://ac.nowcoder.com/acm/contest/78904"/>
     <hyperlink ref="C39" r:id="rId37" display="https://codeforces.com/contest/1945"/>
     <hyperlink ref="C40" r:id="rId38" display="https://ac.nowcoder.com/acm/contest/78306"/>
+    <hyperlink ref="C41" r:id="rId39" display="https://ac.nowcoder.com/acm/contest/80027"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18540" windowHeight="10710"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$104</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="531">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -949,6 +949,27 @@
   </si>
   <si>
     <t>https://ac.nowcoder.com/acm/contest/78306/F</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/arc175/tasks/arc175_c?lang=en</t>
+  </si>
+  <si>
+    <t>数学，一次函数,分类讨论</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/517816/problem/E</t>
+  </si>
+  <si>
+    <t>dfs,位运算</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/517816/problem/J</t>
+  </si>
+  <si>
+    <t>最小生成树，倍增</t>
+  </si>
+  <si>
+    <t>1WA，又忘记在倍增时记录路径信息时，应该先记录路径的信息在执行倍增操作。</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -1617,6 +1638,12 @@
   </si>
   <si>
     <t>https://ac.nowcoder.com/acm/contest/80027</t>
+  </si>
+  <si>
+    <t>ZJCPC 2024</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/517816</t>
   </si>
 </sst>
 </file>
@@ -2602,10 +2629,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT126"/>
+  <dimension ref="A1:AT129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4686,6 +4713,48 @@
       </c>
       <c r="E126" s="9" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="2">
+        <v>45393</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="2">
+        <v>45397</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="2">
+        <v>45398</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -4835,6 +4904,9 @@
     <hyperlink ref="B124" r:id="rId134" display="https://ac.nowcoder.com/acm/contest/78904/F"/>
     <hyperlink ref="B125" r:id="rId135" display="https://codeforces.com/contest/1945/problem/E"/>
     <hyperlink ref="B126" r:id="rId136" display="https://ac.nowcoder.com/acm/contest/78306/F"/>
+    <hyperlink ref="B127" r:id="rId137" display="https://atcoder.jp/contests/arc175/tasks/arc175_c?lang=en"/>
+    <hyperlink ref="B128" r:id="rId138" display="https://codeforces.com/gym/517816/problem/E"/>
+    <hyperlink ref="B129" r:id="rId139" display="https://codeforces.com/gym/517816/problem/J"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4887,10 +4959,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -4898,10 +4970,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -4909,10 +4981,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -4920,7 +4992,7 @@
         <v>45311</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>276</v>
@@ -4931,10 +5003,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4942,10 +5014,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4953,7 +5025,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -4964,10 +5036,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4975,10 +5047,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4986,10 +5058,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4997,10 +5069,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5008,10 +5080,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5019,10 +5091,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5030,10 +5102,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5041,10 +5113,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5052,10 +5124,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5063,10 +5135,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5074,15 +5146,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="4" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -5090,15 +5162,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="4" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="4" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -5106,39 +5178,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="4" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="4" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="4" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="4" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="4" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -5146,25 +5218,25 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="4" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="4" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="4" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="4" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
@@ -5172,12 +5244,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="4" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="4" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -5185,7 +5257,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="4" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -5193,15 +5265,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="4" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="4" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -5209,10 +5281,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="4" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5220,7 +5292,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5228,33 +5300,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="4" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="4" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="4" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="4" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5262,33 +5334,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="4" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="4" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="4" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="4" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5296,22 +5368,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="4" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="4" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="4" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -5330,15 +5402,15 @@
         <v>45374</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="4" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>185</v>
@@ -5346,10 +5418,10 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="4" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5357,7 +5429,7 @@
         <v>45375</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>106</v>
@@ -5365,15 +5437,15 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="4" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="4" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>110</v>
@@ -5384,10 +5456,10 @@
         <v>45377</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5395,7 +5467,7 @@
         <v>45380</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>276</v>
@@ -5403,15 +5475,15 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="4" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="4" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>276</v>
@@ -5419,10 +5491,10 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="4" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5430,7 +5502,7 @@
         <v>45381</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>106</v>
@@ -5438,15 +5510,15 @@
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="3" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="4" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>106</v>
@@ -5454,18 +5526,18 @@
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="4" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="4" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="72" spans="2:4">
@@ -5473,7 +5545,7 @@
         <v>290</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -5481,15 +5553,15 @@
         <v>45388</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="4" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>162</v>
@@ -5497,23 +5569,23 @@
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="4" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="4" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="4" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>106</v>
@@ -5521,23 +5593,23 @@
     </row>
     <row r="78" spans="2:4">
       <c r="B78" s="4" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" s="4" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" s="4" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>106</v>
@@ -5548,23 +5620,23 @@
         <v>45389</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="82" spans="2:4">
       <c r="B82" s="4" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="83" spans="2:4">
       <c r="B83" s="4" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>276</v>
@@ -5572,23 +5644,23 @@
     </row>
     <row r="84" spans="2:4">
       <c r="B84" s="4" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="85" spans="2:4">
       <c r="B85" s="4" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" s="4" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>91</v>
@@ -5596,10 +5668,10 @@
     </row>
     <row r="87" spans="2:4">
       <c r="B87" s="4" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -5607,39 +5679,39 @@
         <v>45390</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="4" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="90" spans="2:4">
       <c r="B90" s="4" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="91" spans="2:4">
       <c r="B91" s="4" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" s="4" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>245</v>
@@ -5650,74 +5722,74 @@
         <v>45391</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="94" spans="2:4">
       <c r="B94" s="4" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="95" spans="2:4">
       <c r="B95" s="4" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="96" spans="2:4">
       <c r="B96" s="4" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="4" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="4" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="4" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" s="4" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="3" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -5725,26 +5797,26 @@
         <v>45392</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" s="4" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" s="4" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -5860,10 +5932,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5877,16 +5949,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5894,10 +5966,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5905,10 +5977,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -5919,10 +5991,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5930,10 +6002,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5941,10 +6013,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5952,13 +6024,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5966,10 +6038,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5977,10 +6049,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -5991,10 +6063,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6002,10 +6074,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6013,10 +6085,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6024,10 +6096,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6035,10 +6107,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6046,10 +6118,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6057,10 +6129,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -6071,10 +6143,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6082,10 +6154,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6093,10 +6165,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6104,10 +6176,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6115,10 +6187,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6126,10 +6198,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6137,10 +6209,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6148,10 +6220,10 @@
         <v>45359</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6159,10 +6231,10 @@
         <v>45360</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6170,10 +6242,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6181,10 +6253,10 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6192,10 +6264,10 @@
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -6206,10 +6278,10 @@
         <v>45367</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6217,10 +6289,10 @@
         <v>45374</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6228,10 +6300,10 @@
         <v>45375</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="32" ht="20.25" spans="1:3">
@@ -6239,10 +6311,10 @@
         <v>45379</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6250,10 +6322,10 @@
         <v>45381</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6261,10 +6333,10 @@
         <v>45382</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6272,10 +6344,10 @@
         <v>45388</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -6283,10 +6355,10 @@
         <v>45388</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6294,10 +6366,10 @@
         <v>45389</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6305,10 +6377,10 @@
         <v>45390</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6316,10 +6388,10 @@
         <v>45391</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -6327,10 +6399,10 @@
         <v>45391</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -6341,14 +6413,25 @@
         <v>45392</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>521</v>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>45395</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>530</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A41">
+  <autoFilter ref="A1:A42">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:D37">
@@ -6395,6 +6478,7 @@
     <hyperlink ref="C39" r:id="rId37" display="https://codeforces.com/contest/1945"/>
     <hyperlink ref="C40" r:id="rId38" display="https://ac.nowcoder.com/acm/contest/78306"/>
     <hyperlink ref="C41" r:id="rId39" display="https://ac.nowcoder.com/acm/contest/80027"/>
+    <hyperlink ref="C42" r:id="rId40" display="https://codeforces.com/gym/517816" tooltip="https://codeforces.com/gym/517816"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="533">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -970,6 +970,12 @@
   </si>
   <si>
     <t>1WA，又忘记在倍增时记录路径信息时，应该先记录路径的信息在执行倍增操作。</t>
+  </si>
+  <si>
+    <t>https://acm.hdu.edu.cn/showproblem.php?pid=7419</t>
+  </si>
+  <si>
+    <t>分解质因数，组合数学</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -2629,10 +2635,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT129"/>
+  <dimension ref="A1:AT130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4755,6 +4761,20 @@
       </c>
       <c r="E129" s="9" t="s">
         <v>308</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="2">
+        <v>45399</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4907,6 +4927,7 @@
     <hyperlink ref="B127" r:id="rId137" display="https://atcoder.jp/contests/arc175/tasks/arc175_c?lang=en"/>
     <hyperlink ref="B128" r:id="rId138" display="https://codeforces.com/gym/517816/problem/E"/>
     <hyperlink ref="B129" r:id="rId139" display="https://codeforces.com/gym/517816/problem/J"/>
+    <hyperlink ref="B130" r:id="rId140" display="https://acm.hdu.edu.cn/showproblem.php?pid=7419"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4959,10 +4980,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -4970,10 +4991,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -4981,10 +5002,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -4992,7 +5013,7 @@
         <v>45311</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>276</v>
@@ -5003,10 +5024,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5014,10 +5035,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5025,7 +5046,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -5036,10 +5057,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5047,10 +5068,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5058,10 +5079,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5069,10 +5090,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5080,10 +5101,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5091,10 +5112,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5102,10 +5123,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5113,10 +5134,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5124,10 +5145,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5135,10 +5156,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5146,15 +5167,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -5162,15 +5183,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -5178,39 +5199,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -5218,25 +5239,25 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="4" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
@@ -5244,12 +5265,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="4" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -5257,7 +5278,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -5265,15 +5286,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -5281,10 +5302,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5292,7 +5313,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5300,33 +5321,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="4" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5334,33 +5355,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5368,22 +5389,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -5402,15 +5423,15 @@
         <v>45374</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>185</v>
@@ -5418,10 +5439,10 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5429,7 +5450,7 @@
         <v>45375</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>106</v>
@@ -5437,15 +5458,15 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="4" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>110</v>
@@ -5456,10 +5477,10 @@
         <v>45377</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5467,7 +5488,7 @@
         <v>45380</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>276</v>
@@ -5475,15 +5496,15 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="4" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>276</v>
@@ -5491,10 +5512,10 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5502,7 +5523,7 @@
         <v>45381</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>106</v>
@@ -5510,15 +5531,15 @@
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>106</v>
@@ -5526,18 +5547,18 @@
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="4" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="72" spans="2:4">
@@ -5545,7 +5566,7 @@
         <v>290</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -5553,15 +5574,15 @@
         <v>45388</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="4" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>162</v>
@@ -5569,23 +5590,23 @@
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="4" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="4" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>106</v>
@@ -5593,23 +5614,23 @@
     </row>
     <row r="78" spans="2:4">
       <c r="B78" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" s="4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>106</v>
@@ -5620,23 +5641,23 @@
         <v>45389</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="82" spans="2:4">
       <c r="B82" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="83" spans="2:4">
       <c r="B83" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>276</v>
@@ -5644,23 +5665,23 @@
     </row>
     <row r="84" spans="2:4">
       <c r="B84" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="85" spans="2:4">
       <c r="B85" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" s="4" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>91</v>
@@ -5668,10 +5689,10 @@
     </row>
     <row r="87" spans="2:4">
       <c r="B87" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -5679,39 +5700,39 @@
         <v>45390</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="4" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="90" spans="2:4">
       <c r="B90" s="4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="91" spans="2:4">
       <c r="B91" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>245</v>
@@ -5722,74 +5743,74 @@
         <v>45391</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="94" spans="2:4">
       <c r="B94" s="4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="95" spans="2:4">
       <c r="B95" s="4" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="96" spans="2:4">
       <c r="B96" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" s="4" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="3" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -5797,26 +5818,26 @@
         <v>45392</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" s="4" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -5949,16 +5970,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5966,10 +5987,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5977,10 +5998,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -5991,10 +6012,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6002,10 +6023,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6013,10 +6034,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6024,13 +6045,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6038,10 +6059,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6049,10 +6070,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -6063,10 +6084,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6074,10 +6095,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6085,10 +6106,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6096,10 +6117,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6107,10 +6128,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6118,10 +6139,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6129,10 +6150,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -6143,10 +6164,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6154,10 +6175,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6165,10 +6186,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6176,10 +6197,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6187,10 +6208,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6198,10 +6219,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6209,10 +6230,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6220,10 +6241,10 @@
         <v>45359</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6231,10 +6252,10 @@
         <v>45360</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6242,10 +6263,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6253,10 +6274,10 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6264,10 +6285,10 @@
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -6278,10 +6299,10 @@
         <v>45367</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6289,10 +6310,10 @@
         <v>45374</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6300,10 +6321,10 @@
         <v>45375</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="32" ht="20.25" spans="1:3">
@@ -6311,10 +6332,10 @@
         <v>45379</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6322,10 +6343,10 @@
         <v>45381</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6333,10 +6354,10 @@
         <v>45382</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6344,10 +6365,10 @@
         <v>45388</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -6355,10 +6376,10 @@
         <v>45388</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6366,10 +6387,10 @@
         <v>45389</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6377,10 +6398,10 @@
         <v>45390</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6388,10 +6409,10 @@
         <v>45391</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -6399,10 +6420,10 @@
         <v>45391</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -6413,10 +6434,10 @@
         <v>45392</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6424,10 +6445,10 @@
         <v>45395</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$104</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="573">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -978,6 +978,69 @@
     <t>分解质因数，组合数学</t>
   </si>
   <si>
+    <t>https://www.luogu.com.cn/problem/P5664</t>
+  </si>
+  <si>
+    <t>dp，数学</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P2822</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P2014</t>
+  </si>
+  <si>
+    <t>树形dp</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P2827</t>
+  </si>
+  <si>
+    <t>队列</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/69408/L</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/517816/problem/C</t>
+  </si>
+  <si>
+    <t>二分图，构造</t>
+  </si>
+  <si>
+    <t>1WA，写完之后调完顺序后忘记调颜色的顺序。</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1064</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1470</t>
+  </si>
+  <si>
+    <t>字符串，dp</t>
+  </si>
+  <si>
+    <t>https://atcoder.jp/contests/abc332/tasks/abc332_f</t>
+  </si>
+  <si>
+    <t>数学，线段树</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/19483/E</t>
+  </si>
+  <si>
+    <t>矩阵乘法，前缀和</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/81126/E</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/80793/G</t>
+  </si>
+  <si>
+    <t>离散化，拆式子</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
   </si>
   <si>
@@ -1387,6 +1450,33 @@
   </si>
   <si>
     <t>判断</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/81126/A</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/81126/B</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/81126/C</t>
+  </si>
+  <si>
+    <t>set，map</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/81126/D</t>
+  </si>
+  <si>
+    <t>拆式子</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/81126/F</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/80793/C</t>
+  </si>
+  <si>
+    <t>树</t>
   </si>
   <si>
     <t>时间</t>
@@ -1650,6 +1740,36 @@
   </si>
   <si>
     <t>https://codeforces.com/gym/517816</t>
+  </si>
+  <si>
+    <t>ZJUT2024春季个人训练赛Week7</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/contest/622006</t>
+  </si>
+  <si>
+    <t>ZJUT2024春季个人训练赛Week8</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/contest/623240</t>
+  </si>
+  <si>
+    <t>ZJUT2024春季个人训练赛Week9</t>
+  </si>
+  <si>
+    <t>https://vjudge.net/contest/624792</t>
+  </si>
+  <si>
+    <t>牛客小白月赛92</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/81126</t>
+  </si>
+  <si>
+    <t>武汉工程大学第六届ACM程序设计竞赛（同步赛）</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/80793</t>
   </si>
 </sst>
 </file>
@@ -2635,10 +2755,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT130"/>
+  <dimension ref="A1:AT142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4711,7 +4831,7 @@
       <c r="A126" s="2">
         <v>45392</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="3" t="s">
         <v>301</v>
       </c>
       <c r="D126" s="1" t="s">
@@ -4774,6 +4894,174 @@
         <v>310</v>
       </c>
       <c r="E130" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="2">
+        <v>45400</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="2">
+        <v>45401</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="2">
+        <v>45403</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="2">
+        <v>45404</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2">
+        <v>45405</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="2">
+        <v>45406</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E142" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4917,7 +5205,7 @@
     <hyperlink ref="B117" r:id="rId127" display="https://codeforces.com/gym/104757/problem/B"/>
     <hyperlink ref="B118" r:id="rId128" display="https://ac.nowcoder.com/acm/contest/19483/B"/>
     <hyperlink ref="B119" r:id="rId129" display="https://ac.nowcoder.com/acm/contest/19483/D" tooltip="https://ac.nowcoder.com/acm/contest/19483/D"/>
-    <hyperlink ref="B120" r:id="rId130" display="https://codeforces.com/contest/1942/problem/C2"/>
+    <hyperlink ref="B120" r:id="rId130" display="https://codeforces.com/contest/1942/problem/C2" tooltip="https://codeforces.com/contest/1942/problem/C2"/>
     <hyperlink ref="B121" r:id="rId131" display="https://ac.nowcoder.com/acm/contest/79000/M"/>
     <hyperlink ref="B122" r:id="rId132" display="https://vjudge.net/contest/620584#problem/D"/>
     <hyperlink ref="B123" r:id="rId133" display="https://ac.nowcoder.com/acm/contest/67743/J"/>
@@ -4928,6 +5216,18 @@
     <hyperlink ref="B128" r:id="rId138" display="https://codeforces.com/gym/517816/problem/E"/>
     <hyperlink ref="B129" r:id="rId139" display="https://codeforces.com/gym/517816/problem/J"/>
     <hyperlink ref="B130" r:id="rId140" display="https://acm.hdu.edu.cn/showproblem.php?pid=7419"/>
+    <hyperlink ref="B131" r:id="rId141" display="https://www.luogu.com.cn/problem/P5664"/>
+    <hyperlink ref="B132" r:id="rId142" display="https://www.luogu.com.cn/problem/P2822"/>
+    <hyperlink ref="B133" r:id="rId143" display="https://www.luogu.com.cn/problem/P2014"/>
+    <hyperlink ref="B134" r:id="rId144" display="https://www.luogu.com.cn/problem/P2827"/>
+    <hyperlink ref="B135" r:id="rId145" display="https://ac.nowcoder.com/acm/contest/69408/L"/>
+    <hyperlink ref="B136" r:id="rId146" display="https://codeforces.com/gym/517816/problem/C"/>
+    <hyperlink ref="B137" r:id="rId147" display="https://www.luogu.com.cn/problem/P1064"/>
+    <hyperlink ref="B138" r:id="rId148" display="https://www.luogu.com.cn/problem/P1470"/>
+    <hyperlink ref="B139" r:id="rId149" display="https://atcoder.jp/contests/abc332/tasks/abc332_f"/>
+    <hyperlink ref="B140" r:id="rId150" display="https://ac.nowcoder.com/acm/contest/19483/E"/>
+    <hyperlink ref="B141" r:id="rId151" display="https://ac.nowcoder.com/acm/contest/81126/E"/>
+    <hyperlink ref="B142" r:id="rId152" display="https://ac.nowcoder.com/acm/contest/80793/G"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4938,10 +5238,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4980,10 +5280,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -4991,10 +5291,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -5002,10 +5302,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -5013,7 +5313,7 @@
         <v>45311</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>276</v>
@@ -5024,10 +5324,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5035,10 +5335,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5046,7 +5346,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -5057,10 +5357,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5068,10 +5368,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5079,10 +5379,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5090,10 +5390,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5101,10 +5401,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5112,10 +5412,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5123,10 +5423,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5134,10 +5434,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5145,10 +5445,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5156,10 +5456,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5167,15 +5467,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="4" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -5183,15 +5483,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="4" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="4" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -5199,39 +5499,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="4" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="4" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="4" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="4" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="4" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -5239,25 +5539,25 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="4" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="4" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="4" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="4" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
@@ -5265,12 +5565,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="4" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="4" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -5278,7 +5578,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="4" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -5286,15 +5586,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="4" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="4" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -5302,10 +5602,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="4" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5313,7 +5613,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5321,33 +5621,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="4" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="4" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="4" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="4" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5355,33 +5655,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="4" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="4" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="4" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="4" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5389,22 +5689,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="4" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="4" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="4" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -5423,15 +5723,15 @@
         <v>45374</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="4" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>185</v>
@@ -5439,10 +5739,10 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="4" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5450,7 +5750,7 @@
         <v>45375</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>106</v>
@@ -5458,15 +5758,15 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="4" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="4" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>110</v>
@@ -5477,10 +5777,10 @@
         <v>45377</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5488,7 +5788,7 @@
         <v>45380</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>276</v>
@@ -5496,15 +5796,15 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="4" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="4" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>276</v>
@@ -5512,10 +5812,10 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="4" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5523,7 +5823,7 @@
         <v>45381</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>106</v>
@@ -5531,15 +5831,15 @@
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="3" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="4" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>106</v>
@@ -5547,18 +5847,18 @@
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="4" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="4" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
     </row>
     <row r="72" spans="2:4">
@@ -5566,7 +5866,7 @@
         <v>290</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -5574,15 +5874,15 @@
         <v>45388</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="4" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>162</v>
@@ -5590,23 +5890,23 @@
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="4" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="4" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="4" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>106</v>
@@ -5614,23 +5914,23 @@
     </row>
     <row r="78" spans="2:4">
       <c r="B78" s="4" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" s="4" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" s="4" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>106</v>
@@ -5641,23 +5941,23 @@
         <v>45389</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="82" spans="2:4">
       <c r="B82" s="4" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="83" spans="2:4">
       <c r="B83" s="4" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>276</v>
@@ -5665,23 +5965,23 @@
     </row>
     <row r="84" spans="2:4">
       <c r="B84" s="4" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
     </row>
     <row r="85" spans="2:4">
       <c r="B85" s="4" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" s="4" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>91</v>
@@ -5689,10 +5989,10 @@
     </row>
     <row r="87" spans="2:4">
       <c r="B87" s="4" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -5700,39 +6000,39 @@
         <v>45390</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="4" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="90" spans="2:4">
       <c r="B90" s="4" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
     </row>
     <row r="91" spans="2:4">
       <c r="B91" s="4" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" s="4" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>245</v>
@@ -5743,74 +6043,74 @@
         <v>45391</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="94" spans="2:4">
       <c r="B94" s="4" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="95" spans="2:4">
       <c r="B95" s="4" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="96" spans="2:4">
       <c r="B96" s="4" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="4" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="4" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="4" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" s="4" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="3" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -5818,30 +6118,78 @@
         <v>45392</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" s="4" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" s="4" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>447</v>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="B110" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>477</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E104">
+  <autoFilter ref="A3:E109">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -5943,6 +6291,12 @@
     <hyperlink ref="B102" r:id="rId96" display="https://ac.nowcoder.com/acm/contest/80027/E"/>
     <hyperlink ref="B103" r:id="rId97" display="https://ac.nowcoder.com/acm/contest/80027/G"/>
     <hyperlink ref="B104" r:id="rId98" display="https://ac.nowcoder.com/acm/contest/80027/H"/>
+    <hyperlink ref="B105" r:id="rId99" display="https://ac.nowcoder.com/acm/contest/81126/A"/>
+    <hyperlink ref="B106" r:id="rId100" display="https://ac.nowcoder.com/acm/contest/81126/B"/>
+    <hyperlink ref="B107" r:id="rId101" display="https://ac.nowcoder.com/acm/contest/81126/C"/>
+    <hyperlink ref="B108" r:id="rId102" display="https://ac.nowcoder.com/acm/contest/81126/D"/>
+    <hyperlink ref="B109" r:id="rId103" display="https://ac.nowcoder.com/acm/contest/81126/F"/>
+    <hyperlink ref="B110" r:id="rId104" display="https://ac.nowcoder.com/acm/contest/80793/C"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5953,10 +6307,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5970,16 +6324,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5987,10 +6341,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5998,10 +6352,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -6012,10 +6366,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6023,10 +6377,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6034,10 +6388,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6045,13 +6399,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6059,10 +6413,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>466</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6070,10 +6424,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>467</v>
+        <v>497</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -6084,10 +6438,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6095,10 +6449,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6106,10 +6460,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6117,10 +6471,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>475</v>
+        <v>505</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6128,10 +6482,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6139,10 +6493,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6150,10 +6504,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>481</v>
+        <v>511</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -6164,10 +6518,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>483</v>
+        <v>513</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>484</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6175,10 +6529,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>485</v>
+        <v>515</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>486</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6186,10 +6540,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>487</v>
+        <v>517</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>488</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6197,10 +6551,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>489</v>
+        <v>519</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>490</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6208,10 +6562,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>492</v>
+        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6219,10 +6573,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>493</v>
+        <v>523</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>494</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6230,10 +6584,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>495</v>
+        <v>525</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>496</v>
+        <v>526</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6241,10 +6595,10 @@
         <v>45359</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>497</v>
+        <v>527</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6252,10 +6606,10 @@
         <v>45360</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>500</v>
+        <v>530</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6263,10 +6617,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>501</v>
+        <v>531</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6274,10 +6628,10 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>503</v>
+        <v>533</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>504</v>
+        <v>534</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6285,10 +6639,10 @@
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>505</v>
+        <v>535</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>506</v>
+        <v>536</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -6299,10 +6653,10 @@
         <v>45367</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>507</v>
+        <v>537</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>508</v>
+        <v>538</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6310,10 +6664,10 @@
         <v>45374</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>509</v>
+        <v>539</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>510</v>
+        <v>540</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6321,10 +6675,10 @@
         <v>45375</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>511</v>
+        <v>541</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>512</v>
+        <v>542</v>
       </c>
     </row>
     <row r="32" ht="20.25" spans="1:3">
@@ -6332,10 +6686,10 @@
         <v>45379</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>513</v>
+        <v>543</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>514</v>
+        <v>544</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6343,10 +6697,10 @@
         <v>45381</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>515</v>
+        <v>545</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>516</v>
+        <v>546</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6354,10 +6708,10 @@
         <v>45382</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>517</v>
+        <v>547</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>518</v>
+        <v>548</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6365,10 +6719,10 @@
         <v>45388</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>519</v>
+        <v>549</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>520</v>
+        <v>550</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -6376,10 +6730,10 @@
         <v>45388</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6387,10 +6741,10 @@
         <v>45389</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>466</v>
+        <v>496</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6398,10 +6752,10 @@
         <v>45390</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>524</v>
+        <v>554</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6409,10 +6763,10 @@
         <v>45391</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>526</v>
+        <v>556</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -6420,10 +6774,10 @@
         <v>45391</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>528</v>
+        <v>558</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -6434,10 +6788,10 @@
         <v>45392</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>529</v>
+        <v>559</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>530</v>
+        <v>560</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6445,14 +6799,69 @@
         <v>45395</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>531</v>
+        <v>561</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>532</v>
+        <v>562</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>45393</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>45400</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A42">
+  <autoFilter ref="A1:A47">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:D37">
@@ -6500,6 +6909,11 @@
     <hyperlink ref="C40" r:id="rId38" display="https://ac.nowcoder.com/acm/contest/78306"/>
     <hyperlink ref="C41" r:id="rId39" display="https://ac.nowcoder.com/acm/contest/80027"/>
     <hyperlink ref="C42" r:id="rId40" display="https://codeforces.com/gym/517816" tooltip="https://codeforces.com/gym/517816"/>
+    <hyperlink ref="C43" r:id="rId41" display="https://vjudge.net/contest/622006"/>
+    <hyperlink ref="C44" r:id="rId42" display="https://vjudge.net/contest/623240"/>
+    <hyperlink ref="C45" r:id="rId43" display="https://vjudge.net/contest/624792"/>
+    <hyperlink ref="C46" r:id="rId44" display="https://ac.nowcoder.com/acm/contest/81126"/>
+    <hyperlink ref="C47" r:id="rId45" display="https://ac.nowcoder.com/acm/contest/80793"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$110</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="581">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -1039,6 +1039,26 @@
   </si>
   <si>
     <t>离散化，拆式子</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/80793/A</t>
+  </si>
+  <si>
+    <t>二分答案</t>
+  </si>
+  <si>
+    <t>1WA，题目中hp要求始终大于0，所以二分答案时l应当从1开始而非0开始</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/105143/problem/M</t>
+  </si>
+  <si>
+    <t>递归，哈希</t>
+  </si>
+  <si>
+    <t>1WA，在尝试分别合成x+1和x时，忘记先将x从原数组中删去，
+以及在递归结束后，进行删除操作中记录路径是否到达终点时处理不恰当，
+直接改为在询问刚开始时对map进行clear操作，随后查看是否为默认的0值即可判断是否到达终点即可。</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -1770,6 +1790,12 @@
   </si>
   <si>
     <t>https://ac.nowcoder.com/acm/contest/80793</t>
+  </si>
+  <si>
+    <t>icpc2024武汉邀请赛</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/105143</t>
   </si>
 </sst>
 </file>
@@ -2755,10 +2781,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT142"/>
+  <dimension ref="A1:AT144"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5063,6 +5089,34 @@
       </c>
       <c r="E142" s="9" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="2">
+        <v>45412</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="144" ht="52" customHeight="1" spans="1:5">
+      <c r="A144" s="2">
+        <v>45415</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -5228,6 +5282,8 @@
     <hyperlink ref="B140" r:id="rId150" display="https://ac.nowcoder.com/acm/contest/19483/E"/>
     <hyperlink ref="B141" r:id="rId151" display="https://ac.nowcoder.com/acm/contest/81126/E"/>
     <hyperlink ref="B142" r:id="rId152" display="https://ac.nowcoder.com/acm/contest/80793/G"/>
+    <hyperlink ref="B143" r:id="rId153" display="https://ac.nowcoder.com/acm/contest/80793/A"/>
+    <hyperlink ref="B144" r:id="rId154" display="https://codeforces.com/gym/105143/problem/M"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5240,7 +5296,7 @@
   <sheetPr/>
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
@@ -5280,10 +5336,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -5291,10 +5347,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -5302,10 +5358,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -5313,7 +5369,7 @@
         <v>45311</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>276</v>
@@ -5324,10 +5380,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5335,10 +5391,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5346,7 +5402,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -5357,10 +5413,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5368,10 +5424,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5379,10 +5435,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5390,10 +5446,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5401,10 +5457,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5412,10 +5468,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5423,10 +5479,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5434,10 +5490,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5445,10 +5501,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5456,10 +5512,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5467,15 +5523,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="4" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -5483,15 +5539,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="4" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="4" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -5499,39 +5555,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="4" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="4" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="4" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="4" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="4" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -5539,25 +5595,25 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="4" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="4" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="4" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="4" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
@@ -5565,12 +5621,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="4" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="4" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -5578,7 +5634,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="4" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -5586,15 +5642,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="4" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="4" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -5602,10 +5658,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="4" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5613,7 +5669,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5621,33 +5677,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="4" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="4" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="4" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="4" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5655,33 +5711,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="4" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="4" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="4" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5689,22 +5745,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="4" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="4" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="4" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -5723,15 +5779,15 @@
         <v>45374</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="4" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>185</v>
@@ -5739,10 +5795,10 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="4" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5750,7 +5806,7 @@
         <v>45375</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>106</v>
@@ -5758,15 +5814,15 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="4" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="4" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>110</v>
@@ -5777,10 +5833,10 @@
         <v>45377</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5788,7 +5844,7 @@
         <v>45380</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>276</v>
@@ -5796,15 +5852,15 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="4" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="4" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>276</v>
@@ -5812,10 +5868,10 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="4" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5823,7 +5879,7 @@
         <v>45381</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>106</v>
@@ -5831,15 +5887,15 @@
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="3" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="4" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>106</v>
@@ -5847,18 +5903,18 @@
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="4" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="4" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="72" spans="2:4">
@@ -5866,7 +5922,7 @@
         <v>290</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -5874,15 +5930,15 @@
         <v>45388</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="4" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>162</v>
@@ -5890,23 +5946,23 @@
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="4" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="4" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="4" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>106</v>
@@ -5914,23 +5970,23 @@
     </row>
     <row r="78" spans="2:4">
       <c r="B78" s="4" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" s="4" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" s="4" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>106</v>
@@ -5941,23 +5997,23 @@
         <v>45389</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" spans="2:4">
       <c r="B82" s="4" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="83" spans="2:4">
       <c r="B83" s="4" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>276</v>
@@ -5965,23 +6021,23 @@
     </row>
     <row r="84" spans="2:4">
       <c r="B84" s="4" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="85" spans="2:4">
       <c r="B85" s="4" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" s="4" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>91</v>
@@ -5989,10 +6045,10 @@
     </row>
     <row r="87" spans="2:4">
       <c r="B87" s="4" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -6000,39 +6056,39 @@
         <v>45390</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="4" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="90" spans="2:4">
       <c r="B90" s="4" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
     </row>
     <row r="91" spans="2:4">
       <c r="B91" s="4" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" s="4" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>245</v>
@@ -6043,74 +6099,74 @@
         <v>45391</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="94" spans="2:4">
       <c r="B94" s="4" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="95" spans="2:4">
       <c r="B95" s="4" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="96" spans="2:4">
       <c r="B96" s="4" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="4" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="4" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="4" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" s="4" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="3" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -6118,26 +6174,26 @@
         <v>45392</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" s="4" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" s="4" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -6145,28 +6201,28 @@
         <v>45410</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="4" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" s="4" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="B108" s="4" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -6174,7 +6230,7 @@
         <v>45411</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>106</v>
@@ -6182,14 +6238,14 @@
     </row>
     <row r="110" spans="2:4">
       <c r="B110" s="4" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E109">
+  <autoFilter ref="A3:E110">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -6307,10 +6363,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6324,16 +6380,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6341,10 +6397,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6352,10 +6408,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -6366,10 +6422,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6377,10 +6433,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6388,10 +6444,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6399,13 +6455,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6413,10 +6469,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6424,10 +6480,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -6438,10 +6494,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6449,10 +6505,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6460,10 +6516,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6471,10 +6527,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6482,10 +6538,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6493,10 +6549,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6504,10 +6560,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -6518,10 +6574,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6529,10 +6585,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6540,10 +6596,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6551,10 +6607,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6562,10 +6618,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6573,10 +6629,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6584,10 +6640,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6595,10 +6651,10 @@
         <v>45359</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6606,10 +6662,10 @@
         <v>45360</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6617,10 +6673,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6628,10 +6684,10 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6639,10 +6695,10 @@
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -6653,10 +6709,10 @@
         <v>45367</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6664,10 +6720,10 @@
         <v>45374</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6675,10 +6731,10 @@
         <v>45375</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="32" ht="20.25" spans="1:3">
@@ -6686,10 +6742,10 @@
         <v>45379</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6697,10 +6753,10 @@
         <v>45381</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6708,10 +6764,10 @@
         <v>45382</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6719,10 +6775,10 @@
         <v>45388</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -6730,10 +6786,10 @@
         <v>45388</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6741,10 +6797,10 @@
         <v>45389</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6752,10 +6808,10 @@
         <v>45390</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6763,10 +6819,10 @@
         <v>45391</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -6774,10 +6830,10 @@
         <v>45391</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -6788,10 +6844,10 @@
         <v>45392</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6799,10 +6855,10 @@
         <v>45395</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -6810,10 +6866,10 @@
         <v>45393</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -6821,10 +6877,10 @@
         <v>45400</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -6832,10 +6888,10 @@
         <v>45407</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -6843,10 +6899,10 @@
         <v>45410</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -6854,10 +6910,21 @@
         <v>45411</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>572</v>
+        <v>578</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>45414</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -6914,6 +6981,7 @@
     <hyperlink ref="C45" r:id="rId43" display="https://vjudge.net/contest/624792"/>
     <hyperlink ref="C46" r:id="rId44" display="https://ac.nowcoder.com/acm/contest/81126"/>
     <hyperlink ref="C47" r:id="rId45" display="https://ac.nowcoder.com/acm/contest/80793"/>
+    <hyperlink ref="C48" r:id="rId46" display="https://codeforces.com/gym/105143"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -10,10 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$110</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="588">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -1059,6 +1060,21 @@
     <t>1WA，在尝试分别合成x+1和x时，忘记先将x从原数组中删去，
 以及在递归结束后，进行删除操作中记录路径是否到达终点时处理不恰当，
 直接改为在询问刚开始时对map进行clear操作，随后查看是否为默认的0值即可判断是否到达终点即可。</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1823/D</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/104849/problem/D</t>
+  </si>
+  <si>
+    <t>向量</t>
+  </si>
+  <si>
+    <t>1WA，忘记在不同的四个方向建立坐标系前重新排序，导致所选的点不在最左下方。</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/105143/problem/D</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -1796,6 +1812,12 @@
   </si>
   <si>
     <t>https://codeforces.com/gym/105143</t>
+  </si>
+  <si>
+    <t>2022-2023 ICPC, Asia Yokohama Regional Contest 2022</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/104849</t>
   </si>
 </sst>
 </file>
@@ -1819,7 +1841,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1827,7 +1849,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2300,10 +2322,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -2437,13 +2459,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2781,10 +2803,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT144"/>
+  <dimension ref="A1:AT147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2841,10 +2863,10 @@
       </c>
     </row>
     <row r="4" ht="49" customHeight="1" spans="1:6">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>45290</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -2853,15 +2875,15 @@
       <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="31" customHeight="1" spans="1:6">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>45290</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -2870,29 +2892,29 @@
       <c r="E5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>45290</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:6">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>45290</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2901,15 +2923,15 @@
       <c r="E7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>45311</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2918,15 +2940,15 @@
       <c r="E8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>45314</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2935,15 +2957,15 @@
       <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>45315</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2952,15 +2974,15 @@
       <c r="E10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>45315</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2969,15 +2991,15 @@
       <c r="E11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>45315</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2986,15 +3008,15 @@
       <c r="E12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>45316</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -3003,15 +3025,15 @@
       <c r="E13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>45316</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -3020,15 +3042,15 @@
       <c r="E14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>45317</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -3037,15 +3059,15 @@
       <c r="E15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>45318</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -3054,15 +3076,15 @@
       <c r="E16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>45319</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -3071,15 +3093,15 @@
       <c r="E17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>45319</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -3088,15 +3110,15 @@
       <c r="E18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>45321</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -3105,15 +3127,15 @@
       <c r="E19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>45322</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -3122,15 +3144,15 @@
       <c r="E20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>45322</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -3139,15 +3161,15 @@
       <c r="E21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>45322</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -3156,15 +3178,15 @@
       <c r="E22" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>45323</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -3176,15 +3198,15 @@
       <c r="E23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>45323</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -3196,13 +3218,13 @@
       <c r="E24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>45323</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -3214,13 +3236,13 @@
       <c r="E25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>45323</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -3232,13 +3254,13 @@
       <c r="E26" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>45323</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -3250,13 +3272,13 @@
       <c r="E27" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>45323</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -3268,13 +3290,13 @@
       <c r="E28" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>45323</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -3288,10 +3310,10 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>45324</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -3305,10 +3327,10 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>45324</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -3322,10 +3344,10 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>45324</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -3339,10 +3361,10 @@
       </c>
     </row>
     <row r="33" ht="45" customHeight="1" spans="1:46">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>45324</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -3396,10 +3418,10 @@
       <c r="AT33" s="12"/>
     </row>
     <row r="34" ht="28" customHeight="1" spans="1:46">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>45324</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -3453,10 +3475,10 @@
       <c r="AT34" s="12"/>
     </row>
     <row r="35" ht="28" customHeight="1" spans="1:46">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>45324</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -3510,10 +3532,10 @@
       <c r="AT35" s="12"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>45325</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -3527,10 +3549,10 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>45325</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -3544,10 +3566,10 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>45325</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -3561,10 +3583,10 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>45325</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -3578,10 +3600,10 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>45325</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -3595,10 +3617,10 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>45326</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C41" s="1">
@@ -3612,10 +3634,10 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>45326</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C42" s="1">
@@ -3629,10 +3651,10 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>45326</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C43" s="1">
@@ -3646,10 +3668,10 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>45326</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C44" s="1">
@@ -3663,10 +3685,10 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>45326</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -3680,10 +3702,10 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>45327</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -3697,10 +3719,10 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>45327</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="2" t="s">
         <v>118</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -3711,10 +3733,10 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>45327</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -3728,10 +3750,10 @@
       </c>
     </row>
     <row r="49" ht="27" spans="1:5">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>45327</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -3745,10 +3767,10 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>45327</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -3762,10 +3784,10 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>45327</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -3779,10 +3801,10 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>45328</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -3793,10 +3815,10 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="2">
+      <c r="A53" s="3">
         <v>45328</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>130</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -3807,10 +3829,10 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <v>45328</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -3824,10 +3846,10 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="2">
+      <c r="A55" s="3">
         <v>45328</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -3841,10 +3863,10 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>45330</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -3858,10 +3880,10 @@
       </c>
     </row>
     <row r="57" ht="54" spans="1:5">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>45330</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -3875,10 +3897,10 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="2">
+      <c r="A58" s="3">
         <v>45330</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -3892,10 +3914,10 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <v>45330</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -3909,10 +3931,10 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>45340</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -3926,10 +3948,10 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="2">
+      <c r="A61" s="3">
         <v>45340</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -3943,10 +3965,10 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <v>45340</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -3960,10 +3982,10 @@
       </c>
     </row>
     <row r="63" ht="40.5" spans="1:5">
-      <c r="A63" s="2">
+      <c r="A63" s="3">
         <v>45341</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -3977,10 +3999,10 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="2">
+      <c r="A64" s="3">
         <v>45341</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="2" t="s">
         <v>153</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -3991,10 +4013,10 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="2">
+      <c r="A65" s="3">
         <v>45341</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -4008,10 +4030,10 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="2">
+      <c r="A66" s="3">
         <v>45341</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -4025,10 +4047,10 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="2">
+      <c r="A67" s="3">
         <v>45341</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -4042,10 +4064,10 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="2">
+      <c r="A68" s="3">
         <v>45341</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="2" t="s">
         <v>159</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -4056,10 +4078,10 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="2">
+      <c r="A69" s="3">
         <v>45342</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="2" t="s">
         <v>161</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -4070,10 +4092,10 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="2">
+      <c r="A70" s="3">
         <v>45342</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="2" t="s">
         <v>163</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -4084,10 +4106,10 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="2">
+      <c r="A71" s="3">
         <v>45344</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="2" t="s">
         <v>165</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -4098,10 +4120,10 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="2">
+      <c r="A72" s="3">
         <v>45344</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="2" t="s">
         <v>168</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -4112,10 +4134,10 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="2">
+      <c r="A73" s="3">
         <v>45344</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="2" t="s">
         <v>170</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -4126,10 +4148,10 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="2">
+      <c r="A74" s="3">
         <v>45345</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="2" t="s">
         <v>172</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -4140,10 +4162,10 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="2">
+      <c r="A75" s="3">
         <v>45345</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -4154,10 +4176,10 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="2">
+      <c r="A76" s="3">
         <v>45345</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -4168,10 +4190,10 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="2">
+      <c r="A77" s="3">
         <v>45346</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="2" t="s">
         <v>181</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -4182,10 +4204,10 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="2">
+      <c r="A78" s="3">
         <v>45347</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -4196,10 +4218,10 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="2">
+      <c r="A79" s="3">
         <v>45348</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="2" t="s">
         <v>186</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -4210,10 +4232,10 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="2">
+      <c r="A80" s="3">
         <v>45349</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="2" t="s">
         <v>188</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -4224,10 +4246,10 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="2">
+      <c r="A81" s="3">
         <v>45350</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="4" t="s">
         <v>190</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -4238,10 +4260,10 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="2">
+      <c r="A82" s="3">
         <v>45351</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="2" t="s">
         <v>193</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -4252,10 +4274,10 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="2">
+      <c r="A83" s="3">
         <v>45352</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="2" t="s">
         <v>196</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -4266,10 +4288,10 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="2">
+      <c r="A84" s="3">
         <v>45352</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="4" t="s">
         <v>199</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -4280,10 +4302,10 @@
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="2">
+      <c r="A85" s="3">
         <v>45353</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="2" t="s">
         <v>201</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -4294,10 +4316,10 @@
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="2">
+      <c r="A86" s="3">
         <v>45354</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="2" t="s">
         <v>203</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -4308,10 +4330,10 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="2">
+      <c r="A87" s="3">
         <v>45355</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="2" t="s">
         <v>206</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -4322,10 +4344,10 @@
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="2">
+      <c r="A88" s="3">
         <v>45356</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="2" t="s">
         <v>208</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -4336,10 +4358,10 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="2">
+      <c r="A89" s="3">
         <v>45356</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="2" t="s">
         <v>210</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -4350,10 +4372,10 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="2">
+      <c r="A90" s="3">
         <v>45357</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -4364,10 +4386,10 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="2">
+      <c r="A91" s="3">
         <v>45358</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="2" t="s">
         <v>215</v>
       </c>
       <c r="D91" s="1" t="s">
@@ -4378,10 +4400,10 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="2">
+      <c r="A92" s="3">
         <v>45359</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="2" t="s">
         <v>216</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -4392,10 +4414,10 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="2">
+      <c r="A93" s="3">
         <v>45360</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="2" t="s">
         <v>219</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -4406,10 +4428,10 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="2">
+      <c r="A94" s="3">
         <v>45360</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -4420,10 +4442,10 @@
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="2">
+      <c r="A95" s="3">
         <v>45361</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="2" t="s">
         <v>223</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -4434,10 +4456,10 @@
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="2">
+      <c r="A96" s="3">
         <v>45362</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -4448,10 +4470,10 @@
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="2">
+      <c r="A97" s="3">
         <v>45362</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="2" t="s">
         <v>229</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -4462,10 +4484,10 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="2">
+      <c r="A98" s="3">
         <v>45363</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="2" t="s">
         <v>232</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -4476,10 +4498,10 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="2">
+      <c r="A99" s="3">
         <v>45364</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="2" t="s">
         <v>234</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -4490,10 +4512,10 @@
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="2">
+      <c r="A100" s="3">
         <v>45365</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="2" t="s">
         <v>236</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -4504,10 +4526,10 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="2">
+      <c r="A101" s="3">
         <v>45366</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="4" t="s">
         <v>239</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -4518,10 +4540,10 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="2">
+      <c r="A102" s="3">
         <v>45367</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="2" t="s">
         <v>242</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -4532,10 +4554,10 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="2">
+      <c r="A103" s="3">
         <v>45369</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="2" t="s">
         <v>244</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -4546,10 +4568,10 @@
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="2">
+      <c r="A104" s="3">
         <v>45370</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="2" t="s">
         <v>247</v>
       </c>
       <c r="D104" s="1" t="s">
@@ -4560,10 +4582,10 @@
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="2">
+      <c r="A105" s="3">
         <v>45342</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="2" t="s">
         <v>250</v>
       </c>
       <c r="D105" s="1" t="s">
@@ -4574,10 +4596,10 @@
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="2">
+      <c r="A106" s="3">
         <v>45372</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="2" t="s">
         <v>252</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -4588,10 +4610,10 @@
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="2">
+      <c r="A107" s="3">
         <v>45373</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D107" s="1" t="s">
@@ -4602,10 +4624,10 @@
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="2">
+      <c r="A108" s="3">
         <v>45374</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="2" t="s">
         <v>256</v>
       </c>
       <c r="D108" s="1" t="s">
@@ -4616,10 +4638,10 @@
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="2">
+      <c r="A109" s="3">
         <v>45374</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="2" t="s">
         <v>258</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -4630,10 +4652,10 @@
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="2">
+      <c r="A110" s="3">
         <v>45375</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D110" s="1" t="s">
@@ -4644,10 +4666,10 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="2">
+      <c r="A111" s="3">
         <v>45376</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="4" t="s">
         <v>264</v>
       </c>
       <c r="D111" s="1" t="s">
@@ -4658,10 +4680,10 @@
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="2">
+      <c r="A112" s="3">
         <v>45377</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="2" t="s">
         <v>267</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -4672,10 +4694,10 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="2">
+      <c r="A113" s="3">
         <v>45378</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="4" t="s">
         <v>270</v>
       </c>
       <c r="D113" s="1" t="s">
@@ -4686,10 +4708,10 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="2">
+      <c r="A114" s="3">
         <v>45379</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="2" t="s">
         <v>272</v>
       </c>
       <c r="D114" s="1" t="s">
@@ -4700,10 +4722,10 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="2">
+      <c r="A115" s="3">
         <v>45380</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -4714,10 +4736,10 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="2">
+      <c r="A116" s="3">
         <v>45381</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="2" t="s">
         <v>278</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -4728,10 +4750,10 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="2">
+      <c r="A117" s="3">
         <v>45382</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="2" t="s">
         <v>281</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -4742,10 +4764,10 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="2">
+      <c r="A118" s="3">
         <v>45383</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="2" t="s">
         <v>283</v>
       </c>
       <c r="D118" s="1" t="s">
@@ -4756,10 +4778,10 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="2">
+      <c r="A119" s="3">
         <v>45384</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="2" t="s">
         <v>286</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -4770,10 +4792,10 @@
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="2">
+      <c r="A120" s="3">
         <v>45385</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="2" t="s">
         <v>288</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -4784,10 +4806,10 @@
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="2">
+      <c r="A121" s="3">
         <v>45386</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="2" t="s">
         <v>290</v>
       </c>
       <c r="D121" s="1" t="s">
@@ -4798,10 +4820,10 @@
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="2">
+      <c r="A122" s="3">
         <v>45388</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="2" t="s">
         <v>292</v>
       </c>
       <c r="D122" s="1" t="s">
@@ -4812,10 +4834,10 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="2">
+      <c r="A123" s="3">
         <v>45389</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="2" t="s">
         <v>295</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -4826,10 +4848,10 @@
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="2">
+      <c r="A124" s="3">
         <v>45390</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="2" t="s">
         <v>297</v>
       </c>
       <c r="D124" s="1" t="s">
@@ -4840,10 +4862,10 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="2">
+      <c r="A125" s="3">
         <v>45391</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="2" t="s">
         <v>299</v>
       </c>
       <c r="D125" s="1" t="s">
@@ -4854,10 +4876,10 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="2">
+      <c r="A126" s="3">
         <v>45392</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="4" t="s">
         <v>301</v>
       </c>
       <c r="D126" s="1" t="s">
@@ -4868,10 +4890,10 @@
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="2">
+      <c r="A127" s="3">
         <v>45393</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="2" t="s">
         <v>302</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -4882,10 +4904,10 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="2">
+      <c r="A128" s="3">
         <v>45397</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="2" t="s">
         <v>304</v>
       </c>
       <c r="D128" s="1" t="s">
@@ -4896,10 +4918,10 @@
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="2">
+      <c r="A129" s="3">
         <v>45398</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="2" t="s">
         <v>306</v>
       </c>
       <c r="D129" s="1" t="s">
@@ -4910,10 +4932,10 @@
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="2">
+      <c r="A130" s="3">
         <v>45399</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="2" t="s">
         <v>309</v>
       </c>
       <c r="D130" s="1" t="s">
@@ -4924,10 +4946,10 @@
       </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="2">
+      <c r="A131" s="3">
         <v>45400</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="2" t="s">
         <v>311</v>
       </c>
       <c r="D131" s="1" t="s">
@@ -4938,10 +4960,10 @@
       </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="2">
+      <c r="A132" s="3">
         <v>45401</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D132" s="1" t="s">
@@ -4952,10 +4974,10 @@
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="2">
+      <c r="A133" s="3">
         <v>45403</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -4966,10 +4988,10 @@
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="2">
+      <c r="A134" s="3">
         <v>45404</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="2" t="s">
         <v>316</v>
       </c>
       <c r="D134" s="1" t="s">
@@ -4980,10 +5002,10 @@
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="2">
+      <c r="A135" s="3">
         <v>45405</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="2" t="s">
         <v>318</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -4994,10 +5016,10 @@
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="2">
+      <c r="A136" s="3">
         <v>45406</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="2" t="s">
         <v>319</v>
       </c>
       <c r="D136" s="1" t="s">
@@ -5008,10 +5030,10 @@
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="2">
+      <c r="A137" s="3">
         <v>45407</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="2" t="s">
         <v>322</v>
       </c>
       <c r="D137" s="1" t="s">
@@ -5022,10 +5044,10 @@
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="2">
+      <c r="A138" s="3">
         <v>45408</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="2" t="s">
         <v>323</v>
       </c>
       <c r="D138" s="1" t="s">
@@ -5036,10 +5058,10 @@
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="2">
+      <c r="A139" s="3">
         <v>45409</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="2" t="s">
         <v>325</v>
       </c>
       <c r="D139" s="1" t="s">
@@ -5050,10 +5072,10 @@
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="2">
+      <c r="A140" s="3">
         <v>45410</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="2" t="s">
         <v>327</v>
       </c>
       <c r="D140" s="1" t="s">
@@ -5064,10 +5086,10 @@
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="2">
+      <c r="A141" s="3">
         <v>45410</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="2" t="s">
         <v>329</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -5078,10 +5100,10 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="2">
+      <c r="A142" s="3">
         <v>45411</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="2" t="s">
         <v>330</v>
       </c>
       <c r="D142" s="1" t="s">
@@ -5092,10 +5114,10 @@
       </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="2">
+      <c r="A143" s="3">
         <v>45412</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="4" t="s">
         <v>332</v>
       </c>
       <c r="D143" s="1" t="s">
@@ -5106,10 +5128,10 @@
       </c>
     </row>
     <row r="144" ht="52" customHeight="1" spans="1:5">
-      <c r="A144" s="2">
+      <c r="A144" s="3">
         <v>45415</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="2" t="s">
         <v>335</v>
       </c>
       <c r="D144" s="1" t="s">
@@ -5117,6 +5139,48 @@
       </c>
       <c r="E144" s="11" t="s">
         <v>337</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="3">
+        <v>45416</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="3">
+        <v>45417</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="3">
+        <v>45418</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -5284,6 +5348,9 @@
     <hyperlink ref="B142" r:id="rId152" display="https://ac.nowcoder.com/acm/contest/80793/G"/>
     <hyperlink ref="B143" r:id="rId153" display="https://ac.nowcoder.com/acm/contest/80793/A"/>
     <hyperlink ref="B144" r:id="rId154" display="https://codeforces.com/gym/105143/problem/M"/>
+    <hyperlink ref="B145" r:id="rId155" display="https://codeforces.com/problemset/problem/1823/D"/>
+    <hyperlink ref="B146" r:id="rId156" display="https://codeforces.com/gym/104849/problem/D"/>
+    <hyperlink ref="B147" r:id="rId157" display="https://codeforces.com/gym/105143/problem/D"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5332,442 +5399,442 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="21" customHeight="1" spans="1:4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>45311</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>338</v>
+      <c r="B4" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>45311</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>340</v>
+      <c r="B5" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>45311</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>341</v>
+      <c r="B6" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>45311</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>343</v>
+      <c r="B7" s="4" t="s">
+        <v>348</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>45318</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>339</v>
-      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>45318</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>345</v>
+      <c r="B9" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>45318</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>347</v>
+      <c r="B10" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>45318</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>348</v>
+      <c r="B11" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>45318</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>350</v>
+      <c r="B12" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
+        <v>45318</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3">
+        <v>45318</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3">
+        <v>45322</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3">
+        <v>45322</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>45323</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <v>45323</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3">
+        <v>45325</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3">
+        <v>45325</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
+        <v>45325</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
-        <v>45318</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>45318</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2">
-        <v>45322</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
-        <v>45322</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2">
-        <v>45323</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2">
-        <v>45323</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2">
-        <v>45325</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2">
-        <v>45325</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2">
-        <v>45325</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="4" t="s">
-        <v>366</v>
+      <c r="B22" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="4" t="s">
-        <v>367</v>
+      <c r="B23" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="4" t="s">
-        <v>369</v>
+      <c r="B24" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="4" t="s">
-        <v>370</v>
+      <c r="B25" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="4" t="s">
-        <v>371</v>
+      <c r="B26" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="4" t="s">
-        <v>372</v>
+      <c r="B27" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="4" t="s">
-        <v>373</v>
+      <c r="B28" s="2" t="s">
+        <v>378</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="4" t="s">
-        <v>375</v>
+      <c r="B29" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="4" t="s">
-        <v>376</v>
+      <c r="B30" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="4" t="s">
-        <v>378</v>
+      <c r="B31" s="2" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="4" t="s">
-        <v>379</v>
+      <c r="B32" s="2" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="4" t="s">
-        <v>380</v>
+      <c r="B33" s="2" t="s">
+        <v>385</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="4" t="s">
-        <v>381</v>
+      <c r="B34" s="2" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="4" t="s">
-        <v>382</v>
+      <c r="B35" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="4" t="s">
-        <v>383</v>
+      <c r="B36" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="4" t="s">
-        <v>384</v>
+      <c r="B37" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="4" t="s">
-        <v>386</v>
+      <c r="B38" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="4" t="s">
-        <v>387</v>
+      <c r="B39" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>45357</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>388</v>
+      <c r="B40" s="2" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>45357</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>389</v>
+      <c r="B41" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="4" t="s">
-        <v>391</v>
+      <c r="B42" s="2" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="4" t="s">
-        <v>392</v>
+      <c r="B43" s="2" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="4" t="s">
-        <v>393</v>
+      <c r="B44" s="2" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="4" t="s">
-        <v>394</v>
+      <c r="B45" s="2" t="s">
+        <v>399</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>45360</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>396</v>
+      <c r="B46" s="2" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="4" t="s">
-        <v>397</v>
+      <c r="B47" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="4" t="s">
-        <v>398</v>
+      <c r="B48" s="2" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="4" t="s">
-        <v>399</v>
+      <c r="B49" s="2" t="s">
+        <v>404</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="4" t="s">
-        <v>401</v>
+      <c r="B50" s="2" t="s">
+        <v>406</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>45362</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>403</v>
+      <c r="B51" s="2" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="4" t="s">
-        <v>404</v>
+      <c r="B52" s="2" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="4" t="s">
-        <v>405</v>
+      <c r="B53" s="2" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="4" t="s">
-        <v>406</v>
+      <c r="B54" s="2" t="s">
+        <v>411</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -5775,473 +5842,473 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>45374</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>407</v>
+      <c r="B56" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="4" t="s">
-        <v>409</v>
+      <c r="B57" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="4" t="s">
-        <v>410</v>
+      <c r="B58" s="2" t="s">
+        <v>415</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <v>45375</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>411</v>
+      <c r="B59" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="4" t="s">
-        <v>412</v>
+      <c r="B60" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="4" t="s">
-        <v>414</v>
+      <c r="B61" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <v>45377</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>415</v>
+      <c r="B62" s="2" t="s">
+        <v>420</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="2">
+      <c r="A63" s="3">
         <v>45380</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>417</v>
+      <c r="B63" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="64" spans="2:4">
-      <c r="B64" s="4" t="s">
-        <v>418</v>
+      <c r="B64" s="2" t="s">
+        <v>423</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65" spans="2:4">
-      <c r="B65" s="4" t="s">
-        <v>420</v>
+      <c r="B65" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="66" spans="2:4">
-      <c r="B66" s="4" t="s">
-        <v>421</v>
+      <c r="B66" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="2">
+      <c r="A67" s="3">
         <v>45381</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>422</v>
+      <c r="B67" s="2" t="s">
+        <v>427</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="68" spans="2:4">
-      <c r="B68" s="3" t="s">
-        <v>423</v>
+      <c r="B68" s="4" t="s">
+        <v>428</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="69" spans="2:4">
-      <c r="B69" s="4" t="s">
-        <v>425</v>
+      <c r="B69" s="2" t="s">
+        <v>430</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="70" spans="2:4">
-      <c r="B70" s="4" t="s">
-        <v>426</v>
+      <c r="B70" s="2" t="s">
+        <v>431</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="71" spans="2:4">
-      <c r="B71" s="4" t="s">
-        <v>428</v>
+      <c r="B71" s="2" t="s">
+        <v>433</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="72" spans="2:4">
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="2" t="s">
         <v>290</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="2">
+      <c r="A73" s="3">
         <v>45388</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>431</v>
+      <c r="B73" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" s="4" t="s">
-        <v>433</v>
+      <c r="B74" s="2" t="s">
+        <v>438</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="4" t="s">
-        <v>434</v>
+      <c r="B75" s="2" t="s">
+        <v>439</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="76" spans="2:4">
-      <c r="B76" s="4" t="s">
-        <v>436</v>
+      <c r="B76" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="77" spans="2:4">
-      <c r="B77" s="4" t="s">
-        <v>438</v>
+      <c r="B77" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="78" spans="2:4">
-      <c r="B78" s="4" t="s">
-        <v>439</v>
+      <c r="B78" s="2" t="s">
+        <v>444</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="79" spans="2:4">
-      <c r="B79" s="4" t="s">
-        <v>441</v>
+      <c r="B79" s="2" t="s">
+        <v>446</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="80" spans="2:4">
-      <c r="B80" s="4" t="s">
-        <v>443</v>
+      <c r="B80" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="2">
+      <c r="A81" s="3">
         <v>45389</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>444</v>
+      <c r="B81" s="2" t="s">
+        <v>449</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82" spans="2:4">
-      <c r="B82" s="4" t="s">
-        <v>445</v>
+      <c r="B82" s="2" t="s">
+        <v>450</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="83" spans="2:4">
-      <c r="B83" s="4" t="s">
-        <v>446</v>
+      <c r="B83" s="2" t="s">
+        <v>451</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="84" spans="2:4">
-      <c r="B84" s="4" t="s">
-        <v>447</v>
+      <c r="B84" s="2" t="s">
+        <v>452</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="85" spans="2:4">
-      <c r="B85" s="4" t="s">
-        <v>449</v>
+      <c r="B85" s="2" t="s">
+        <v>454</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="86" spans="2:4">
-      <c r="B86" s="4" t="s">
-        <v>451</v>
+      <c r="B86" s="2" t="s">
+        <v>456</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="87" spans="2:4">
-      <c r="B87" s="4" t="s">
-        <v>452</v>
+      <c r="B87" s="2" t="s">
+        <v>457</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="2">
+      <c r="A88" s="3">
         <v>45390</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>454</v>
+      <c r="B88" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="89" spans="2:4">
-      <c r="B89" s="4" t="s">
-        <v>455</v>
+      <c r="B89" s="2" t="s">
+        <v>460</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="90" spans="2:4">
-      <c r="B90" s="4" t="s">
-        <v>456</v>
+      <c r="B90" s="2" t="s">
+        <v>461</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="91" spans="2:4">
-      <c r="B91" s="4" t="s">
-        <v>458</v>
+      <c r="B91" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="92" spans="2:4">
-      <c r="B92" s="4" t="s">
-        <v>460</v>
+      <c r="B92" s="2" t="s">
+        <v>465</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="2">
+      <c r="A93" s="3">
         <v>45391</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>461</v>
+      <c r="B93" s="2" t="s">
+        <v>466</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="94" spans="2:4">
-      <c r="B94" s="4" t="s">
-        <v>462</v>
+      <c r="B94" s="2" t="s">
+        <v>467</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="95" spans="2:4">
-      <c r="B95" s="4" t="s">
-        <v>463</v>
+      <c r="B95" s="2" t="s">
+        <v>468</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="96" spans="2:4">
-      <c r="B96" s="4" t="s">
-        <v>464</v>
+      <c r="B96" s="2" t="s">
+        <v>469</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="97" spans="2:4">
-      <c r="B97" s="4" t="s">
-        <v>465</v>
+      <c r="B97" s="2" t="s">
+        <v>470</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="98" spans="2:4">
-      <c r="B98" s="4" t="s">
-        <v>467</v>
+      <c r="B98" s="2" t="s">
+        <v>472</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="99" spans="2:4">
-      <c r="B99" s="4" t="s">
-        <v>468</v>
+      <c r="B99" s="2" t="s">
+        <v>473</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="100" spans="2:4">
-      <c r="B100" s="4" t="s">
-        <v>469</v>
+      <c r="B100" s="2" t="s">
+        <v>474</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="101" spans="2:4">
-      <c r="B101" s="3" t="s">
-        <v>470</v>
+      <c r="B101" s="4" t="s">
+        <v>475</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="2">
+      <c r="A102" s="3">
         <v>45392</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>471</v>
+      <c r="B102" s="2" t="s">
+        <v>476</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="103" spans="2:4">
-      <c r="B103" s="4" t="s">
-        <v>472</v>
+      <c r="B103" s="2" t="s">
+        <v>477</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="104" spans="2:4">
-      <c r="B104" s="4" t="s">
-        <v>473</v>
+      <c r="B104" s="2" t="s">
+        <v>478</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="2">
+      <c r="A105" s="3">
         <v>45410</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>475</v>
+      <c r="B105" s="2" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="4" t="s">
-        <v>476</v>
+      <c r="B106" s="2" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="107" spans="2:4">
-      <c r="B107" s="4" t="s">
-        <v>477</v>
+      <c r="B107" s="2" t="s">
+        <v>482</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="108" spans="2:4">
-      <c r="B108" s="4" t="s">
-        <v>479</v>
+      <c r="B108" s="2" t="s">
+        <v>484</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="2">
+      <c r="A109" s="3">
         <v>45411</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>481</v>
+      <c r="B109" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="110" spans="2:4">
-      <c r="B110" s="4" t="s">
-        <v>482</v>
+      <c r="B110" s="2" t="s">
+        <v>487</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -6363,10 +6430,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6380,555 +6447,566 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>489</v>
+        <v>493</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>491</v>
+        <v>495</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>496</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>493</v>
+        <v>497</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>495</v>
+        <v>499</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>497</v>
+        <v>501</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>499</v>
+        <v>503</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>504</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>502</v>
+        <v>506</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>506</v>
+        <v>510</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>508</v>
+        <v>512</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>510</v>
+        <v>514</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>512</v>
+        <v>516</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>514</v>
+        <v>518</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>516</v>
+        <v>520</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>518</v>
+        <v>522</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>520</v>
+        <v>524</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>522</v>
+        <v>526</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>524</v>
+        <v>528</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>526</v>
+        <v>530</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>528</v>
+        <v>532</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>530</v>
+        <v>534</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>532</v>
+        <v>536</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>45359</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>534</v>
+        <v>538</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>45360</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>536</v>
+        <v>540</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>538</v>
+        <v>542</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>540</v>
+        <v>544</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>542</v>
+        <v>546</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>547</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>45367</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>544</v>
+        <v>548</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>45374</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>546</v>
+        <v>550</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>45375</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>548</v>
+        <v>552</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="32" ht="20.25" spans="1:3">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>45379</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>550</v>
+        <v>554</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>45381</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>552</v>
+        <v>556</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>45382</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>554</v>
+        <v>558</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>45388</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>556</v>
+        <v>560</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>45388</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>558</v>
+        <v>562</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>45389</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>502</v>
+        <v>506</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>45390</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>560</v>
+        <v>564</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>45391</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>562</v>
+        <v>566</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>45391</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>564</v>
+        <v>568</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>569</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>45392</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>566</v>
+        <v>570</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>45395</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>568</v>
+        <v>572</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>45393</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>570</v>
+        <v>574</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>45400</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>572</v>
+        <v>576</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>45407</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>574</v>
+        <v>578</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>45410</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>576</v>
+        <v>580</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>45411</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>578</v>
+        <v>582</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>45414</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>580</v>
+        <v>584</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="3">
+        <v>45417</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>587</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A47">
+  <autoFilter ref="A1:A49">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:D37">
@@ -6982,9 +7060,35 @@
     <hyperlink ref="C46" r:id="rId44" display="https://ac.nowcoder.com/acm/contest/81126"/>
     <hyperlink ref="C47" r:id="rId45" display="https://ac.nowcoder.com/acm/contest/80793"/>
     <hyperlink ref="C48" r:id="rId46" display="https://codeforces.com/gym/105143"/>
+    <hyperlink ref="C49" r:id="rId47" display="https://codeforces.com/gym/104849"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="64.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="591">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -1075,6 +1075,15 @@
   </si>
   <si>
     <t>https://codeforces.com/gym/105143/problem/D</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/105143/problem/E</t>
+  </si>
+  <si>
+    <t>动态树直径</t>
+  </si>
+  <si>
+    <t>1WA，程序中没有给剩下来的地方赋最大值，导致t++后，tlen[t]该处为0，程序出错</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -2803,10 +2812,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT147"/>
+  <dimension ref="A1:AT148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2883,7 +2892,7 @@
       <c r="A5" s="3">
         <v>45290</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -5181,6 +5190,20 @@
       </c>
       <c r="E147" s="9" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="3">
+        <v>45419</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -5351,6 +5374,7 @@
     <hyperlink ref="B145" r:id="rId155" display="https://codeforces.com/problemset/problem/1823/D"/>
     <hyperlink ref="B146" r:id="rId156" display="https://codeforces.com/gym/104849/problem/D"/>
     <hyperlink ref="B147" r:id="rId157" display="https://codeforces.com/gym/105143/problem/D"/>
+    <hyperlink ref="B148" r:id="rId158" display="https://codeforces.com/gym/105143/problem/E"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5403,10 +5427,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -5414,10 +5438,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -5425,10 +5449,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -5436,7 +5460,7 @@
         <v>45311</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>276</v>
@@ -5447,10 +5471,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5458,10 +5482,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5469,7 +5493,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -5480,10 +5504,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5491,10 +5515,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5502,10 +5526,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5513,10 +5537,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5524,10 +5548,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5535,10 +5559,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5546,10 +5570,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5557,10 +5581,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5568,10 +5592,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5579,10 +5603,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5590,15 +5614,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -5606,15 +5630,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -5622,39 +5646,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -5662,25 +5686,25 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
@@ -5688,12 +5712,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -5701,7 +5725,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -5709,15 +5733,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -5725,10 +5749,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5736,7 +5760,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5744,33 +5768,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5778,33 +5802,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5812,22 +5836,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -5846,15 +5870,15 @@
         <v>45374</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>185</v>
@@ -5862,10 +5886,10 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5873,7 +5897,7 @@
         <v>45375</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>106</v>
@@ -5881,15 +5905,15 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>110</v>
@@ -5900,10 +5924,10 @@
         <v>45377</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5911,7 +5935,7 @@
         <v>45380</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>276</v>
@@ -5919,15 +5943,15 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>276</v>
@@ -5935,10 +5959,10 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5946,7 +5970,7 @@
         <v>45381</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>106</v>
@@ -5954,15 +5978,15 @@
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="4" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>106</v>
@@ -5970,18 +5994,18 @@
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="72" spans="2:4">
@@ -5989,7 +6013,7 @@
         <v>290</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -5997,15 +6021,15 @@
         <v>45388</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>162</v>
@@ -6013,23 +6037,23 @@
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="2" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>106</v>
@@ -6037,23 +6061,23 @@
     </row>
     <row r="78" spans="2:4">
       <c r="B78" s="2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" s="2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>106</v>
@@ -6064,23 +6088,23 @@
         <v>45389</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="82" spans="2:4">
       <c r="B82" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="83" spans="2:4">
       <c r="B83" s="2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>276</v>
@@ -6088,23 +6112,23 @@
     </row>
     <row r="84" spans="2:4">
       <c r="B84" s="2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="85" spans="2:4">
       <c r="B85" s="2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>91</v>
@@ -6112,10 +6136,10 @@
     </row>
     <row r="87" spans="2:4">
       <c r="B87" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -6123,39 +6147,39 @@
         <v>45390</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="90" spans="2:4">
       <c r="B90" s="2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="91" spans="2:4">
       <c r="B91" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>245</v>
@@ -6166,74 +6190,74 @@
         <v>45391</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="94" spans="2:4">
       <c r="B94" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="95" spans="2:4">
       <c r="B95" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="96" spans="2:4">
       <c r="B96" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="2" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="4" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -6241,26 +6265,26 @@
         <v>45392</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -6268,28 +6292,28 @@
         <v>45410</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="2" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" s="2" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="B108" s="2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -6297,7 +6321,7 @@
         <v>45411</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>106</v>
@@ -6305,10 +6329,10 @@
     </row>
     <row r="110" spans="2:4">
       <c r="B110" s="2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -6433,7 +6457,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6447,16 +6471,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6464,10 +6488,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6475,10 +6499,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -6489,10 +6513,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6500,10 +6524,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6511,10 +6535,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6522,13 +6546,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6536,10 +6560,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6547,10 +6571,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -6561,10 +6585,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6572,10 +6596,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6583,10 +6607,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6594,10 +6618,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6605,10 +6629,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6616,10 +6640,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6627,10 +6651,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -6641,10 +6665,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6652,10 +6676,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6663,10 +6687,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6674,10 +6698,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6685,10 +6709,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6696,10 +6720,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6707,10 +6731,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6718,10 +6742,10 @@
         <v>45359</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6729,10 +6753,10 @@
         <v>45360</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6740,10 +6764,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6751,10 +6775,10 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6762,10 +6786,10 @@
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -6776,10 +6800,10 @@
         <v>45367</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6787,10 +6811,10 @@
         <v>45374</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6798,10 +6822,10 @@
         <v>45375</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="32" ht="20.25" spans="1:3">
@@ -6809,10 +6833,10 @@
         <v>45379</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6820,10 +6844,10 @@
         <v>45381</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6831,10 +6855,10 @@
         <v>45382</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6842,10 +6866,10 @@
         <v>45388</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -6853,10 +6877,10 @@
         <v>45388</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6864,10 +6888,10 @@
         <v>45389</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6875,10 +6899,10 @@
         <v>45390</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6886,10 +6910,10 @@
         <v>45391</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -6897,10 +6921,10 @@
         <v>45391</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -6911,10 +6935,10 @@
         <v>45392</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6922,10 +6946,10 @@
         <v>45395</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -6933,10 +6957,10 @@
         <v>45393</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -6944,10 +6968,10 @@
         <v>45400</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -6955,10 +6979,10 @@
         <v>45407</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -6966,10 +6990,10 @@
         <v>45410</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -6977,10 +7001,10 @@
         <v>45411</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -6988,10 +7012,10 @@
         <v>45414</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -6999,10 +7023,10 @@
         <v>45417</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="593">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -1084,6 +1084,12 @@
   </si>
   <si>
     <t>1WA，程序中没有给剩下来的地方赋最大值，导致t++后，tlen[t]该处为0，程序出错</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/104849/problem/E</t>
+  </si>
+  <si>
+    <t>可持久化线段树，逆序对</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -2812,10 +2818,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT148"/>
+  <dimension ref="A1:AT149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5204,6 +5210,20 @@
       </c>
       <c r="E148" s="9" t="s">
         <v>345</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="3">
+        <v>45420</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -5375,6 +5395,7 @@
     <hyperlink ref="B146" r:id="rId156" display="https://codeforces.com/gym/104849/problem/D"/>
     <hyperlink ref="B147" r:id="rId157" display="https://codeforces.com/gym/105143/problem/D"/>
     <hyperlink ref="B148" r:id="rId158" display="https://codeforces.com/gym/105143/problem/E"/>
+    <hyperlink ref="B149" r:id="rId159" display="https://codeforces.com/gym/104849/problem/E"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5427,10 +5448,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -5438,10 +5459,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -5449,10 +5470,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -5460,7 +5481,7 @@
         <v>45311</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>276</v>
@@ -5471,10 +5492,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5482,10 +5503,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5493,7 +5514,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -5504,10 +5525,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5515,10 +5536,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5526,10 +5547,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5537,10 +5558,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5548,10 +5569,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5559,10 +5580,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5570,10 +5591,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5581,10 +5602,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5592,10 +5613,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5603,10 +5624,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5614,15 +5635,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -5630,15 +5651,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -5646,39 +5667,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -5686,25 +5707,25 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
@@ -5712,12 +5733,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -5725,7 +5746,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -5733,15 +5754,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -5749,10 +5770,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5760,7 +5781,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5768,33 +5789,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5802,33 +5823,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5836,22 +5857,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -5870,15 +5891,15 @@
         <v>45374</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>185</v>
@@ -5886,10 +5907,10 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5897,7 +5918,7 @@
         <v>45375</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>106</v>
@@ -5905,15 +5926,15 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>110</v>
@@ -5924,10 +5945,10 @@
         <v>45377</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5935,7 +5956,7 @@
         <v>45380</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>276</v>
@@ -5943,15 +5964,15 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>276</v>
@@ -5959,10 +5980,10 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5970,7 +5991,7 @@
         <v>45381</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>106</v>
@@ -5978,15 +5999,15 @@
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>106</v>
@@ -5994,18 +6015,18 @@
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="72" spans="2:4">
@@ -6013,7 +6034,7 @@
         <v>290</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -6021,15 +6042,15 @@
         <v>45388</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>162</v>
@@ -6037,23 +6058,23 @@
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>106</v>
@@ -6061,23 +6082,23 @@
     </row>
     <row r="78" spans="2:4">
       <c r="B78" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>106</v>
@@ -6088,23 +6109,23 @@
         <v>45389</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="82" spans="2:4">
       <c r="B82" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="83" spans="2:4">
       <c r="B83" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>276</v>
@@ -6112,23 +6133,23 @@
     </row>
     <row r="84" spans="2:4">
       <c r="B84" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="85" spans="2:4">
       <c r="B85" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>91</v>
@@ -6136,10 +6157,10 @@
     </row>
     <row r="87" spans="2:4">
       <c r="B87" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -6147,39 +6168,39 @@
         <v>45390</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="90" spans="2:4">
       <c r="B90" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="91" spans="2:4">
       <c r="B91" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>245</v>
@@ -6190,74 +6211,74 @@
         <v>45391</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="94" spans="2:4">
       <c r="B94" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="95" spans="2:4">
       <c r="B95" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="96" spans="2:4">
       <c r="B96" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="4" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -6265,26 +6286,26 @@
         <v>45392</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -6292,28 +6313,28 @@
         <v>45410</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="B108" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -6321,7 +6342,7 @@
         <v>45411</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>106</v>
@@ -6329,10 +6350,10 @@
     </row>
     <row r="110" spans="2:4">
       <c r="B110" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -6471,16 +6492,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6488,10 +6509,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6499,10 +6520,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -6513,10 +6534,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6524,10 +6545,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6535,10 +6556,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6546,13 +6567,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6560,10 +6581,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6571,10 +6592,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -6585,10 +6606,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6596,10 +6617,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6607,10 +6628,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6618,10 +6639,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6629,10 +6650,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6640,10 +6661,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6651,10 +6672,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -6665,10 +6686,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6676,10 +6697,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6687,10 +6708,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6698,10 +6719,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6709,10 +6730,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6720,10 +6741,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6731,10 +6752,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6742,10 +6763,10 @@
         <v>45359</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6753,10 +6774,10 @@
         <v>45360</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6764,10 +6785,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6775,10 +6796,10 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6786,10 +6807,10 @@
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -6800,10 +6821,10 @@
         <v>45367</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6811,10 +6832,10 @@
         <v>45374</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6822,10 +6843,10 @@
         <v>45375</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="32" ht="20.25" spans="1:3">
@@ -6833,10 +6854,10 @@
         <v>45379</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6844,10 +6865,10 @@
         <v>45381</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6855,10 +6876,10 @@
         <v>45382</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6866,10 +6887,10 @@
         <v>45388</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -6877,10 +6898,10 @@
         <v>45388</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6888,10 +6909,10 @@
         <v>45389</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6899,10 +6920,10 @@
         <v>45390</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6910,10 +6931,10 @@
         <v>45391</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -6921,10 +6942,10 @@
         <v>45391</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -6935,10 +6956,10 @@
         <v>45392</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6946,10 +6967,10 @@
         <v>45395</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -6957,10 +6978,10 @@
         <v>45393</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -6968,10 +6989,10 @@
         <v>45400</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -6979,10 +7000,10 @@
         <v>45407</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -6990,10 +7011,10 @@
         <v>45410</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -7001,10 +7022,10 @@
         <v>45411</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -7012,10 +7033,10 @@
         <v>45414</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7023,10 +7044,10 @@
         <v>45417</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="599">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -1092,6 +1092,12 @@
     <t>可持久化线段树，逆序对</t>
   </si>
   <si>
+    <t>https://codeforces.com/problemset/problem/1713/D</t>
+  </si>
+  <si>
+    <t>交互，贪心</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
   </si>
   <si>
@@ -1528,6 +1534,18 @@
   </si>
   <si>
     <t>树</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/103688/problem/G</t>
+  </si>
+  <si>
+    <t>背包求方案数</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P3951</t>
+  </si>
+  <si>
+    <t>找规律</t>
   </si>
   <si>
     <t>时间</t>
@@ -2818,10 +2836,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT149"/>
+  <dimension ref="A1:AT150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150"/>
+      <selection activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5223,6 +5241,20 @@
         <v>347</v>
       </c>
       <c r="E149" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="3">
+        <v>45421</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E150" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5396,6 +5428,7 @@
     <hyperlink ref="B147" r:id="rId157" display="https://codeforces.com/gym/105143/problem/D"/>
     <hyperlink ref="B148" r:id="rId158" display="https://codeforces.com/gym/105143/problem/E"/>
     <hyperlink ref="B149" r:id="rId159" display="https://codeforces.com/gym/104849/problem/E"/>
+    <hyperlink ref="B150" r:id="rId160" display="https://codeforces.com/problemset/problem/1713/D"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5406,10 +5439,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5448,10 +5481,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -5459,10 +5492,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -5470,10 +5503,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -5481,7 +5514,7 @@
         <v>45311</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>276</v>
@@ -5492,10 +5525,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5503,10 +5536,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5514,7 +5547,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -5525,10 +5558,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5536,10 +5569,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5547,10 +5580,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5558,10 +5591,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5569,10 +5602,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5580,10 +5613,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5591,10 +5624,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5602,10 +5635,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5613,10 +5646,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5624,10 +5657,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5635,15 +5668,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -5651,15 +5684,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -5667,39 +5700,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -5707,25 +5740,25 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
@@ -5733,12 +5766,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -5746,7 +5779,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -5754,15 +5787,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -5770,10 +5803,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5781,7 +5814,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5789,33 +5822,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5823,33 +5856,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5857,22 +5890,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -5891,15 +5924,15 @@
         <v>45374</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>185</v>
@@ -5907,10 +5940,10 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5918,7 +5951,7 @@
         <v>45375</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>106</v>
@@ -5926,15 +5959,15 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>110</v>
@@ -5945,10 +5978,10 @@
         <v>45377</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5956,7 +5989,7 @@
         <v>45380</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>276</v>
@@ -5964,15 +5997,15 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>276</v>
@@ -5980,10 +6013,10 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5991,7 +6024,7 @@
         <v>45381</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>106</v>
@@ -5999,15 +6032,15 @@
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>106</v>
@@ -6015,18 +6048,18 @@
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="72" spans="2:4">
@@ -6034,7 +6067,7 @@
         <v>290</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -6042,15 +6075,15 @@
         <v>45388</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>162</v>
@@ -6058,23 +6091,23 @@
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>106</v>
@@ -6082,23 +6115,23 @@
     </row>
     <row r="78" spans="2:4">
       <c r="B78" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>106</v>
@@ -6109,23 +6142,23 @@
         <v>45389</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="82" spans="2:4">
       <c r="B82" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="83" spans="2:4">
       <c r="B83" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>276</v>
@@ -6133,23 +6166,23 @@
     </row>
     <row r="84" spans="2:4">
       <c r="B84" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="85" spans="2:4">
       <c r="B85" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>91</v>
@@ -6157,10 +6190,10 @@
     </row>
     <row r="87" spans="2:4">
       <c r="B87" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -6168,39 +6201,39 @@
         <v>45390</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="90" spans="2:4">
       <c r="B90" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="91" spans="2:4">
       <c r="B91" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>245</v>
@@ -6211,74 +6244,74 @@
         <v>45391</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="94" spans="2:4">
       <c r="B94" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="95" spans="2:4">
       <c r="B95" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="96" spans="2:4">
       <c r="B96" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="4" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -6286,26 +6319,26 @@
         <v>45392</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -6313,28 +6346,28 @@
         <v>45410</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="B108" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -6342,7 +6375,7 @@
         <v>45411</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>106</v>
@@ -6350,10 +6383,29 @@
     </row>
     <row r="110" spans="2:4">
       <c r="B110" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="3">
+        <v>45421</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4">
+      <c r="B112" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -6465,6 +6517,8 @@
     <hyperlink ref="B108" r:id="rId102" display="https://ac.nowcoder.com/acm/contest/81126/D"/>
     <hyperlink ref="B109" r:id="rId103" display="https://ac.nowcoder.com/acm/contest/81126/F"/>
     <hyperlink ref="B110" r:id="rId104" display="https://ac.nowcoder.com/acm/contest/80793/C"/>
+    <hyperlink ref="B111" r:id="rId105" display="https://codeforces.com/gym/103688/problem/G"/>
+    <hyperlink ref="B112" r:id="rId106" display="https://www.luogu.com.cn/problem/P3951"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6492,16 +6546,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6509,10 +6563,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6520,10 +6574,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -6534,10 +6588,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6545,10 +6599,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6556,10 +6610,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6567,13 +6621,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6581,10 +6635,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6592,10 +6646,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -6606,10 +6660,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6617,10 +6671,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6628,10 +6682,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6639,10 +6693,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6650,10 +6704,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6661,10 +6715,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6672,10 +6726,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -6686,10 +6740,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6697,10 +6751,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6708,10 +6762,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6719,10 +6773,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6730,10 +6784,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6741,10 +6795,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6752,10 +6806,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6763,10 +6817,10 @@
         <v>45359</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6774,10 +6828,10 @@
         <v>45360</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6785,10 +6839,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6796,10 +6850,10 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6807,10 +6861,10 @@
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -6821,10 +6875,10 @@
         <v>45367</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6832,10 +6886,10 @@
         <v>45374</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6843,10 +6897,10 @@
         <v>45375</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="32" ht="20.25" spans="1:3">
@@ -6854,10 +6908,10 @@
         <v>45379</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6865,10 +6919,10 @@
         <v>45381</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6876,10 +6930,10 @@
         <v>45382</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6887,10 +6941,10 @@
         <v>45388</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -6898,10 +6952,10 @@
         <v>45388</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6909,10 +6963,10 @@
         <v>45389</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6920,10 +6974,10 @@
         <v>45390</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6931,10 +6985,10 @@
         <v>45391</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -6942,10 +6996,10 @@
         <v>45391</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -6956,10 +7010,10 @@
         <v>45392</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6967,10 +7021,10 @@
         <v>45395</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -6978,10 +7032,10 @@
         <v>45393</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -6989,10 +7043,10 @@
         <v>45400</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -7000,10 +7054,10 @@
         <v>45407</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -7011,10 +7065,10 @@
         <v>45410</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -7022,10 +7076,10 @@
         <v>45411</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -7033,10 +7087,10 @@
         <v>45414</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7044,10 +7098,10 @@
         <v>45417</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$112</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="604">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -1096,6 +1096,15 @@
   </si>
   <si>
     <t>交互，贪心</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/82401/E</t>
+  </si>
+  <si>
+    <t>差分，线段树</t>
+  </si>
+  <si>
+    <t>1WA，对于计算过程中的sum数组虽然不会爆long long，但是也需要取模，否则在计算过程中会爆。同时因为只有加减乘，取模不会影响计算的结果。</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -1851,6 +1860,12 @@
   </si>
   <si>
     <t>https://codeforces.com/gym/104849</t>
+  </si>
+  <si>
+    <t>牛客小白月赛93</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/82401</t>
   </si>
 </sst>
 </file>
@@ -2836,10 +2851,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT150"/>
+  <dimension ref="A1:AT151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151"/>
+      <selection activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5256,6 +5271,20 @@
       </c>
       <c r="E150" s="9" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="151" ht="34" customHeight="1" spans="1:5">
+      <c r="A151" s="3">
+        <v>45422</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -5429,6 +5458,7 @@
     <hyperlink ref="B148" r:id="rId158" display="https://codeforces.com/gym/105143/problem/E"/>
     <hyperlink ref="B149" r:id="rId159" display="https://codeforces.com/gym/104849/problem/E"/>
     <hyperlink ref="B150" r:id="rId160" display="https://codeforces.com/problemset/problem/1713/D"/>
+    <hyperlink ref="B151" r:id="rId161" display="https://ac.nowcoder.com/acm/contest/82401/E"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5481,10 +5511,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -5492,10 +5522,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -5503,10 +5533,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -5514,7 +5544,7 @@
         <v>45311</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>276</v>
@@ -5525,10 +5555,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5536,10 +5566,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5547,7 +5577,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -5558,10 +5588,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5569,10 +5599,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5580,10 +5610,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5591,10 +5621,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5602,10 +5632,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5613,10 +5643,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5624,10 +5654,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5635,10 +5665,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5646,10 +5676,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5657,10 +5687,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5668,15 +5698,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -5684,15 +5714,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -5700,39 +5730,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -5740,25 +5770,25 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
@@ -5766,12 +5796,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -5779,7 +5809,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="2" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -5787,15 +5817,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -5803,10 +5833,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5814,7 +5844,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5822,33 +5852,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5856,33 +5886,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5890,22 +5920,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -5924,15 +5954,15 @@
         <v>45374</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>185</v>
@@ -5940,10 +5970,10 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5951,7 +5981,7 @@
         <v>45375</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>106</v>
@@ -5959,15 +5989,15 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>110</v>
@@ -5978,10 +6008,10 @@
         <v>45377</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5989,7 +6019,7 @@
         <v>45380</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>276</v>
@@ -5997,15 +6027,15 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>276</v>
@@ -6013,10 +6043,10 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -6024,7 +6054,7 @@
         <v>45381</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>106</v>
@@ -6032,15 +6062,15 @@
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="4" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="2" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>106</v>
@@ -6048,18 +6078,18 @@
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="72" spans="2:4">
@@ -6067,7 +6097,7 @@
         <v>290</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -6075,15 +6105,15 @@
         <v>45388</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>162</v>
@@ -6091,23 +6121,23 @@
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="2" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>106</v>
@@ -6115,23 +6145,23 @@
     </row>
     <row r="78" spans="2:4">
       <c r="B78" s="2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>106</v>
@@ -6142,23 +6172,23 @@
         <v>45389</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="82" spans="2:4">
       <c r="B82" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="83" spans="2:4">
       <c r="B83" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>276</v>
@@ -6166,23 +6196,23 @@
     </row>
     <row r="84" spans="2:4">
       <c r="B84" s="2" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="85" spans="2:4">
       <c r="B85" s="2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>91</v>
@@ -6190,10 +6220,10 @@
     </row>
     <row r="87" spans="2:4">
       <c r="B87" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -6201,39 +6231,39 @@
         <v>45390</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="90" spans="2:4">
       <c r="B90" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="91" spans="2:4">
       <c r="B91" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>245</v>
@@ -6244,74 +6274,74 @@
         <v>45391</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="94" spans="2:4">
       <c r="B94" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="95" spans="2:4">
       <c r="B95" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="96" spans="2:4">
       <c r="B96" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="2" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" s="2" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="4" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -6319,26 +6349,26 @@
         <v>45392</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" s="2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" s="2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -6346,28 +6376,28 @@
         <v>45410</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="2" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="B108" s="2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -6375,7 +6405,7 @@
         <v>45411</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>106</v>
@@ -6383,10 +6413,10 @@
     </row>
     <row r="110" spans="2:4">
       <c r="B110" s="2" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -6394,22 +6424,22 @@
         <v>45421</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="112" spans="2:4">
       <c r="B112" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E110">
+  <autoFilter ref="A3:E112">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -6529,10 +6559,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6546,16 +6576,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6563,10 +6593,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6574,10 +6604,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -6588,10 +6618,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6599,10 +6629,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6610,10 +6640,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6621,13 +6651,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6635,10 +6665,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6646,10 +6676,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -6660,10 +6690,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6671,10 +6701,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6682,10 +6712,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6693,10 +6723,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6704,10 +6734,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6715,10 +6745,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6726,10 +6756,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -6740,10 +6770,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6751,10 +6781,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6762,10 +6792,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6773,10 +6803,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6784,10 +6814,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6795,10 +6825,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6806,10 +6836,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6817,10 +6847,10 @@
         <v>45359</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6828,10 +6858,10 @@
         <v>45360</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6839,10 +6869,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6850,10 +6880,10 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6861,10 +6891,10 @@
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -6875,10 +6905,10 @@
         <v>45367</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6886,10 +6916,10 @@
         <v>45374</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6897,10 +6927,10 @@
         <v>45375</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="32" ht="20.25" spans="1:3">
@@ -6908,10 +6938,10 @@
         <v>45379</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6919,10 +6949,10 @@
         <v>45381</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6930,10 +6960,10 @@
         <v>45382</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6941,10 +6971,10 @@
         <v>45388</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -6952,10 +6982,10 @@
         <v>45388</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6963,10 +6993,10 @@
         <v>45389</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6974,10 +7004,10 @@
         <v>45390</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6985,10 +7015,10 @@
         <v>45391</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -6996,10 +7026,10 @@
         <v>45391</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -7010,10 +7040,10 @@
         <v>45392</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -7021,10 +7051,10 @@
         <v>45395</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -7032,10 +7062,10 @@
         <v>45393</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -7043,10 +7073,10 @@
         <v>45400</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -7054,10 +7084,10 @@
         <v>45407</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -7065,10 +7095,10 @@
         <v>45410</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -7076,10 +7106,10 @@
         <v>45411</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -7087,10 +7117,10 @@
         <v>45414</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7098,10 +7128,21 @@
         <v>45417</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>598</v>
+        <v>601</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="3">
+        <v>45422</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -7160,6 +7201,7 @@
     <hyperlink ref="C47" r:id="rId45" display="https://ac.nowcoder.com/acm/contest/80793"/>
     <hyperlink ref="C48" r:id="rId46" display="https://codeforces.com/gym/105143"/>
     <hyperlink ref="C49" r:id="rId47" display="https://codeforces.com/gym/104849"/>
+    <hyperlink ref="C50" r:id="rId48" display="https://ac.nowcoder.com/acm/contest/82401"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$112</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="609">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -1105,6 +1105,9 @@
   </si>
   <si>
     <t>1WA，对于计算过程中的sum数组虽然不会爆long long，但是也需要取模，否则在计算过程中会爆。同时因为只有加减乘，取模不会影响计算的结果。</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/80186/B</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -1866,6 +1869,18 @@
   </si>
   <si>
     <t>https://ac.nowcoder.com/acm/contest/82401</t>
+  </si>
+  <si>
+    <t>山东理工大学第十六届ACM程序设计竞赛</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/81509</t>
+  </si>
+  <si>
+    <t>牛客周赛 Round 42</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/80743</t>
   </si>
 </sst>
 </file>
@@ -1878,7 +1893,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1920,6 +1935,12 @@
       <color rgb="FF373A3C"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2379,128 +2400,128 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2524,6 +2545,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2851,10 +2875,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT151"/>
+  <dimension ref="A1:AT152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2863,19 +2887,19 @@
     <col min="2" max="2" width="59" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
     <col min="4" max="4" width="49.5583333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="78.3333333333333" style="9" customWidth="1"/>
+    <col min="5" max="5" width="78.3333333333333" style="10" customWidth="1"/>
     <col min="6" max="6" width="8.89166666666667" style="1" customWidth="1"/>
-    <col min="7" max="12" width="9" style="9"/>
-    <col min="13" max="13" width="5.33333333333333" style="9" customWidth="1"/>
-    <col min="14" max="15" width="9" style="10" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="2.44166666666667" style="10" hidden="1" customWidth="1"/>
-    <col min="17" max="22" width="9" style="10" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="2.44166666666667" style="10" hidden="1" customWidth="1"/>
-    <col min="24" max="33" width="9" style="10" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="5.33333333333333" style="10" hidden="1" customWidth="1"/>
-    <col min="35" max="44" width="9" style="10" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="3" style="10" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="3.10833333333333" style="10" hidden="1" customWidth="1"/>
+    <col min="7" max="12" width="9" style="10"/>
+    <col min="13" max="13" width="5.33333333333333" style="10" customWidth="1"/>
+    <col min="14" max="15" width="9" style="11" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="2.44166666666667" style="11" hidden="1" customWidth="1"/>
+    <col min="17" max="22" width="9" style="11" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="2.44166666666667" style="11" hidden="1" customWidth="1"/>
+    <col min="24" max="33" width="9" style="11" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="5.33333333333333" style="11" hidden="1" customWidth="1"/>
+    <col min="35" max="44" width="9" style="11" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="3" style="11" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="3.10833333333333" style="11" hidden="1" customWidth="1"/>
     <col min="48" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2883,12 +2907,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -2903,7 +2927,7 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -2917,10 +2941,10 @@
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -2934,10 +2958,10 @@
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -2965,10 +2989,10 @@
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -2985,7 +3009,7 @@
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -3002,7 +3026,7 @@
       <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -3019,7 +3043,7 @@
       <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -3036,7 +3060,7 @@
       <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -3053,7 +3077,7 @@
       <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -3070,7 +3094,7 @@
       <c r="D13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -3087,7 +3111,7 @@
       <c r="D14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -3104,7 +3128,7 @@
       <c r="D15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -3121,7 +3145,7 @@
       <c r="D16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -3138,7 +3162,7 @@
       <c r="D17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -3155,7 +3179,7 @@
       <c r="D18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="10" t="s">
         <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -3172,7 +3196,7 @@
       <c r="D19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="10" t="s">
         <v>49</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -3189,7 +3213,7 @@
       <c r="D20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -3206,7 +3230,7 @@
       <c r="D21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -3223,7 +3247,7 @@
       <c r="D22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="10" t="s">
         <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -3243,7 +3267,7 @@
       <c r="D23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -3263,7 +3287,7 @@
       <c r="D24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="2"/>
@@ -3281,7 +3305,7 @@
       <c r="D25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="2"/>
@@ -3299,7 +3323,7 @@
       <c r="D26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="10" t="s">
         <v>67</v>
       </c>
       <c r="F26" s="2"/>
@@ -3317,7 +3341,7 @@
       <c r="D27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="10" t="s">
         <v>71</v>
       </c>
       <c r="F27" s="2"/>
@@ -3335,7 +3359,7 @@
       <c r="D28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="10" t="s">
         <v>74</v>
       </c>
       <c r="F28" s="2"/>
@@ -3353,7 +3377,7 @@
       <c r="D29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3370,7 +3394,7 @@
       <c r="D30" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="10" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3387,7 +3411,7 @@
       <c r="D31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3404,7 +3428,7 @@
       <c r="D32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3421,49 +3445,49 @@
       <c r="D33" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="12"/>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="12"/>
-      <c r="AD33" s="12"/>
-      <c r="AE33" s="12"/>
-      <c r="AF33" s="12"/>
-      <c r="AG33" s="12"/>
-      <c r="AH33" s="12"/>
-      <c r="AI33" s="12"/>
-      <c r="AJ33" s="12"/>
-      <c r="AK33" s="12"/>
-      <c r="AL33" s="12"/>
-      <c r="AM33" s="12"/>
-      <c r="AN33" s="12"/>
-      <c r="AO33" s="12"/>
-      <c r="AP33" s="12"/>
-      <c r="AQ33" s="12"/>
-      <c r="AR33" s="12"/>
-      <c r="AS33" s="12"/>
-      <c r="AT33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="13"/>
+      <c r="AC33" s="13"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="13"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13"/>
+      <c r="AI33" s="13"/>
+      <c r="AJ33" s="13"/>
+      <c r="AK33" s="13"/>
+      <c r="AL33" s="13"/>
+      <c r="AM33" s="13"/>
+      <c r="AN33" s="13"/>
+      <c r="AO33" s="13"/>
+      <c r="AP33" s="13"/>
+      <c r="AQ33" s="13"/>
+      <c r="AR33" s="13"/>
+      <c r="AS33" s="13"/>
+      <c r="AT33" s="13"/>
     </row>
     <row r="34" ht="28" customHeight="1" spans="1:46">
       <c r="A34" s="3">
@@ -3478,49 +3502,49 @@
       <c r="D34" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
-      <c r="AA34" s="12"/>
-      <c r="AB34" s="12"/>
-      <c r="AC34" s="12"/>
-      <c r="AD34" s="12"/>
-      <c r="AE34" s="12"/>
-      <c r="AF34" s="12"/>
-      <c r="AG34" s="12"/>
-      <c r="AH34" s="12"/>
-      <c r="AI34" s="12"/>
-      <c r="AJ34" s="12"/>
-      <c r="AK34" s="12"/>
-      <c r="AL34" s="12"/>
-      <c r="AM34" s="12"/>
-      <c r="AN34" s="12"/>
-      <c r="AO34" s="12"/>
-      <c r="AP34" s="12"/>
-      <c r="AQ34" s="12"/>
-      <c r="AR34" s="12"/>
-      <c r="AS34" s="12"/>
-      <c r="AT34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="13"/>
+      <c r="AB34" s="13"/>
+      <c r="AC34" s="13"/>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="13"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="13"/>
+      <c r="AI34" s="13"/>
+      <c r="AJ34" s="13"/>
+      <c r="AK34" s="13"/>
+      <c r="AL34" s="13"/>
+      <c r="AM34" s="13"/>
+      <c r="AN34" s="13"/>
+      <c r="AO34" s="13"/>
+      <c r="AP34" s="13"/>
+      <c r="AQ34" s="13"/>
+      <c r="AR34" s="13"/>
+      <c r="AS34" s="13"/>
+      <c r="AT34" s="13"/>
     </row>
     <row r="35" ht="28" customHeight="1" spans="1:46">
       <c r="A35" s="3">
@@ -3535,49 +3559,49 @@
       <c r="D35" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="12"/>
-      <c r="AB35" s="12"/>
-      <c r="AC35" s="12"/>
-      <c r="AD35" s="12"/>
-      <c r="AE35" s="12"/>
-      <c r="AF35" s="12"/>
-      <c r="AG35" s="12"/>
-      <c r="AH35" s="12"/>
-      <c r="AI35" s="12"/>
-      <c r="AJ35" s="12"/>
-      <c r="AK35" s="12"/>
-      <c r="AL35" s="12"/>
-      <c r="AM35" s="12"/>
-      <c r="AN35" s="12"/>
-      <c r="AO35" s="12"/>
-      <c r="AP35" s="12"/>
-      <c r="AQ35" s="12"/>
-      <c r="AR35" s="12"/>
-      <c r="AS35" s="12"/>
-      <c r="AT35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="13"/>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="13"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
+      <c r="AI35" s="13"/>
+      <c r="AJ35" s="13"/>
+      <c r="AK35" s="13"/>
+      <c r="AL35" s="13"/>
+      <c r="AM35" s="13"/>
+      <c r="AN35" s="13"/>
+      <c r="AO35" s="13"/>
+      <c r="AP35" s="13"/>
+      <c r="AQ35" s="13"/>
+      <c r="AR35" s="13"/>
+      <c r="AS35" s="13"/>
+      <c r="AT35" s="13"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3">
@@ -3592,7 +3616,7 @@
       <c r="D36" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3609,7 +3633,7 @@
       <c r="D37" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="10" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3626,7 +3650,7 @@
       <c r="D38" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3643,7 +3667,7 @@
       <c r="D39" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3660,7 +3684,7 @@
       <c r="D40" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3677,7 +3701,7 @@
       <c r="D41" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3694,7 +3718,7 @@
       <c r="D42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3711,7 +3735,7 @@
       <c r="D43" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="10" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3728,7 +3752,7 @@
       <c r="D44" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="10" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3745,7 +3769,7 @@
       <c r="D45" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="10" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3762,7 +3786,7 @@
       <c r="D46" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3776,7 +3800,7 @@
       <c r="D47" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3793,7 +3817,7 @@
       <c r="D48" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="10" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3810,7 +3834,7 @@
       <c r="D49" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="12" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3827,7 +3851,7 @@
       <c r="D50" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3844,7 +3868,7 @@
       <c r="D51" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3858,7 +3882,7 @@
       <c r="D52" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3872,7 +3896,7 @@
       <c r="D53" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3889,7 +3913,7 @@
       <c r="D54" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3906,7 +3930,7 @@
       <c r="D55" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3923,7 +3947,7 @@
       <c r="D56" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3940,7 +3964,7 @@
       <c r="D57" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="12" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3957,7 +3981,7 @@
       <c r="D58" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3974,7 +3998,7 @@
       <c r="D59" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3991,7 +4015,7 @@
       <c r="D60" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4008,7 +4032,7 @@
       <c r="D61" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="10" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4025,7 +4049,7 @@
       <c r="D62" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="10" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4042,7 +4066,7 @@
       <c r="D63" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="12" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4056,7 +4080,7 @@
       <c r="D64" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4073,7 +4097,7 @@
       <c r="D65" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4090,7 +4114,7 @@
       <c r="D66" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="10" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4107,7 +4131,7 @@
       <c r="D67" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E67" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4121,7 +4145,7 @@
       <c r="D68" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4135,7 +4159,7 @@
       <c r="D69" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4149,7 +4173,7 @@
       <c r="D70" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="10" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4163,7 +4187,7 @@
       <c r="D71" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="10" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4177,7 +4201,7 @@
       <c r="D72" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4191,7 +4215,7 @@
       <c r="D73" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="E73" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4205,7 +4229,7 @@
       <c r="D74" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E74" s="10" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4219,7 +4243,7 @@
       <c r="D75" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="10" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4233,7 +4257,7 @@
       <c r="D76" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E76" s="10" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4247,7 +4271,7 @@
       <c r="D77" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="10" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4261,7 +4285,7 @@
       <c r="D78" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4275,7 +4299,7 @@
       <c r="D79" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E79" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4289,7 +4313,7 @@
       <c r="D80" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E80" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4303,7 +4327,7 @@
       <c r="D81" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="10" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4317,7 +4341,7 @@
       <c r="D82" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="10" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4331,7 +4355,7 @@
       <c r="D83" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="10" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4345,7 +4369,7 @@
       <c r="D84" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="E84" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4359,7 +4383,7 @@
       <c r="D85" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4373,7 +4397,7 @@
       <c r="D86" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="10" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4387,7 +4411,7 @@
       <c r="D87" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E87" s="9" t="s">
+      <c r="E87" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4401,7 +4425,7 @@
       <c r="D88" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E88" s="9" t="s">
+      <c r="E88" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4415,7 +4439,7 @@
       <c r="D89" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E89" s="9" t="s">
+      <c r="E89" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4429,7 +4453,7 @@
       <c r="D90" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E90" s="9" t="s">
+      <c r="E90" s="10" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4443,7 +4467,7 @@
       <c r="D91" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E91" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4457,7 +4481,7 @@
       <c r="D92" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="E92" s="10" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4471,7 +4495,7 @@
       <c r="D93" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="E93" s="10" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4485,7 +4509,7 @@
       <c r="D94" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E94" s="9" t="s">
+      <c r="E94" s="10" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4499,7 +4523,7 @@
       <c r="D95" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="E95" s="10" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4513,7 +4537,7 @@
       <c r="D96" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E96" s="10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4527,7 +4551,7 @@
       <c r="D97" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="E97" s="10" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4541,7 +4565,7 @@
       <c r="D98" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="E98" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4555,7 +4579,7 @@
       <c r="D99" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E99" s="9" t="s">
+      <c r="E99" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4569,7 +4593,7 @@
       <c r="D100" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E100" s="9" t="s">
+      <c r="E100" s="10" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4583,7 +4607,7 @@
       <c r="D101" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="E101" s="10" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4597,7 +4621,7 @@
       <c r="D102" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="E102" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4611,7 +4635,7 @@
       <c r="D103" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="E103" s="10" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4625,7 +4649,7 @@
       <c r="D104" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E104" s="9" t="s">
+      <c r="E104" s="10" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4639,7 +4663,7 @@
       <c r="D105" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E105" s="9" t="s">
+      <c r="E105" s="10" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4653,7 +4677,7 @@
       <c r="D106" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E106" s="10" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4667,7 +4691,7 @@
       <c r="D107" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E107" s="9" t="s">
+      <c r="E107" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4681,7 +4705,7 @@
       <c r="D108" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="E108" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4695,7 +4719,7 @@
       <c r="D109" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="E109" s="10" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4709,7 +4733,7 @@
       <c r="D110" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E110" s="9" t="s">
+      <c r="E110" s="10" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4723,7 +4747,7 @@
       <c r="D111" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E111" s="9" t="s">
+      <c r="E111" s="10" t="s">
         <v>266</v>
       </c>
     </row>
@@ -4737,7 +4761,7 @@
       <c r="D112" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E112" s="9" t="s">
+      <c r="E112" s="10" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4751,7 +4775,7 @@
       <c r="D113" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="E113" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4765,7 +4789,7 @@
       <c r="D114" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E114" s="9" t="s">
+      <c r="E114" s="10" t="s">
         <v>274</v>
       </c>
     </row>
@@ -4779,7 +4803,7 @@
       <c r="D115" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E115" s="9" t="s">
+      <c r="E115" s="10" t="s">
         <v>277</v>
       </c>
     </row>
@@ -4793,7 +4817,7 @@
       <c r="D116" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E116" s="9" t="s">
+      <c r="E116" s="10" t="s">
         <v>280</v>
       </c>
     </row>
@@ -4807,7 +4831,7 @@
       <c r="D117" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E117" s="9" t="s">
+      <c r="E117" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4821,7 +4845,7 @@
       <c r="D118" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E118" s="9" t="s">
+      <c r="E118" s="10" t="s">
         <v>285</v>
       </c>
     </row>
@@ -4835,7 +4859,7 @@
       <c r="D119" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E119" s="9" t="s">
+      <c r="E119" s="10" t="s">
         <v>287</v>
       </c>
     </row>
@@ -4849,7 +4873,7 @@
       <c r="D120" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E120" s="9" t="s">
+      <c r="E120" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4863,7 +4887,7 @@
       <c r="D121" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E121" s="9" t="s">
+      <c r="E121" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4877,7 +4901,7 @@
       <c r="D122" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E122" s="9" t="s">
+      <c r="E122" s="10" t="s">
         <v>294</v>
       </c>
     </row>
@@ -4891,7 +4915,7 @@
       <c r="D123" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E123" s="9" t="s">
+      <c r="E123" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4905,7 +4929,7 @@
       <c r="D124" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E124" s="9" t="s">
+      <c r="E124" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4919,7 +4943,7 @@
       <c r="D125" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E125" s="9" t="s">
+      <c r="E125" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4933,7 +4957,7 @@
       <c r="D126" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E126" s="9" t="s">
+      <c r="E126" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4947,7 +4971,7 @@
       <c r="D127" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E127" s="9" t="s">
+      <c r="E127" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4961,7 +4985,7 @@
       <c r="D128" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E128" s="9" t="s">
+      <c r="E128" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4975,7 +4999,7 @@
       <c r="D129" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E129" s="9" t="s">
+      <c r="E129" s="10" t="s">
         <v>308</v>
       </c>
     </row>
@@ -4989,7 +5013,7 @@
       <c r="D130" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="E130" s="9" t="s">
+      <c r="E130" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5003,7 +5027,7 @@
       <c r="D131" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E131" s="9" t="s">
+      <c r="E131" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5017,7 +5041,7 @@
       <c r="D132" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E132" s="9" t="s">
+      <c r="E132" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5031,7 +5055,7 @@
       <c r="D133" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="E133" s="9" t="s">
+      <c r="E133" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5045,7 +5069,7 @@
       <c r="D134" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E134" s="9" t="s">
+      <c r="E134" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5059,7 +5083,7 @@
       <c r="D135" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E135" s="9" t="s">
+      <c r="E135" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5073,7 +5097,7 @@
       <c r="D136" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E136" s="9" t="s">
+      <c r="E136" s="10" t="s">
         <v>321</v>
       </c>
     </row>
@@ -5087,7 +5111,7 @@
       <c r="D137" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E137" s="9" t="s">
+      <c r="E137" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5101,7 +5125,7 @@
       <c r="D138" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E138" s="9" t="s">
+      <c r="E138" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5115,7 +5139,7 @@
       <c r="D139" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E139" s="9" t="s">
+      <c r="E139" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5129,7 +5153,7 @@
       <c r="D140" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E140" s="9" t="s">
+      <c r="E140" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5143,7 +5167,7 @@
       <c r="D141" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E141" s="9" t="s">
+      <c r="E141" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5157,7 +5181,7 @@
       <c r="D142" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E142" s="9" t="s">
+      <c r="E142" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5171,7 +5195,7 @@
       <c r="D143" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="E143" s="9" t="s">
+      <c r="E143" s="10" t="s">
         <v>334</v>
       </c>
     </row>
@@ -5185,7 +5209,7 @@
       <c r="D144" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E144" s="11" t="s">
+      <c r="E144" s="12" t="s">
         <v>337</v>
       </c>
     </row>
@@ -5199,7 +5223,7 @@
       <c r="D145" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E145" s="9" t="s">
+      <c r="E145" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5213,7 +5237,7 @@
       <c r="D146" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E146" s="9" t="s">
+      <c r="E146" s="10" t="s">
         <v>341</v>
       </c>
     </row>
@@ -5227,7 +5251,7 @@
       <c r="D147" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E147" s="9" t="s">
+      <c r="E147" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5241,7 +5265,7 @@
       <c r="D148" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="E148" s="9" t="s">
+      <c r="E148" s="10" t="s">
         <v>345</v>
       </c>
     </row>
@@ -5255,7 +5279,7 @@
       <c r="D149" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E149" s="9" t="s">
+      <c r="E149" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5269,7 +5293,7 @@
       <c r="D150" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E150" s="9" t="s">
+      <c r="E150" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5277,14 +5301,28 @@
       <c r="A151" s="3">
         <v>45422</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="4" t="s">
         <v>350</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E151" s="11" t="s">
+      <c r="E151" s="12" t="s">
         <v>352</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="3">
+        <v>45423</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E152" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -5459,6 +5497,7 @@
     <hyperlink ref="B149" r:id="rId159" display="https://codeforces.com/gym/104849/problem/E"/>
     <hyperlink ref="B150" r:id="rId160" display="https://codeforces.com/problemset/problem/1713/D"/>
     <hyperlink ref="B151" r:id="rId161" display="https://ac.nowcoder.com/acm/contest/82401/E"/>
+    <hyperlink ref="B152" r:id="rId162" display="https://ac.nowcoder.com/acm/contest/80186/B"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5472,7 +5511,7 @@
   <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5511,10 +5550,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D4" s="8" t="s">
         <v>354</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -5522,10 +5561,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>355</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -5533,10 +5572,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -5544,9 +5583,9 @@
         <v>45311</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="D7" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>276</v>
       </c>
     </row>
@@ -5555,10 +5594,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5566,10 +5605,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5577,7 +5616,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -5588,10 +5627,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5599,10 +5638,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5610,10 +5649,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5621,10 +5660,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5632,10 +5671,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5643,10 +5682,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5654,10 +5693,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5665,10 +5704,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5676,10 +5715,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5687,10 +5726,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5698,15 +5737,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -5714,15 +5753,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -5730,39 +5769,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -5770,25 +5809,25 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
@@ -5796,12 +5835,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -5809,7 +5848,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -5817,15 +5856,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -5833,10 +5872,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5844,7 +5883,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5852,33 +5891,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5886,33 +5925,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5920,22 +5959,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -5954,15 +5993,15 @@
         <v>45374</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>185</v>
@@ -5970,10 +6009,10 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -5981,7 +6020,7 @@
         <v>45375</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>106</v>
@@ -5989,15 +6028,15 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>110</v>
@@ -6008,10 +6047,10 @@
         <v>45377</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -6019,7 +6058,7 @@
         <v>45380</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>276</v>
@@ -6027,15 +6066,15 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>276</v>
@@ -6043,10 +6082,10 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -6054,7 +6093,7 @@
         <v>45381</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>106</v>
@@ -6062,15 +6101,15 @@
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>106</v>
@@ -6078,18 +6117,18 @@
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="72" spans="2:4">
@@ -6097,7 +6136,7 @@
         <v>290</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -6105,15 +6144,15 @@
         <v>45388</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>162</v>
@@ -6121,23 +6160,23 @@
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>106</v>
@@ -6145,23 +6184,23 @@
     </row>
     <row r="78" spans="2:4">
       <c r="B78" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>106</v>
@@ -6172,23 +6211,23 @@
         <v>45389</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="82" spans="2:4">
       <c r="B82" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="83" spans="2:4">
       <c r="B83" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>276</v>
@@ -6196,23 +6235,23 @@
     </row>
     <row r="84" spans="2:4">
       <c r="B84" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="85" spans="2:4">
       <c r="B85" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>91</v>
@@ -6220,10 +6259,10 @@
     </row>
     <row r="87" spans="2:4">
       <c r="B87" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -6231,39 +6270,39 @@
         <v>45390</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="90" spans="2:4">
       <c r="B90" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="91" spans="2:4">
       <c r="B91" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>245</v>
@@ -6274,74 +6313,74 @@
         <v>45391</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="94" spans="2:4">
       <c r="B94" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="95" spans="2:4">
       <c r="B95" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="96" spans="2:4">
       <c r="B96" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -6349,26 +6388,26 @@
         <v>45392</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -6376,28 +6415,28 @@
         <v>45410</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="B108" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -6405,7 +6444,7 @@
         <v>45411</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>106</v>
@@ -6413,10 +6452,10 @@
     </row>
     <row r="110" spans="2:4">
       <c r="B110" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -6424,18 +6463,18 @@
         <v>45421</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="112" spans="2:4">
       <c r="B112" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -6559,10 +6598,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -6576,16 +6615,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6593,10 +6632,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6604,10 +6643,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -6618,10 +6657,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6629,10 +6668,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6640,10 +6679,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6651,13 +6690,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6665,10 +6704,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6676,10 +6715,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -6690,10 +6729,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6701,10 +6740,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6712,10 +6751,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6723,10 +6762,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6734,10 +6773,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6745,10 +6784,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6756,10 +6795,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -6770,10 +6809,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6781,10 +6820,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6792,10 +6831,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6803,10 +6842,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6814,10 +6853,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6825,10 +6864,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6836,10 +6875,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6847,10 +6886,10 @@
         <v>45359</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6858,10 +6897,10 @@
         <v>45360</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6869,10 +6908,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6880,10 +6919,10 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6891,10 +6930,10 @@
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -6905,10 +6944,10 @@
         <v>45367</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6916,10 +6955,10 @@
         <v>45374</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6927,10 +6966,10 @@
         <v>45375</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="32" ht="20.25" spans="1:3">
@@ -6938,10 +6977,10 @@
         <v>45379</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6949,10 +6988,10 @@
         <v>45381</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6960,10 +6999,10 @@
         <v>45382</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6971,10 +7010,10 @@
         <v>45388</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -6982,10 +7021,10 @@
         <v>45388</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6993,10 +7032,10 @@
         <v>45389</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -7004,10 +7043,10 @@
         <v>45390</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -7015,10 +7054,10 @@
         <v>45391</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -7026,10 +7065,10 @@
         <v>45391</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -7040,10 +7079,10 @@
         <v>45392</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -7051,10 +7090,10 @@
         <v>45395</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -7062,10 +7101,10 @@
         <v>45393</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -7073,10 +7112,10 @@
         <v>45400</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -7084,10 +7123,10 @@
         <v>45407</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -7095,10 +7134,10 @@
         <v>45410</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="C46" s="2" t="s">
         <v>595</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -7106,10 +7145,10 @@
         <v>45411</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C47" s="2" t="s">
         <v>597</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -7117,10 +7156,10 @@
         <v>45414</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7128,10 +7167,10 @@
         <v>45417</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="C49" s="2" t="s">
         <v>601</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -7139,14 +7178,36 @@
         <v>45422</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="3">
+        <v>45424</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3">
+        <v>45424</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>608</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A49">
+  <autoFilter ref="A1:A51">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:D37">
@@ -7202,6 +7263,8 @@
     <hyperlink ref="C48" r:id="rId46" display="https://codeforces.com/gym/105143"/>
     <hyperlink ref="C49" r:id="rId47" display="https://codeforces.com/gym/104849"/>
     <hyperlink ref="C50" r:id="rId48" display="https://ac.nowcoder.com/acm/contest/82401"/>
+    <hyperlink ref="C51" r:id="rId49" display="https://ac.nowcoder.com/acm/contest/81509"/>
+    <hyperlink ref="C52" r:id="rId50" display="https://ac.nowcoder.com/acm/contest/80743"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -13,8 +13,8 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$112</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="628">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -1110,6 +1110,24 @@
     <t>https://ac.nowcoder.com/acm/contest/80186/B</t>
   </si>
   <si>
+    <t>https://ac.nowcoder.com/acm/contest/81509/K</t>
+  </si>
+  <si>
+    <t>思维，模拟</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/81509/E</t>
+  </si>
+  <si>
+    <t>因数枚举</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/80743/F</t>
+  </si>
+  <si>
+    <t>期望dp</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
   </si>
   <si>
@@ -1558,6 +1576,45 @@
   </si>
   <si>
     <t>找规律</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/80743/A</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/80743/B</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/80743/C</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/80743/E</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/80743/D</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/81509/A</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/81509/B</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/81509/C</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/81509/D</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/81509/G</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/81509/F</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/81509/H</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/81509/J</t>
   </si>
   <si>
     <t>时间</t>
@@ -2875,10 +2932,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT152"/>
+  <dimension ref="A1:AT155"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+      <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5322,6 +5379,48 @@
         <v>91</v>
       </c>
       <c r="E152" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="3">
+        <v>45424</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E153" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="3">
+        <v>45424</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E154" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="3">
+        <v>45424</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E155" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5498,6 +5597,9 @@
     <hyperlink ref="B150" r:id="rId160" display="https://codeforces.com/problemset/problem/1713/D"/>
     <hyperlink ref="B151" r:id="rId161" display="https://ac.nowcoder.com/acm/contest/82401/E"/>
     <hyperlink ref="B152" r:id="rId162" display="https://ac.nowcoder.com/acm/contest/80186/B"/>
+    <hyperlink ref="B153" r:id="rId163" display="https://ac.nowcoder.com/acm/contest/81509/K"/>
+    <hyperlink ref="B154" r:id="rId164" display="https://ac.nowcoder.com/acm/contest/81509/E"/>
+    <hyperlink ref="B155" r:id="rId165" display="https://ac.nowcoder.com/acm/contest/80743/F"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5508,10 +5610,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5550,10 +5652,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -5561,10 +5663,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -5572,10 +5674,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -5583,7 +5685,7 @@
         <v>45311</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>276</v>
@@ -5594,10 +5696,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5605,10 +5707,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5616,7 +5718,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -5627,10 +5729,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5638,10 +5740,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5649,10 +5751,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5660,10 +5762,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5671,10 +5773,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5682,10 +5784,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5693,10 +5795,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5704,10 +5806,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5715,10 +5817,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5726,10 +5828,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5737,15 +5839,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="2" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -5753,15 +5855,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="2" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="2" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -5769,39 +5871,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="2" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="2" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="2" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="2" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -5809,25 +5911,25 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="2" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="2" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="2" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
@@ -5835,12 +5937,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="2" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -5848,7 +5950,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="2" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -5856,15 +5958,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="2" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -5872,10 +5974,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="2" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5883,7 +5985,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5891,33 +5993,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="2" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="2" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="2" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="2" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -5925,33 +6027,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="2" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="2" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="2" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="2" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -5959,22 +6061,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="2" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="2" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="2" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -5993,15 +6095,15 @@
         <v>45374</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>185</v>
@@ -6009,10 +6111,10 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="2" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -6020,7 +6122,7 @@
         <v>45375</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>106</v>
@@ -6028,15 +6130,15 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="2" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>110</v>
@@ -6047,10 +6149,10 @@
         <v>45377</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -6058,7 +6160,7 @@
         <v>45380</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>276</v>
@@ -6066,15 +6168,15 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="2" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="2" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>276</v>
@@ -6082,10 +6184,10 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="2" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -6093,7 +6195,7 @@
         <v>45381</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>106</v>
@@ -6101,15 +6203,15 @@
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="4" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="2" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>106</v>
@@ -6117,18 +6219,18 @@
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="2" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="2" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="72" spans="2:4">
@@ -6136,7 +6238,7 @@
         <v>290</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -6144,15 +6246,15 @@
         <v>45388</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="2" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>162</v>
@@ -6160,23 +6262,23 @@
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="2" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="2" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="2" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>106</v>
@@ -6184,23 +6286,23 @@
     </row>
     <row r="78" spans="2:4">
       <c r="B78" s="2" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" s="2" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" s="2" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>106</v>
@@ -6211,23 +6313,23 @@
         <v>45389</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="82" spans="2:4">
       <c r="B82" s="2" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="83" spans="2:4">
       <c r="B83" s="2" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>276</v>
@@ -6235,23 +6337,23 @@
     </row>
     <row r="84" spans="2:4">
       <c r="B84" s="2" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="85" spans="2:4">
       <c r="B85" s="2" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" s="2" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>91</v>
@@ -6259,10 +6361,10 @@
     </row>
     <row r="87" spans="2:4">
       <c r="B87" s="2" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -6270,39 +6372,39 @@
         <v>45390</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="2" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="90" spans="2:4">
       <c r="B90" s="2" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="91" spans="2:4">
       <c r="B91" s="2" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" s="2" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>245</v>
@@ -6313,74 +6415,74 @@
         <v>45391</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="94" spans="2:4">
       <c r="B94" s="2" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="95" spans="2:4">
       <c r="B95" s="2" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="96" spans="2:4">
       <c r="B96" s="2" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="2" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="2" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="2" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" s="2" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="4" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -6388,26 +6490,26 @@
         <v>45392</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" s="2" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -6415,28 +6517,28 @@
         <v>45410</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="2" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" s="2" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="B108" s="2" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -6444,7 +6546,7 @@
         <v>45411</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>106</v>
@@ -6452,10 +6554,10 @@
     </row>
     <row r="110" spans="2:4">
       <c r="B110" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -6463,22 +6565,90 @@
         <v>45421</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="112" spans="2:4">
       <c r="B112" s="2" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>503</v>
+        <v>509</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="3">
+        <v>45424</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="2" t="s">
+        <v>522</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E112">
+  <autoFilter ref="A3:E125">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -6588,6 +6758,19 @@
     <hyperlink ref="B110" r:id="rId104" display="https://ac.nowcoder.com/acm/contest/80793/C"/>
     <hyperlink ref="B111" r:id="rId105" display="https://codeforces.com/gym/103688/problem/G"/>
     <hyperlink ref="B112" r:id="rId106" display="https://www.luogu.com.cn/problem/P3951"/>
+    <hyperlink ref="B113" r:id="rId107" display="https://ac.nowcoder.com/acm/contest/80743/A"/>
+    <hyperlink ref="B114" r:id="rId108" display="https://ac.nowcoder.com/acm/contest/80743/B"/>
+    <hyperlink ref="B115" r:id="rId109" display="https://ac.nowcoder.com/acm/contest/80743/C"/>
+    <hyperlink ref="B116" r:id="rId110" display="https://ac.nowcoder.com/acm/contest/80743/E"/>
+    <hyperlink ref="B117" r:id="rId111" display="https://ac.nowcoder.com/acm/contest/80743/D"/>
+    <hyperlink ref="B118" r:id="rId112" display="https://ac.nowcoder.com/acm/contest/81509/A"/>
+    <hyperlink ref="B119" r:id="rId113" display="https://ac.nowcoder.com/acm/contest/81509/B"/>
+    <hyperlink ref="B120" r:id="rId114" display="https://ac.nowcoder.com/acm/contest/81509/C" tooltip="https://ac.nowcoder.com/acm/contest/81509/C"/>
+    <hyperlink ref="B121" r:id="rId115" display="https://ac.nowcoder.com/acm/contest/81509/D"/>
+    <hyperlink ref="B123" r:id="rId116" display="https://ac.nowcoder.com/acm/contest/81509/F"/>
+    <hyperlink ref="B122" r:id="rId117" display="https://ac.nowcoder.com/acm/contest/81509/G"/>
+    <hyperlink ref="B124" r:id="rId118" display="https://ac.nowcoder.com/acm/contest/81509/H"/>
+    <hyperlink ref="B125" r:id="rId119" display="https://ac.nowcoder.com/acm/contest/81509/J"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6615,16 +6798,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6632,10 +6815,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6643,10 +6826,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -6657,10 +6840,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6668,10 +6851,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6679,10 +6862,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6690,13 +6873,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6704,10 +6887,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6715,10 +6898,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -6729,10 +6912,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6740,10 +6923,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6751,10 +6934,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6762,10 +6945,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6773,10 +6956,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6784,10 +6967,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>536</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6795,10 +6978,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>538</v>
+        <v>557</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -6809,10 +6992,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>539</v>
+        <v>558</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>540</v>
+        <v>559</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6820,10 +7003,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6831,10 +7014,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6842,10 +7025,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6853,10 +7036,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6864,10 +7047,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6875,10 +7058,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6886,10 +7069,10 @@
         <v>45359</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6897,10 +7080,10 @@
         <v>45360</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6908,10 +7091,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6919,10 +7102,10 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6930,10 +7113,10 @@
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -6944,10 +7127,10 @@
         <v>45367</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6955,10 +7138,10 @@
         <v>45374</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6966,10 +7149,10 @@
         <v>45375</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
     </row>
     <row r="32" ht="20.25" spans="1:3">
@@ -6977,10 +7160,10 @@
         <v>45379</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6988,10 +7171,10 @@
         <v>45381</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6999,10 +7182,10 @@
         <v>45382</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>573</v>
+        <v>592</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -7010,10 +7193,10 @@
         <v>45388</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -7021,10 +7204,10 @@
         <v>45388</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>577</v>
+        <v>596</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>578</v>
+        <v>597</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -7032,10 +7215,10 @@
         <v>45389</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -7043,10 +7226,10 @@
         <v>45390</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -7054,10 +7237,10 @@
         <v>45391</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>582</v>
+        <v>601</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -7065,10 +7248,10 @@
         <v>45391</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -7079,10 +7262,10 @@
         <v>45392</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -7090,10 +7273,10 @@
         <v>45395</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -7101,10 +7284,10 @@
         <v>45393</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -7112,10 +7295,10 @@
         <v>45400</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -7123,10 +7306,10 @@
         <v>45407</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -7134,10 +7317,10 @@
         <v>45410</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>596</v>
+        <v>615</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -7145,10 +7328,10 @@
         <v>45411</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>598</v>
+        <v>617</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -7156,10 +7339,10 @@
         <v>45414</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>600</v>
+        <v>619</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7167,10 +7350,10 @@
         <v>45417</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -7178,10 +7361,10 @@
         <v>45422</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>603</v>
+        <v>622</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>604</v>
+        <v>623</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -7189,10 +7372,10 @@
         <v>45424</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>605</v>
+        <v>624</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>606</v>
+        <v>625</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -7200,14 +7383,14 @@
         <v>45424</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>607</v>
+        <v>626</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>608</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A51">
+  <autoFilter ref="A1:A52">
     <extLst/>
   </autoFilter>
   <sortState ref="A2:D37">

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="630">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -1126,6 +1126,12 @@
   </si>
   <si>
     <t>期望dp</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P10238</t>
+  </si>
+  <si>
+    <t>动态求树的直径</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -2932,10 +2938,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT155"/>
+  <dimension ref="A1:AT156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5412,7 +5418,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="3">
-        <v>45424</v>
+        <v>45425</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>358</v>
@@ -5421,6 +5427,20 @@
         <v>359</v>
       </c>
       <c r="E155" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="3">
+        <v>45426</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E156" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5600,6 +5620,7 @@
     <hyperlink ref="B153" r:id="rId163" display="https://ac.nowcoder.com/acm/contest/81509/K"/>
     <hyperlink ref="B154" r:id="rId164" display="https://ac.nowcoder.com/acm/contest/81509/E"/>
     <hyperlink ref="B155" r:id="rId165" display="https://ac.nowcoder.com/acm/contest/80743/F"/>
+    <hyperlink ref="B156" r:id="rId166" display="https://www.luogu.com.cn/problem/P10238"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5652,10 +5673,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -5663,10 +5684,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -5674,10 +5695,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -5685,7 +5706,7 @@
         <v>45311</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>276</v>
@@ -5696,10 +5717,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5707,10 +5728,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5718,7 +5739,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -5729,10 +5750,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5740,10 +5761,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5751,10 +5772,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5762,10 +5783,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5773,10 +5794,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5784,10 +5805,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5795,10 +5816,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5806,10 +5827,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5817,10 +5838,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5828,10 +5849,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5839,15 +5860,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -5855,15 +5876,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -5871,39 +5892,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -5911,25 +5932,25 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
@@ -5937,12 +5958,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -5950,7 +5971,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -5958,15 +5979,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -5974,10 +5995,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -5985,7 +6006,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5993,33 +6014,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -6027,33 +6048,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -6061,22 +6082,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -6095,15 +6116,15 @@
         <v>45374</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>185</v>
@@ -6111,10 +6132,10 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -6122,7 +6143,7 @@
         <v>45375</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>106</v>
@@ -6130,15 +6151,15 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>110</v>
@@ -6149,10 +6170,10 @@
         <v>45377</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -6160,7 +6181,7 @@
         <v>45380</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>276</v>
@@ -6168,15 +6189,15 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>276</v>
@@ -6184,10 +6205,10 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -6195,7 +6216,7 @@
         <v>45381</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>106</v>
@@ -6203,15 +6224,15 @@
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>106</v>
@@ -6219,18 +6240,18 @@
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="72" spans="2:4">
@@ -6238,7 +6259,7 @@
         <v>290</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -6246,15 +6267,15 @@
         <v>45388</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>162</v>
@@ -6262,23 +6283,23 @@
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>106</v>
@@ -6286,23 +6307,23 @@
     </row>
     <row r="78" spans="2:4">
       <c r="B78" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>106</v>
@@ -6313,23 +6334,23 @@
         <v>45389</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="82" spans="2:4">
       <c r="B82" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="83" spans="2:4">
       <c r="B83" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>276</v>
@@ -6337,23 +6358,23 @@
     </row>
     <row r="84" spans="2:4">
       <c r="B84" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="85" spans="2:4">
       <c r="B85" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>91</v>
@@ -6361,10 +6382,10 @@
     </row>
     <row r="87" spans="2:4">
       <c r="B87" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -6372,39 +6393,39 @@
         <v>45390</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="90" spans="2:4">
       <c r="B90" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="91" spans="2:4">
       <c r="B91" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>245</v>
@@ -6415,74 +6436,74 @@
         <v>45391</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="94" spans="2:4">
       <c r="B94" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="95" spans="2:4">
       <c r="B95" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="96" spans="2:4">
       <c r="B96" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="4" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -6490,26 +6511,26 @@
         <v>45392</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -6517,28 +6538,28 @@
         <v>45410</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="B108" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -6546,7 +6567,7 @@
         <v>45411</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>106</v>
@@ -6554,10 +6575,10 @@
     </row>
     <row r="110" spans="2:4">
       <c r="B110" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -6565,18 +6586,18 @@
         <v>45421</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="112" spans="2:4">
       <c r="B112" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -6584,67 +6605,67 @@
         <v>45424</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -6798,16 +6819,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6815,10 +6836,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6826,10 +6847,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -6840,10 +6861,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6851,10 +6872,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6862,10 +6883,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6873,13 +6894,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6887,10 +6908,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6898,10 +6919,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -6912,10 +6933,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6923,10 +6944,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6934,10 +6955,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6945,10 +6966,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6956,10 +6977,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6967,10 +6988,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6978,10 +6999,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -6992,10 +7013,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7003,10 +7024,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7014,10 +7035,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7025,10 +7046,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7036,10 +7057,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7047,10 +7068,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7058,10 +7079,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7069,10 +7090,10 @@
         <v>45359</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7080,10 +7101,10 @@
         <v>45360</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7091,10 +7112,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7102,10 +7123,10 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7113,10 +7134,10 @@
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -7127,10 +7148,10 @@
         <v>45367</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7138,10 +7159,10 @@
         <v>45374</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7149,10 +7170,10 @@
         <v>45375</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="32" ht="20.25" spans="1:3">
@@ -7160,10 +7181,10 @@
         <v>45379</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -7171,10 +7192,10 @@
         <v>45381</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -7182,10 +7203,10 @@
         <v>45382</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -7193,10 +7214,10 @@
         <v>45388</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -7204,10 +7225,10 @@
         <v>45388</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -7215,10 +7236,10 @@
         <v>45389</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -7226,10 +7247,10 @@
         <v>45390</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -7237,10 +7258,10 @@
         <v>45391</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -7248,10 +7269,10 @@
         <v>45391</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -7262,10 +7283,10 @@
         <v>45392</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -7273,10 +7294,10 @@
         <v>45395</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -7284,10 +7305,10 @@
         <v>45393</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -7295,10 +7316,10 @@
         <v>45400</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -7306,10 +7327,10 @@
         <v>45407</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -7317,10 +7338,10 @@
         <v>45410</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -7328,10 +7349,10 @@
         <v>45411</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -7339,10 +7360,10 @@
         <v>45414</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7350,10 +7371,10 @@
         <v>45417</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -7361,10 +7382,10 @@
         <v>45422</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -7372,10 +7393,10 @@
         <v>45424</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -7383,10 +7404,10 @@
         <v>45424</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="631">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -1132,6 +1132,9 @@
   </si>
   <si>
     <t>动态求树的直径</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/105139/problem/I</t>
   </si>
   <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
@@ -2938,10 +2941,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT156"/>
+  <dimension ref="A1:AT157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="A157" sqref="A157"/>
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5441,6 +5444,20 @@
         <v>361</v>
       </c>
       <c r="E156" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="3">
+        <v>45427</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E157" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5621,6 +5638,7 @@
     <hyperlink ref="B154" r:id="rId164" display="https://ac.nowcoder.com/acm/contest/81509/E"/>
     <hyperlink ref="B155" r:id="rId165" display="https://ac.nowcoder.com/acm/contest/80743/F"/>
     <hyperlink ref="B156" r:id="rId166" display="https://www.luogu.com.cn/problem/P10238"/>
+    <hyperlink ref="B157" r:id="rId167" display="https://codeforces.com/gym/105139/problem/I"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5673,10 +5691,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -5684,10 +5702,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>364</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -5695,10 +5713,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -5706,7 +5724,7 @@
         <v>45311</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>276</v>
@@ -5717,10 +5735,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5728,10 +5746,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5739,7 +5757,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -5750,10 +5768,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5761,10 +5779,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5772,10 +5790,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5783,10 +5801,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5794,10 +5812,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5805,10 +5823,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5816,10 +5834,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5827,10 +5845,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5838,10 +5856,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5849,10 +5867,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5860,15 +5878,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -5876,15 +5894,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -5892,39 +5910,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -5932,25 +5950,25 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
@@ -5958,12 +5976,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -5971,7 +5989,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -5979,15 +5997,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -5995,10 +6013,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -6006,7 +6024,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -6014,33 +6032,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -6048,33 +6066,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -6082,22 +6100,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -6116,15 +6134,15 @@
         <v>45374</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>185</v>
@@ -6132,10 +6150,10 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -6143,7 +6161,7 @@
         <v>45375</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>106</v>
@@ -6151,15 +6169,15 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>110</v>
@@ -6170,10 +6188,10 @@
         <v>45377</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -6181,7 +6199,7 @@
         <v>45380</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>276</v>
@@ -6189,15 +6207,15 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>276</v>
@@ -6205,10 +6223,10 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -6216,7 +6234,7 @@
         <v>45381</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>106</v>
@@ -6224,15 +6242,15 @@
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>106</v>
@@ -6240,18 +6258,18 @@
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="72" spans="2:4">
@@ -6259,7 +6277,7 @@
         <v>290</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -6267,15 +6285,15 @@
         <v>45388</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>162</v>
@@ -6283,23 +6301,23 @@
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>106</v>
@@ -6307,23 +6325,23 @@
     </row>
     <row r="78" spans="2:4">
       <c r="B78" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>106</v>
@@ -6334,23 +6352,23 @@
         <v>45389</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="82" spans="2:4">
       <c r="B82" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="83" spans="2:4">
       <c r="B83" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>276</v>
@@ -6358,23 +6376,23 @@
     </row>
     <row r="84" spans="2:4">
       <c r="B84" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="85" spans="2:4">
       <c r="B85" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>91</v>
@@ -6382,10 +6400,10 @@
     </row>
     <row r="87" spans="2:4">
       <c r="B87" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -6393,39 +6411,39 @@
         <v>45390</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="90" spans="2:4">
       <c r="B90" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="91" spans="2:4">
       <c r="B91" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>245</v>
@@ -6436,74 +6454,74 @@
         <v>45391</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="94" spans="2:4">
       <c r="B94" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="95" spans="2:4">
       <c r="B95" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="96" spans="2:4">
       <c r="B96" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -6511,26 +6529,26 @@
         <v>45392</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -6538,28 +6556,28 @@
         <v>45410</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="B108" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -6567,7 +6585,7 @@
         <v>45411</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>106</v>
@@ -6575,10 +6593,10 @@
     </row>
     <row r="110" spans="2:4">
       <c r="B110" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -6586,18 +6604,18 @@
         <v>45421</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="112" spans="2:4">
       <c r="B112" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -6605,67 +6623,67 @@
         <v>45424</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -6819,16 +6837,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6836,10 +6854,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6847,10 +6865,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -6861,10 +6879,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6872,10 +6890,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6883,10 +6901,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6894,13 +6912,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6908,10 +6926,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6919,10 +6937,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -6933,10 +6951,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6944,10 +6962,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6955,10 +6973,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6966,10 +6984,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6977,10 +6995,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6988,10 +7006,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6999,10 +7017,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -7013,10 +7031,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7024,10 +7042,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7035,10 +7053,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7046,10 +7064,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7057,10 +7075,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7068,10 +7086,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7079,10 +7097,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7090,10 +7108,10 @@
         <v>45359</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7101,10 +7119,10 @@
         <v>45360</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7112,10 +7130,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7123,10 +7141,10 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7134,10 +7152,10 @@
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -7148,10 +7166,10 @@
         <v>45367</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7159,10 +7177,10 @@
         <v>45374</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7170,10 +7188,10 @@
         <v>45375</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="32" ht="20.25" spans="1:3">
@@ -7181,10 +7199,10 @@
         <v>45379</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -7192,10 +7210,10 @@
         <v>45381</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -7203,10 +7221,10 @@
         <v>45382</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -7214,10 +7232,10 @@
         <v>45388</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -7225,10 +7243,10 @@
         <v>45388</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -7236,10 +7254,10 @@
         <v>45389</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -7247,10 +7265,10 @@
         <v>45390</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -7258,10 +7276,10 @@
         <v>45391</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -7269,10 +7287,10 @@
         <v>45391</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -7283,10 +7301,10 @@
         <v>45392</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -7294,10 +7312,10 @@
         <v>45395</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -7305,10 +7323,10 @@
         <v>45393</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -7316,10 +7334,10 @@
         <v>45400</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -7327,10 +7345,10 @@
         <v>45407</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -7338,10 +7356,10 @@
         <v>45410</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -7349,10 +7367,10 @@
         <v>45411</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -7360,10 +7378,10 @@
         <v>45414</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7371,10 +7389,10 @@
         <v>45417</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -7382,10 +7400,10 @@
         <v>45422</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -7393,10 +7411,10 @@
         <v>45424</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -7404,10 +7422,10 @@
         <v>45424</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$3:$E$127</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="640">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -1137,6 +1137,27 @@
     <t>https://codeforces.com/gym/105139/problem/I</t>
   </si>
   <si>
+    <t>https://codeforces.com/gym/105167/problem/A</t>
+  </si>
+  <si>
+    <t>lca</t>
+  </si>
+  <si>
+    <t>1WA，模版部分打错</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1973/problem/C</t>
+  </si>
+  <si>
+    <t>构造，贪心</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1973/problem/D</t>
+  </si>
+  <si>
+    <t>暴力，交互</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
   </si>
   <si>
@@ -1624,6 +1645,12 @@
   </si>
   <si>
     <t>https://ac.nowcoder.com/acm/contest/81509/J</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/105167/problem/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/gym/102431/problem/I</t>
   </si>
   <si>
     <t>时间</t>
@@ -2941,10 +2968,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT157"/>
+  <dimension ref="A1:AT160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+      <selection activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5458,6 +5485,48 @@
         <v>361</v>
       </c>
       <c r="E157" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="3">
+        <v>45428</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E158" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="3">
+        <v>45429</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E159" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="3">
+        <v>45430</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E160" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5639,6 +5708,9 @@
     <hyperlink ref="B155" r:id="rId165" display="https://ac.nowcoder.com/acm/contest/80743/F"/>
     <hyperlink ref="B156" r:id="rId166" display="https://www.luogu.com.cn/problem/P10238"/>
     <hyperlink ref="B157" r:id="rId167" display="https://codeforces.com/gym/105139/problem/I"/>
+    <hyperlink ref="B158" r:id="rId168" display="https://codeforces.com/gym/105167/problem/A"/>
+    <hyperlink ref="B160" r:id="rId169" display="https://codeforces.com/contest/1973/problem/D"/>
+    <hyperlink ref="B159" r:id="rId170" display="https://codeforces.com/contest/1973/problem/C"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5649,10 +5721,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5691,10 +5763,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -5702,10 +5774,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -5713,10 +5785,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -5724,7 +5796,7 @@
         <v>45311</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>276</v>
@@ -5735,10 +5807,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5746,10 +5818,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5757,7 +5829,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -5768,10 +5840,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5779,10 +5851,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5790,10 +5862,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5801,10 +5873,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5812,10 +5884,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5823,10 +5895,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5834,10 +5906,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5845,10 +5917,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5856,10 +5928,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5867,10 +5939,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5878,15 +5950,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="2" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -5894,15 +5966,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="2" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="2" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -5910,39 +5982,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="2" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="2" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="2" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="2" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="2" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -5950,25 +6022,25 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="2" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="2" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="2" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="2" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
@@ -5976,12 +6048,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="2" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -5989,7 +6061,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="2" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -5997,15 +6069,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="2" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="2" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -6013,10 +6085,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="2" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -6024,7 +6096,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -6032,33 +6104,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="2" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="2" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="2" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="2" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -6066,33 +6138,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="2" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="2" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="2" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="2" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -6100,22 +6172,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="2" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="2" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="2" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -6134,15 +6206,15 @@
         <v>45374</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="2" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>185</v>
@@ -6150,10 +6222,10 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="2" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -6161,7 +6233,7 @@
         <v>45375</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>106</v>
@@ -6169,15 +6241,15 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="2" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="2" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>110</v>
@@ -6188,10 +6260,10 @@
         <v>45377</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -6199,7 +6271,7 @@
         <v>45380</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>276</v>
@@ -6207,15 +6279,15 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="2" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="2" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>276</v>
@@ -6223,10 +6295,10 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="2" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -6234,7 +6306,7 @@
         <v>45381</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>106</v>
@@ -6242,15 +6314,15 @@
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="4" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="2" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>106</v>
@@ -6258,18 +6330,18 @@
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="2" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="2" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="72" spans="2:4">
@@ -6277,7 +6349,7 @@
         <v>290</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -6285,15 +6357,15 @@
         <v>45388</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="2" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>162</v>
@@ -6301,23 +6373,23 @@
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="2" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="2" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" s="2" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>106</v>
@@ -6325,23 +6397,23 @@
     </row>
     <row r="78" spans="2:4">
       <c r="B78" s="2" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" s="2" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" s="2" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>106</v>
@@ -6352,23 +6424,23 @@
         <v>45389</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="82" spans="2:4">
       <c r="B82" s="2" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="83" spans="2:4">
       <c r="B83" s="2" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>276</v>
@@ -6376,23 +6448,23 @@
     </row>
     <row r="84" spans="2:4">
       <c r="B84" s="2" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="85" spans="2:4">
       <c r="B85" s="2" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" s="2" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>91</v>
@@ -6400,10 +6472,10 @@
     </row>
     <row r="87" spans="2:4">
       <c r="B87" s="2" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -6411,39 +6483,39 @@
         <v>45390</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" s="2" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="90" spans="2:4">
       <c r="B90" s="2" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="91" spans="2:4">
       <c r="B91" s="2" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" s="2" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>245</v>
@@ -6454,74 +6526,74 @@
         <v>45391</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="94" spans="2:4">
       <c r="B94" s="2" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="95" spans="2:4">
       <c r="B95" s="2" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="96" spans="2:4">
       <c r="B96" s="2" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97" s="2" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98" s="2" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99" s="2" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="100" spans="2:4">
       <c r="B100" s="2" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="101" spans="2:4">
       <c r="B101" s="4" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -6529,26 +6601,26 @@
         <v>45392</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="103" spans="2:4">
       <c r="B103" s="2" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
     <row r="104" spans="2:4">
       <c r="B104" s="2" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -6556,28 +6628,28 @@
         <v>45410</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="2" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="107" spans="2:4">
       <c r="B107" s="2" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="108" spans="2:4">
       <c r="B108" s="2" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -6585,7 +6657,7 @@
         <v>45411</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>106</v>
@@ -6593,10 +6665,10 @@
     </row>
     <row r="110" spans="2:4">
       <c r="B110" s="2" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -6604,18 +6676,18 @@
         <v>45421</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
     </row>
     <row r="112" spans="2:4">
       <c r="B112" s="2" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -6623,71 +6695,87 @@
         <v>45424</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="2" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="2" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="2" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" s="2" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="2" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="2" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="2" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="2" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="2" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="2" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="2" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="2" t="s">
-        <v>525</v>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="3">
+        <v>45428</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4">
+      <c r="B127" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E125">
+  <autoFilter ref="A3:E127">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -6810,6 +6898,8 @@
     <hyperlink ref="B122" r:id="rId117" display="https://ac.nowcoder.com/acm/contest/81509/G"/>
     <hyperlink ref="B124" r:id="rId118" display="https://ac.nowcoder.com/acm/contest/81509/H"/>
     <hyperlink ref="B125" r:id="rId119" display="https://ac.nowcoder.com/acm/contest/81509/J"/>
+    <hyperlink ref="B126" r:id="rId120" display="https://codeforces.com/gym/105167/problem/B" tooltip="https://codeforces.com/gym/105167/problem/B"/>
+    <hyperlink ref="B127" r:id="rId121" display="https://codeforces.com/gym/102431/problem/I"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6837,16 +6927,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6854,10 +6944,10 @@
         <v>45274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6865,10 +6955,10 @@
         <v>45277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -6879,10 +6969,10 @@
         <v>45281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6890,10 +6980,10 @@
         <v>45284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6901,10 +6991,10 @@
         <v>45324</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6912,13 +7002,13 @@
         <v>45327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6926,10 +7016,10 @@
         <v>45329</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6937,10 +7027,10 @@
         <v>45340</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -6951,10 +7041,10 @@
         <v>45341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6962,10 +7052,10 @@
         <v>45342</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6973,10 +7063,10 @@
         <v>45343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6984,10 +7074,10 @@
         <v>45344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6995,10 +7085,10 @@
         <v>45345</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7006,10 +7096,10 @@
         <v>45345</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7017,10 +7107,10 @@
         <v>45347</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -7031,10 +7121,10 @@
         <v>45349</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7042,10 +7132,10 @@
         <v>45351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7053,10 +7143,10 @@
         <v>45351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7064,10 +7154,10 @@
         <v>45352</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7075,10 +7165,10 @@
         <v>45352</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7086,10 +7176,10 @@
         <v>45354</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7097,10 +7187,10 @@
         <v>45357</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7108,10 +7198,10 @@
         <v>45359</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7119,10 +7209,10 @@
         <v>45360</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7130,10 +7220,10 @@
         <v>45360</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7141,10 +7231,10 @@
         <v>45361</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7152,10 +7242,10 @@
         <v>45362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -7166,10 +7256,10 @@
         <v>45367</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7177,10 +7267,10 @@
         <v>45374</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7188,10 +7278,10 @@
         <v>45375</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
     </row>
     <row r="32" ht="20.25" spans="1:3">
@@ -7199,10 +7289,10 @@
         <v>45379</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -7210,10 +7300,10 @@
         <v>45381</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -7221,10 +7311,10 @@
         <v>45382</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -7232,10 +7322,10 @@
         <v>45388</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -7243,10 +7333,10 @@
         <v>45388</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -7254,10 +7344,10 @@
         <v>45389</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -7265,10 +7355,10 @@
         <v>45390</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -7276,10 +7366,10 @@
         <v>45391</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -7287,10 +7377,10 @@
         <v>45391</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -7301,10 +7391,10 @@
         <v>45392</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -7312,10 +7402,10 @@
         <v>45395</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -7323,10 +7413,10 @@
         <v>45393</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -7334,10 +7424,10 @@
         <v>45400</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -7345,10 +7435,10 @@
         <v>45407</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -7356,10 +7446,10 @@
         <v>45410</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -7367,10 +7457,10 @@
         <v>45411</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -7378,10 +7468,10 @@
         <v>45414</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7389,10 +7479,10 @@
         <v>45417</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -7400,10 +7490,10 @@
         <v>45422</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -7411,10 +7501,10 @@
         <v>45424</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -7422,10 +7512,10 @@
         <v>45424</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>

--- a/做题记录.xlsx
+++ b/做题记录.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="660">
   <si>
     <t>水题在Sheet2</t>
   </si>
@@ -1158,6 +1158,36 @@
     <t>暴力，交互</t>
   </si>
   <si>
+    <t>https://acm.ecnu.edu.cn/contest/819/problem/C/</t>
+  </si>
+  <si>
+    <t>https://acm.ecnu.edu.cn/contest/819/problem/D/</t>
+  </si>
+  <si>
+    <t>树状数组，离散化</t>
+  </si>
+  <si>
+    <t>https://acm.ecnu.edu.cn/contest/819/problem/G/</t>
+  </si>
+  <si>
+    <t>回文树</t>
+  </si>
+  <si>
+    <t>https://acm.ecnu.edu.cn/contest/819/problem/I/</t>
+  </si>
+  <si>
+    <t>背包</t>
+  </si>
+  <si>
+    <t>1RE 询问数组开小。</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/82394/F</t>
+  </si>
+  <si>
+    <t>组合数学</t>
+  </si>
+  <si>
     <t>https://atcoder.jp/contests/abc337/tasks/abc337_a</t>
   </si>
   <si>
@@ -1344,9 +1374,6 @@
     <t>https://atcoder.jp/contests/abc344/tasks/abc344_d</t>
   </si>
   <si>
-    <t>背包</t>
-  </si>
-  <si>
     <t>https://atcoder.jp/contests/abc344/tasks/abc344_e</t>
   </si>
   <si>
@@ -1651,6 +1678,39 @@
   </si>
   <si>
     <t>https://codeforces.com/gym/102431/problem/I</t>
+  </si>
+  <si>
+    <t>https://acm.ecnu.edu.cn/contest/819/problem/F/</t>
+  </si>
+  <si>
+    <t>https://acm.ecnu.edu.cn/contest/819/problem/B/</t>
+  </si>
+  <si>
+    <t>解方程</t>
+  </si>
+  <si>
+    <t>https://acm.ecnu.edu.cn/contest/819/problem/J/</t>
+  </si>
+  <si>
+    <t>递归</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/82394/A</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/82394/B</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/82394/C</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/82394/D</t>
+  </si>
+  <si>
+    <t>https://ac.nowcoder.com/acm/contest/82394/E</t>
+  </si>
+  <si>
+    <t>叉积</t>
   </si>
   <si>
     <t>时间</t>
@@ -2968,10 +3028,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AT160"/>
+  <dimension ref="A1:AT165"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="E160" sqref="E160"/>
+      <selection activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5527,6 +5587,76 @@
         <v>369</v>
       </c>
       <c r="E160" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="3">
+        <v>45431</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E161" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="3">
+        <v>45431</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E162" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="3">
+        <v>45431</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="3">
+        <v>45431</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E164" s="10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="3">
+        <v>45431</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E165" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5711,6 +5841,11 @@
     <hyperlink ref="B158" r:id="rId168" display="https://codeforces.com/gym/105167/problem/A"/>
     <hyperlink ref="B160" r:id="rId169" display="https://codeforces.com/contest/1973/problem/D"/>
     <hyperlink ref="B159" r:id="rId170" display="https://codeforces.com/contest/1973/problem/C"/>
+    <hyperlink ref="B161" r:id="rId171" display="https://acm.ecnu.edu.cn/contest/819/problem/C/"/>
+    <hyperlink ref="B162" r:id="rId172" display="https://acm.ecnu.edu.cn/contest/819/problem/D/"/>
+    <hyperlink ref="B163" r:id="rId173" display="https://acm.ecnu.edu.cn/contest/819/problem/G/"/>
+    <hyperlink ref="B164" r:id="rId174" display="https://acm.ecnu.edu.cn/contest/819/problem/I/"/>
+    <hyperlink ref="B165" r:id="rId175" display="https://ac.nowcoder.com/acm/contest/82394/F"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5721,10 +5856,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5763,10 +5898,10 @@
         <v>45311</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16" customHeight="1" spans="1:4">
@@ -5774,10 +5909,10 @@
         <v>45311</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
@@ -5785,10 +5920,10 @@
         <v>45311</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
@@ -5796,7 +5931,7 @@
         <v>45311</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>276</v>
@@ -5807,10 +5942,10 @@
         <v>45318</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5818,10 +5953,10 @@
         <v>45318</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5829,7 +5964,7 @@
         <v>45318</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>106</v>
@@ -5840,10 +5975,10 @@
         <v>45318</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5851,10 +5986,10 @@
         <v>45318</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5862,10 +5997,10 @@
         <v>45318</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5873,10 +6008,10 @@
         <v>45318</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5884,10 +6019,10 @@
         <v>45322</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5895,10 +6030,10 @@
         <v>45322</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5906,10 +6041,10 @@
         <v>45323</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5917,10 +6052,10 @@
         <v>45323</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5928,10 +6063,10 @@
         <v>45325</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5939,10 +6074,10 @@
         <v>45325</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5950,15 +6085,15 @@
         <v>45325</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="2" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>106</v>
@@ -5966,15 +6101,15 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="2" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="2" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>106</v>
@@ -5982,39 +6117,39 @@
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="2" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="2" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="2" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="2" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="2" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>85</v>
@@ -6022,25 +6157,25 @@
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="2" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="2" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="2" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="2" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>245</v>
@@ -6048,12 +6183,12 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="2" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>185</v>
@@ -6061,7 +6196,7 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="2" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>85</v>
@@ -6069,15 +6204,15 @@
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="2" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="2" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>162</v>
@@ -6085,10 +6220,10 @@
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="2" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -6096,7 +6231,7 @@
         <v>45357</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -6104,33 +6239,33 @@
         <v>45357</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="2" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="2" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="2" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="2" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -6138,33 +6273,33 @@
         <v>45360</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="2" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="2" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="2" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>432</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="2" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -6172,22 +6307,22 @@
         <v>45362</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="2" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="2" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="2" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>162</v>
@@ -6206,15 +6341,15 @@
         <v>45374</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="2" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>185</v>
@@ -6222,10 +6357,10 @@
     </row>
     <row r="58" spans="2:4">
       <c r="B58" s="2" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -6233,7 +6368,7 @@
         <v>45375</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>106</v>
@@ -6241,15 +6376,15 @@
     </row>
     <row r="60" spans="2:4">
       <c r="B60" s="2" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="2" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>110</v>
@@ -6260,10 +6395,10 @@
         <v>45377</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -6271,7 +6406,7 @@
         <v>45380</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>276</v>
@@ -6279,15 +6414,15 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="2" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="2" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>276</v>
@@ -6295,10 +6430,10 @@
     </row>
     <row r="66" spans="2:4">
       <c r="B66" s="2" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -6306,7 +6441,7 @@
         <v>45381</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>106</v>
@@ -6314,15 +6449,15 @@
     </row>
     <row r="68" spans="2:4">
       <c r="B68" s="4" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" s="2" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>106</v>
@@ -6330,18 +6465,18 @@
     </row>
     <row r="70" spans="2:4">
       <c r="B70" s="2" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" s="2" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
     </row>
     <row r="72" spans="2:4">
@@ -6349,7 +6484,7 @@
         <v>290</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -6357,15 +6492,15 @@
         <v>